--- a/excel_stats/statistics_third_metric_prompt.xlsx
+++ b/excel_stats/statistics_third_metric_prompt.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -72,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,19 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:D102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
-  <cols>
-    <col width="53.3046875" customWidth="1" min="1" max="1"/>
-    <col width="58.61328125" customWidth="1" min="2" max="2"/>
-    <col width="46.3828125" customWidth="1" min="3" max="3"/>
-    <col width="62.61328125" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -457,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Enhanced Text</t>
+          <t>Simplified Text</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -467,15 +451,34 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Readability Enhanced</t>
+          <t>Readability Simplified</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Words Original</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Words Simplified</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences Original</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences Simplified</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Corrected text:
-Finite state automata is a simple concept in well-established theory of computation. Finite state automata is an established set of algorithms to solve relevant problems such as minimization in comparison to others. For reference, see examples in standard monographs on the subject.
+          <t>Finite state automata is a simple concept in well-established theory of computation. Finite state automata is an established set of algorithms to solve relevant problems such as minimization in comparison to others. For reference, see examples in standard monographs on the subject.
 One word problem in finitely generated semigroups, monoids, and groups is the decision problem of whether two strings of generators represent the same element. This defines two distinct natural classes of semigroups: the class of semigroups (regular word problem) and the class of semigroups (rational word problem).
 Deterministic synchronous two-tape finite state automata are where at every step, exactly one symbol is read from each tape. Rational word problems are decided asynchronously by two-tape automata where at every step, one symbol is read from each tape. The class of semigroups with regular word problem is a subclass of the class of semigroups with rational word problem. A proposition is given to provide an example of a semigroup with a rational word problem and a regular word problem. The notions of regular and rational languages are well-established in literature.
 The notion of a regular language is commonly used for rational subsets of free monoids, while the notion of a rational subset is applicable to monoids and semigroups in general. An example and reference on group word problems in formal language theory are extensively researched, yielding strong structural results. Two relevant results are referenced: Anisimov's characterization of groups with a regular word problem and the characterization of groups with a context-free word problem.
@@ -493,8 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simplified text:
-Finite state automata are algorithms used in computation theory to solve problems like minimization. Examples can be found in standard books on the subject.
+          <t>Finite state automata are algorithms used in computation theory to solve problems like minimization. Examples can be found in standard books on the subject.
 In semigroups, monoids, and groups, a common problem is determining if two generators represent the same element, creating regular and rational classes of semigroups.
 Deterministic synchronous two-tape finite state automata read one symbol from each tape at every step. Rational word problems are solved by two-tape automata reading one symbol from each tape at each step. Regular word problems are a subset of rational word problems in semigroups.
 Regular and rational languages are well-known concepts. Regular languages are rational subsets of free monoids, while rational subsets apply to monoids and semigroups.
@@ -505,17 +507,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.39491015611046</v>
+        <v>11.36900634249472</v>
       </c>
       <c r="D2" t="n">
-        <v>12.00948717948718</v>
+        <v>11.95348837209302</v>
+      </c>
+      <c r="E2" t="n">
+        <v>649</v>
+      </c>
+      <c r="F2" t="n">
+        <v>258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Corrected text:
-Given a matrix game, we are interested in the following question: What is the smallest nonzero probability that must be used in optimal strategies? The quantity of the smallest nonzero probability strategy is first considered in the context of recursive games, stochastic games where payoffs are accumulated in absorbing states. Everett precisely defined the smallest nonzero probability as the probability vector, say ε. Patience is noteprecisely expected to be the number of times one must be sampled in order to observe the least likely outcome. There is also a lower bound on the number of random bits required in order to sample using source uniform random bits. In a paper studying the patience required in playing optimal strategies in matrix games, the focus is on a quantity that depends on the dimensions of the matrix game, rather than individual payoffs. In particular, they consider win-lose and win-lose-draw matrix games. The model for win-lose games uses matrices, win-lose-draw matrices, and matrices. Note that win-lose games' choice of matrices is a consequence: the set of optimal strategies is invariant to the addition of a positive number or multiplication by a positive number applied simultaneously to every entry in the matrix. In particular, equivalently, the model for win-lose matrix games uses matrices to prove upper and lower bounds on the patience required in playing optimal strategies for two classes of matrix games. The lower bounds are built on previous constructions with ill-conditioned matrices. In particular, they show an ill-conditioned matrix in a matrix game derived from patience, with the least size and largest entry in the inverse. This question is seen as yet another application of ill-conditioned matrices. The downside of the connection to the algorithm computing the derived matrix game given an ill-conditioned matrix as input is addressed by constructing a variant of an ill-conditioned matrix constructed alone. The study details the structure of the inverse matrix to use in constructing an ill-conditioned matrix with a nonnegative inverse. This allows for an explicit construction of win-lose matrices with high patience. This construction is referred to as fully explicit, meaning every entry in the matrix can be computed in polynomial time in the bit length of the matrix's dimensions. Patience behaves differently in matrix games compared to the original setting of recursive games. In recursive games, optimal strategies are guaranteed to exist; on the other hand, for every player, stationary strategies guarantee an expected payoff within the value of the game at the starting position. However, there exist recursive games where some positions or actions have every payoff at least 0 or 1. In this setting, patience is always sufficient for an optimal strategy in recursive games for every payoff between 0 and 1. 
+          <t>Given a matrix game, we are interested in the following question: What is the smallest nonzero probability that must be used in optimal strategies? The quantity of the smallest nonzero probability strategy is first considered in the context of recursive games, stochastic games where payoffs are accumulated in absorbing states. Everett precisely defined the smallest nonzero probability as the probability vector, say ε. Patience is noteprecisely expected to be the number of times one must be sampled in order to observe the least likely outcome. There is also a lower bound on the number of random bits required in order to sample using source uniform random bits. In a paper studying the patience required in playing optimal strategies in matrix games, the focus is on a quantity that depends on the dimensions of the matrix game, rather than individual payoffs. In particular, they consider win-lose and win-lose-draw matrix games. The model for win-lose games uses matrices, win-lose-draw matrices, and matrices. Note that win-lose games' choice of matrices is a consequence: the set of optimal strategies is invariant to the addition of a positive number or multiplication by a positive number applied simultaneously to every entry in the matrix. In particular, equivalently, the model for win-lose matrix games uses matrices to prove upper and lower bounds on the patience required in playing optimal strategies for two classes of matrix games. The lower bounds are built on previous constructions with ill-conditioned matrices. In particular, they show an ill-conditioned matrix in a matrix game derived from patience, with the least size and largest entry in the inverse. This question is seen as yet another application of ill-conditioned matrices. The downside of the connection to the algorithm computing the derived matrix game given an ill-conditioned matrix as input is addressed by constructing a variant of an ill-conditioned matrix constructed alone. The study details the structure of the inverse matrix to use in constructing an ill-conditioned matrix with a nonnegative inverse. This allows for an explicit construction of win-lose matrices with high patience. This construction is referred to as fully explicit, meaning every entry in the matrix can be computed in polynomial time in the bit length of the matrix's dimensions. Patience behaves differently in matrix games compared to the original setting of recursive games. In recursive games, optimal strategies are guaranteed to exist; on the other hand, for every player, stationary strategies guarantee an expected payoff within the value of the game at the starting position. However, there exist recursive games where some positions or actions have every payoff at least 0 or 1. In this setting, patience is always sufficient for an optimal strategy in recursive games for every payoff between 0 and 1. 
 Considering the setting of matrix games, Lipton and Young proved that in a zero-sum matrix game, payoffs belong to an interval. For player i, a simple strategy guarantees an expected payoff within the value of the game. A simple strategy involves mixing uniformly over a multiset of actions. Thus, patience in strategies is also in words. When comparing results, if one is willing to give a payoff ε, one must play with patience smaller in exponential magnitude required for playing truly optimally. 
 Stating results using standard matrix game terminology, we refer the reader to the section for explanations of the terminology. We define patience as a strategy with the smallest nonzero probability that assigns one of the actions. A patience strategy is min(x_i) given a matrix game. We define the patience required for player 1 to play optimally as the minimum patience of an optimal strategy. Similarly, we define for player 2 the largest patience required for optimal strategies in win-lose and win-lose-draw games. The function size of a matrix game is thus defined, and we define the maximum taken in matrix games similarly to the maximum taken in matrix games. Clearly, the definition would be unchanged considering rather howevershall also consider the patience required for players' optimal strategies. We define the maximum taken and n maximum taken in matrix games. This measures the patience in fact, closely related, as seen in section. 
 We are able to state results first using the theorem of Shapley-Snow for standard estimates of the magnitude of determinants to obtain the following basic upper bound on patience. Next, using previous results on ill-conditioned matrices, Alonv obtains the following non-explicit lower bound on patience. In the corollary section, we obtain results for win-lose matrix games as well. Our main contribution is an explicit construction of a matrix game satisfying a similar patience lower bound to the power of two. Furthermore, an algorithm is given with indices that compute the entry in the matrix witnessing the lower bound in time polynomial in the section. 
@@ -531,17 +544,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.77836005766572</v>
+        <v>12.75179697407615</v>
       </c>
       <c r="D3" t="n">
         <v>9.737260101010104</v>
       </c>
+      <c r="E3" t="n">
+        <v>827</v>
+      </c>
+      <c r="F3" t="n">
+        <v>198</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Corrected text:
-Advertising marketing messages attract potential customers to purchase products or subscribe to services. In addition, it is a way to establish a brand image through repeated presence in advertisements. Ads associated with brands are traditionally seen on television, radio, newspapers, magazines, billboards, among other major channels for ad placement. The advancement of the internet and the World Wide Web (www) enables users to seek information online. By using the internet and www, users are able to express information requests, navigate specific websites, and perform e-commerce transactions. Major search engines are continuously improving retrieval services to enhance users' browsing experience by providing relevant results. The internet and www have become a natural choice for advertisers to widen their strategies in reaching potential customers among web users. This phenomenon provides an opportunity for search engines to be a strategic platform for advertisers to place ads on the web. A view that a proportion of online users seeking specific products or services may click on ads. Currently, web advertising is seen as complementing, and it is believed that it may soon possibly dominate existing media as a preferred medium for placing ads.
+          <t>Advertising marketing messages attract potential customers to purchase products or subscribe to services. In addition, it is a way to establish a brand image through repeated presence in advertisements. Ads associated with brands are traditionally seen on television, radio, newspapers, magazines, billboards, among other major channels for ad placement. The advancement of the internet and the World Wide Web (www) enables users to seek information online. By using the internet and www, users are able to express information requests, navigate specific websites, and perform e-commerce transactions. Major search engines are continuously improving retrieval services to enhance users' browsing experience by providing relevant results. The internet and www have become a natural choice for advertisers to widen their strategies in reaching potential customers among web users. This phenomenon provides an opportunity for search engines to be a strategic platform for advertisers to place ads on the web. A view that a proportion of online users seeking specific products or services may click on ads. Currently, web advertising is seen as complementing, and it is believed that it may soon possibly dominate existing media as a preferred medium for placing ads.
 One of the major advantages of web advertising over traditional advertising media is that the former targets the user expressing information needs in the form of a query (e.g., "car rental"), and is more likely to respond to ads relevant to the query listed along organic search results. In comparison, ads in newspapers are preselected for display, even before readers pick up copies, making them less targeted and uniform for every reader. In addition, it is also easier to measure the success of advertising due to the lack of an effective feedback mechanism in conventional media. The revenue from internet advertising shows a positive trend, with reported search engines' revenues from search advertising (sponsored search) reaching $365 billion in 2006, surpassing the revenues earned the previous year. This upward trend in revenue indicates that the future of internet advertising looks promising.
 Please note that the term "internet advertising" used throughout this paper also refers to web advertising or online advertising, computational advertising. In subsequent sections, these terms are interchangeably used. Internet advertising has been around for a decade, with sponsored search as a paradigm created in 1998 by Bill Gross at Idealab, founding GoTo.com, which later became Overture in October 2001, and was acquired by Yahoo in 2003. Yahoo Search Marketing uses technology that matches ads to search results, making sponsored search on web search a necessary part of daily life and vastly reducing the difficulty and time associated with satisfying information needs.
 Sponsored search allows advertisers to buy certain keywords to promote their businesses to users who use search engines, contributing greatly to the free service. In 1998, the history of contextual advertising began with Oingo, started by Gilad Elbaz and Adam Weissman, who developed a proprietary search algorithm based on word meanings built upon an underlying lexicon called WordNet. Google acquired Oingo in April 2003 and renamed the system AdSense. Contextual ads do not necessarily run on search engines; they consist of a huge number of individual publishers and advertisers. One should also consider that sponsored search ads form contextual ads that match simple context queries, which was emphasized due to early development and the large market volume that caught warm research attention.
@@ -551,24 +575,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Simplified text:
-Advertising aims to attract customers to buy products or services and build brand image through consistent presence in ads. Brands traditionally advertise on TV, radio, newspapers, magazines, and billboards. The internet and World Wide Web (www) allow users to search, visit websites, and shop online. Search engines improve to provide relevant results for users. Advertisers use the internet to reach potential customers. Web ads can be more targeted than traditional ads, making measuring success easier. Internet advertising revenue has been increasing, indicating a promising future.
+          <t>Advertising aims to attract customers to buy products or services and build brand image through consistent presence in ads. Brands traditionally advertise on TV, radio, newspapers, magazines, and billboards. The internet and World Wide Web (www) allow users to search, visit websites, and shop online. Search engines improve to provide relevant results for users. Advertisers use the internet to reach potential customers. Web ads can be more targeted than traditional ads, making measuring success easier. Internet advertising revenue has been increasing, indicating a promising future.
 Internet advertising, also known as web or online advertising, has grown over the years. Sponsored search was introduced in 1998 by Bill Gross and has since evolved. Advertisers buy keywords to promote their businesses, contributing to search engine services. Contextual advertising started in 1998 and later evolved into platforms like AdSense. Ad exchanges emerged for real-time buying and selling of ad impressions.
 Internet advertising includes sponsored search, contextual ads, and branding ads, known as computational advertising. It involves using various technologies to match users with ads effectively. This field integrates microeconomics, information retrieval, and machine learning. Search engines strive to show relevant ads to users that align with their interests.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.20456423316356</v>
+        <v>15.1806949259376</v>
       </c>
       <c r="D4" t="n">
-        <v>11.51113765303076</v>
+        <v>11.45481146304676</v>
+      </c>
+      <c r="E4" t="n">
+        <v>835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>195</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corrected text:
-The permanent matrix Tutte polynomial is a central topic of study in counting algorithms, originally defined in the combinatorics literature. It aims to unify many enumeration problems, including immediate questions like computing the number of perfect matchings, spanning trees, forests, colorings, certain flows, and orientations in graphs. It also has less obvious connections to fields like knot theory and reliability polynomials in network theory. Importantly, the Ising and Potts models of statistical physics are defined by the permanent matrix, computed in time using the Tutte polynomial. 
+          <t>The permanent matrix Tutte polynomial is a central topic of study in counting algorithms, originally defined in the combinatorics literature. It aims to unify many enumeration problems, including immediate questions like computing the number of perfect matchings, spanning trees, forests, colorings, certain flows, and orientations in graphs. It also has less obvious connections to fields like knot theory and reliability polynomials in network theory. Importantly, the Ising and Potts models of statistical physics are defined by the permanent matrix, computed in time using the Tutte polynomial. 
 The Tutte polynomial is evaluated in exponential time in the number of edges. Problems involving it are famously P-hard, meaning the existence of polynomial-time algorithms is unlikely under standard complexity-theoretic assumptions. This implies resigning to brute force evaluation. In fact, Ryser's famous formula computes the permanent in arithmetic operations. Recently, an algorithm for running time on vertex graphs was also found for the Tutte polynomial. 
 Curiously, algorithms based on the inclusion-exclusion principle have shown promise to significantly improve these computations. This provides conditional lower bounds on the problems' clear hardness, right within a conceptual framework that claims to be unable to distinguish different types of super-polynomial time complexities. For example, the Tutte polynomial for planar graphs remains P-hard to compute in time. Therefore, Impagliazzo and Paturi's ETH (Exponential Time Hypothesis) complexity theoretic assumption of a hard problem, namely satisfiability of CNF formulas with variables, can be solved in time. Specifically, introducing CET (Counting Eth) as a counting analogue of ETH, models the hypothesis that counting satisfying assignments can be done in time.
 The permanent matrix, defined as a set of permutations reminiscent of determinants in linear algebra, is easily computable, with a sign for every summand. However, the small difference in the definition might seem trivial, but determinants and permanents are believed to be of vastly different computational calibers. Definitions involving summation terms have much faster algorithms; for instance, determinants can be computed in polynomial time using Gaussian elimination, while permanents are computed using operations by Ryser's formula. Yet, determinants seem exponentially easier to compute compared to permanents. Valiant's celebrated result in complexity theory, CC = P, shows that a polynomial-time algorithm akin to Gaussian elimination for the permanent exists unless several unconditional lower bounds on permanent restricted models of computation, also known as circuits, need multiplications to compute the permanent.
@@ -589,17 +623,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.03435326968114</v>
+        <v>14.01239570164349</v>
       </c>
       <c r="D5" t="n">
         <v>12.40420212765958</v>
       </c>
+      <c r="E5" t="n">
+        <v>791</v>
+      </c>
+      <c r="F5" t="n">
+        <v>188</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Corrected text:
-An arbitrary probability distribution over multiple variables has a parameter count that grows exponentially with the number of variables representing probabilities. Therefore, it is prohibitively costly. One common approach is to use graphical models to parameterize the distribution in terms of a smaller number of interactions. Consider an alternative approach: in many cases of interest, there are unknown states with high probabilities and the rest have negligible ones; this type of distribution is called 'sparse'. It has been shown that sufficiently sparse distributions can be described with a number of parameters that is merely linear in the number of variables. Recently, it has been generally thought that encoding sparse signals required a dense sampling rate greater than or equal to the signal bandwidth. However, recent findings prove that it is possible to fully characterize a signal with a rate limited by the bandwidth information content much smaller. This can be applied to compress sparse probability distributions over binary variables.
+          <t>An arbitrary probability distribution over multiple variables has a parameter count that grows exponentially with the number of variables representing probabilities. Therefore, it is prohibitively costly. One common approach is to use graphical models to parameterize the distribution in terms of a smaller number of interactions. Consider an alternative approach: in many cases of interest, there are unknown states with high probabilities and the rest have negligible ones; this type of distribution is called 'sparse'. It has been shown that sufficiently sparse distributions can be described with a number of parameters that is merely linear in the number of variables. Recently, it has been generally thought that encoding sparse signals required a dense sampling rate greater than or equal to the signal bandwidth. However, recent findings prove that it is possible to fully characterize a signal with a rate limited by the bandwidth information content much smaller. This can be applied to compress sparse probability distributions over binary variables.
 Signals with particular properties are considered in traditional compressive sensing. It considers signals living in a high-dimensional space with non-zero coordinates in a certain basis. If a signal is sparse and one is told the location of the non-zero entries, one would only need a few measurements to characterize the coefficients and thus the entire signal. Even if one doesn't know the entries, it still takes only a few linear measurements to perfectly reconstruct the signal. Furthermore, the measurements can be fixed in advance without knowledge of the signal's structure. Under certain conditions, excellent properties are guaranteed. The basic mathematical setup of compressive sensing follows this: assume a high-dimensional signal with non-zero coefficients and make linear measurements of the signal by applying a matrix. If one would like to recover the original signal from these measurements, certain conditions on the measurement matrix need to be met. The original signal can be found by computing the vector with minimal norm that reproduces the measurements. This is a powerful and practical result.
 The problem can be solved efficiently with compressive sensing, which is generally robust to two deviations from the ideal setup. First, the target signals may not be strictly sparse but may be 'compressible' in the sense that they can be well approximated by a sparse signal. Signals whose rank-ordered coefficients fall off at least as fast satisfy this property. Second, the measurements may be corrupted by noise of bounded amplitude. Under certain conditions, the error in the reconstructed signal is bounded by the error of the best sparse approximation plus a term proportional to the measurement noise.
 Several conditions used in compressive sensing guarantee good performance. Modulo various nuances, they essentially ensure that relevant sparse signals lie sufficiently far from the null space. It would be impossible to recover signals from the null space since the measurements are zero, and therefore they can be distinguished. A commonly used condition is the Restricted Isometry Property (RIP), which says that a matrix preserves the norms of sparse vectors within a factor that depends on the sparsity. If the RIP is small enough, the recovery is guaranteed to succeed. Random matrices, whose elements are independent identically distributed Gaussian or Bernoulli variates, satisfy the RIP as long as the number of measurements satisfies m ≥ c s log n, where c is a constant that depends on some factors.</t>
@@ -607,47 +652,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Simplified text:
-Probability distributions with many variables can be complex and costly to handle due to the large number of parameters needed to represent them. Graphical models offer a simpler way to describe these distributions with fewer interactions. Sparse distributions, where most states have low probabilities except for a few, can be effectively described with a small number of parameters. Recent research shows that signals can be fully characterized with fewer measurements than previously thought necessary, making it possible to compress sparse probability distributions efficiently.
+          <t>Probability distributions with many variables can be complex and costly to handle due to the large number of parameters needed to represent them. Graphical models offer a simpler way to describe these distributions with fewer interactions. Sparse distributions, where most states have low probabilities except for a few, can be effectively described with a small number of parameters. Recent research shows that signals can be fully characterized with fewer measurements than previously thought necessary, making it possible to compress sparse probability distributions efficiently.
 Compressive sensing deals with signals that are sparse in a high-dimensional space. By knowing the locations of non-zero entries in a signal, only a few measurements are needed to reconstruct the entire signal accurately. Even without this prior knowledge, a few linear measurements are usually sufficient for reconstruction. Compressive sensing relies on making linear measurements of a signal using a matrix, and under certain conditions, it can accurately recover the original signal from these measurements.
 Compressive sensing is robust and can handle signals that are not strictly sparse but compressible, meaning they can be approximated well by a sparse signal. It can also tolerate noise in the measurements within certain bounds. Conditions like the Restricted Isometry Property ensure good performance by guaranteeing that relevant signals are distinguishable from uninformative null spaces. Random matrices with specific properties can satisfy these conditions, ensuring successful signal recovery with an appropriate number of measurements.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.90346762589928</v>
+        <v>12.86903971119134</v>
       </c>
       <c r="D6" t="n">
-        <v>14.60808510638298</v>
+        <v>14.5442060085837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>233</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Corrected text:
-Edge diagonal mobile guards polygons have been studied extensively in the past. Avis and Toussaint considered the case where a single closed edge is sufficient to guard the entire polygon. Shortly after, Toussaint gave an example of a polygon whose smallest closed edge guard set was conjectured to be sufficient. O'Rourke showed that closed mobile guard sets of a certain size are sometimes necessary but always sufficient for polygons with closed diagonal guards. Shermer showed that guard sets of a certain size are necessary for polygons. A polygon requires a guard set of a certain size or greater. Recently, open edge guards were suggested by Viglietta, who showed that open edge guard sets of a certain size are sometimes necessary but always sufficient for simple polygons.
+          <t>Edge diagonal mobile guards polygons have been studied extensively in the past. Avis and Toussaint considered the case where a single closed edge is sufficient to guard the entire polygon. Shortly after, Toussaint gave an example of a polygon whose smallest closed edge guard set was conjectured to be sufficient. O'Rourke showed that closed mobile guard sets of a certain size are sometimes necessary but always sufficient for polygons with closed diagonal guards. Shermer showed that guard sets of a certain size are necessary for polygons. A polygon requires a guard set of a certain size or greater. Recently, open edge guards were suggested by Viglietta, who showed that open edge guard sets of a certain size are sometimes necessary but always sufficient for simple polygons.
 The study of hidden guards began, and Shermer provided several results, including examples of polygons that can be guarded using hidden vertex guards. The study of hidden edges was initiated recently, and Kranakis et al. showed that computing the largest hidden open edge set in a polygon, ignoring guarding, can be approximated within an arbitrarily small constant factor unless P = NP. Kosowoski et al. have seen another guard constraint opposite to hiddenness, which forbids a guard from seeing another guard to evaluate the existence of hidden edge diagonal mobile guard sets in simple polygon classes.
 A summary of the results can be seen in the table, including the type of simple, ortho, mono, and star polygons, where edge yes, open diagonal mobile yes, yes, yes, edge closed diagonal mobile.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Simplified text:
-In the past, researchers studied how to guard polygons efficiently. Different scenarios were explored, such as using a single closed edge to guard a whole polygon. Various researchers found that specific sizes of guard sets are needed and sufficient for guarding polygons with closed diagonal edges. Recently, there has been interest in using open edges for guarding, showing they can be effective for simple polygons.
+          <t>In the past, researchers studied how to guard polygons efficiently. Different scenarios were explored, such as using a single closed edge to guard a whole polygon. Various researchers found that specific sizes of guard sets are needed and sufficient for guarding polygons with closed diagonal edges. Recently, there has been interest in using open edges for guarding, showing they can be effective for simple polygons.
 Further studies focused on hidden guards, uncovering that certain guard arrangements are needed to protect polygons. Researchers also delved into hidden edges, finding ways to compute the largest hidden set within polygons. Different constraints were explored, like guards not being able to see each other, influencing guard strategies for different polygon types. Results of these studies are summarized in a table showing guard strategies for various types of polygons.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11.12660022148394</v>
+        <v>11.03908482142857</v>
       </c>
       <c r="D7" t="n">
-        <v>11.12686274509804</v>
+        <v>10.99875621890547</v>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>134</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Corrected text:
-Pervasive computing became a reality quite recently, mostly due to the rapid development of wireless networks and mobile devices. Mobile devices use wireless infrastructure to access point information services on the internet. This accessibility of information on the internet assures continued activity. Therefore, information can be accessed well. However, the results of services are dependent on someone requesting information at a defined moment. Today, smartphones have become important mobile devices for accessing the internet due to the feasibility of being connected to wireless networks together with an efficient processing unit. Besides universal phone calling and accessing information services, they also enable additional features such as the Global Positioning System (GPS), accelerometer, compass, etc.
+          <t>Pervasive computing became a reality quite recently, mostly due to the rapid development of wireless networks and mobile devices. Mobile devices use wireless infrastructure to access point information services on the internet. This accessibility of information on the internet assures continued activity. Therefore, information can be accessed well. However, the results of services are dependent on someone requesting information at a defined moment. Today, smartphones have become important mobile devices for accessing the internet due to the feasibility of being connected to wireless networks together with an efficient processing unit. Besides universal phone calling and accessing information services, they also enable additional features such as the Global Positioning System (GPS), accelerometer, compass, etc.
 This paper focuses on the Global Positioning feature used in the development concept of drafting detection system for Ironman triathlons. An Ironman is a long-distance triathlon consisting of three marathons: marathon courses. Competitors compete as individuals, i.e., without the help of competitors. However, competitors often violate the fair play rule as they wish to improve their performances. The violation is prevalent in cycling, where competitors ride bicycles within close-knit groups, thus achieving higher speeds and saving energy for later efforts. This phenomenon is also known by the name "group competitors" where the hardest work is performed by the leading competitor who sets the pace, while others purposely shadow this kind of bicycle riding groups which is punishable by a 5-minute penalty according to the World Triathlon Association (WTC) rules. However, the detection of drafting is difficult. Today, referees on motorcycles are responsible for drafting detection, but they can only cover a particular part of the course at a time and estimate violations subjectively. Therefore, an automatic solution is necessary to help referees detect drafting.
 This paper introduces the concept of drafting detection system for Ironman triathlons. The concept consists of two parts: a mobile application that acts as a gateway and uses the GPS feature to obtain information on the current position of a competitor's bicycle, which is then transmitted to a web service. Knowing the positions of competitors, the web service can calculate whether a competitor is drafting. By knowing the duration of the violation, it enables the system to separate drafting violations from normal overtaking. In fact, a drafting violation occurs when overtaking takes longer than 20 seconds. In order to prove the concept of drafting detection system for Ironman, a test system was developed and obtained results that are stimulative to prove the system could be used in practice in the near future.
 The structure of the paper follows as: Section 2 discusses the problem of drafting in Ironman triathlons, Section 3 describes the proposed concept of drafting detection system, Section 4 presents the experiments and results using the test system for drafting detection, and the paper concludes with a discussion of the work performed outlining directions for development.</t>
@@ -655,45 +720,65 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Simplified text:
-Pervasive computing is now possible thanks to advancements in wireless technology and mobile devices. Mobile devices connect to the internet wirelessly, ensuring easy access to information. Smartphones, in particular, are widely used for internet access due to their connection to wireless networks and efficient processing capabilities. They offer features like GPS and accelerometers.
+          <t>Pervasive computing is now possible thanks to advancements in wireless technology and mobile devices. Mobile devices connect to the internet wirelessly, ensuring easy access to information. Smartphones, in particular, are widely used for internet access due to their connection to wireless networks and efficient processing capabilities. They offer features like GPS and accelerometers.
 This paper focuses on using GPS for a drafting detection system in Ironman triathlons. In these races, competitors must cycle without drafting (riding closely behind others). Drafting helps cyclists gain speed and conserve energy but is against the rules. Currently, referees detect drafting violations subjectively, but a more automated solution is needed.
 The proposed drafting detection system involves a mobile app using GPS to track cyclists' positions and a web service to analyze if drafting is occurring. Drafting violations are identified if overtaking takes more than 20 seconds. Testing has shown promising results for practical use in the future.
 The paper discusses drafting issues in Ironman triathlons, introduces the drafting detection system concept, presents test results, and outlines future development directions.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.82915094339623</v>
+        <v>13.79352631578947</v>
       </c>
       <c r="D8" t="n">
-        <v>12.48545454545455</v>
+        <v>12.41620689655172</v>
+      </c>
+      <c r="E8" t="n">
+        <v>475</v>
+      </c>
+      <c r="F8" t="n">
+        <v>174</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Corrected text:
-Scalable video coding with spatial, temporal, and amplitude scalability offers video servers and clients flexibility in choosing appropriate video layers according to network bandwidth and user preference. Given bandwidth constraints, spatial resolution is controlled by frame size, temporal resolution is controlled by frame rate, and amplitude resolution is controlled by quantization parameter, adjusted for optimal perceptual quality to be achieved. However, scalable coding is not widely adopted in commercial applications due to its complexity, and scalable coding has reduced coding efficiency compared to single-layer coding. Existing video streaming architectures use multiple copies of single-layer coded videos in different layers. The system sends a version coded for a particular layer based on network conditions. It would be interesting and useful to see whether quality differences in single-layer scalable videos coded for different layers impact perceptual quality. A model is derived relating perceptual quality to layers, and it is interesting to see whether the model is also applicable to non-scalable videos. The results of subjective tests comparing perceived quality of single-layer scalable videos coded for different layers and in combination are reported. The design of subjective tests is based on paired comparison methods.</t>
+          <t>Scalable video coding with spatial, temporal, and amplitude scalability offers video servers and clients flexibility in choosing appropriate video layers according to network bandwidth and user preference. Given bandwidth constraints, spatial resolution is controlled by frame size, temporal resolution is controlled by frame rate, and amplitude resolution is controlled by quantization parameter, adjusted for optimal perceptual quality to be achieved. However, scalable coding is not widely adopted in commercial applications due to its complexity, and scalable coding has reduced coding efficiency compared to single-layer coding. Existing video streaming architectures use multiple copies of single-layer coded videos in different layers. The system sends a version coded for a particular layer based on network conditions. It would be interesting and useful to see whether quality differences in single-layer scalable videos coded for different layers impact perceptual quality. A model is derived relating perceptual quality to layers, and it is interesting to see whether the model is also applicable to non-scalable videos. The results of subjective tests comparing perceived quality of single-layer scalable videos coded for different layers and in combination are reported. The design of subjective tests is based on paired comparison methods.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Simplified text:
-Scalable video coding allows video servers and clients to choose video layers based on network and user needs. Spatial resolution depends on frame size, temporal resolution on frame rate, and amplitude resolution on quantization parameter for better quality. However, scalable coding is complex and less efficient than single-layer coding, which is more common in commercial applications. Current video streaming uses single-layer videos in different layers, adjusting based on network conditions. Research aims to understand the impact of quality differences in single-layer scalable videos on perceptual quality. The study explores if this understanding applies to non-scalable videos. Results from tests comparing quality of single-layer scalable videos are shared, using paired comparison methods.</t>
+          <t>Scalable video coding allows video servers and clients to choose video layers based on network and user needs. Spatial resolution depends on frame size, temporal resolution on frame rate, and amplitude resolution on quantization parameter for better quality. However, scalable coding is complex and less efficient than single-layer coding, which is more common in commercial applications. Current video streaming uses single-layer videos in different layers, adjusting based on network conditions. Research aims to understand the impact of quality differences in single-layer scalable videos on perceptual quality. The study explores if this understanding applies to non-scalable videos. Results from tests comparing quality of single-layer scalable videos are shared, using paired comparison methods.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.3929585492228</v>
+        <v>16.32392146596859</v>
       </c>
       <c r="D9" t="n">
-        <v>14.3541482300885</v>
+        <v>14.27170045045045</v>
+      </c>
+      <c r="E9" t="n">
+        <v>191</v>
+      </c>
+      <c r="F9" t="n">
+        <v>111</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Corrected text:
-Social network analysis has become essential due to the proliferation of social networks such as LiveJournal, MySpace, Flickr, and Facebook. The scale of social networks has become massive and continues to grow rapidly. For example, Facebook has 800 million active users with 700,000 new users joining every day. This growth has significantly changed the way people interact and share information with others, leading to unprecedented research opportunities.
+          <t>Social network analysis has become essential due to the proliferation of social networks such as LiveJournal, MySpace, Flickr, and Facebook. The scale of social networks has become massive and continues to grow rapidly. For example, Facebook has 800 million active users with 700,000 new users joining every day. This growth has significantly changed the way people interact and share information with others, leading to unprecedented research opportunities.
 An important problem in social network analysis is proximity estimation, which infers the "closeness" between different users. Proximity measures quantify the interaction between users based on the structural properties of the graph, such as the number of common friends. A key application of proximity measures in social networks is link prediction. The key problem in social network analysis when applying proximity measures for link prediction is based on the assumption that a pair of users with a high proximity score indicates closeness in terms of social relatedness, and thus, the pair of users have a good chance of becoming friends in the future.
 Simple proximity measures and neighborhood-based measures, such as the Adamic-Adar score or relationships considering paths between users like the Katz method, are often effective. However, they are also well-known for their high computational complexity and memory usage, which limits their applicability to massive graphs with millions of users.
 To solve this problem, a great deal of work has been done on scalable proximity estimation. One basic idea is to perform dimensionality reduction on the original graph and compute proximity based on a low-rank approximation. Recently, a clustered low-rank approximation (CLRA) was proposed, which develops a fast and memory-efficient method. However, a single low-rank approximation may not be sufficient to represent the entire network. To address this issue, we propose a multiscale approximation of the graph to obtain multiple granular views of the network in order to perform scalable and accurate link prediction.
@@ -711,57 +796,88 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.17098214285715</v>
+        <v>14.14177547770701</v>
       </c>
       <c r="D10" t="n">
         <v>13.42756692913386</v>
       </c>
+      <c r="E10" t="n">
+        <v>628</v>
+      </c>
+      <c r="F10" t="n">
+        <v>127</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Corrected text:
-Historically, fields like statistical inference and stochastic optimization have often developed specific methods and approaches. Recently, however, there has been a growing interest in applying inference-based methods to optimization problems and vice versa. Consider stochastic optimization problems where we observe noise-contaminated values of an unknown nonlinear function and want to find an input that maximizes the expected value of the function. The problem statement is as follows: Let's consider a metric space and a stochastic function that maps a test point to real values characterized by a conditional probability density function. The goal is to model the optimal test point \(x^{*} : \arg\max_{x} \bar{f}(x)\). Classic approaches to solving this problem are often based on stochastic approximation methods that explore the posterior distribution space of the objective functions. In contrast, the aim here is to model directly the distribution that maximizes conditioned observations. This paper is structured as follows: the section concludes.</t>
+          <t>Historically, fields like statistical inference and stochastic optimization have often developed specific methods and approaches. Recently, however, there has been a growing interest in applying inference-based methods to optimization problems and vice versa. Consider stochastic optimization problems where we observe noise-contaminated values of an unknown nonlinear function and want to find an input that maximizes the expected value of the function. The problem statement is as follows: Let's consider a metric space and a stochastic function that maps a test point to real values characterized by a conditional probability density function. The goal is to model the optimal test point \(x^{*} : \arg\max_{x} \bar{f}(x)\). Classic approaches to solving this problem are often based on stochastic approximation methods that explore the posterior distribution space of the objective functions. In contrast, the aim here is to model directly the distribution that maximizes conditioned observations. This paper is structured as follows: the section concludes.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Simplified text:
-In the past, statistical inference and stochastic optimization used specific methods. Lately, there's a trend toward combining these methods. For instance, in stochastic optimization, we deal with noisy data from an unknown function to find the best input. The problem involves a space where a function maps a test point to real values with a probability function. The aim is to find the best test point \(x^{*} : \arg\max_{x} \bar{f}(x)\). Traditional methods focus on exploring the distribution space, while this paper aims to model the distribution that maximizes observations directly.</t>
+          <t>In the past, statistical inference and stochastic optimization used specific methods. Lately, there's a trend toward combining these methods. For instance, in stochastic optimization, we deal with noisy data from an unknown function to find the best input. The problem involves a space where a function maps a test point to real values with a probability function. The aim is to find the best test point \(x^{*} : \arg\max_{x} \bar{f}(x)\). Traditional methods focus on exploring the distribution space, while this paper aims to model the distribution that maximizes observations directly.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.7916339869281</v>
+        <v>13.69373068432671</v>
       </c>
       <c r="D11" t="n">
-        <v>10.05745341614907</v>
+        <v>9.877619047619053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Corrected text:
-The problem of efficiently computing straight-line drawings of planar graphs has attracted a lot of attention in the last two decades. Two combinatorial concepts in planar triangulations have turned out to be the basis of many classical straight-line drawing algorithms: the canonical ordering and the special ordering of vertices obtained by a shelling procedure closely related to spanning trees and specific incidence conditions. Algorithms based on canonical ordering are typically incremental, adding vertices one by one while keeping the drawing planar. Algorithms based on Schnyder woods use global barycentric coordinates of vertices, which have a clear combinatorial meaning, typically the number of faces and certain regions associated with a vertex. These types of algorithms make it possible to draw a linear time planar triangulation of vertices on a grid of a certain size. They can also be extended to obtain weakly convex drawings of connected maps on a grid. The problem of obtaining planar drawings of higher genus graphs has been addressed less frequently from a theoretical and algorithmic point of view. Recently, methods for straight-line planar drawing of genus graphs in polynomial grid area size in the worst case have been described. These methods apply when the graph needs to be unfolded planarly along a cut graph. However, these methods yield at least easily periodic representations. For example, in the case of a torus, the boundary vertices and the boundary rectangular frame might be aligned in the drawing, giving rise to a periodic drawing. A recent article achieves an adaptation of these methods to get an alignment of opposite vertices while keeping the size of the periodic grid polynomial. One drawback is that a large exponent is guaranteed for the grid area. Another method for drawing toroidal graphs in polynomial grid size is the algorithm by Gonçalves, C., Alves, L., and L'Eveque. This adaptation of Schnyder's drawing principles for torus graphs relies on the existence of certain orientations for every vertex degree. It has also been recently applied in methods to design a bijective encoding scheme for toroidal triangulations. Regarding the extension to higher genus, it has been proven that a genus triangulation always admits an orientation for every vertex with outdegree nonzero multiple. This achieves the periodicity requirement in polynomial grid size, precisely the size of a periodic regular grid for simple toroidal triangulations with loops and multiple edges. Essentially, a simple periodic representation of toroidal triangulations by Gonçalves, C., Alves, L., and L'Eveque also extends ideas to 3-connected toroidal maps. Similarly, Schnyder woods for plane triangulations can be extended to plane 3-connected maps, as opposed to the planar case where periodic drawings of 3-connected toroidal maps do not necessarily obtain the desired convexity property. The main contributions of this article are efficient, in terms of grid size, algorithms to obtain crossing-free convex straight-line drawings, essentially for 3-connected maps on a cylinder or torus. The key idea is to adapt the principles of iterative algorithms based on canonical orderings to a cylinder. Another notion of canonical ordering for toroidal triangulations is introduced that actually works for genus and yields an efficient encoding procedure. In the case of triangulations and 3-connected maps, the planar case is technically involved, and the first step is to adapt the notion of canonical ordering to a certain shelling procedure for an incremental straight-line drawing algorithm by de Fraysseix, Pach, and Pollack, shortly called the FPP algorithm. Thereafter, for triangulations on a cylinder, this notion is also extended. The notion of canonical ordering for convex straight-line drawings, essentially for internally connected maps on a cylinder, is precisely for essentially internally connected maps on a cylinder. The algorithm yields a linear time crossing-free internally convex straight-line drawing on a regular grid in the flat cylinder form, where the number of vertices face a distance of two boundaries is the smallest possible number of faces traversed by a curve connecting the two boundaries while meeting the vertices. The text explains how to obtain periodic drawings on a torus by reduction to the cylindric case, where the reduction is done with the help of the so-called "tambourine," which is essentially a connected toroidal map, i.e., a connected periodic representation of vertices with a "facewidth," which is the smallest possible number of points met by a non-contractible curve. The computation is done in linear time to get a weakly convex periodic straight-line drawing on a regular grid in the flat torus form, since the grid area improves upon the previously best-known grid size for a torus. Gonçalves, C., Alves, L., and L'Eveque also always give a weakly convex drawing that is guaranteed. This is covered in less detail in the case of triangulations on a cylinder or torus.</t>
+          <t>The problem of efficiently computing straight-line drawings of planar graphs has attracted a lot of attention in the last two decades. Two combinatorial concepts in planar triangulations have turned out to be the basis of many classical straight-line drawing algorithms: the canonical ordering and the special ordering of vertices obtained by a shelling procedure closely related to spanning trees and specific incidence conditions. Algorithms based on canonical ordering are typically incremental, adding vertices one by one while keeping the drawing planar. Algorithms based on Schnyder woods use global barycentric coordinates of vertices, which have a clear combinatorial meaning, typically the number of faces and certain regions associated with a vertex. These types of algorithms make it possible to draw a linear time planar triangulation of vertices on a grid of a certain size. They can also be extended to obtain weakly convex drawings of connected maps on a grid. The problem of obtaining planar drawings of higher genus graphs has been addressed less frequently from a theoretical and algorithmic point of view. Recently, methods for straight-line planar drawing of genus graphs in polynomial grid area size in the worst case have been described. These methods apply when the graph needs to be unfolded planarly along a cut graph. However, these methods yield at least easily periodic representations. For example, in the case of a torus, the boundary vertices and the boundary rectangular frame might be aligned in the drawing, giving rise to a periodic drawing. A recent article achieves an adaptation of these methods to get an alignment of opposite vertices while keeping the size of the periodic grid polynomial. One drawback is that a large exponent is guaranteed for the grid area. Another method for drawing toroidal graphs in polynomial grid size is the algorithm by Gonçalves, C., Alves, L., and L'Eveque. This adaptation of Schnyder's drawing principles for torus graphs relies on the existence of certain orientations for every vertex degree. It has also been recently applied in methods to design a bijective encoding scheme for toroidal triangulations. Regarding the extension to higher genus, it has been proven that a genus triangulation always admits an orientation for every vertex with outdegree nonzero multiple. This achieves the periodicity requirement in polynomial grid size, precisely the size of a periodic regular grid for simple toroidal triangulations with loops and multiple edges. Essentially, a simple periodic representation of toroidal triangulations by Gonçalves, C., Alves, L., and L'Eveque also extends ideas to 3-connected toroidal maps. Similarly, Schnyder woods for plane triangulations can be extended to plane 3-connected maps, as opposed to the planar case where periodic drawings of 3-connected toroidal maps do not necessarily obtain the desired convexity property. The main contributions of this article are efficient, in terms of grid size, algorithms to obtain crossing-free convex straight-line drawings, essentially for 3-connected maps on a cylinder or torus. The key idea is to adapt the principles of iterative algorithms based on canonical orderings to a cylinder. Another notion of canonical ordering for toroidal triangulations is introduced that actually works for genus and yields an efficient encoding procedure. In the case of triangulations and 3-connected maps, the planar case is technically involved, and the first step is to adapt the notion of canonical ordering to a certain shelling procedure for an incremental straight-line drawing algorithm by de Fraysseix, Pach, and Pollack, shortly called the FPP algorithm. Thereafter, for triangulations on a cylinder, this notion is also extended. The notion of canonical ordering for convex straight-line drawings, essentially for internally connected maps on a cylinder, is precisely for essentially internally connected maps on a cylinder. The algorithm yields a linear time crossing-free internally convex straight-line drawing on a regular grid in the flat cylinder form, where the number of vertices face a distance of two boundaries is the smallest possible number of faces traversed by a curve connecting the two boundaries while meeting the vertices. The text explains how to obtain periodic drawings on a torus by reduction to the cylindric case, where the reduction is done with the help of the so-called "tambourine," which is essentially a connected toroidal map, i.e., a connected periodic representation of vertices with a "facewidth," which is the smallest possible number of points met by a non-contractible curve. The computation is done in linear time to get a weakly convex periodic straight-line drawing on a regular grid in the flat torus form, since the grid area improves upon the previously best-known grid size for a torus. Gonçalves, C., Alves, L., and L'Eveque also always give a weakly convex drawing that is guaranteed. This is covered in less detail in the case of triangulations on a cylinder or torus.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Simplified text:
-Efficiently drawing planar graphs has been a major focus. Two key concepts in planar triangulations, the canonical ordering and special ordering of vertices, form the basis of many drawing algorithms. Algorithms using canonical ordering add vertices incrementally while maintaining a planar layout. Schnyder woods-based algorithms use global vertex coordinates related to faces and regions, allowing for linear time drawing on a grid. Drawing higher genus graphs is less explored theoretically. Recent methods describe polynomial grid area size drawing for genus graphs unfolded along a cut graph, often resulting in periodic representations. Other methods apply Schnyder's principles to draw toroidal graphs in polynomial grid size. These methods ensure periodicity for toroidal triangulations with loops and multiple edges. Efficient algorithms have been developed for crossing-free convex straight-line drawings of 3-connected maps on a cylinder or torus. The adaptation of canonical ordering principles to cylinders and toroids enables linear time convex drawing on a grid. The text also discusses obtaining weakly convex periodic drawings on a torus, improving grid size efficiency.</t>
+          <t>Efficiently drawing planar graphs has been a major focus. Two key concepts in planar triangulations, the canonical ordering and special ordering of vertices, form the basis of many drawing algorithms. Algorithms using canonical ordering add vertices incrementally while maintaining a planar layout. Schnyder woods-based algorithms use global vertex coordinates related to faces and regions, allowing for linear time drawing on a grid. Drawing higher genus graphs is less explored theoretically. Recent methods describe polynomial grid area size drawing for genus graphs unfolded along a cut graph, often resulting in periodic representations. Other methods apply Schnyder's principles to draw toroidal graphs in polynomial grid size. These methods ensure periodicity for toroidal triangulations with loops and multiple edges. Efficient algorithms have been developed for crossing-free convex straight-line drawings of 3-connected maps on a cylinder or torus. The adaptation of canonical ordering principles to cylinders and toroids enables linear time convex drawing on a grid. The text also discusses obtaining weakly convex periodic drawings on a torus, improving grid size efficiency.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12.96365601023018</v>
+        <v>12.93730769230769</v>
       </c>
       <c r="D12" t="n">
-        <v>13.32676470588236</v>
+        <v>13.25928571428572</v>
+      </c>
+      <c r="E12" t="n">
+        <v>780</v>
+      </c>
+      <c r="F12" t="n">
+        <v>168</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Corrected text:
-The two-user interference channel (IC) network consists of two transmitter-receiver pairs communicating over a channel, thus interfering in certain communication scenarios (e.g., cognitive radio). In one scenario, a transmitter, known as the cognitive transmitter, is able to sense the environment and obtain side information from the incumbent transmitter (the primary transmitter) on the communication channel, which is called the interference channel. In cognition, it is simply referred to as the cognitive channel. Motivated by cognitive radio's promise of increasing spectral efficiency in wireless systems, the study of interference channels with cognitive users has been receiving increasing attention in the past years.
+          <t>The two-user interference channel (IC) network consists of two transmitter-receiver pairs communicating over a channel, thus interfering in certain communication scenarios (e.g., cognitive radio). In one scenario, a transmitter, known as the cognitive transmitter, is able to sense the environment and obtain side information from the incumbent transmitter (the primary transmitter) on the communication channel, which is called the interference channel. In cognition, it is simply referred to as the cognitive channel. Motivated by cognitive radio's promise of increasing spectral efficiency in wireless systems, the study of interference channels with cognitive users has been receiving increasing attention in the past years.
 The fundamental limits of the cognitive interference channel, where the cognitive transmitter non-causally knows the full message of the primary user, were studied. The channel was first introduced by the authors, who obtained achievable rates by applying Gel'fand-Pinsker coding and the celebrated Han-Kobayashi encoding. The capacity of the channel remains unknown in general; however, it is known in several special cases. For discrete memoryless Gaussian channels, the capacity is known as the Gaussian cognitive interference channel (GCIC). The GCIC capacity is known for low interference as well as strong interference. In addition, the capacity of the Gaussian cognitive Z-interference channel (GCZIC), where the primary receiver is interfered with by the cognitive transmitter, is known in several ranges of interference gain. Dirty paper coding is a capacity-achieving scheme for high-interference superposition coding, which is an optimal technique for discrete memoryless channels. The capacity is known in "strong interference" and "better cognitive decoding" regimes, where superposition coding is an effective capacity-achieving technique.
 Although several techniques, including rate splitting, simultaneous coding, Gel'fand-Pinsker coding, and binning, are used to find achievable rate regions in the paper, we consider it in a discrete memoryless cognitive interference channel (DMCIC). We first introduce the notion of it being less noisy. In DMCIC, we show two different less noisy cognitive channels: one is primary less noisy and the other is cognitive less noisy. In the former, the primary receiver is less noisy than the secondary receiver, whereas in the latter, it is the opposite. We propose two inner bounds for DMCIC: one based on superposition coding and another using independent coding. These inner bounds are also valid for less noisy DMCIC. We prove that one inner bound is suitable for primary less noisy DMCIC, whereas the other is better for cognitive less noisy DMCIC. We also prove an outer bound on the capacity of the channel and finally show that for cognitive less noisy DMCIC, the inner and outer bounds coincide. Therefore, we establish the capacity region for the class of DMCIC, which proves that superposition coding is a capacity-achieving scheme for less noisy DMCIC. Though the capacity of primary less noisy DMCIC remains unknown, the corresponding inner bound simplifies the achievable region, as already proved for the capacity-achieving special case of GCZIC.
 The paper is organized as follows: In the first section, we introduce the system model and define the less noisy DMCIC. In the second section, we propose an outer bound and two inner bounds for DMCIC. In the third section, we show that one inner bound is tight for the cognitive less noisy channel, thus providing the capacity for the class of DMCIC. We present new capacity results compared to existing ones in the fourth section.</t>
@@ -769,89 +885,129 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Simplified text:
-The two-user interference channel (IC) network involves two pairs communicating while causing interference, especially in cognitive radio settings. The cognitive transmitter can sense the environment and gather data from the primary transmitter, creating the interference channel or cognitive channel. Studies focus on enhancing wireless systems' efficiency through interference channels with cognitive users.
+          <t>The two-user interference channel (IC) network involves two pairs communicating while causing interference, especially in cognitive radio settings. The cognitive transmitter can sense the environment and gather data from the primary transmitter, creating the interference channel or cognitive channel. Studies focus on enhancing wireless systems' efficiency through interference channels with cognitive users.
 Research explores the limits of the cognitive interference channel where the cognitive transmitter knows the primary user's message. The channel's capacity remains unclear overall but is understood in certain cases, like the Gaussian cognitive interference channel (GCIC). Various coding techniques are employed to determine achievable rates in different scenarios, such as the discrete memoryless cognitive interference channel (DMCIC).
 The study introduces the concept of less noisy DMCIC, distinguishing between primary less noisy and cognitive less noisy channels. Different coding methods are suggested to determine the channel's capacity region, showing that superposition coding works well for less noisy DMCIC.
 The paper is structured into sections: system model introduction and less noisy DMCIC definition, outer and inner bounds proposal, inner bounds validation for cognitive less noisy channel, and the presentation of new capacity findings in comparison to existing research.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.54337731856094</v>
+        <v>13.50953523238381</v>
       </c>
       <c r="D13" t="n">
-        <v>16.13858115183247</v>
+        <v>16.06777248677249</v>
+      </c>
+      <c r="E13" t="n">
+        <v>552</v>
+      </c>
+      <c r="F13" t="n">
+        <v>189</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Corrected text:
-In the past, timekeepers measured time manually. Time was given by a timer assigned to competitors based on their starting number. Competitors were then placed in order according to the achieved results in their category. Later on, manual timers were replaced by automatic timers or time registers capable of capturing and printing registered times. However, assigning times to competitors based on starting numbers was still done manually. This work could have been avoided by using electronic measuring technology. In addition to registering time, it also enables registering competitors' starting numbers. The expansion of RFID (Radio Frequency Identification) technology has helped measuring technology become less expensive and more accessible to a wider range of users, such as sports clubs and organizers of sporting competitions. Moreover, it has also been able to compete with time-measuring monopolies in smaller competitions.
+          <t>In the past, timekeepers measured time manually. Time was given by a timer assigned to competitors based on their starting number. Competitors were then placed in order according to the achieved results in their category. Later on, manual timers were replaced by automatic timers or time registers capable of capturing and printing registered times. However, assigning times to competitors based on starting numbers was still done manually. This work could have been avoided by using electronic measuring technology. In addition to registering time, it also enables registering competitors' starting numbers. The expansion of RFID (Radio Frequency Identification) technology has helped measuring technology become less expensive and more accessible to a wider range of users, such as sports clubs and organizers of sporting competitions. Moreover, it has also been able to compete with time-measuring monopolies in smaller competitions.
 In addition to measuring technology, a flexible computer system is also needed to monitor results. The proposed computer system enables monitoring different sporting competitions using various measuring devices and measuring points. Online recording of events and writing results, as well as efficiency and security, are also ensured. The measuring device is dedicated to registering events and is triggered either automatically when a competitor crosses a measuring point and activates an electromagnetic antenna field with an appropriate RFID tag, or manually when an operator presses a suitable button on a personal computer acting as a timer at the control point where organizers want to monitor results. A control point requires a measuring device; however, modern electronic measuring devices allow for handling multiple control points simultaneously. Moreover, a registered event may have a different meaning depending on the situation in which it is generated. Therefore, events are handled by the measuring system according to rules valid at the control point. As a result, the number of control points and measuring devices is reduced by using complex measurements. Fortunately, the rules controlling events can be easily described using a domain-specific language (DSL). Using this DSL, measurements for different sporting competitions can be accomplished easily through preconfigured rules in the DSL, which is suited to the application domain.
 There are certain advantages of using a DSL over general-purpose languages within a specific domain. The advantages of a DSL are reflected in its greater expressive power in a particular domain, leading to increased productivity. The structure of the remaining article follows as: the second section illustrates the problems that accompany time-measuring in sporting competitions, with a focus primarily on triathlon competitions, which contain three disciplines that need to be measured and have lengthy durations. The design of the DSL "easytime" is briefly shown in section three. The implementation of the "easytime" compiler is described in the fourth section, while the fifth section explains the execution of a program written in "easytime." Finally, the article concludes with a short analysis of the work performed and a look at future work. The paper extends the previous workshop paper by providing general guidelines to transform formal language specifications using denotational semantics and attribute grammars. The concreteness of the guidelines is shown using the "easytime" DSL.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Simplified text:
-In the past, time measurement for sports involved manual timers. Competitors' times were recorded based on their starting numbers. Later, automatic timers replaced manual ones, but assigning times was still done manually. This manual work could have been avoided with electronic technology that registers both time and starting numbers. RFID technology has made measuring time more affordable and accessible for sports clubs and event organizers.
+          <t>In the past, time measurement for sports involved manual timers. Competitors' times were recorded based on their starting numbers. Later, automatic timers replaced manual ones, but assigning times was still done manually. This manual work could have been avoided with electronic technology that registers both time and starting numbers. RFID technology has made measuring time more affordable and accessible for sports clubs and event organizers.
 A computer system is needed to track results in sports events. This system works with various measuring devices and points to record events online efficiently and securely. Measuring devices capture events automatically when participants cross a point or manually when an operator triggers it. These devices can handle multiple points at once. Events are managed based on specific rules at each point, reducing the need for many devices by using sophisticated measurements.
 Using a domain-specific language (DSL) simplifies describing rules for measuring events in different sports competitions. DSL offers benefits like increased productivity and expressive power within a specific domain. The article discusses challenges in time-measuring for sports events, especially in triathlons with multiple disciplines. It introduces the DSL "easytime," explains its design and implementation, and details how programs in "easytime" are executed. It concludes by providing guidelines for transforming formal language specifications using denotational semantics and attribute grammars, demonstrated through the "easytime" DSL.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.46535991140642</v>
+        <v>14.43465536409116</v>
       </c>
       <c r="D14" t="n">
-        <v>13.07651300904978</v>
+        <v>13.02483732876712</v>
+      </c>
+      <c r="E14" t="n">
+        <v>514</v>
+      </c>
+      <c r="F14" t="n">
+        <v>219</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Corrected text:
-In an undirected graph, a vertex set and edge set form a clique if it is a complete subgraph. An edge clique covering family of complete subgraphs has at least one member from the family with minimal cardinality. The edge clique covering number, denoted as the problem of deciding a given natural number, is NP-complete. The problem remains NP-complete when restricted to graphs with a maximum degree of six. Hoover provides a polynomial-time algorithm for graphs with a maximum degree of five. For graphs with a maximum degree of less than five, the work has already been done. Pullman also worked on linegraphs, and the problem was solved in polynomial time, showing an approximation of the clique covering number within constant factors. The smaller of the two remains NP-complete. Gy'arf'as showed an interesting lower bound: in a graph, if two vertices are equivalent and have adjacent closed neighborhoods, the graph contains neither isolated equivalent vertices. Gy'arf'as' result implies that the edge clique cover problem is fixed-parameter tractable. Cygan et al. showed, under the assumption of the exponential time hypothesis, a polynomial-time algorithm that reduces the parameterized problem to a kernel size bounded proof. The authors make use of the fact (sic) that "hard instances of the edge clique cover problem have at least one point of view currently known algorithms." Note the contrast: for the parameterized edge clique partition problem, it is reduced to a kernel with vertices. Mujuni and Rosamond also mention that the edge clique cover problem probably has a polynomial kernel.</t>
+          <t>In an undirected graph, a vertex set and edge set form a clique if it is a complete subgraph. An edge clique covering family of complete subgraphs has at least one member from the family with minimal cardinality. The edge clique covering number, denoted as the problem of deciding a given natural number, is NP-complete. The problem remains NP-complete when restricted to graphs with a maximum degree of six. Hoover provides a polynomial-time algorithm for graphs with a maximum degree of five. For graphs with a maximum degree of less than five, the work has already been done. Pullman also worked on linegraphs, and the problem was solved in polynomial time, showing an approximation of the clique covering number within constant factors. The smaller of the two remains NP-complete. Gy'arf'as showed an interesting lower bound: in a graph, if two vertices are equivalent and have adjacent closed neighborhoods, the graph contains neither isolated equivalent vertices. Gy'arf'as' result implies that the edge clique cover problem is fixed-parameter tractable. Cygan et al. showed, under the assumption of the exponential time hypothesis, a polynomial-time algorithm that reduces the parameterized problem to a kernel size bounded proof. The authors make use of the fact (sic) that "hard instances of the edge clique cover problem have at least one point of view currently known algorithms." Note the contrast: for the parameterized edge clique partition problem, it is reduced to a kernel with vertices. Mujuni and Rosamond also mention that the edge clique cover problem probably has a polynomial kernel.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Simplified text:
-In an undirected graph, a clique is a complete subgraph formed by a set of vertices and edges. The edge clique covering number problem, determining a natural number, is NP-complete. This complexity remains even for graphs with a maximum degree of six. Hoover devised an efficient algorithm for graphs with a maximum degree of five. Linegraphs were studied by Pullman, who found a solution within constant factors for the clique covering number. Gy'arf'as proved that the edge clique cover problem is fixed-parameter tractable. Cygan et al. proposed a polynomial-time algorithm based on a kernel size bound. Mujuni and Rosamond suggested that the edge clique cover problem might have a polynomial kernel.</t>
+          <t>In an undirected graph, a clique is a complete subgraph formed by a set of vertices and edges. The edge clique covering number problem, determining a natural number, is NP-complete. This complexity remains even for graphs with a maximum degree of six. Hoover devised an efficient algorithm for graphs with a maximum degree of five. Linegraphs were studied by Pullman, who found a solution within constant factors for the clique covering number. Gy'arf'as proved that the edge clique cover problem is fixed-parameter tractable. Cygan et al. proposed a polynomial-time algorithm based on a kernel size bound. Mujuni and Rosamond suggested that the edge clique cover problem might have a polynomial kernel.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.97734375</v>
+        <v>10.90282480314961</v>
       </c>
       <c r="D15" t="n">
-        <v>9.388681415929206</v>
+        <v>9.256117117117117</v>
+      </c>
+      <c r="E15" t="n">
+        <v>254</v>
+      </c>
+      <c r="F15" t="n">
+        <v>111</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Corrected text:
-Many domains involve the possibility of using interpreting temporal aspects of events. It is important in order to organize information; temporal knowledge allows people to filter information and even infer temporal flows of events. Furthermore, it permits improving intelligence in question answering, information retrieval, and information filtering systems by considering temporal expressions for the sake of completeness. Another kind of categorization, like the TASTER project, is focused on the normalization of fully qualified deictic temporal expressions. The use of this categorization helps in reducing fuzziness among types.</t>
+          <t>Many domains involve the possibility of using interpreting temporal aspects of events. It is important in order to organize information; temporal knowledge allows people to filter information and even infer temporal flows of events. Furthermore, it permits improving intelligence in question answering, information retrieval, and information filtering systems by considering temporal expressions for the sake of completeness. Another kind of categorization, like the TASTER project, is focused on the normalization of fully qualified deictic temporal expressions. The use of this categorization helps in reducing fuzziness among types.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Simplified text:
-Understanding time in different areas is crucial for organizing information. Knowing when events happen helps in sorting data, predicting event sequences, and enhancing intelligence in various systems like question answering and information retrieval. Projects like TASTER aim to standardize temporal terms, reducing confusion between different types.</t>
+          <t>Understanding time in different areas is crucial for organizing information. Knowing when events happen helps in sorting data, predicting event sequences, and enhancing intelligence in various systems like question answering and information retrieval. Projects like TASTER aim to standardize temporal terms, reducing confusion between different types.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.51859550561798</v>
+        <v>15.4282183908046</v>
       </c>
       <c r="D16" t="n">
-        <v>14.165</v>
+        <v>14.03413043478261</v>
+      </c>
+      <c r="E16" t="n">
+        <v>87</v>
+      </c>
+      <c r="F16" t="n">
+        <v>46</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Corrected text:
-Minkowski metric is arguably one of the commonly used quantitative distance dissimilarity measures in scientific and engineering applications. The Minkowski distance between two vectors in n-dimensional Euclidean space is given three special cases of the metric that are of particular interest, namely the city block metric, the Euclidean metric, and the chessboard metric. Given in general form, it is defined in a straightforward fashion. The Minkowski metric enjoys the property of being translation invariant, i.e., since in many applications the data space is Euclidean, it is a natural choice of metric. It has the added advantage of being isotropic and rotation invariant. For example, when the input vectors stem from an isotropic vector field, e.g., a velocity field, it is an appropriate choice to use this metric as the vectors can be processed in the same way regardless of their orientation. However, a drawback is the high computational cost due to the multiplication and square root operations involved, resulting in it often being used with alternatives. Although these metrics are computationally efficient, they deviate significantly due to translation invariance. It suffices to consider the distance from a point to the origin. Therefore, the rest of this paper will consider approximations rather than letting it be defined. An approximation to the Euclidean norm is assumed by a continuous and absolutely homogeneous function. Recall that a function is called absolutely homogeneous of degree one. Note that the variants considered in this paper satisfy these assumptions. To measure the quality of the approximation, we define the maximum relative error (MRE) as:
+          <t>Minkowski metric is arguably one of the commonly used quantitative distance dissimilarity measures in scientific and engineering applications. The Minkowski distance between two vectors in n-dimensional Euclidean space is given three special cases of the metric that are of particular interest, namely the city block metric, the Euclidean metric, and the chessboard metric. Given in general form, it is defined in a straightforward fashion. The Minkowski metric enjoys the property of being translation invariant, i.e., since in many applications the data space is Euclidean, it is a natural choice of metric. It has the added advantage of being isotropic and rotation invariant. For example, when the input vectors stem from an isotropic vector field, e.g., a velocity field, it is an appropriate choice to use this metric as the vectors can be processed in the same way regardless of their orientation. However, a drawback is the high computational cost due to the multiplication and square root operations involved, resulting in it often being used with alternatives. Although these metrics are computationally efficient, they deviate significantly due to translation invariance. It suffices to consider the distance from a point to the origin. Therefore, the rest of this paper will consider approximations rather than letting it be defined. An approximation to the Euclidean norm is assumed by a continuous and absolutely homogeneous function. Recall that a function is called absolutely homogeneous of degree one. Note that the variants considered in this paper satisfy these assumptions. To measure the quality of the approximation, we define the maximum relative error (MRE) as:
 \[ \text{MRE} = \frac{|T_{\text{d}_{2}} - \text{bx}_{\text{d}_{2}}|}{\text{bx}_{\text{d}_{2}}} \]
 Using homogeneity (Eq. \ref{equ_max_err_temp1}), it can be written as in Eq. \ref{equ_max_err}. Throughout Mukherjee's distances, it is proved that weighted cost distances form a family of metrics derived from the approximation of the Euclidean norm. Briefly reviewing the cost norm, the cost norm defines two points in a rectangular grid as neighbors if their respective hypercubes (hypervoxels) share a hyperplane dimension. The cost associated with two consecutive points on the shortest path is shared by the hyperplane dimension. The distance is taken as 1. Different cost norms are defined as \(d_t^{\text{bx}} = \sum_{1}^{t}x_{i}^2\). Mukherjee's generalized cost norm follows: 
 \[d_m^{\text{bx}} = \max_{1 \leq i \leq n} \left( w_i \cdot d_t^{\text{bx}} \right) \]
@@ -860,22 +1016,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Simplified text:
-The Minkowski metric is a commonly used way to measure distance in scientific and engineering fields. It has three main types: city block, Euclidean, and chessboard metrics. It is easy to define and works well in Euclidean spaces. It is also good for isotropic and rotation scenarios, like analyzing vectors in a consistent manner, but it can be slow due to complex calculations. To simplify, approximations are often used. One way is the maximum relative error formula. Another method is through cost norms, which define distances between points on a grid. Different norms have been proposed, each with its own way of measuring distance. Recent studies have introduced alternative approximations to improve efficiency. These new methods aim to minimize errors in distance calculations using various mathematical approaches.</t>
+          <t>The Minkowski metric is a commonly used way to measure distance in scientific and engineering fields. It has three main types: city block, Euclidean, and chessboard metrics. It is easy to define and works well in Euclidean spaces. It is also good for isotropic and rotation scenarios, like analyzing vectors in a consistent manner, but it can be slow due to complex calculations. To simplify, approximations are often used. One way is the maximum relative error formula. Another method is through cost norms, which define distances between points on a grid. Different norms have been proposed, each with its own way of measuring distance. Recent studies have introduced alternative approximations to improve efficiency. These new methods aim to minimize errors in distance calculations using various mathematical approaches.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.59079162875341</v>
+        <v>10.56183477863989</v>
       </c>
       <c r="D17" t="n">
-        <v>10.1138689217759</v>
+        <v>10.00406585540444</v>
+      </c>
+      <c r="E17" t="n">
+        <v>626</v>
+      </c>
+      <c r="F17" t="n">
+        <v>127</v>
+      </c>
+      <c r="G17" t="n">
+        <v>42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Corrected text:
-Computing similarity pairs of vectors in large-scale datasets is a challenge for traditional approaches. Sampling the dataset is limited by linearly dependent dimensions of the data. We present an approach whose complexity is independent of the data dimension and is geared towards modern distributed systems, in particular, the MapReduce framework. The MapReduce programming model is used for processing large datasets and is typically applied in distributed computing clusters with commodity computers that offer a large amount of processing power. It is tempting to solve problems using brute force; however, we show how combining clever sampling techniques with the power of MapReduce can extend its utility.
+          <t>Computing similarity pairs of vectors in large-scale datasets is a challenge for traditional approaches. Sampling the dataset is limited by linearly dependent dimensions of the data. We present an approach whose complexity is independent of the data dimension and is geared towards modern distributed systems, in particular, the MapReduce framework. The MapReduce programming model is used for processing large datasets and is typically applied in distributed computing clusters with commodity computers that offer a large amount of processing power. It is tempting to solve problems using brute force; however, we show how combining clever sampling techniques with the power of MapReduce can extend its utility.
 Consider the problem of finding pairs of similarities indicated by 0 or 1 entries in vectors of a specific dimension, with a particular focus on cosine similarities between pairs of vectors. We assume the dimension is sparse, meaning there are nonzeros across points. For example, typical values are used to compute similarities between pairs of a subset of Twitter users: the universe of Twitter users is a subset of Twitter users. Each user is represented by a dimensional vector that indicates the universal users they follow. The sparsity parameter assumes each user follows 1,000 users.
 There are two main complexity measures in MapReduce: "shuffle size" and "reduce key complexity," which will be defined shortly. It is easily shown that the naive approach to computing similarities results in infeasible numbers of emissions in the map phase due to the "shuffle size." Since data needs to be shuffled around the network to reach the correct reducer, the maximum number of items reduced to a single key is large, thus the "reduce key complexity" of the naive scheme drastically reduces the shuffle size and the reduce key complexity. With clever sampling techniques, as described in the paper, the output reducers are random variables whose expectations are similarities.
 Two proofs are needed to justify the effectiveness of the scheme: first, to show that the expectations are indeed correct with high probability, and second, to demonstrate that the shuffle size is greatly reduced. In particular, in addition to correctness, we prove the estimated similarities and the shuffle size of the disco scheme have a dependence on the dimension. Hence, the name "disco" means the mappers read the data long enough to make the shuffle size tractable. We can use the disco sampling scheme to make the shuffle size tractable and the reduce key gets values, making the reduce key complexity tractable.
@@ -888,25 +1054,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Simplified text:
-Finding similarities between vectors in large datasets can be tough using traditional methods due to linearly dependent data dimensions. Our approach overcomes this by being dimension-independent and suitable for modern distributed systems like MapReduce. MapReduce is ideal for processing big data in computing clusters with powerful computers. By combining smart sampling with MapReduce, we enhance its usability.
+          <t>Finding similarities between vectors in large datasets can be tough using traditional methods due to linearly dependent data dimensions. Our approach overcomes this by being dimension-independent and suitable for modern distributed systems like MapReduce. MapReduce is ideal for processing big data in computing clusters with powerful computers. By combining smart sampling with MapReduce, we enhance its usability.
 For example, let's consider finding similarities between vectors with 0s and 1s, focusing on cosine similarities. If we have sparse dimensions, like in Twitter user data, where each user follows around 1,000 others, we face complexities in MapReduce related to "shuffle size" and "reduce key complexity."
 Our innovative sampling method, "disco," reduces shuffle size and makes reduce key complexity manageable. By ensuring correctness and reducing shuffle size dependency on dimension, we make MapReduce tasks more efficient. This approach is effective in various applications, such as finding similar words or users within Twitter data.
 The scheme assumes sparse dimensions, needs a known vector magnitude, and targets highly similar pairs above a set threshold. This is crucial for tasks like duplicate detection in vast datasets from platforms like Google and Twitter. By leveraging "disco" sampling, we enhance accuracy in similarity measurements, crucial in various domains as data complexities grow.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13.24847381846321</v>
+        <v>13.22272056077452</v>
       </c>
       <c r="D18" t="n">
-        <v>13.55990291262136</v>
+        <v>13.49372549019608</v>
+      </c>
+      <c r="E18" t="n">
+        <v>849</v>
+      </c>
+      <c r="F18" t="n">
+        <v>204</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Corrected text:
-Communication among individuals is fundamental for human society. Nowadays, technologies such as sensor devices and online communication services provide us records of interactions between individuals, including face-to-face conversations, email exchanges, and phone calls. These massive amounts of data often consist of sequences of interaction events, with each event represented as a triplet (i.e., IDs of the two individuals involved in the event and the time of the event).
+          <t>Communication among individuals is fundamental for human society. Nowadays, technologies such as sensor devices and online communication services provide us records of interactions between individuals, including face-to-face conversations, email exchanges, and phone calls. These massive amounts of data often consist of sequences of interaction events, with each event represented as a triplet (i.e., IDs of the two individuals involved in the event and the time of the event).
 One traditional way to characterize this data is to represent it as an aggregated network, with links drawn between two nodes (i.e., individuals) who communicate in at least one event. To investigate the structural properties of these aggregated static networks, another, richer representation is needed: the type of data model known as temporal networks. In temporal networks, links between two nodes exist only at the time of an event. This has effects on temporal networks for contagious phenomena such as infectious diseases and rumors, which have been investigated by various authors to simulate spreading dynamics in temporal networks.
 When reading events from an empirical event sequence one by one in chronological order, it may be possible to update the states (e.g., susceptible, infected) of the two nodes involved in each event. Karsai and colleagues simulated a susceptible-infected (SI) model on temporal networks and found bursty activity patterns for slow contagions. Bursty activity patterns are identified by a long-tailed distribution of inter-event intervals (IEIs), meaning that at any arbitrary time point, the average time until the next event is longer under a long-tailed IEI distribution than under an exponential IEI distribution. In other words, an individual takes longer to infect their neighbors under a long-tailed IEI distribution compared to an exponential IEI distribution.
 Numerical results also support the idea that a long-tailed IEI distribution mitigates contagion. However, burstiness has been reported to accelerate contagion in different data sets. Understanding the effect of burstiness on contagious processes is still elusive. In the present study, we show that bursty activity patterns facilitate epidemic spreading, a variant of the deterministic threshold model in standard epidemic models including SI (susceptible-infected), SIR (susceptible-exposed-infected-recovered), and SEIR (susceptible-exposed-infected-recovered) models employed in the literature.
@@ -916,8 +1092,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Simplified text:
-People need to communicate to function in society. Technology like sensors and online services track interactions, like face-to-face talks, emails, and calls, creating vast data sets. This data often shows who interacted and when in a simple format.
+          <t>People need to communicate to function in society. Technology like sensors and online services track interactions, like face-to-face talks, emails, and calls, creating vast data sets. This data often shows who interacted and when in a simple format.
 One common way to study this data is by creating networks that link people who communicated at least once. Another way is to use temporal networks, which show links only during interactions. This type of data helps study how contagious things like diseases and rumors spread through networks over time.
 By looking at data event by event, researchers can update the status of people involved in each interaction. Karsai and others studied how slow contagions create patterns of activity with long intervals between events. This means it takes longer for someone to infect others during these patterns.
 Some research suggests that longer intervals between events can slow down contagion, while other studies show the opposite. We explore how these activity patterns affect the spread of epidemics, using different models like susceptible-infected (SI) and susceptible-exposed-infected-recovered (SEIR).
@@ -926,41 +1101,62 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.92549504950495</v>
+        <v>14.90088866799205</v>
       </c>
       <c r="D19" t="n">
-        <v>10.76434108527132</v>
+        <v>10.69885416666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>503</v>
+      </c>
+      <c r="F19" t="n">
+        <v>256</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Corrected text:
-The principal aim of this paper is to discuss the structure of complex networks and how they inform us about the ways dynamical systems behave. Firstly, we ask questions about past attempts, which have focused on the conditions required to achieve a synchronous state or on controlling the network dynamics towards a target state. In this approach, we use tools from dynamical systems theory and apply them to the network, treating it as a high-dimensional dynamical system with certain useful symmetric properties.
+          <t>The principal aim of this paper is to discuss the structure of complex networks and how they inform us about the ways dynamical systems behave. Firstly, we ask questions about past attempts, which have focused on the conditions required to achieve a synchronous state or on controlling the network dynamics towards a target state. In this approach, we use tools from dynamical systems theory and apply them to the network, treating it as a high-dimensional dynamical system with certain useful symmetric properties.
 The results of this work are presented in two parts. In the first section, we briefly review the necessary background concepts of complex networks, in particular, scale-free networks, which are widely described as ubiquitous throughout nature. It is claimed that a widely utilized model for generating scale-free networks is preferential attachment. We choose to focus on the effects of biased assortativity and disassortativity, asking how the structural and dynamical behavior of strongly assortative or disassortative networks differ from the archetypal preferential attachment model.
 To quantify the structural properties of the network, we measure the usual suspects: node degree, diameter, assortativity, and clustering robustness, which are briefly described in the latter part. To measure the dynamical behavior, we compute the leading eigenvalues and fixed points of the network dynamical system, which are also described precisely in the following sections. We use a battery of statistics to assess four different types of complex networks - two standard and two inventions: (1) the standard preferential attachment model, and we refer to the four types of complex networks as preferential attachment, small-world, altruistic attachment, and skinny. These four classes of networks impose a link exchange mechanism, which is also described as we incrementally alter assortativity. In the next section, we introduce the necessary machinery.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Simplified text:
-This paper aims to explore how complex networks help us understand how dynamical systems work. We study past efforts focusing on reaching a synchronized state or controlling network dynamics. By treating the network as a dynamic system, we apply tools from dynamical systems theory to analyze its structure.
+          <t>This paper aims to explore how complex networks help us understand how dynamical systems work. We study past efforts focusing on reaching a synchronized state or controlling network dynamics. By treating the network as a dynamic system, we apply tools from dynamical systems theory to analyze its structure.
 The study is divided into two sections. The first part covers background concepts of complex networks, particularly scale-free networks, often found in nature. We investigate biased assortativity and disassortativity to compare their effects on network behavior with the standard model of preferential attachment.
 To analyze the network's structure, we examine node degree, diameter, assortativity, and clustering robustness. For dynamics, we calculate leading eigenvalues and fixed points of the network system. Various statistics are used to evaluate four types of complex networks: preferential attachment, small-world, altruistic attachment, and skinny, each with different link exchange mechanisms and assortativity levels. The following section introduces the necessary tools for the study.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14.94360544217687</v>
+        <v>14.87068493150685</v>
       </c>
       <c r="D20" t="n">
-        <v>13.42604516502606</v>
+        <v>13.35319648093842</v>
+      </c>
+      <c r="E20" t="n">
+        <v>292</v>
+      </c>
+      <c r="F20" t="n">
+        <v>155</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Corrected text:
-Topic modeling of massive datasets has attracted intensive research interest recently, as large-scale datasets, collections of images and documents, are becoming increasingly common online. Parallel topic modeling algorithms employ two major strategies for massive datasets. The former processes the massive data stream in minibatches and discards the processed minibatch once it is looked at, while the latter uses a parallel architecture to speed up topic modeling with multicore processor memory resources. 
+          <t>Topic modeling of massive datasets has attracted intensive research interest recently, as large-scale datasets, collections of images and documents, are becoming increasingly common online. Parallel topic modeling algorithms employ two major strategies for massive datasets. The former processes the massive data stream in minibatches and discards the processed minibatch once it is looked at, while the latter uses a parallel architecture to speed up topic modeling with multicore processor memory resources. 
 Although online topic modeling algorithms use fewer computational resources, the accuracy of topic modeling depends on several heuristic parameters, including minibatch size, which is often comparable to batch learning algorithms. In practice, online algorithms are often faster than batch algorithms, and parallel algorithms can be even faster if processors with parallel architecture become cheaper. Thus, widely used parallel topic modeling algorithms are becoming the ideal choice for speeding up topic modeling. However, parallel topic modeling is not a trivial task, as efficiency depends highly on extensive communication and synchronization delays across distributed processors. 
 Indeed, the communication cost determines the scalability of parallel topic modeling algorithms. In this paper, we propose a novel communication-efficient parallel belief propagation (CEPBP) algorithm for training Latent Dirichlet Allocation (LDA), one of the simplest topic models. First, we extend the synchronous BP algorithm (PBP) to parallel architecture for training LDA, showing that PBP yields the exact results as synchronous BP but with reduced extensive communication and synchronization delays. 
 Secondly, we reduce the extensive communication and synchronization delays by using Zipf's Law to determine the communication rate for synchronizing global parameters in PBP. By using different communication rates, we show that the total communication cost is significantly reduced. Extensive experiments confirm that CEPBP reduces communication time by around and achieves much higher topic modeling accuracy than the state-of-the-art parallel Gibbs sampling algorithm (PGS).</t>
@@ -968,24 +1164,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Simplified text:
-Recently, topic modeling of large datasets like images and documents online has gained attention. When handling massive datasets, parallel topic modeling algorithms use two main strategies. One processes data in small parts, discarding each once examined, while the other speeds up modeling using multiple core processors.
+          <t>Recently, topic modeling of large datasets like images and documents online has gained attention. When handling massive datasets, parallel topic modeling algorithms use two main strategies. One processes data in small parts, discarding each once examined, while the other speeds up modeling using multiple core processors.
 Online topic modeling needs fewer resources but accuracy relies on specific parameters like batch size, similar to batch learning. Usually, online methods are quicker than batch ones, and parallel methods are even faster if processors are more affordable. Therefore, parallel algorithms are preferred for faster topic modeling. But, efficiency in parallel modeling depends on communication and synchronization delays between processors.
 Communication cost influences how well parallel topic modeling algorithms can scale. We introduce a new efficient communication method for training Latent Dirichlet Allocation (LDA), a basic topic model. Firstly, we adapt a synchronous BP algorithm for LDA training, which reduces communication delays without altering results. Secondly, we use Zipf's Law to optimize communication rates, lowering the overall cost significantly. Tests show that our method reduces communication time and improves topic modeling accuracy compared to a leading parallel algorithm.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17.44430243669374</v>
+        <v>17.39602934102934</v>
       </c>
       <c r="D21" t="n">
-        <v>13.97064516129032</v>
+        <v>13.91478260869565</v>
+      </c>
+      <c r="E21" t="n">
+        <v>297</v>
+      </c>
+      <c r="F21" t="n">
+        <v>184</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Corrected text:
-Networks provide a powerful abstraction describing structures in a wide range of complex systems. Unfortunately, data collected from real networks is often incomplete, giving rise to the study of link prediction which seeks to predict missing links according to observed data. The focus of this essential problem of link prediction remains largely uninvestigated, assuming that two nodes are connected and attempting to predict the direction. To answer this question, we seek to construct an optimal ordering of nodes, where a link tends to stem from a lower-ranking node to a higher-ranking one.
+          <t>Networks provide a powerful abstraction describing structures in a wide range of complex systems. Unfortunately, data collected from real networks is often incomplete, giving rise to the study of link prediction which seeks to predict missing links according to observed data. The focus of this essential problem of link prediction remains largely uninvestigated, assuming that two nodes are connected and attempting to predict the direction. To answer this question, we seek to construct an optimal ordering of nodes, where a link tends to stem from a lower-ranking node to a higher-ranking one.
 Admittedly, ranking-based methods inevitably have drawbacks mainly due to directed cycles. Real networks usually form directed acyclic graphs (DAGs), where the desired property of a link pointing from a lower-ranked node to a higher-ranked one must be violated at least in a directed cycle. Specifically, this suggests a method to predict bidirectional links by considering directed cycles of length 2. Nevertheless, this method has unique virtues: it reveals the potential functionality of ranking algorithms as a tool for investigating the structural properties of networks beyond the traditional role in information retrieval. It also helps obtain predicted directions on a global ranking, describing the directionality of the whole network and bridging properties from microscopic to macroscopic scales. Additionally, it may serve as an effective approximation algorithm for the linear ordering problem and the maximum acyclic subgraph problem in directed networks, which are generally NP-hard.
 Studied especially in tournament graphs where every pair of vertices is connected by a single directed link, rich structural information is woven through directed links, motivating a number of ranking algorithms for information retrieval. These algorithms are designed to derive the ordering of nodes by leveraging the topological relations in the network. The ranking criteria are usually based on a global score, for example, PageRank, which defines two scores for a node, namely hub and authority. A node with a high hub score points to many good authorities, while one with a high authority score receives links from many good hubs. However, when it comes to predicting the direction between two given nodes, ranking completely based on global quantities and processes hardly capture the local directionality.
 Therefore, local indicators like indegree and outdegree must be utilized in the ranking algorithm, as the effectiveness of purely local indicators is weakened by the limited scope of information. Degrees related to directly connected nodes and their indirect relations are lost. Thus, local indicators must be combined and rearranged carefully to form a meaningful global ranking. In this paper, inspired by the hierarchical nature of disparate complex networks, we propose a method that uses local indicators recursively at multiple scales, corresponding to a subgraph extracted from the whole network. Although local quantities may give a rough global sketch, they can reliably capture local properties and play a decisive role as the scale diminishes due to the increasing fineness in describing relations and locality.
@@ -994,25 +1200,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Simplified text:
-Networks describe structures in various complex systems. Missing links in real networks are often predicted using link prediction techniques. These methods focus on determining connections between nodes. One approach involves ranking nodes to predict links from lower-ranked to higher-ranked nodes.
+          <t>Networks describe structures in various complex systems. Missing links in real networks are often predicted using link prediction techniques. These methods focus on determining connections between nodes. One approach involves ranking nodes to predict links from lower-ranked to higher-ranked nodes.
 However, ranking methods have limitations, especially in networks with directed cycles. To address this, predicting bidirectional links can involve considering directed cycles of length 2. This method showcases the potential of ranking algorithms beyond information retrieval, offering insights into network structures on different scales.
 In tournament graphs, ranking algorithms utilize topological relations to order nodes based on global scores like PageRank. While global scores are essential, local indicators such as indegree and outdegree play a crucial role in predicting link directions accurately.
 Our proposed method incorporates local indicators at various scales to create a meaningful global ranking. By utilizing local properties effectively, this method not only predicts link directions but also reveals the hierarchical structure of real networks.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15.50312287908555</v>
+        <v>15.46163259817106</v>
       </c>
       <c r="D22" t="n">
-        <v>13.28375</v>
+        <v>13.2196835443038</v>
+      </c>
+      <c r="E22" t="n">
+        <v>507</v>
+      </c>
+      <c r="F22" t="n">
+        <v>158</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Corrected text:
-Email: pablo.jensen@ens-lyon.fr
+          <t>Email: pablo.jensen@ens-lyon.fr
 By using a large database of 215,000 records, relevant articles, and an empirical study in the field of "complex systems," this study claims to find universal principles that apply to systems in general. The study references shared papers that allow us to obtain a global point of view of the highly interdisciplinary field. It shows that an overall coherence arises from a universal theory instead of relying on computational techniques. Fruitful adaptations of the idea of self-organization in specific systems are also found. The study also explores the communication between different disciplines, which form specific "trading zones." These "trading zones" are sub-communities that create interfaces around specific tools such as DNA microchips, concepts, and networks. 
 Fundamental science has strived to reduce the diversity of the world into stable building blocks like atoms and genes. However, this reductionist approach must be complemented by a reverse step to obtain the properties of the whole materials and organisms by combining microscopic entities. This is a notoriously difficult task. 
 The paper empirically studies the field of "complex systems" using quantitative tools developed to understand the organization of scientific fields. The study uses bibliographic coupling, which offers two advantages over the usual co-citation link: it offers a faithful representation of fields by giving equal weight to published papers, whether they are cited or not, or if they are applied in recent papers yet not cited. For further details, the reader is referred to the "Methods" section.
@@ -1056,39 +1272,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12.96719237749546</v>
+        <v>12.93315664845173</v>
       </c>
       <c r="D23" t="n">
         <v>14.32442569992822</v>
       </c>
+      <c r="E23" t="n">
+        <v>549</v>
+      </c>
+      <c r="F23" t="n">
+        <v>199</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Corrected text:
-A spanner set points in a geometric space is a sparse graph where points are vertices and edge lengths equal the geometric distance between endpoints. The graph distance between two points accurately approximates the geometric distance. In a plane, two edges are represented as planar line segments that intersect except at shared endpoints. If a set of points in a graph contains points that are a subset of the vertices embedded in straight line edges without crossings in the plane, it achieves a dilation for pairs of points in the original point set that require pairs of points in the original to be connected by short paths. Arikati et al. showed how to construct a planar Steiner spanner with a time bound on the total weight of the graph. Of course, spanners may also be constructed by forming arrangements of line segments representing edges for a non-planar spanner graph; planarization changes the spanner's weight and may add a large number of edges and vertices.
+          <t>A spanner set points in a geometric space is a sparse graph where points are vertices and edge lengths equal the geometric distance between endpoints. The graph distance between two points accurately approximates the geometric distance. In a plane, two edges are represented as planar line segments that intersect except at shared endpoints. If a set of points in a graph contains points that are a subset of the vertices embedded in straight line edges without crossings in the plane, it achieves a dilation for pairs of points in the original point set that require pairs of points in the original to be connected by short paths. Arikati et al. showed how to construct a planar Steiner spanner with a time bound on the total weight of the graph. Of course, spanners may also be constructed by forming arrangements of line segments representing edges for a non-planar spanner graph; planarization changes the spanner's weight and may add a large number of edges and vertices.
 In their paper, Klein and graph spanners provide an alternative basis for plane Steiner spanner construction, generalizing previous results. Althofer et al. showed that a vertex planar graph specified as a subset of vertices may be thinned to provide a planar Steiner spanner graph with distances specified in the subset. The weight is times the weight of a minimum Steiner tree on the subset. Klein combined these results with methods from another paper to provide a polynomial time approximation scheme for the traveling salesperson problem on weighted planar graphs. Using Klein's method to reduce the weight of the geometric spanner formed by connecting pairs of points in a given point set using line segments would lead to a low-weight planar Steiner spanner for the point set with a large number of vertices and edges. Ideally, one would prefer a low-weight planar Steiner spanner with a linear number of edges and vertices, which could be used in Klein's planar graph algorithms to derive a deterministic polynomial time approximation scheme for the Euclidean TSP.
 Previous randomly shifted quadtree approximation schemes by Arora and Guillotine subdivision approximation schemes by Mitchell have runtimes that are polynomial with a fixed exponent, depending on the contrast. Klein's method takes a linear time on the spanner size. However, combining Klein's method with nonlinear size Steiner spanners as described could improve a different deterministic TSP approximation scheme, as announced by Rao and Smith. Their method is based on approximate Steiner trees and takes time that is fixed to a fixed dimension, although details are yet to be published. Past results raise several questions: Are banyans necessary for fast TSP approximation? Is it possible to make vanilla forms of spanners quickly to create low-weight planar Steiner spanners quickly that may be approximated in TSP? Are vertices necessary for a plane Steiner spanner to provide partial answers? Planar point sets that are well-spaced in the sense of a Delaunay triangulation avoid sharper angles to show that bounded fixed constants exist for plane Steiner spanners on vertices whose weight is times the minimum spanning tree weight. Note that the weight depends linearly, improving the quartic dependence given Klein's thinning procedure. Additionally, spanners on vertices may be constructed in linear time given a Delaunay triangulation. In order to use a spanner for approximating the Euclidean TSP, one may assume points have integer coordinates and use a fast Delaunay triangulation algorithm by Buchin and Mulzer, which leads to a near-linear time TSP approximation for a class of point sets.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Simplified text:
-A spanner set in geometry is a graph where points are connected by edges that match the actual distances between them. This graph helps estimate distances between points accurately. In a plane, edges are represented by intersecting line segments. When points are connected in a graph with straight lines in a plane without crossing, it creates a dilation for pairs of points, reducing the distance they need to travel. Researchers have shown methods to construct these graphs efficiently. By simplifying the connections between points, a more efficient graph is formed for the traveling salesperson problem. Different methods are being explored to improve this process further. Creating these graphs quickly and effectively is crucial for solving optimization problems.</t>
+          <t>A spanner set in geometry is a graph where points are connected by edges that match the actual distances between them. This graph helps estimate distances between points accurately. In a plane, edges are represented by intersecting line segments. When points are connected in a graph with straight lines in a plane without crossing, it creates a dilation for pairs of points, reducing the distance they need to travel. Researchers have shown methods to construct these graphs efficiently. By simplifying the connections between points, a more efficient graph is formed for the traveling salesperson problem. Different methods are being explored to improve this process further. Creating these graphs quickly and effectively is crucial for solving optimization problems.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13.92508740475123</v>
+        <v>13.87754122938531</v>
       </c>
       <c r="D24" t="n">
-        <v>9.299439775910365</v>
+        <v>9.146666666666668</v>
+      </c>
+      <c r="E24" t="n">
+        <v>580</v>
+      </c>
+      <c r="F24" t="n">
+        <v>117</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Corrected text:
-Detecting communities is a task of great importance in many disciplines, namely sociology, biology and computer science. In a given graph, a community is a group of vertices that are "linked" more closely to each other than to the rest of the graph. This is a clearly poor definition, as in a connected graph there is no clear distinction between a community and the rest of the graph in general. There is a continuum of nested communities whose boundaries are somewhat arbitrary: the structure of communities can be seen as a hierarchical dendrogram. The problem of community detection is fundamental in social simulations; for instance, human decisions such as cooperation vs exploitation often depend on the detection of the community one is embedded in.
+          <t>Detecting communities is a task of great importance in many disciplines, namely sociology, biology and computer science. In a given graph, a community is a group of vertices that are "linked" more closely to each other than to the rest of the graph. This is a clearly poor definition, as in a connected graph there is no clear distinction between a community and the rest of the graph in general. There is a continuum of nested communities whose boundaries are somewhat arbitrary: the structure of communities can be seen as a hierarchical dendrogram. The problem of community detection is fundamental in social simulations; for instance, human decisions such as cooperation vs exploitation often depend on the detection of the community one is embedded in.
 Community detection relies on global quantities like betweenness centrality. For example, let us suppose an internet user wants to know at a certain time which community they belong to. For the user, it is impossible to calculate the network betweenness. For example, in the World Wide Web, besides using individual heuristics to discover the first neighbors of a node, one can determine, based on the lack of the best community at a superficial level, that information processing concerns the evaluation of probabilities. Faced with insufficient data and insufficient time for rational processing, humans have developed algorithms, denoted as heuristics, that allow them to make decisions in such situations.
 A modern approach to the study of cognitive heuristics defines strategies to prevent one from finding and discovering the correct answers to problems assumed in the domain of probability theory. Basically, cognitive heuristics are a program proposed by Goldstein and Gigerenzer that suggests starting with fundamental psychological mechanisms in order to design models of heuristics. They propose a new tool for detecting communities in complex networks using a local algorithm that can be applied to irregular cellular automata. Previous work has shown that the information dynamics algorithm, inspired by human heuristics, is capable of discovering communities in regular networks. In this approach, each individual node is simply modeled as a memory set of connections between individuals, and information from neighboring nodes is propagated using a standard diffusion process. This process is elaborated locally using a nonlinear competition process among information, a process that can be considered an implementation of the "take the best" heuristic. This heuristic is based on the assumption that vivid and easily recallable information can give an accurate estimate of the frequency of a related event in the population.
 The applicability of community detection algorithms in networks with local connectivity is rather problematic. Let us consider the illustration of the small-world effect: starting with a regular network with pure local connectivity, if a small fraction of links is rewired to other sites, it is generally observed that local quantities like clustering level change. When the fraction of rewiring is quite large, global quantities like network diameter essentially take on values similar to random networks. As soon as the fraction of rewiring is greater than zero, what happens in community detection becomes apparent.</t>
@@ -1096,24 +1333,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Simplified text:
-Finding groups in graphs, known as communities, is crucial in various fields like sociology, biology, and computer science. Communities are vertices closely linked within a graph. Detecting them can be complex as boundaries are flexible. Community detection is vital in social simulations, aiding in decisions like cooperation. Methods like betweenness centrality help in this detection.
+          <t>Finding groups in graphs, known as communities, is crucial in various fields like sociology, biology, and computer science. Communities are vertices closely linked within a graph. Detecting them can be complex as boundaries are flexible. Community detection is vital in social simulations, aiding in decisions like cooperation. Methods like betweenness centrality help in this detection.
 For instance, in the internet, users may not calculate network betweenness to identify their community. Instead, they use heuristics, like assessing probabilities, due to time constraints. Cognitive heuristics, based on psychological mechanisms, help in decision-making. Algorithms inspired by human thinking can identify communities in networks effectively.
 In networks with local connections, detecting communities can be challenging. For example, in networks with a mix of local and rewired links, the structure changes. As more links are rewired, global network features shift towards random networks. This impacts community detection methods.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15.75813270226826</v>
+        <v>15.71764837726376</v>
       </c>
       <c r="D25" t="n">
-        <v>11.96790640394089</v>
+        <v>11.91105394605394</v>
+      </c>
+      <c r="E25" t="n">
+        <v>507</v>
+      </c>
+      <c r="F25" t="n">
+        <v>143</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Corrected text:
-Product codes were introduced in 1954 by Elias. A product code is viewed as a special case of Tanner construction code with low complexity decoding. A product code is defined as a \textit{row code} of length rate and a \textit{column code} of length rate. Codewords are represented in matrices that satisfy the constraint that every row belongs to every column. Product codes are decoded in an iterative fashion; the rows and columns are recovered in successive rounds using decoders. In a rate product code, the product rates work by presenting irregular product codes. In the generalization of product codes, rows and columns belong to a single code. This shows that codes can still retain advantages. Product codes have additional attractive features. One main advantage of product codes is that decoding takes place in smaller component codes, resulting in a speedup of decoding. Furthermore, by combining Reed-Solomon component codes, one can obtain product codes of length equal to the square size of component codes. By taking advantage of the MDS properties of small component codes, another application-specific feature is that product codes perform well in bursty channels. In fact, a product code transmitted row by row can handle burst errors that corrupt several consecutive rows spread evenly across columns. This allows column codes to recover corrupted entries. Irregular product codes are based on the simple idea that there is no need to restrict a single row or column code; instead, row and column codes can have multiple rates. The intuition behind allowing low-rate, highly error-resilient codes is to boost the decoding process, while high-rate codes ensure that the overall irregular product code is of good rate. Through careful design of rate distributions, one can hope to achieve better performance than regular product codes. Irregularity is a powerful concept in many contexts; for example, irregular degree distributions in LDPC codes, LT codes, etc. The idea fully exploits the inherently interactive nature of decoding product codes. Indeed, the round-based decoding of product codes allows rows and columns to "help" each other recover as they go through the decoding process, enabling various decoding capabilities for different rows and columns. The property of the decoder can tap into either a row or column code. For instance, if a row code has a rate close to 1, decoding happens first in the column codes whose rate is far from 1. Row codes play a complementary role in this process. Irregular product codes exist where the rate vs. decoding capacity matches. The decoding process involves a longer gradual interaction between row and column component codes. Irregular product codes retain the advantages of product codes while presenting additional features that make them attractive. Decoding still takes place in smaller codes, and the field size is still allowed to grow slower in the case of MDS component codes. Irregular product codes still perform well in bursty channels, as powerful as regular product codes in parts of a codeword known to be vulnerable to bursts. Since row and column codes have error-correction capabilities that are tunable, short-length linear codes exist in product codes of every desirable dimension. Fixing the dimension of a product code leaves choices for the dimensions of component codes. Irregular product codes, on the other hand, allow for many dimensions due to the numerous choices of rate distribution in component codes. First, we derive bounds on the rate and minimum distance of irregular product codes. We give constructions that achieve these bounds and provide explicit families of irregular product codes that can get rates arbitrarily close to channels with erasure-based MDS component codes. Note, however, that this does not mean the codes have a capacity approaching the Shannon capacity, as MDS codes grow as a function of length. On the other hand, we show an analysis extended to the situation where instead of MDS codes, component codes use capacity-approaching codes in a rate-fixed erasure channel. In this case, the resulting product code is truly capacity-approaching. We give simulation results of finite-length codes to show that irregular product codes have better thresholds than product codes of dimensions close to specific lengths. Since the introduction of product codes, many extensions have been proposed. These codes have found many applications in magnetic recording and deep space communication. They are mainly known for their simple construction and low-complexity decoding. They use different component codes for rows and different component codes for columns. For example, rows could be LDPC codes, and columns could be RS codes with different rates. To determine the optimum rate for RS codes, dynamic programming can be used. However, to the best of our knowledge, irregular product codes in their generality have not been considered in depth. This paper, together with the asymptotic behavior previously explored, similarly extends to multidimensional product codes. Investigated previously were component codes restricted to single parity extended Hamming codes. In some papers, authors devised low-complexity soft decoding algorithms for AWGN channels with weight distribution instances of product codes known. For example</t>
+          <t>Product codes were introduced in 1954 by Elias. A product code is viewed as a special case of Tanner construction code with low complexity decoding. A product code is defined as a \textit{row code} of length rate and a \textit{column code} of length rate. Codewords are represented in matrices that satisfy the constraint that every row belongs to every column. Product codes are decoded in an iterative fashion; the rows and columns are recovered in successive rounds using decoders. In a rate product code, the product rates work by presenting irregular product codes. In the generalization of product codes, rows and columns belong to a single code. This shows that codes can still retain advantages. Product codes have additional attractive features. One main advantage of product codes is that decoding takes place in smaller component codes, resulting in a speedup of decoding. Furthermore, by combining Reed-Solomon component codes, one can obtain product codes of length equal to the square size of component codes. By taking advantage of the MDS properties of small component codes, another application-specific feature is that product codes perform well in bursty channels. In fact, a product code transmitted row by row can handle burst errors that corrupt several consecutive rows spread evenly across columns. This allows column codes to recover corrupted entries. Irregular product codes are based on the simple idea that there is no need to restrict a single row or column code; instead, row and column codes can have multiple rates. The intuition behind allowing low-rate, highly error-resilient codes is to boost the decoding process, while high-rate codes ensure that the overall irregular product code is of good rate. Through careful design of rate distributions, one can hope to achieve better performance than regular product codes. Irregularity is a powerful concept in many contexts; for example, irregular degree distributions in LDPC codes, LT codes, etc. The idea fully exploits the inherently interactive nature of decoding product codes. Indeed, the round-based decoding of product codes allows rows and columns to "help" each other recover as they go through the decoding process, enabling various decoding capabilities for different rows and columns. The property of the decoder can tap into either a row or column code. For instance, if a row code has a rate close to 1, decoding happens first in the column codes whose rate is far from 1. Row codes play a complementary role in this process. Irregular product codes exist where the rate vs. decoding capacity matches. The decoding process involves a longer gradual interaction between row and column component codes. Irregular product codes retain the advantages of product codes while presenting additional features that make them attractive. Decoding still takes place in smaller codes, and the field size is still allowed to grow slower in the case of MDS component codes. Irregular product codes still perform well in bursty channels, as powerful as regular product codes in parts of a codeword known to be vulnerable to bursts. Since row and column codes have error-correction capabilities that are tunable, short-length linear codes exist in product codes of every desirable dimension. Fixing the dimension of a product code leaves choices for the dimensions of component codes. Irregular product codes, on the other hand, allow for many dimensions due to the numerous choices of rate distribution in component codes. First, we derive bounds on the rate and minimum distance of irregular product codes. We give constructions that achieve these bounds and provide explicit families of irregular product codes that can get rates arbitrarily close to channels with erasure-based MDS component codes. Note, however, that this does not mean the codes have a capacity approaching the Shannon capacity, as MDS codes grow as a function of length. On the other hand, we show an analysis extended to the situation where instead of MDS codes, component codes use capacity-approaching codes in a rate-fixed erasure channel. In this case, the resulting product code is truly capacity-approaching. We give simulation results of finite-length codes to show that irregular product codes have better thresholds than product codes of dimensions close to specific lengths. Since the introduction of product codes, many extensions have been proposed. These codes have found many applications in magnetic recording and deep space communication. They are mainly known for their simple construction and low-complexity decoding. They use different component codes for rows and different component codes for columns. For example, rows could be LDPC codes, and columns could be RS codes with different rates. To determine the optimum rate for RS codes, dynamic programming can be used. However, to the best of our knowledge, irregular product codes in their generality have not been considered in depth. This paper, together with the asymptotic behavior previously explored, similarly extends to multidimensional product codes. Investigated previously were component codes restricted to single parity extended Hamming codes. In some papers, authors devised low-complexity soft decoding algorithms for AWGN channels with weight distribution instances of product codes known. For example</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1122,17 +1369,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11.30359232849767</v>
+        <v>11.27967268066647</v>
       </c>
       <c r="D26" t="n">
         <v>10.40792207792208</v>
       </c>
+      <c r="E26" t="n">
+        <v>828</v>
+      </c>
+      <c r="F26" t="n">
+        <v>154</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Corrected text:
-Alouini's technical report is divided into two parts. The first part of the technical report presents a novel framework for modeling uplink and downlink intercell interference (ICI) in a multiuser cellular network. The proposed framework assists in quantifying the impact of various fading channel models and multiuser scheduling schemes on uplink and downlink ICI. Firstly, we derive a semi-analytical expression for the distribution and location of scheduled users in a given cell, considering a wide range of scheduling schemes. Based on this, we derive the distribution and moment generating function (MGF) of ICI considering a single interfering cell. Consequently, we determine the MGF of the cumulative ICI observed from interfering cells and derive explicit MGF expressions for three typical fading models. Finally, we utilize the obtained expressions to evaluate important network performance metrics such as outage probability, ergodic capacity, and average fairness numerically. Monte Carlo simulation results are provided to demonstrate the efficacy of the derived analytical expressions.
+          <t>Alouini's technical report is divided into two parts. The first part of the technical report presents a novel framework for modeling uplink and downlink intercell interference (ICI) in a multiuser cellular network. The proposed framework assists in quantifying the impact of various fading channel models and multiuser scheduling schemes on uplink and downlink ICI. Firstly, we derive a semi-analytical expression for the distribution and location of scheduled users in a given cell, considering a wide range of scheduling schemes. Based on this, we derive the distribution and moment generating function (MGF) of ICI considering a single interfering cell. Consequently, we determine the MGF of the cumulative ICI observed from interfering cells and derive explicit MGF expressions for three typical fading models. Finally, we utilize the obtained expressions to evaluate important network performance metrics such as outage probability, ergodic capacity, and average fairness numerically. Monte Carlo simulation results are provided to demonstrate the efficacy of the derived analytical expressions.
 The first part of the technical report is currently submitted to IEEE Transactions on Wireless Communications. The second part of the technical report deals with statistical modeling of uplink intercell interference (ICI) considering greedy scheduling and power adaptation based on channel conditions. The derived model is utilized to evaluate important network performance metrics such as ergodic capacity, average fairness, and average power preservation numerically. In parallel literature, it is shown that greedy scheduling with power adaptation reduces ICI and average power consumption for users, enhancing average fairness among users compared to the case without power adaptation.
 The explosive growth in the demand for high-quality wireless data services compels network designers to utilize the spectrum aggressively. On one hand, this enhances spectrum efficiency, while on the other hand, it enhances intercell interference (ICI), which is an alarming bottleneck in the telecommunication growth paradigm. The allocation of frequency bands across neighboring cells produces indeterministic ICI highly dependent on the statistics of channel characteristics and dynamics of multiuser scheduling decisions. In this context, it is of immense importance for system designers to accurately characterize and investigate the behavior of ICI, as it helps in gaining theoretical insights, quantifying various network performance metrics, and developing efficient resource allocation and interference mitigation schemes.
 Orthogonal Frequency Division Multiple Access (OFDMA) is a state-of-the-art multiple access scheme adopted in LTE, WiMAX, and other cellular technologies. OFDMA uses wideband frequency-selective fading channels decomposed into a set of orthogonal narrowband subcarriers. The orthogonality among subcarriers per cell makes intracell interference almost negligible. However, universal frequency reuse among cells, where cells use the same set of subcarriers, may cause severe degradation in network performance due to intercell interference (ICI). In OFDMA networks, subcarriers are adaptively allocated among users per cell based on predefined scheduling schemes. Moreover, only one user is allocated per subcarrier per cell at a given time instant, limiting the number of interfering users per subcarrier. Therefore, cumulative ICI given a subcarrier may be accurately modeled as a Gaussian random variable (RV) by invoking the Central Limit Theorem.
@@ -1152,17 +1410,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16.26736443883985</v>
+        <v>16.24819216182048</v>
       </c>
       <c r="D27" t="n">
         <v>13.90235632183908</v>
       </c>
+      <c r="E27" t="n">
+        <v>791</v>
+      </c>
+      <c r="F27" t="n">
+        <v>348</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Corrected text:
-The purpose of this project report is to present and discuss the results of applying compression to the network protocol of a multiplayer online game. This poses new challenges as compression algorithms need to be developed. The algorithm tries to tackle networked games that typically follow a client-server model where multiple clients connect to a single server. The server is constantly streaming data that contains game updates to clients that are long connected. The client also sends data about the player's actions.
+          <t>The purpose of this project report is to present and discuss the results of applying compression to the network protocol of a multiplayer online game. This poses new challenges as compression algorithms need to be developed. The algorithm tries to tackle networked games that typically follow a client-server model where multiple clients connect to a single server. The server is constantly streaming data that contains game updates to clients that are long connected. The client also sends data about the player's actions.
 This report focuses on compressing the data stream from the server to the client. The amount of data sent from the client to the server is likely to be small. Therefore, it would be of interest to compress it as many potential benefits may be achieved by compressing the game data stream. The server has limited bandwidth but could theoretically serve more clients if compression lowers the bandwidth requirements for individual clients. Compression is also likely to reduce the number of packets required to transmit larger data bursts.
 Compressing data streams poses requirements for the compression algorithm. The algorithm should be able to compress data packets of arbitrary length and also be decompressed individually. Especially, a large number of small packets are likely to pose a challenge for compression algorithms.
 Two publicly available and widely-used compression algorithm implementations are compared in this report. Zlib implements the LZMA algorithm and generally achieves a 30% better compression than zlib. However, in instances where the LZMA algorithm is applied to stream compression, the sample data used in this report was collected from a game called Tomenet.</t>
@@ -1174,17 +1443,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10.90907688918264</v>
+        <v>10.83884572697004</v>
       </c>
       <c r="D28" t="n">
         <v>11.95657142857143</v>
       </c>
+      <c r="E28" t="n">
+        <v>265</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Corrected text:
-Propose an optimization method called Prisma Proximal Iterative Smoothing Algorithm for problems. The results hold for general Hilbert spaces. For simplicity of exposition, consider the Euclidean setting: \(f(x) : f(x) + g(x) + h(x)\), where \(x \in \mathbb{R}^n\), and differentiable Lipschitz continuous gradient \(\|\nabla f(x) - \nabla f\| \leq L_f \|xy\| \quad \forall x \in \mathbb{R}^n\). For non-continuous or non-finite functions, for example, the indicator function in convex constraints, we assume the calculation of gradients in a "simple" sense. To calculate proximity operators, footnote clarity is needed to explicitly define the proximity operator function as the algorithm heavily depends on parameters that change over time. Similarly, the method can be viewed as a black box where one accesses gradients and proximity operators. The complexity of the method depends on the smoothness of iterations. Prisma requires one evaluation of vector operations overall complexity \(O(iterations \cdot f(x_{k+1}) - f(x_k)) \leq l_f \cdot \frac{k}{2} + \frac{\rho_g \log k}{k}\).
+          <t>Propose an optimization method called Prisma Proximal Iterative Smoothing Algorithm for problems. The results hold for general Hilbert spaces. For simplicity of exposition, consider the Euclidean setting: \(f(x) : f(x) + g(x) + h(x)\), where \(x \in \mathbb{R}^n\), and differentiable Lipschitz continuous gradient \(\|\nabla f(x) - \nabla f\| \leq L_f \|xy\| \quad \forall x \in \mathbb{R}^n\). For non-continuous or non-finite functions, for example, the indicator function in convex constraints, we assume the calculation of gradients in a "simple" sense. To calculate proximity operators, footnote clarity is needed to explicitly define the proximity operator function as the algorithm heavily depends on parameters that change over time. Similarly, the method can be viewed as a black box where one accesses gradients and proximity operators. The complexity of the method depends on the smoothness of iterations. Prisma requires one evaluation of vector operations overall complexity \(O(iterations \cdot f(x_{k+1}) - f(x_k)) \leq l_f \cdot \frac{k}{2} + \frac{\rho_g \log k}{k}\).
 The motivation for developing Prisma is for solving optimization problems involving the matrix max-norm (Akanorm). The max-norm has recently been shown to possess advantages over the commonly used tracenorm, which has been lagging behind in terms of development of good optimization approaches. There is a gap aimed to be narrowed in this paper as the norms SDP representable, and standard SDP solvers are applicable beyond small-scale problems. Instead, several first-order optimization approaches are available, commonly using the tracenorm, including singular value thresholding. However, practical first-order optimization techniques available for the max-norm are scarce. We show that max-norm regularized problems can be written in the form of Eq. (\ref{eq:opt}) and solved using Prisma, thus providing for the first time an efficient and practical first-order method for max-norm optimization. We also demonstrate that Prisma can be applied to optimization problems with complex structures, including robust Principal Component Analysis (Robust PCA) and sparse inverse covariance selection (Basis Pursuit). In particular, for Robust PCA, we show that Prisma yields better performance than previously published approaches. In Basis Pursuit, we obtain the best-known convergence rate using first-order proximity oracles following the ideas of Nesterov. We use the proximity operator to obtain gradients of the smoothed version. However, unlike a fixed amount of smoothing used throughout the run, we show that gradually changing the amount of smoothing per iteration using an accelerated gradient descent approach, plus the smoothed version, can handle components. Instead of attempting to linearize the gradient descent, we include iteration Fobos gradual smoothing, which allows us to obtain a guaranteed dependency knowing in advance the total number of iterations needed, bounding the domain without the need for additional factors. We use the notation \(\mathbf{1}_{\mathcal{D}}\) to denote the Fenchel conjugate indicator set (zero inside, infinite outside), set of positive definite matrices (PSD), and ones.</t>
         </is>
       </c>
@@ -1195,57 +1475,88 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14.4939225573209</v>
+        <v>14.45444816053512</v>
       </c>
       <c r="D29" t="n">
         <v>13.08882352941177</v>
       </c>
+      <c r="E29" t="n">
+        <v>455</v>
+      </c>
+      <c r="F29" t="n">
+        <v>204</v>
+      </c>
+      <c r="G29" t="n">
+        <v>23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Corrected text:
-A straightforward view of computational complexity classes is that they are sets of problems that can be solved within certain computing power and resource restrictions. Alongside this, the verification view of complexity asks if a computation can be verified within a given set of restrictions, and whether a given solution can be verified within certain restrictions. A famous result is the equivalence of definitions between the class of problems that can be solved in nondeterministic polynomial time and verified in deterministic polynomial time. This definition can be thought of as a proof system where a Turing machine acts as a verifier with access to the input and the proof, and checks in polynomial time if the proof is correct along with access to a random bit string. It is possible to reduce the number of bits the verifier reads in the proof, in fact, in the case of NP, it is quite surprising that a reduction to a logarithmic number of random bits is possible, making the number of bits constant in order to verify the proof. However, there is a tradeoff as a proof could be false, and the verifier may incorrectly accept it with a probability of one half. Proof systems are well studied in traditional complexity classes like NP, PSPACE, and NEXP. This paper begins to look at parameterized complexity through the lens of interactive proofs, demonstrating a relatively simple yet nontrivial proof system and extending it to bounded classes within a hierarchy of classes. The idea of classifying languages based on membership proofs began to attract serious attention in the early to mid-eighties, with Goldwasser, Micali, and Rackoff's probabilistic approaches to proof verification. These time classes are linked back to traditionally defined complexity classes, where the class of problems with interactive proofs precisely corresponds to PSPACE. It was also shown that the number of provers in an equivalent protocol to two provers. This work culminated in the development of probabilistically checkable proofs, known as the PCP theorem: a class of languages that can be verified in polynomial time by a probabilistic Turing machine acting as a verifier with access to random bits and bits of an oracle string. The input language is accepted with a certain probability, and Dinur provides an accessible proof via constraint satisfaction. Far from a theoretical curiosity, PCPs have a number of applications across computer-assisted mathematics and in general for NP-hard problems and PTAS.</t>
+          <t>A straightforward view of computational complexity classes is that they are sets of problems that can be solved within certain computing power and resource restrictions. Alongside this, the verification view of complexity asks if a computation can be verified within a given set of restrictions, and whether a given solution can be verified within certain restrictions. A famous result is the equivalence of definitions between the class of problems that can be solved in nondeterministic polynomial time and verified in deterministic polynomial time. This definition can be thought of as a proof system where a Turing machine acts as a verifier with access to the input and the proof, and checks in polynomial time if the proof is correct along with access to a random bit string. It is possible to reduce the number of bits the verifier reads in the proof, in fact, in the case of NP, it is quite surprising that a reduction to a logarithmic number of random bits is possible, making the number of bits constant in order to verify the proof. However, there is a tradeoff as a proof could be false, and the verifier may incorrectly accept it with a probability of one half. Proof systems are well studied in traditional complexity classes like NP, PSPACE, and NEXP. This paper begins to look at parameterized complexity through the lens of interactive proofs, demonstrating a relatively simple yet nontrivial proof system and extending it to bounded classes within a hierarchy of classes. The idea of classifying languages based on membership proofs began to attract serious attention in the early to mid-eighties, with Goldwasser, Micali, and Rackoff's probabilistic approaches to proof verification. These time classes are linked back to traditionally defined complexity classes, where the class of problems with interactive proofs precisely corresponds to PSPACE. It was also shown that the number of provers in an equivalent protocol to two provers. This work culminated in the development of probabilistically checkable proofs, known as the PCP theorem: a class of languages that can be verified in polynomial time by a probabilistic Turing machine acting as a verifier with access to random bits and bits of an oracle string. The input language is accepted with a certain probability, and Dinur provides an accessible proof via constraint satisfaction. Far from a theoretical curiosity, PCPs have a number of applications across computer-assisted mathematics and in general for NP-hard problems and PTAS.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Simplified text:
-Computational complexity classes are sets of problems that can be solved under specific computing and resource limits. They also involve verifying if a computation can be confirmed within given constraints. An important finding is that some problems solvable in nondeterministic polynomial time can also be verified in deterministic polynomial time. This verification process involves a Turing machine checking the correctness of a proof within a limited time frame using some random bits. Interestingly, this verification can be done with a minimal number of bits, reducing complexity. However, there's a risk of mistakenly accepting a false proof. These proof systems are studied in various traditional complexity classes like NP, PSPACE, and NEXP. Exploring parameterized complexity through interactive proofs, a simple yet significant proof system is demonstrated and applied to specific classes within a hierarchy. The idea of categorizing languages based on proofs gained attention in the 1980s, with probabilistic approaches like the PCP theorem, which allows verifying languages efficiently using random bits and an oracle string. This theorem has practical applications in computer-assisted mathematics and solving complex problems efficiently.</t>
+          <t>Computational complexity classes are sets of problems that can be solved under specific computing and resource limits. They also involve verifying if a computation can be confirmed within given constraints. An important finding is that some problems solvable in nondeterministic polynomial time can also be verified in deterministic polynomial time. This verification process involves a Turing machine checking the correctness of a proof within a limited time frame using some random bits. Interestingly, this verification can be done with a minimal number of bits, reducing complexity. However, there's a risk of mistakenly accepting a false proof. These proof systems are studied in various traditional complexity classes like NP, PSPACE, and NEXP. Exploring parameterized complexity through interactive proofs, a simple yet significant proof system is demonstrated and applied to specific classes within a hierarchy. The idea of categorizing languages based on proofs gained attention in the 1980s, with probabilistic approaches like the PCP theorem, which allows verifying languages efficiently using random bits and an oracle string. This theorem has practical applications in computer-assisted mathematics and solving complex problems efficiently.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.7100396039604</v>
+        <v>15.64408955223881</v>
       </c>
       <c r="D30" t="n">
-        <v>14.45737373737374</v>
+        <v>14.38720122574055</v>
+      </c>
+      <c r="E30" t="n">
+        <v>402</v>
+      </c>
+      <c r="F30" t="n">
+        <v>178</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Corrected text:
-Work proposes simple time domain processing of speech multiplied by standard window processing based on the well-known emphasis difference frequency property of the discrete-time Fourier transform. In this paper, it is mathematically shown that the proposed technique integrates slope phase information with the magnitude spectrum. Therefore, it is hypothesized that speech feature extraction using modified Fourier coefficients will give better recognition performance. The evaluated performance on multiple databases for the speaker verification (SV) task shows consistent performance improvement compared to the Hamming window-based baseline system. The rest of the paper is organized as follows: Section...</t>
+          <t>Work proposes simple time domain processing of speech multiplied by standard window processing based on the well-known emphasis difference frequency property of the discrete-time Fourier transform. In this paper, it is mathematically shown that the proposed technique integrates slope phase information with the magnitude spectrum. Therefore, it is hypothesized that speech feature extraction using modified Fourier coefficients will give better recognition performance. The evaluated performance on multiple databases for the speaker verification (SV) task shows consistent performance improvement compared to the Hamming window-based baseline system. The rest of the paper is organized as follows: Section...</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Simplified text:
-This work suggests a straightforward method for processing speech in the time domain using a standard window technique that focuses on the difference in emphasized frequencies in the discrete-time Fourier transform. The study demonstrates that combining slope phase details with the magnitude spectrum enhances speech feature extraction by adjusting Fourier coefficients, potentially improving recognition accuracy. Testing across various databases for speaker verification tasks reveals a consistent performance boost over the basic Hamming window system. The paper is structured as follows: Section...</t>
+          <t>This work suggests a straightforward method for processing speech in the time domain using a standard window technique that focuses on the difference in emphasized frequencies in the discrete-time Fourier transform. The study demonstrates that combining slope phase details with the magnitude spectrum enhances speech feature extraction by adjusting Fourier coefficients, potentially improving recognition accuracy. Testing across various databases for speaker verification tasks reveals a consistent performance boost over the basic Hamming window system. The paper is structured as follows: Section...</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12.25215206185567</v>
+        <v>12.14440789473685</v>
       </c>
       <c r="D31" t="n">
-        <v>12.34994836488812</v>
+        <v>12.23149911816579</v>
+      </c>
+      <c r="E31" t="n">
+        <v>95</v>
+      </c>
+      <c r="F31" t="n">
+        <v>81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Corrected text:
-Modern communication networks provide universal systems for data exchange within diversified services applications. Publicly available communication channels are maintained by internet service providers (ISPs) and shared by large numbers of concurrent packet flows. Data transmission usually corresponds to communication between a client application invoked by the user and a server application on a global scale. Users are seen as acting independently and willing selfishly to maximize utility, reflected in transmission speed and response delay.
+          <t>Modern communication networks provide universal systems for data exchange within diversified services applications. Publicly available communication channels are maintained by internet service providers (ISPs) and shared by large numbers of concurrent packet flows. Data transmission usually corresponds to communication between a client application invoked by the user and a server application on a global scale. Users are seen as acting independently and willing selfishly to maximize utility, reflected in transmission speed and response delay.
 One distinctive characteristic of these systems is the lack of central coordination or regulation in the presence of limited communication resources. Packet transfer protocols need to incorporate congestion avoidance functionalities. Interesting results have been obtained using algorithmic game theory, which has become the method of choice for analyzing properties of distributed protocols.
 In this paper, we employ an approach for the analysis of a distributed transmission rate control problem formulated within a network utility maximization framework. The majority of prior research on network resource allocation games usually models users or clients as flow sources, where they are modeled as players. Motivated by the idea of self-managed, autonomic networking, we propose an alternative formulation where players are associated with transmission links. Specifically, we model a decision-making agent that manages an outgoing router interface connected directly to a node. Consequently, a node may be associated with multiple players, and the decisions made correspond to disjoint subsets of flows.
 It is argued that as part of network maintenance, the cost corresponding to human administration or operating systems rapidly becomes negligible in comparison to device prices. This predicted trend over the coming years makes it crucial to develop mechanisms that enable managing network resources in an automatic or semi-automatic manner. The aim of the proposed solution is to limit the role of human administrators to defining the goals of the system's operation.
@@ -1261,8 +1572,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Simplified text:
-Modern communication networks allow data exchange through various services. Internet service providers manage public communication channels used by many users simultaneously. Typically, data is exchanged between a user's application and a global server. Users seek to optimize speed and response time.
+          <t>Modern communication networks allow data exchange through various services. Internet service providers manage public communication channels used by many users simultaneously. Typically, data is exchanged between a user's application and a global server. Users seek to optimize speed and response time.
 These systems lack central coordination, relying on protocols to avoid congestion. Algorithmic game theory is commonly used to study these protocols.
 In this study, we analyze a network problem where users are linked to transmission lines. The focus is on automating network resource management with minimal human intervention.
 Routers are considered independent entities that can operate without constant coordination. The study explores ways to maximize network efficiency.
@@ -1272,100 +1582,151 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.90430818326875</v>
+        <v>15.88470269035243</v>
       </c>
       <c r="D32" t="n">
-        <v>13.43952380952381</v>
+        <v>13.40685240963856</v>
+      </c>
+      <c r="E32" t="n">
+        <v>854</v>
+      </c>
+      <c r="F32" t="n">
+        <v>166</v>
+      </c>
+      <c r="G32" t="n">
+        <v>41</v>
+      </c>
+      <c r="H32" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Corrected text:
-Current wireless communication systems are based on the Bit-Interleaved Coded Modulation (BICM) paradigm, which introduced one key element: systems demodulator that calculates Logarithmic Likelihood Ratios (LLR), also known as L-values. These received bits are then passed to the channel decoder. The calculation of L-values is crucial for many coded systems. The coded performance analysis of BICM systems is generally straightforward and is usually carried out either numerically through Monte Carlo simulation or in terms of lower and upper bounds. See Section 1 for the performance of bitwise demodulators in Additive White Gaussian Noise (AWGN) channels. Surprisingly, unlike the study of symbol-wise demodulators, the optimal bitwise demodulator (BD) has not received much attention in the literature. Minimizing Bit Error Rate (BER) implies the exact calculation of L-values for received bits. The uncoded performance of the demodulator is studied and presented. Due to the complexity of BD, the calculation of L-values in practical systems is usually done based on the so-called Max-Log approximation. See Equation 2 for more details. Multiple-Input Multiple-Output (MIMO) BICM systems are well-known. The uncoded BER in a one-dimensional constellation is expressed as the sum of Gaussian Q-functions. Numerical results show that optimal and suboptimal demodulators differ in terms of BER at low Signal-to-Noise Ratios (SNR), with a notable difference. The rest of the paper is organized as follows: Section 2 introduces the notation and conventions used in the system model. Two demodulators are discussed in Section 3, and the BER analysis is presented in Section 4. The patterns for labeling are studied in Section 5, and the threshold computation for BD is shown in Section 6. The numerical results are discussed in Section 7, and conclusions are drawn in Section 8.</t>
+          <t>Current wireless communication systems are based on the Bit-Interleaved Coded Modulation (BICM) paradigm, which introduced one key element: systems demodulator that calculates Logarithmic Likelihood Ratios (LLR), also known as L-values. These received bits are then passed to the channel decoder. The calculation of L-values is crucial for many coded systems. The coded performance analysis of BICM systems is generally straightforward and is usually carried out either numerically through Monte Carlo simulation or in terms of lower and upper bounds. See Section 1 for the performance of bitwise demodulators in Additive White Gaussian Noise (AWGN) channels. Surprisingly, unlike the study of symbol-wise demodulators, the optimal bitwise demodulator (BD) has not received much attention in the literature. Minimizing Bit Error Rate (BER) implies the exact calculation of L-values for received bits. The uncoded performance of the demodulator is studied and presented. Due to the complexity of BD, the calculation of L-values in practical systems is usually done based on the so-called Max-Log approximation. See Equation 2 for more details. Multiple-Input Multiple-Output (MIMO) BICM systems are well-known. The uncoded BER in a one-dimensional constellation is expressed as the sum of Gaussian Q-functions. Numerical results show that optimal and suboptimal demodulators differ in terms of BER at low Signal-to-Noise Ratios (SNR), with a notable difference. The rest of the paper is organized as follows: Section 2 introduces the notation and conventions used in the system model. Two demodulators are discussed in Section 3, and the BER analysis is presented in Section 4. The patterns for labeling are studied in Section 5, and the threshold computation for BD is shown in Section 6. The numerical results are discussed in Section 7, and conclusions are drawn in Section 8.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Simplified text:
-Wireless systems now use Bit-Interleaved Coded Modulation (BICM), which relies on Logarithmic Likelihood Ratios (LLR) calculated by a system demodulator. LLRs are crucial for coded systems. BICM system performance is usually analyzed through simulations or bounds. Bitwise demodulators in noisy channels are discussed. Optimal demodulators for minimizing Bit Error Rate (BER) are important but complex. Calculations are often approximated for practicality. Multiple-Input Multiple-Output (MIMO) BICM systems are common. Results show differences between optimal and suboptimal demodulators at low Signal-to-Noise Ratios (SNR). The paper structure includes notation, demodulator discussions, BER analysis, labeling patterns, and conclusion sections.</t>
+          <t>Wireless systems now use Bit-Interleaved Coded Modulation (BICM), which relies on Logarithmic Likelihood Ratios (LLR) calculated by a system demodulator. LLRs are crucial for coded systems. BICM system performance is usually analyzed through simulations or bounds. Bitwise demodulators in noisy channels are discussed. Optimal demodulators for minimizing Bit Error Rate (BER) are important but complex. Calculations are often approximated for practicality. Multiple-Input Multiple-Output (MIMO) BICM systems are common. Results show differences between optimal and suboptimal demodulators at low Signal-to-Noise Ratios (SNR). The paper structure includes notation, demodulator discussions, BER analysis, labeling patterns, and conclusion sections.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12.32184210526316</v>
+        <v>12.26534157832745</v>
       </c>
       <c r="D33" t="n">
-        <v>15.07753608247423</v>
+        <v>15.06868421052632</v>
+      </c>
+      <c r="E33" t="n">
+        <v>283</v>
+      </c>
+      <c r="F33" t="n">
+        <v>95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>18</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Corrected text:
-The Traveling Salesman Problem (TSP) is one widely studied algorithmic problem deriving optimal approximability results. It has been a longstanding question, but recently there has been much progress on the algorithmic front. Over the past thirty years, at least one important special case involves instances where a metric is derived from an unweighted graph, often referred to as the Graphic TSP. The best-known approximation algorithm is due to Christofides; a slight improvement was given by Gharan et al. Later, Mke Svensson improved the analysis of the algorithm by obtaining a better ratio. Due to Seb and Vygen, there is still a huge gap between the guarantee of the best approximation algorithms and the best-known inapproximability results. The inapproximability of TSP was first shown to be MaxSNP-hard, and explicit inapproximability constants were derived in the work of Engerbretsen. Inapproximability thresholds were later improved by Papadimitriou and Vempala.
+          <t>The Traveling Salesman Problem (TSP) is one widely studied algorithmic problem deriving optimal approximability results. It has been a longstanding question, but recently there has been much progress on the algorithmic front. Over the past thirty years, at least one important special case involves instances where a metric is derived from an unweighted graph, often referred to as the Graphic TSP. The best-known approximation algorithm is due to Christofides; a slight improvement was given by Gharan et al. Later, Mke Svensson improved the analysis of the algorithm by obtaining a better ratio. Due to Seb and Vygen, there is still a huge gap between the guarantee of the best approximation algorithms and the best-known inapproximability results. The inapproximability of TSP was first shown to be MaxSNP-hard, and explicit inapproximability constants were derived in the work of Engerbretsen. Inapproximability thresholds were later improved by Papadimitriou and Vempala.
 A reduction was first presented to show progress in the inapproximability threshold problem. Ten years since, a less complicated inapproximability proof for TSP was given. To achieve a good constant, the authors reduced it directly to MaxE3LIN2, a constraint satisfaction problem (CSP) where optimal inapproximability results are known due to Håstad. They took care to avoid introducing extra gadgets or variables. By using gadgets to encode equations, they were able to define a custom expander-like notion of graphs to ensure consistency in tours assignments. The reduction was essentially performed in one step, taking the opposite approach of choosing simplicity over optimization. This approach started from MaxE3LIN2 and went through two intermediate CSPs. The first step of the reduction resulted in a set of equations where each variable appears five times, a property that came in handy in proving the consistency in tours assignments. Rather than introducing something new in this step, they relied heavily on machinery developed by Berman and Karpinski to prove the inapproximability of bounded occurrence CSPs. The predicate "1-in-3" nicely corresponds to the objectives of TSP, as it represents clauses in gadgets that offer an economical solution for visiting gadgets.
 Another way to view this step is to use the INSAT aid in designing a TSP gadget for parity. By the end, after all the pieces were put together, a slightly better constant than the one currently known was obtained, implying that there may still be room for improvement. Although there is still a long way to go for optimal inapproximability results, these results show that there may still be hope for better bounds using existing tools. Exploring techniques further could take us a long way with respect to TSP and its variants. It may be an interesting question whether the main result of this paper can be derived directly from the construction in the section on Lemmata. A polynomial-time approximation algorithm for TSP is discussed, unless P=NP.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Simplified text:
-The Traveling Salesman Problem (TSP) is a well-known problem in computer science. Recent progress has been made in finding good solutions for specific cases, like the Graphic TSP. Various algorithms have been developed, with Christofides presenting one of the best-known ones. Other researchers like Gharan, Svensson, Seb, and Vygen have also contributed to improving these algorithms. The complexity of TSP was shown to be hard to solve perfectly by Engerbretsen and further studied by Papadimitriou and Vempala.
+          <t>The Traveling Salesman Problem (TSP) is a well-known problem in computer science. Recent progress has been made in finding good solutions for specific cases, like the Graphic TSP. Various algorithms have been developed, with Christofides presenting one of the best-known ones. Other researchers like Gharan, Svensson, Seb, and Vygen have also contributed to improving these algorithms. The complexity of TSP was shown to be hard to solve perfectly by Engerbretsen and further studied by Papadimitriou and Vempala.
 A simpler proof for TSP's complexity was later introduced, reducing it to a known problem called MaxE3LIN2. By creatively using existing tools and techniques, researchers were able to improve the understanding of TSP's difficulty. While more work is needed to find optimal solutions, these findings give hope for better results in the future. The discussion about a fast solution for TSP remains open unless a major breakthrough occurs.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.60912921108742</v>
+        <v>12.56629207708779</v>
       </c>
       <c r="D34" t="n">
-        <v>10.5321156462585</v>
+        <v>10.4098275862069</v>
+      </c>
+      <c r="E34" t="n">
+        <v>467</v>
+      </c>
+      <c r="F34" t="n">
+        <v>145</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Corrected text:
-The majority of data produced in the current digital era takes the form of natural ubiquitous signals: audio signals, various biometric data, image features, economic data, etc. These are often viewed as time series and need to be organized and searched in a way that is key to research issues drawing a lot of attention in the last two decades. An important problem in this context is the subsequence matching problem. It is basically formulated as follows: given a query sequence, find the best matching subsequences in a database. Depending on the specific data application, this general problem has many variants, with query sequences of fixed or variable sizes and data-specific definitions for sequence matching requirements such as dynamic time warping, etc. Therefore, the research effort in this area has resulted in many approaches and techniques. The general focus is on specific fragments of a complex problem, leading authors in the field to identify two main problems that limit comparability and collaboration among the potential various approaches: data bias and algorithms often evaluated on heterogeneous datasets that influence experimental results. Efforts to overcome data bias have led to the establishment of common sets of data collections and consequent research in the area. However, the bias in implementation persists, obstructing the straightforward combination of compatible approaches whose interconnection could facilitate efficient analysis. This situation has led us to the conclusion that a unified environment for developing, prototyping, testing, and combining subsequence matching approaches is needed. In this paper, we propose a generic subsequence matching framework (SMF). Namely, techniques for subsequence matching identify several common subproblems that approaches deal with in various ways (section X); we target to describe the implementation of the framework (section Y). The power of SMF is demonstrated in the elegant realization of several variants of fundamental subsequence matching algorithms; subsequence matching can be simply implemented with the aid of the framework (section Z). The paper concludes in section Z with future directions covering possible performance boosts enabled by the straightforward cooperation of the framework with advanced distance-based indexing and searching technologies.</t>
+          <t>The majority of data produced in the current digital era takes the form of natural ubiquitous signals: audio signals, various biometric data, image features, economic data, etc. These are often viewed as time series and need to be organized and searched in a way that is key to research issues drawing a lot of attention in the last two decades. An important problem in this context is the subsequence matching problem. It is basically formulated as follows: given a query sequence, find the best matching subsequences in a database. Depending on the specific data application, this general problem has many variants, with query sequences of fixed or variable sizes and data-specific definitions for sequence matching requirements such as dynamic time warping, etc. Therefore, the research effort in this area has resulted in many approaches and techniques. The general focus is on specific fragments of a complex problem, leading authors in the field to identify two main problems that limit comparability and collaboration among the potential various approaches: data bias and algorithms often evaluated on heterogeneous datasets that influence experimental results. Efforts to overcome data bias have led to the establishment of common sets of data collections and consequent research in the area. However, the bias in implementation persists, obstructing the straightforward combination of compatible approaches whose interconnection could facilitate efficient analysis. This situation has led us to the conclusion that a unified environment for developing, prototyping, testing, and combining subsequence matching approaches is needed. In this paper, we propose a generic subsequence matching framework (SMF). Namely, techniques for subsequence matching identify several common subproblems that approaches deal with in various ways (section X); we target to describe the implementation of the framework (section Y). The power of SMF is demonstrated in the elegant realization of several variants of fundamental subsequence matching algorithms; subsequence matching can be simply implemented with the aid of the framework (section Z). The paper concludes in section Z with future directions covering possible performance boosts enabled by the straightforward cooperation of the framework with advanced distance-based indexing and searching technologies.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Simplified text:
-Most data today consists of common signals like audio, biometric data, images, and economic information. These are often seen as time series and require organization for research purposes. One key issue is the subsequence matching problem, where the goal is to find matching subsequences in a database based on a given query sequence. This problem has different versions depending on the data used. Researchers have developed various methods to address this challenge. However, issues like data bias and diverse datasets affecting results hinder collaboration and comparison between methods. Efforts to address data bias have led to the creation of standardized datasets for research. Yet, bias in implementation still poses a challenge for combining approaches effectively. A unified platform is suggested to develop, test, and combine subsequence matching methods. This paper introduces a generic subsequence matching framework (SMF) that simplifies the implementation of these algorithms. The SMF efficiently supports different subsequence matching techniques, making it easier to work with advanced technologies for better performance in the future.</t>
+          <t>Most data today consists of common signals like audio, biometric data, images, and economic information. These are often seen as time series and require organization for research purposes. One key issue is the subsequence matching problem, where the goal is to find matching subsequences in a database based on a given query sequence. This problem has different versions depending on the data used. Researchers have developed various methods to address this challenge. However, issues like data bias and diverse datasets affecting results hinder collaboration and comparison between methods. Efforts to address data bias have led to the creation of standardized datasets for research. Yet, bias in implementation still poses a challenge for combining approaches effectively. A unified platform is suggested to develop, test, and combine subsequence matching methods. This paper introduces a generic subsequence matching framework (SMF) that simplifies the implementation of these algorithms. The SMF efficiently supports different subsequence matching techniques, making it easier to work with advanced technologies for better performance in the future.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16.59675144508671</v>
+        <v>16.54237209302326</v>
       </c>
       <c r="D35" t="n">
-        <v>12.69738095238095</v>
+        <v>12.62307228915663</v>
+      </c>
+      <c r="E35" t="n">
+        <v>344</v>
+      </c>
+      <c r="F35" t="n">
+        <v>166</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Corrected text:
-Binary jumbled string matching is defined as follows: given a string and a query vector of non-negative integers, decide whether a substring containing exactly 's' 's' case say em occurs. Em Parikh set the set vectors occurring in one query. The problem is solved optimally with a simple sliding window algorithm in time length text. If interested in an indexing variant of the text fixed, expect a large number of queries recently. Problem variants have generated much interest with a crucial observation based on the following property of binary strings: an index constructed naively in time constructs an approximate index allowing one-sided errors. The probability of an incorrect answer depends on the choice of the binary string uniquely written in the form of non-negative integers, non-zero except possibly em. Run-length encoding is defined as a representation often used to compress strings, especially in domains where long runs of characters occur frequently, like in digital images, multimedia databases, and time series. In this paper, we present a corner index for strings with good run-length compression, which is much smaller in linear size than the index used in previous solutions. The corner index is constructed directly from the run-length encoding in time. The corner index's worst-case size is measured by the number of entries that fit into two computer words. There is a pay increase in lookup time in a recent paper whenever there is a short construction time. Computing and constructing the corner index is much better than previous time algorithms for strings with short run-length encodings but worse for long strings with good run-length compression. The increase in lookup time is justified by the view of reduced size and construction time of the new index. Finally, the algorithm is conceptually simple and easy to implement.</t>
+          <t>Binary jumbled string matching is defined as follows: given a string and a query vector of non-negative integers, decide whether a substring containing exactly 's' 's' case say em occurs. Em Parikh set the set vectors occurring in one query. The problem is solved optimally with a simple sliding window algorithm in time length text. If interested in an indexing variant of the text fixed, expect a large number of queries recently. Problem variants have generated much interest with a crucial observation based on the following property of binary strings: an index constructed naively in time constructs an approximate index allowing one-sided errors. The probability of an incorrect answer depends on the choice of the binary string uniquely written in the form of non-negative integers, non-zero except possibly em. Run-length encoding is defined as a representation often used to compress strings, especially in domains where long runs of characters occur frequently, like in digital images, multimedia databases, and time series. In this paper, we present a corner index for strings with good run-length compression, which is much smaller in linear size than the index used in previous solutions. The corner index is constructed directly from the run-length encoding in time. The corner index's worst-case size is measured by the number of entries that fit into two computer words. There is a pay increase in lookup time in a recent paper whenever there is a short construction time. Computing and constructing the corner index is much better than previous time algorithms for strings with short run-length encodings but worse for long strings with good run-length compression. The increase in lookup time is justified by the view of reduced size and construction time of the new index. Finally, the algorithm is conceptually simple and easy to implement.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Simplified text:
-Binary jumbled string matching involves finding a specific pattern in a string using a set of numbers. This problem can be efficiently solved by a sliding window algorithm. A variant of this problem, involving indexing, has gained attention due to its practical applications. By observing certain properties of binary strings, an approximate index can be created with some room for error. Run-length encoding, commonly used to compress data, is particularly effective for strings with repeated characters. A new indexing method, called the corner index, offers better compression than previous methods. It is straightforward to create and leads to faster searches in most cases. This approach is especially useful for strings with short repeated patterns.</t>
+          <t>Binary jumbled string matching involves finding a specific pattern in a string using a set of numbers. This problem can be efficiently solved by a sliding window algorithm. A variant of this problem, involving indexing, has gained attention due to its practical applications. By observing certain properties of binary strings, an approximate index can be created with some room for error. Run-length encoding, commonly used to compress data, is particularly effective for strings with repeated characters. A new indexing method, called the corner index, offers better compression than previous methods. It is straightforward to create and leads to faster searches in most cases. This approach is especially useful for strings with short repeated patterns.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12.35489562289563</v>
+        <v>12.28</v>
       </c>
       <c r="D36" t="n">
-        <v>10.59528735632184</v>
+        <v>10.46578947368421</v>
+      </c>
+      <c r="E36" t="n">
+        <v>295</v>
+      </c>
+      <c r="F36" t="n">
+        <v>114</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Corrected text:
-A common problem in many fields of scientific research is missing data. The human visual system has an amazing ability to fill in missing parts of images, but automating this process is not trivial. Depending on the type of data, human senses may be unable to fill in the gaps. Conservators working to repair damaged paintings use the term "inpainting" to describe the process. This word also means digitally recovering missing data in videos, images, removal of overlaid text in images, repair of scratched photos, audio recordings, and recovery of missing blocks in streamed videos. Examples of inpainting include seismic data, which is commonly incomplete due to land development and bodies of water preventing optimal sensor placement. In seismic data processing flow, data recovery plays an important role. One common approach to inpainting is using variational methods. However, a novel methodology called compressed sensing, namely exact recovery of sparse or sparsified data from highly incomplete linear nonadaptive measurements through minimization and thresholding, has been effectively applied to the problem.
+          <t>A common problem in many fields of scientific research is missing data. The human visual system has an amazing ability to fill in missing parts of images, but automating this process is not trivial. Depending on the type of data, human senses may be unable to fill in the gaps. Conservators working to repair damaged paintings use the term "inpainting" to describe the process. This word also means digitally recovering missing data in videos, images, removal of overlaid text in images, repair of scratched photos, audio recordings, and recovery of missing blocks in streamed videos. Examples of inpainting include seismic data, which is commonly incomplete due to land development and bodies of water preventing optimal sensor placement. In seismic data processing flow, data recovery plays an important role. One common approach to inpainting is using variational methods. However, a novel methodology called compressed sensing, namely exact recovery of sparse or sparsified data from highly incomplete linear nonadaptive measurements through minimization and thresholding, has been effectively applied to the problem.
 A pioneering paper uses curvelets as a sparsifying system for inpainting, with various intriguing and successive empirical results obtained using applied harmonic analysis in combination with convex optimization. Three papers contain theoretical analyses on the convergence of algorithms and minimizers for specific optimization problems. The theoretical analyses cover the types of methods and imposing sparsity in a discrete dictionary. Typically, a discrete model of the original image is used to allow for the geometry problem to be taken into account. However, variational methods built on continuous methods may be analyzed using a continuous model. For example, work has been done to compare variational approaches built on minimization. Finally, works on the intuition behind directional representation systems such as curvelets and shearlets outperform wavelets in inpainting images strongly governed by curvilinear structures. In seismic images, directional representation systems are given importance.
 Although many theoretical results concerning inpainting mainly concern the algorithmic convergence of variational methods, preliminary results presented in SPIE proceedings show that the paper combined theory and paper provide the first comprehensive analysis of discrete dictionaries in inpainting in the continuum domain utilizing the novel concept of clustered sparsity. Besides leading to asymptotic error bounds, it also exhibits superior behavior to directional representation systems like wavelets. Along the way, the abstract model analysis lays a common theoretical foundation for data recovery problems utilizing either analysis-side minimization or thresholding recovery schemes.
 In one section, one of the first practitioners of curvelet inpainting applications, seismologist Felix Herrmann, achieved superior recovery results in images consisting of curvilinear singularities and vertical strips missing due to missing sensors. These techniques were soon also exploited in astronomical imaging, etc. The common bracket governing curvilinear singularities is evident in the discrete model, appropriately capturing geometrical content. Thus, a continuum domain model seems appropriate. In fact, the paper chooses a distributional model with a distribution acting on Schwartz functions, with the weight length specified in the main body of the paper. Essentially, the weight sets the linear singularity in the smooth vertical direction, and the value corresponds to the length of the singularity, mimicking the seismic imaging situation.
@@ -1376,25 +1737,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rewritten text:
-Missing data is a common issue in scientific research. Humans can fill in missing parts of images, but automating this is challenging. The term "inpainting" is used by conservators to describe the process of digitally recovering missing data. Examples include repairing damaged paintings, removing text from images, and fixing scratched photos. In seismic data, missing data is common due to land and water obstacles. Data recovery is crucial in seismic data processing. Variational methods and compressed sensing are common approaches to inpainting.
+          <t>Missing data is a common issue in scientific research. Humans can fill in missing parts of images, but automating this is challenging. The term "inpainting" is used by conservators to describe the process of digitally recovering missing data. Examples include repairing damaged paintings, removing text from images, and fixing scratched photos. In seismic data, missing data is common due to land and water obstacles. Data recovery is crucial in seismic data processing. Variational methods and compressed sensing are common approaches to inpainting.
 A study used curvelets for inpainting, showing promising results. Theoretical analyses on algorithm convergence and optimization problems were conducted. Variational methods use discrete models, while compressed sensing relies on continuous models. Directional representation systems like curvelets are effective in images with curvilinear structures. In seismic images, these systems are important.
 The study combined theory and practice to analyze inpainting using clustered sparsity. The paper discusses the superior performance of this approach compared to wavelets. The work of seismologist Felix Herrmann in curvelet inpainting has had significant success in various fields. Mathematical formulations are used to recover missing parts in images effectively.
 Shearlets are another system that shows promise in inpainting, potentially outperforming wavelets. Parseval frames are used in wavelets and shearlets, providing a useful basis for analysis. The study compares the performance of shearlets and wavelets, showing the advantages of shearlets in certain situations. Meyer wavelets are known for their high regularity in the Fourier transform.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15.80458151700087</v>
+        <v>15.78337218620237</v>
       </c>
       <c r="D37" t="n">
-        <v>12.86047619047619</v>
+        <v>12.82663865546219</v>
+      </c>
+      <c r="E37" t="n">
+        <v>742</v>
+      </c>
+      <c r="F37" t="n">
+        <v>238</v>
+      </c>
+      <c r="G37" t="n">
+        <v>37</v>
+      </c>
+      <c r="H37" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Corrected text:
-In the past, timekeepers measured time manually. A timer was assigned to competitors based on their starting number, with competitors being ordered according to their achieved results in each category. Later on, manual timers were replaced by automatic timers that could register and print the recorded times. However, the assignment of time to a competitor based on their starting number was still done manually. This work could have been avoided by using electronic measuring technology. In addition to registering time, it also enabled registering the competitors' starting numbers. The expansion of RFID (radio frequency identification) technology helped the measuring technology become less expensive and more accessible to a wider range of users, such as sport clubs and organizers of sporting competitions.
+          <t>In the past, timekeepers measured time manually. A timer was assigned to competitors based on their starting number, with competitors being ordered according to their achieved results in each category. Later on, manual timers were replaced by automatic timers that could register and print the recorded times. However, the assignment of time to a competitor based on their starting number was still done manually. This work could have been avoided by using electronic measuring technology. In addition to registering time, it also enabled registering the competitors' starting numbers. The expansion of RFID (radio frequency identification) technology helped the measuring technology become less expensive and more accessible to a wider range of users, such as sport clubs and organizers of sporting competitions.
 Moreover, it was able to compete with time-measuring monopolies in smaller competitions. In addition to the measuring technology, a flexible computer system was also needed to monitor results. The proposed computer system enables the monitoring of different sporting competitions with a various number of measuring devices and measuring points, online recording of events, writing results, as well as ensuring efficiency and security. Each measuring device is dedicated to registering events and can be triggered either automatically when a competitor crosses a measuring point and activates the electromagnetic antenna fields or manually when an operator presses a suitable button on a personal computer acting as a timer at the control point where organizers want to monitor results.
 A control point is required for each measuring device; however, modern electronic measuring devices allow for handling multiple control points simultaneously. Moreover, a registered event can have a different meaning depending on the situation in which it is generated. Therefore, each event handled by the measuring system must adhere to the rules of the valid control point. As a result, the number of control points and measuring devices needed for complex measurements is reduced.
 Fortunately, the rules for controlling events can be easily described and used in a domain-specific language (DSL). In DSL, measurements for different sporting competitions can be accomplished through the easy preconfiguration of rules in the DSL, which is suited to the application domain. This offers certain advantages over general-purpose languages (GPL) where specific domain-general problems are usually solved. However, changing the behavior of a program written in GPL would require the intervention of a programmer. The advantages of DSL are reflected in its greater expressive power, which leads to increased productivity and ease of use for both domain experts and programmers, making verification and optimization easier.
@@ -1403,25 +1774,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Simplified text:
-In the past, time was measured manually by assigning timers to competitors based on their starting numbers. Later, automatic timers replaced manual ones to record and print times. Despite this, assigning time based on starting numbers remained manual until electronic technology was utilized. This technology not only recorded time but also starting numbers. The use of RFID technology made this measuring technology more affordable and accessible to a wider range of users.
+          <t>In the past, time was measured manually by assigning timers to competitors based on their starting numbers. Later, automatic timers replaced manual ones to record and print times. Despite this, assigning time based on starting numbers remained manual until electronic technology was utilized. This technology not only recorded time but also starting numbers. The use of RFID technology made this measuring technology more affordable and accessible to a wider range of users.
 This technology also competed with larger companies in smaller competitions. A computer system was needed to monitor results, allowing for efficient and secure tracking of various sporting events. Each measuring device was dedicated to recording events triggered either automatically when a competitor passed a point or manually by an operator.
 A control point was required for each measuring device, but modern devices can handle multiple points simultaneously, reducing the need for many devices. Events recorded by the system must follow control point rules. Controlling events was made easier using a domain-specific language (DSL) for different sporting competitions, offering advantages over general-purpose languages.
 The article introduces EasyTime, a DSL controlling agents responsible for recording events from measuring devices in a database. EasyTime has been successfully used in events like the World Championship Ultra Double Triathlon in 2009. The article discusses time-measuring issues in sports competitions, particularly triathlons, and presents the design and implementation of EasyTime, concluding with an analysis of the work and future plans.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15.20383732243628</v>
+        <v>15.17124389767624</v>
       </c>
       <c r="D38" t="n">
-        <v>13.90052100840336</v>
+        <v>13.846</v>
+      </c>
+      <c r="E38" t="n">
+        <v>569</v>
+      </c>
+      <c r="F38" t="n">
+        <v>236</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Corrected text:
-Standing army "Edward Everett" end quote. The explosive rise in the use of web services has redefined human connectivity in a significant way. The influence is evident in the fact that Facebook has registered 800 million active users, Qzone (a Chinese social network) has 450 million, Twitter has 300 million every month, and 241 million users play social games developed by Zynga every day. 3 billion videos are watched on YouTube and another 48 hours of videos are uploaded every minute. Web services on smartphones, tablets, netbooks, and laptops have an average of 45 internet users aged 25. This unprecedented connectivity and enormous flow of information present untold opportunities to improve human quality of life worldwide. One positive use is to focus on aiding learning and providing people with opportunities for education. Presently, students use web services, including Google searches, forum postings, and social network discussion boards to find answers to queries. An increasing number of video tutorials have prompted the use of the term "YouTube University" to get help with education. The current framework utilizes web services to provide education in conflict zones. Conflict zones may include places where seeking education by going to a physical school could risk the lives of students, such as stepping on explosive devices or getting shot in firefight with insurgents or government forces explicitly targeted at those solely seeking this type of education to conform to the views of particular extremist groups. In one unfortunate country, students and teachers have reportedly been harmed by schools being blown up either by the Taliban, insurgent groups, or contractors. The contractors may blow up poorly constructed and unfurnished schools to avoid an audit and receive the full amount of contract money. In this paper, the focus is on providing a framework for education in conflict zones. Considering Afghanistan as a model, utilizing web and telecommunication services, the rest of the paper is arranged as follows: first, provide background on the negative impact on education in Afghanistan due to three decades of war. Also, discuss the success of mobile networks in the country, with 50% of the country's population registering a mobile connection within the first 8 years. Details are given in the section on the framework for education in conflict zones. The framework is not meant to completely replace traditional schooling but is meant to cover regions where traditional schooling is not feasible due to security reasons. The framework includes the use of mobile internet, social networks, voice recognition, and games. Details of the framework are given in the section. Third, provide the framework's advantages, including the creation of better education opportunities for female and male students, quality assurance, resistance to sabotage, and transparency. Details are provided in this section. Work to provide possible corresponding solutions is detailed in the next section. Provide an account related to work in the section to conclude the paper.</t>
+          <t>Standing army "Edward Everett" end quote. The explosive rise in the use of web services has redefined human connectivity in a significant way. The influence is evident in the fact that Facebook has registered 800 million active users, Qzone (a Chinese social network) has 450 million, Twitter has 300 million every month, and 241 million users play social games developed by Zynga every day. 3 billion videos are watched on YouTube and another 48 hours of videos are uploaded every minute. Web services on smartphones, tablets, netbooks, and laptops have an average of 45 internet users aged 25. This unprecedented connectivity and enormous flow of information present untold opportunities to improve human quality of life worldwide. One positive use is to focus on aiding learning and providing people with opportunities for education. Presently, students use web services, including Google searches, forum postings, and social network discussion boards to find answers to queries. An increasing number of video tutorials have prompted the use of the term "YouTube University" to get help with education. The current framework utilizes web services to provide education in conflict zones. Conflict zones may include places where seeking education by going to a physical school could risk the lives of students, such as stepping on explosive devices or getting shot in firefight with insurgents or government forces explicitly targeted at those solely seeking this type of education to conform to the views of particular extremist groups. In one unfortunate country, students and teachers have reportedly been harmed by schools being blown up either by the Taliban, insurgent groups, or contractors. The contractors may blow up poorly constructed and unfurnished schools to avoid an audit and receive the full amount of contract money. In this paper, the focus is on providing a framework for education in conflict zones. Considering Afghanistan as a model, utilizing web and telecommunication services, the rest of the paper is arranged as follows: first, provide background on the negative impact on education in Afghanistan due to three decades of war. Also, discuss the success of mobile networks in the country, with 50% of the country's population registering a mobile connection within the first 8 years. Details are given in the section on the framework for education in conflict zones. The framework is not meant to completely replace traditional schooling but is meant to cover regions where traditional schooling is not feasible due to security reasons. The framework includes the use of mobile internet, social networks, voice recognition, and games. Details of the framework are given in the section. Third, provide the framework's advantages, including the creation of better education opportunities for female and male students, quality assurance, resistance to sabotage, and transparency. Details are provided in this section. Work to provide possible corresponding solutions is detailed in the next section. Provide an account related to work in the section to conclude the paper.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1430,17 +1811,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12.83958752598753</v>
+        <v>12.79722254697286</v>
       </c>
       <c r="D39" t="n">
         <v>11.95878787878788</v>
       </c>
+      <c r="E39" t="n">
+        <v>479</v>
+      </c>
+      <c r="F39" t="n">
+        <v>165</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Corrected text:
-Fundamental challenging problems in video encoding involve determining the target bit rate to achieve spatial resolution (frame size, FS), temporal resolution (frame rate, FR), and amplitude resolution, usually controlled by quantization step size (QS). When coding a video, one can choose to encode it with high FR, large FS, and high QS, which may result in noticeable coding artifacts. On the other hand, coding with low FR, small FS, and small QS can produce high-quality frames. Different combinations of these resolutions lead to different perceptual quality. Ideally, the encoder should select the spatial, temporal, and amplitude resolutions that result in the best perceptual quality while meeting the target bit rate. The optimal solution requires accurate prediction of the rate and perceptual quality of the chosen combination.
+          <t>Fundamental challenging problems in video encoding involve determining the target bit rate to achieve spatial resolution (frame size, FS), temporal resolution (frame rate, FR), and amplitude resolution, usually controlled by quantization step size (QS). When coding a video, one can choose to encode it with high FR, large FS, and high QS, which may result in noticeable coding artifacts. On the other hand, coding with low FR, small FS, and small QS can produce high-quality frames. Different combinations of these resolutions lead to different perceptual quality. Ideally, the encoder should select the spatial, temporal, and amplitude resolutions that result in the best perceptual quality while meeting the target bit rate. The optimal solution requires accurate prediction of the rate and perceptual quality of the chosen combination.
 In this paper, we attempt to model the video bit rate and investigate the rate change function of quantization step size, frame rate, and frame size. This work extends previous research by considering the impact of temporal and amplitude resolutions on video rate modeling. Video coding has been researched for decades, and to the best of our knowledge, prior work has focused on the joint impact of frame size, frame rate, and quantization bit rate. However, several prior works have only considered rate modeling with fixed frame rate and fixed frame size. The proposed model in this paper relates the average bit rate to the quantization step size, considering different frame rates and frame sizes.
 Our analysis shows that the rate can be approximated well as the product of three separable functions, each representing the influence of spatial, temporal, and amplitude resolutions on the rate, respectively. Each function is approximated well by a power function with a single content-dependent model parameter. The overall model has four parameters, including the maximum bit rate, and fits the measured rates for different videos accurately. We also investigate predicting these parameters using content features. According to our experiments, the model parameters are estimated well using three content features, with the average peak signal-to-noise ratio being the most significant.
 The main contributions of this paper include a model that respects video frame size, frame rate, and quantization step size, which is analytically simple and requires four content-dependent model parameters. Unlike previous models, the proposed model does not require an offline training process, making it suitable for rate-quality optimization and scalable video adaptation in encoder rate control problems. We also develop a quality-optimized layer ordering algorithm that facilitates simple and scalable video rate adaptation in a network proxy gateway to maximize streamed video quality given a bit rate constraint.
@@ -1449,22 +1841,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Simplified text:
-In video encoding, choosing the right settings like frame size, frame rate, and quantization step size is crucial for good quality. High settings can lead to issues, while low settings can produce better quality. Finding the best balance is key. This study aims to predict video bit rate by looking at how quantization step size, frame rate, and frame size impact it. Previous research focused on frame size, frame rate, and bit rate, but this work also considers frame rate and quantization step size. By analyzing different resolutions, a model was created using four parameters. It accurately matched rates for various videos. The model is simple and doesn't need offline training, making it useful for video quality optimization. An algorithm was also developed to enhance video quality within a set bit rate. This paper explains the model, parameter prediction, and optimization algorithm, setting the stage for future research.</t>
+          <t>In video encoding, choosing the right settings like frame size, frame rate, and quantization step size is crucial for good quality. High settings can lead to issues, while low settings can produce better quality. Finding the best balance is key. This study aims to predict video bit rate by looking at how quantization step size, frame rate, and frame size impact it. Previous research focused on frame size, frame rate, and bit rate, but this work also considers frame rate and quantization step size. By analyzing different resolutions, a model was created using four parameters. It accurately matched rates for various videos. The model is simple and doesn't need offline training, making it useful for video quality optimization. An algorithm was also developed to enhance video quality within a set bit rate. This paper explains the model, parameter prediction, and optimization algorithm, setting the stage for future research.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15.33852272727273</v>
+        <v>15.30185679611651</v>
       </c>
       <c r="D40" t="n">
-        <v>9.709515151515152</v>
+        <v>9.589705159705165</v>
+      </c>
+      <c r="E40" t="n">
+        <v>515</v>
+      </c>
+      <c r="F40" t="n">
+        <v>148</v>
+      </c>
+      <c r="G40" t="n">
+        <v>24</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Corrected text: 
-Classical LDPC codes hardly need to be recalled. They come together with efficient, fast decoding algorithms and overall display extremely good performance across a variety of channels. Quantum error-correcting codes, in hand, guise the CSS scheme in ways strikingly similar to classical codes. In particular, they can be decoded purely by classical means. Therefore, it is natural to try to import classical LDPC know-how into the quantum setting. However, a structural obstacle arises: a quantum CSS code is defined by two binary parity-check matrices whose row spaces must be orthogonal. A quantum LDPC code must be decodable by message passing between these two sparse matrices, as is the case in the classical scenario. Therefore, randomly choosing matrices, a generic method that works well in the classical case, is simply not an option in the quantum case. The probability of finding two sparse row-orthogonal matrices is extremely small. A number of constructions suggested by classical coding theorists can nevertheless produce families of quantum LDPC codes with minimum distance growing with block length, which may be tolerable in practical constructions of fixed size. This is a clearly undesirable feature, as the asymptotic construction raises an intriguing theoretical question: do large minimum distance sparse LDPC CSS codes exist? Well-known codes like Kitaev's toric code and generalized codes based on tesselations of surfaces exhibit minimum distances that scale as the square root of the block length. The precision achieved, though often comes at the cost of low dimension. The dimension of the toric code is recalled. It remains an open question whether families of sparse CSS codes exist where the minimum distance grows at least linearly with the block length. Even for quantum codes of dimension, a recent construction manages to reconcile the minimum distance to be of the order of the dimension linear to the block length. The constructions borrow ideas from topology, as seen in the generalization of Kitaev's toric code in a follow-up paper by Mackay, Mitchison, and Shokrollahi. The proposed constructions seemingly owe little to the topological approach, as the adjacency matrix of the Cayley graph, even set generators self-dual, can therefore be used to define a sparse CSS code. Experiments on Cayley graphs have been encouraging. The present work takes the theoretical study of parameters of CSS codes left open by Mackay et al. A quantum code construction defined by a classical linear binary code must have an even length and a row weight parity-check matrix. The dimension and minimum distance of the quantum code depend solely on the classical code's parameters. It depends subtly on the structure. To solve this problem, the first nontrivial case is considered. The explicit question by Mackay et al., namely the case of the classical code being a repetition code, shows that computing the parameters associated with a quantum code turns out to be easy, even in this apparently simple case. The main result, a theorem, gives the exact parameters of the quantum code, namely: n = 2^n, k = 2^(n-1), d = 2^(frac{n-1}{2}). This construction therefore hits a barrier in the minimum distance. It is quite noteworthy that using this construction significantly breaks the topological connection to quantum codes based on complicated classical structures. Similarly, precise results seem quite difficult to obtain. It was managed to prove a lower bound on the quantum minimum distance in the form of a constant. It is noticed that the constructed quantum LDPC codes have a constant row weight, indeed, with the weight being logarithmic in the block length. This has drawbacks since decoding is slightly more complex. It is remarked, however, that the best families of classical LDPC codes, i.e., capacity-achieving LDPC codes, have row weights that grow logarithmically with the block length. It is also noted that it was recently proved that quantum LDPC stabilizer codes can achieve capacity on the quantum erasure channel, with stabilizer matrices having constant row weight. Quantum CSS codes, together with the basic notions of Cayley graphs recalled in a section, describe the basic properties of Cayley graphs associated with a group. In this section, the focus is on properties of the Hamming hypercube. A Cayley graph denotes the canonical basis in particular. It is observed that a nice property of almost all families of generators in the Cayley graph is that it looks locally like a Hamming hypercube of dimension. In the following section, the exact parameters for families of quantum codes are given.</t>
+          <t>Classical LDPC codes hardly need to be recalled. They come together with efficient, fast decoding algorithms and overall display extremely good performance across a variety of channels. Quantum error-correcting codes, in hand, guise the CSS scheme in ways strikingly similar to classical codes. In particular, they can be decoded purely by classical means. Therefore, it is natural to try to import classical LDPC know-how into the quantum setting. However, a structural obstacle arises: a quantum CSS code is defined by two binary parity-check matrices whose row spaces must be orthogonal. A quantum LDPC code must be decodable by message passing between these two sparse matrices, as is the case in the classical scenario. Therefore, randomly choosing matrices, a generic method that works well in the classical case, is simply not an option in the quantum case. The probability of finding two sparse row-orthogonal matrices is extremely small. A number of constructions suggested by classical coding theorists can nevertheless produce families of quantum LDPC codes with minimum distance growing with block length, which may be tolerable in practical constructions of fixed size. This is a clearly undesirable feature, as the asymptotic construction raises an intriguing theoretical question: do large minimum distance sparse LDPC CSS codes exist? Well-known codes like Kitaev's toric code and generalized codes based on tesselations of surfaces exhibit minimum distances that scale as the square root of the block length. The precision achieved, though often comes at the cost of low dimension. The dimension of the toric code is recalled. It remains an open question whether families of sparse CSS codes exist where the minimum distance grows at least linearly with the block length. Even for quantum codes of dimension, a recent construction manages to reconcile the minimum distance to be of the order of the dimension linear to the block length. The constructions borrow ideas from topology, as seen in the generalization of Kitaev's toric code in a follow-up paper by Mackay, Mitchison, and Shokrollahi. The proposed constructions seemingly owe little to the topological approach, as the adjacency matrix of the Cayley graph, even set generators self-dual, can therefore be used to define a sparse CSS code. Experiments on Cayley graphs have been encouraging. The present work takes the theoretical study of parameters of CSS codes left open by Mackay et al. A quantum code construction defined by a classical linear binary code must have an even length and a row weight parity-check matrix. The dimension and minimum distance of the quantum code depend solely on the classical code's parameters. It depends subtly on the structure. To solve this problem, the first nontrivial case is considered. The explicit question by Mackay et al., namely the case of the classical code being a repetition code, shows that computing the parameters associated with a quantum code turns out to be easy, even in this apparently simple case. The main result, a theorem, gives the exact parameters of the quantum code, namely: n = 2^n, k = 2^(n-1), d = 2^(frac{n-1}{2}). This construction therefore hits a barrier in the minimum distance. It is quite noteworthy that using this construction significantly breaks the topological connection to quantum codes based on complicated classical structures. Similarly, precise results seem quite difficult to obtain. It was managed to prove a lower bound on the quantum minimum distance in the form of a constant. It is noticed that the constructed quantum LDPC codes have a constant row weight, indeed, with the weight being logarithmic in the block length. This has drawbacks since decoding is slightly more complex. It is remarked, however, that the best families of classical LDPC codes, i.e., capacity-achieving LDPC codes, have row weights that grow logarithmically with the block length. It is also noted that it was recently proved that quantum LDPC stabilizer codes can achieve capacity on the quantum erasure channel, with stabilizer matrices having constant row weight. Quantum CSS codes, together with the basic notions of Cayley graphs recalled in a section, describe the basic properties of Cayley graphs associated with a group. In this section, the focus is on properties of the Hamming hypercube. A Cayley graph denotes the canonical basis in particular. It is observed that a nice property of almost all families of generators in the Cayley graph is that it looks locally like a Hamming hypercube of dimension. In the following section, the exact parameters for families of quantum codes are given.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1473,17 +1875,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11.37722028648858</v>
+        <v>11.34917701863354</v>
       </c>
       <c r="D41" t="n">
         <v>11.45264705882353</v>
       </c>
+      <c r="E41" t="n">
+        <v>736</v>
+      </c>
+      <c r="F41" t="n">
+        <v>170</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Corrected text: 
-Subject: Secure Multiparty Computation (SMC)
+          <t>Secure Multiparty Computation (SMC)
 Concerned with the design and analysis of distributed protocols that allow a mutually untrusting group to securely compute functions with private inputs without revealing any information that must be inherently revealed during computation. This is a broad domain, and for a detailed overview, one must consider computational and unconditional information-theoretic definitions of security in active, passive, and behavioral models. Utilization of additional communication primitives, such as shared randomness via multiterminal sources and/or channels, is also considered.
 In this paper, we study secure computation involving three parties communicating via pairwise authenticated error-free bitpipes. One party is required to compute a function on inputs held by the other two. We focus on unconditional security in the active behavioral model where one party may arbitrarily deviate from the computation protocol. The scenario of three-party computation with one actively deviating party is interesting since security guarantees are available in this scenario for general SMC protocols in the active behavioral model with pairwise communication protocols. It is strictly less secure when more than two parties are compromised, thus nontrivial security guarantees are available with a minimum of four parties. On the other hand, certain computations like Byzantine agreement are provably impossible in a three-party setting, while nontrivial computations are possible.
 The characterization of functions securely computed in a three-party setting with one actively deviating party is currently unavailable. The formulation of security in the active behavioral model requires careful consideration of notions of correctness and privacy since a party may arbitrarily deviate from the protocol. A deviating party can affect the integrity of the computation by simply changing input data. However, this is considered a security weakness as this attack could also be mounted by a "trusted genie" who receives the inputs, performs computations, and delivers results to the designated parties. The deviating party's ability to influence the computation affects privacy. Ideally, the influence should not exceed what could be done by a trusted genie. Therefore, an active behavioral model in protocols is said to be secure adequately if it simulates a trusted genie and facilitates computation. This is formalized in the real versus ideal model simulation paradigm.
@@ -1494,7 +1907,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Subject: Simplified Secure Multiparty Computation (SMC)
+          <t>Simplified Secure Multiparty Computation (SMC)
 Secure Multiparty Computation (SMC) involves designing protocols for groups to compute functions privately without revealing necessary information. Security definitions vary based on different models. We explore secure computation with three parties using secure communication channels. We focus on security when one party may deviate from the protocol, which is a significant challenge. Security is stronger with fewer compromised parties. However, some computations are impossible with only three parties.
 Defining securely computed functions with one deviating party is complex. Ensuring correctness and privacy is crucial, as a deviating party can disrupt the computation. We aim to simulate a trusted entity to ensure security in protocols. In passive SMC, parties follow the protocol but try to gain extra information. Security is determined by the protocol's ability to compute without leaking confidential data.
 For a three-party scenario involving Alice, Bob, and Charlie, we establish security criteria and develop secure protocols for computing functions like Hamming distance. We demonstrate the protocols' security under different models and highlight the varying security concepts.
@@ -1502,17 +1915,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.19385628465804</v>
+        <v>17.14729553903346</v>
       </c>
       <c r="D42" t="n">
-        <v>14.13</v>
+        <v>14.11024338624339</v>
+      </c>
+      <c r="E42" t="n">
+        <v>538</v>
+      </c>
+      <c r="F42" t="n">
+        <v>189</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Corrected text:
-Technology 10044 Stockholm, Sweden presents a new algorithm for incremental learning of deterministic finite automata (DFA). The algorithm is based on the concept of distinguishing sequences introduced to give a rigorous proof of two versions of the learning algorithm that correctly learn the limit. Finally, we present empirical performance analysis comparing the two algorithms, focusing on learning times for different types of learning queries. We conclude that this is an efficient algorithm for software engineering applications in automata learning and formal software testing.
+          <t>Technology 10044 Stockholm, Sweden presents a new algorithm for incremental learning of deterministic finite automata (DFA). The algorithm is based on the concept of distinguishing sequences introduced to give a rigorous proof of two versions of the learning algorithm that correctly learn the limit. Finally, we present empirical performance analysis comparing the two algorithms, focusing on learning times for different types of learning queries. We conclude that this is an efficient algorithm for software engineering applications in automata learning and formal software testing.
 Abstract: Online learning, model inference, incremental learning, learning limit, and language inference have, in recent years, seen automata learning algorithms (aka regular inference algorithms) finding new applications in software engineering, particularly in formal verification, e.g., model inference. These applications mostly revolve around learning abstractions of complex software systems that are statically analyzed, e.g., model checking to determine behavioral correctness.
 Many applications have seen improved use of learning procedures, especially incremental automata learning algorithms. Incremental learning constructs a sequence of hypotheses of an automaton from a sequence of observations of an unknown target automaton until the hypothesis automaton finitely converges. This construction involves reusing aspects of the construction of previous hypotheses by considering an equivalence relation on states. The notion of convergence to the correct model in incremental learning originates from the fact that much of the literature on automata learning has focused on offline learning with a fixed preexisting dataset describing the target automaton. The approaches in research are efficient for learning-based testing (LBT) in software systems. In this paper, we present a new algorithm for incremental distinguishing sequences (IDS) that uses the distinguishing sequence technique for incremental learning of DFA. The algorithm has been successfully applied in learning-based testing of reactive systems and has demonstrated error discovery rates 4000 times faster than non-incremental learning.
 Since little has been published on the empirical performance of incremental learning algorithms, this paper aims to address this gap. We consider the question of the structure of the paper as follows: In Section 2, we present the conclusions and discuss future research directions. Distinguishing sequences are first applied to derive the IDS online learning algorithm for DFA. This approach overcomes the need for distinguishing sequences contrasted with the complete consistent table approach for partition construction represented in a well-known online learning algorithm (L*). Distinguishing sequences require complete table queries for building the partition relation. In the context of software testing, these differences result in a much more efficient learning algorithm, particularly with a greater scope using online queries generated by means such as model checking. Moreover, since LBT is a black-box approach to software testing, the use of an equivalence oracle contradicts the black-box methodology and is indeed inappropriate for software engineering applications.
@@ -1523,8 +1947,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Simplified text:
-A new algorithm for learning deterministic finite automata (DFA) incrementally has been introduced by Technology 10044 in Stockholm, Sweden. The method uses distinguishing sequences to prove two versions of the learning algorithm accurately. An empirical study comparing the two algorithms based on learning times for different queries confirms its efficiency for software engineering applications like automata learning and software testing.
+          <t>A new algorithm for learning deterministic finite automata (DFA) incrementally has been introduced by Technology 10044 in Stockholm, Sweden. The method uses distinguishing sequences to prove two versions of the learning algorithm accurately. An empirical study comparing the two algorithms based on learning times for different queries confirms its efficiency for software engineering applications like automata learning and software testing.
 Automata learning algorithms have found applications in software engineering, especially in formal verification tasks like model inference. These algorithms help in understanding complex software systems for behavioral correctness through learning abstractions.
 Incremental learning involves creating a series of hypotheses of an automaton from observations until they converge. This approach, based on distinguishing sequences, is efficient for learning-based testing in software systems. The new algorithm, IDS, has shown significant speed improvements compared to non-incremental learning, especially in error discovery rates for reactive systems testing.
 This paper addresses the lack of empirical studies on incremental learning algorithms. The focus is on presenting the IDS online learning algorithm for DFA, which outperforms traditional methods like L* by using distinguishing sequences instead of complete tables, making the learning process more efficient.
@@ -1533,58 +1956,89 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.42580952380952</v>
+        <v>12.40181877022654</v>
       </c>
       <c r="D43" t="n">
-        <v>13.57840830449827</v>
+        <v>13.5251281000205</v>
+      </c>
+      <c r="E43" t="n">
+        <v>824</v>
+      </c>
+      <c r="F43" t="n">
+        <v>287</v>
+      </c>
+      <c r="G43" t="n">
+        <v>45</v>
+      </c>
+      <c r="H43" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Corrected text:
-The study of epidemic spreading in successful applications networks science. Recent outbreaks of new influenza strains like H1N1, H5N5, and severe acute respiratory syndrome (SARS) are characterized by a high rate of mortality and/or fast propagation velocity. This motivates the development of epidemic models that capture the main features of the spread of diseases. In particular, mathematical tools applied to model epidemics are important since they allow us to understand the impact of diseases on society, helping develop new policies to slow the spreading. One of the simplest models to reproduce seasonal diseases like influenza is the susceptible-infected-recovered (SIR) model. The SIR model is subject to extensive theoretical and numerical research in complex networks.
+          <t>The study of epidemic spreading in successful applications networks science. Recent outbreaks of new influenza strains like H1N1, H5N5, and severe acute respiratory syndrome (SARS) are characterized by a high rate of mortality and/or fast propagation velocity. This motivates the development of epidemic models that capture the main features of the spread of diseases. In particular, mathematical tools applied to model epidemics are important since they allow us to understand the impact of diseases on society, helping develop new policies to slow the spreading. One of the simplest models to reproduce seasonal diseases like influenza is the susceptible-infected-recovered (SIR) model. The SIR model is subject to extensive theoretical and numerical research in complex networks.
 In the SIR model, individuals can be in one of three states: susceptible, infected, or recovered. It has a discrete formulation with a time step. Infected individuals infect susceptible neighbors with a probability and recover after a fixed time since being infected, which is called the recovery time. According to the rules, the disease spreads through contact networks until it reaches a steady state with susceptible and recovered individuals. The steady-state SIR model can be mapped to a link percolation problem, providing a theoretical framework to study the process. The size of infection, defined as the fraction of recovered individuals in the steady state, is governed by the effective probability of infection or transmissibility of the disease, which depends on the SIR model size of infection. In order to parameterize the second-order phase transition critical threshold for the disease outbreak, when the infection reaches a small fraction of the population, an epidemic develops. Exactly like the link percolation process on uncorrelated infinite networks, the threshold is given by &lt;kappa&gt; = &lt;k^2&gt;/&lt;k&gt;, where &lt;k&gt; and &lt;k^2&gt; are the first and second moments of the degree distribution, respectively. The degree distribution, denoted by P(k), represents the number of links per node in Erdős-Rényi networks. The degree distribution, &lt;k&gt;, better represented by a pure scale-free network (SF), measures the broadness of the distribution. In the thermodynamic limit of SF networks, the &lt;k^2&gt; to &lt;k&gt; means the epidemic spreads value; however, due to finite size effects in real networks, finite critical transmissibilities exist. In a recent paper, using generating function formalism, Newman showed that a steady-state SIR model exists with a second threshold when the residual network is composed of the biggest giant susceptible cluster that remains after the first propagation is destroyed. From an epidemiological point of view, this implies that the disease spreads a second time when the residual network becomes an epidemic. On the other hand, Valdez showed that an important parameter to determine the efficiency of mitigation control strategy is to decrease transmissibility to protect a large connected cluster of susceptible individuals. Using a percolation framework, it is explained that the lost susceptible giant cluster is not a random node in the percolation process, called node void percolation, where a susceptible individual corresponds to a void node in link percolation. Even though percolation theory is useful to describe the steady-state SIR model in complex networks, it is still challenging to explain the dynamics of the model and develop intervention strategies when an epidemic spreads to a large fraction of the population. To describe the dynamics of epidemic spreading in networks, researchers have recently developed differential rate equations for the SIR model that take into account network topology. Lindquist introduced the "effective degree" approach for large systems of ordinary differential equations. In this approach, nodes and neighbors are categorized by disease state (susceptible, infected, recovered), and differential equations compute the evolution of the fraction of susceptible and infected nodes and the number of infected susceptible neighbors, respectively. The result is a system of equations that needs to be solved. This approach accurately represents the evolution of the number of infected individuals but comes with a high computational cost. On the other hand, Miller and Miller proposed an ingenious approach to describe the evolution of the SIR process rates using an edge-based compartmental model (EBCM). The EBCM has the advantage of describing the dynamical spreading of epidemic equations. The authors found accurate results for the evolution of the number of infected individuals in static and dynamic evolutive topologies like "edge swapping" and "dormant contacts." The transmissibilities' critical thresholds literature focused on studying the evolution of the fraction of infected susceptible individuals, yet it has not investigated how epidemic spread affects the evolution of a network composed of susceptible individuals. Understanding this problem is important because a network composed of healthy individuals sustains the functionality of society (e.g., the economy of a region). In this paper, we present a novel idea for the SIR model based on a dynamic study of a network composed of susceptible individuals. We show a temporal decreasing size of the giant susceptible cluster described by</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Simplified text:
-The study of how diseases spread in networks is crucial. Recent flu outbreaks like H1N1 and H5N5 and SARS have high mortality rates and spread quickly. This drives the need for epidemic models to understand disease spread and develop effective policies. The SIR model is a simple way to simulate diseases like the flu in networks. It involves individuals being susceptible, infected, or recovered. Infected people spread the disease to others until a balance is reached. The size of the infection is influenced by how easily the disease spreads, known as transmissibility. The spread of the disease can be predicted using mathematical models. Researchers have developed different methods to study the spread, like differential equations and compartmental models. Understanding how diseases affect networks is crucial for maintaining societal functions.</t>
+          <t>The study of how diseases spread in networks is crucial. Recent flu outbreaks like H1N1 and H5N5 and SARS have high mortality rates and spread quickly. This drives the need for epidemic models to understand disease spread and develop effective policies. The SIR model is a simple way to simulate diseases like the flu in networks. It involves individuals being susceptible, infected, or recovered. Infected people spread the disease to others until a balance is reached. The size of the infection is influenced by how easily the disease spreads, known as transmissibility. The spread of the disease can be predicted using mathematical models. Researchers have developed different methods to study the spread, like differential equations and compartmental models. Understanding how diseases affect networks is crucial for maintaining societal functions.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15.65113428808635</v>
+        <v>15.62682584269663</v>
       </c>
       <c r="D44" t="n">
-        <v>10.1324080499653</v>
+        <v>10.02239605355885</v>
+      </c>
+      <c r="E44" t="n">
+        <v>801</v>
+      </c>
+      <c r="F44" t="n">
+        <v>129</v>
+      </c>
+      <c r="G44" t="n">
+        <v>36</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Corrected text:
-The scientific process aggregates a large number of scientific results. A common scientific consensus on numerical values is presented across scientific papers and collaborative systems like wikis may easily aggregate textual values from multiple sources. However, they are far limited in their ability to apply the numerical analysis required. For example, meta-analysis researchers have discussed the advantages and disadvantages of tools for conducting systematic reviews like "paper and pencil," spreadsheets, RevMan, web-based specialized applications, etc. In 2009, they concluded that "no single data extraction method is best for all systematic reviews circumstances." For example, RevMan from the Archie Cochrane Library provides an elaborate system for keeping track of and analyzing textual and numerical data for meta-analyses. The system could import information from electronic databases or original meta-analyses, Microsoft Excel spreadsheets, and later distribute them to public websites. Compared to an ordinary spreadsheet, a wiki solution provides data entry provenance, collaborative data entry that can be immediately updated and shared in folders, and cloud-based storage systems that would help collaboration. Spreadsheets yield provenance, but online services like Google Docs may lack meta-analytic plotting facilities found in web-based specialized applications for systematic reviews, which may have a high setup cost. Previously, it was explored a simple online meta-analysis system or a "fielded wiki" in connection with personality genetics specifically implemented for scientific areas. The web service lacks generality for types of meta-analytic data, and furthermore, the system relied on PubMed and Brede Wiki to represent bibliographic information. Following Ward Cunningham's quote, "It's the simplest thing that could possibly work," a present simple system allows for mass meta-analysis of numerical data presented in comma-separated values (CSV), a standard MediaWiki-based wiki. Brede Wiki's URL is http://neuro.imm.dtu.dk/wiki.</t>
+          <t>The scientific process aggregates a large number of scientific results. A common scientific consensus on numerical values is presented across scientific papers and collaborative systems like wikis may easily aggregate textual values from multiple sources. However, they are far limited in their ability to apply the numerical analysis required. For example, meta-analysis researchers have discussed the advantages and disadvantages of tools for conducting systematic reviews like "paper and pencil," spreadsheets, RevMan, web-based specialized applications, etc. In 2009, they concluded that "no single data extraction method is best for all systematic reviews circumstances." For example, RevMan from the Archie Cochrane Library provides an elaborate system for keeping track of and analyzing textual and numerical data for meta-analyses. The system could import information from electronic databases or original meta-analyses, Microsoft Excel spreadsheets, and later distribute them to public websites. Compared to an ordinary spreadsheet, a wiki solution provides data entry provenance, collaborative data entry that can be immediately updated and shared in folders, and cloud-based storage systems that would help collaboration. Spreadsheets yield provenance, but online services like Google Docs may lack meta-analytic plotting facilities found in web-based specialized applications for systematic reviews, which may have a high setup cost. Previously, it was explored a simple online meta-analysis system or a "fielded wiki" in connection with personality genetics specifically implemented for scientific areas. The web service lacks generality for types of meta-analytic data, and furthermore, the system relied on PubMed and Brede Wiki to represent bibliographic information. Following Ward Cunningham's quote, "It's the simplest thing that could possibly work," a present simple system allows for mass meta-analysis of numerical data presented in comma-separated values (CSV), a standard MediaWiki-based wiki. Brede Wiki's URL is http://neuro.imm.dtu.dk/wiki.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Simplified text:
-The scientific process combines many scientific findings. Collaborative tools like wikis gather information, but may struggle with numerical analysis. Researchers have debated the best tools for systematic reviews. RevMan is one such tool that helps collect and analyze data for meta-analyses. Compared to spreadsheets, wikis offer collaborative data entry and storage advantages. However, they may lack advanced features found in specialized analytic tools. A simple system using CSV format can aid in mass meta-analysis. Brede Wiki can be accessed at http://neuro.imm.dtu.dk/wiki.</t>
+          <t>The scientific process combines many scientific findings. Collaborative tools like wikis gather information, but may struggle with numerical analysis. Researchers have debated the best tools for systematic reviews. RevMan is one such tool that helps collect and analyze data for meta-analyses. Compared to spreadsheets, wikis offer collaborative data entry and storage advantages. However, they may lack advanced features found in specialized analytic tools. A simple system using CSV format can aid in mass meta-analysis. Brede Wiki can be accessed at http://neuro.imm.dtu.dk/wiki.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16.14571665285833</v>
+        <v>16.11132665832291</v>
       </c>
       <c r="D45" t="n">
-        <v>11.41834337349398</v>
+        <v>11.37089506172839</v>
+      </c>
+      <c r="E45" t="n">
+        <v>282</v>
+      </c>
+      <c r="F45" t="n">
+        <v>81</v>
+      </c>
+      <c r="G45" t="n">
+        <v>17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Corrected text:
-Recent trends in computing involve the availability of CPUs with multiple execution cores. A multicore processor has two independent execution units (cores) packaged on a die, which means that multicore CPUs actually share memory for multiple instructions and multiple data (MIMD). Machines capable of running multiple independent instructions at the same time are known as first-generation multicore CPUs. Currently available processors have four cores, while some specific fields have processors with one hundred cores already on the market. It is clear that in the next few years, multicore processors will be replaced by many-core processing architectures. This trend will have a strong impact on software, as sequential algorithms are unable to efficiently exploit the computational power provided by modern CPUs. This is true for servers, high-performance computing (HPC) environments, and also desktop PCs. It is well-known that developing parallel algorithms and implementing them is much harder than sequential ones. To address this issue, many programming languages and tools have been proposed, including OpenMP, Intel Threading Building Blocks (TBB), and the Go programming language.
+          <t>Recent trends in computing involve the availability of CPUs with multiple execution cores. A multicore processor has two independent execution units (cores) packaged on a die, which means that multicore CPUs actually share memory for multiple instructions and multiple data (MIMD). Machines capable of running multiple independent instructions at the same time are known as first-generation multicore CPUs. Currently available processors have four cores, while some specific fields have processors with one hundred cores already on the market. It is clear that in the next few years, multicore processors will be replaced by many-core processing architectures. This trend will have a strong impact on software, as sequential algorithms are unable to efficiently exploit the computational power provided by modern CPUs. This is true for servers, high-performance computing (HPC) environments, and also desktop PCs. It is well-known that developing parallel algorithms and implementing them is much harder than sequential ones. To address this issue, many programming languages and tools have been proposed, including OpenMP, Intel Threading Building Blocks (TBB), and the Go programming language.
 Despite significant research efforts to find new paradigms to tackle new computation architectures, there is still a large consensus that many designers and developers are trying to understand the impact of these technologies. One needs to restrict the focus to the field of discrete event simulation to understand things better. Many simulators are still based on sequential approaches and are therefore unable to take advantage of more than one CPU core. Given the trend towards many-core processors as described, improving the execution speed of simulators is no longer possible by increasing CPU clock speed. In other words, to take full advantage of new multi-core and many-core architectures, it is necessary to use parallel distributed simulation (PADS) techniques. Even when running a simulation on a normal desktop PC, parallel simulation techniques need to be used. These techniques, although currently used by niche users, need to go mainstream to gain support from simulation model developers.
 In order to support simulation model developers, multicore PADS libraries and tools are needed to hide the low-level details and present a convenient interface for users. It is safe to assume that PADS middleware is designed and implemented by experts in the field. It is important to assume that users of these tools are not PADS experts as well. It is worth noting that simulation tools need to be sufficient in exploiting the resources provided by many-core architectures available in the next few years. The simulation models built should allow for parallel execution.
 This paper describes the design and implementation of a new parallel simulation tool called GoWarp, which is based on the Go programming language. The Go language has good support for concurrency and communication; many features introduced in Go seem to have good potential for PADS usage but are still largely unexplored. The rest of the paper is organized as follows: the next section provides background on parallel and distributed simulation issues, followed by a review of relevant literature. Then, the paper briefly outlines interesting aspects of the Go programming language. The subsequent section introduces the GoWarp simulator that was designed and implemented. This is followed by an initial performance evaluation of the tool. Finally, the last section provides concluding remarks.</t>
@@ -1592,24 +2046,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Simplified text:
-Modern computers now come with CPUs that have multiple cores for faster processing. These cores can work independently, allowing for quicker execution of tasks. Initially, CPUs had two cores, but now some even have up to a hundred. In the future, many-core processors are expected to replace multicore ones. This change will impact software development as current programs may not efficiently use the full power of these new CPUs. To address this, new programming languages and tools like OpenMP, Intel TBB, and Go are being developed.
+          <t>Modern computers now come with CPUs that have multiple cores for faster processing. These cores can work independently, allowing for quicker execution of tasks. Initially, CPUs had two cores, but now some even have up to a hundred. In the future, many-core processors are expected to replace multicore ones. This change will impact software development as current programs may not efficiently use the full power of these new CPUs. To address this, new programming languages and tools like OpenMP, Intel TBB, and Go are being developed.
 Despite efforts to adapt to these new technologies, many designers and developers are still learning how to utilize them effectively. This is particularly evident in discrete event simulation, where many simulators are not optimized for multiple cores. To boost performance, parallel distributed simulation techniques need to be adopted. This shift is crucial even for basic desktop simulations. To simplify this process, user-friendly tools and libraries are being created by experts in the field.
 One such tool is GoWarp, a parallel simulation tool based on the Go programming language. Go offers strong support for handling multiple tasks simultaneously, making it ideal for simulation purposes. This paper provides background on parallel simulation, discusses the potential of Go for this purpose, introduces the GoWarp simulator, evaluates its performance, and concludes with final remarks.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13.23523997705399</v>
+        <v>13.20073571748449</v>
       </c>
       <c r="D46" t="n">
-        <v>11.72937614678899</v>
+        <v>11.65933333333333</v>
+      </c>
+      <c r="E46" t="n">
+        <v>539</v>
+      </c>
+      <c r="F46" t="n">
+        <v>216</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Corrected text:
-Simulation is a widely used modeling technique applied to study phenomena for which a closed-form analytical solution is either not known or difficult to obtain. Many types of simulations exist: continuous simulation, where the system state changes continuously over time (e.g., simulating temperature distribution over time inside a data center); discrete simulation, where the system state changes at discrete points in time. Finally, simulation relies on repeated random sampling to compute results and is applied in modeling and analyzing many types of systems, including computer system architectures, communication networks, street traffic, and others. A discrete-event simulation (DES) system is described as a set of interacting entities; the state of the simulator is updated when events happen at discrete points in time. For example, in a computer network simulation, the following events may be defined: 1) arrival of a new packet at a router; 2) the router starts processing the packet; 3) the router finishes processing the packet; 4) packet transmission starts; 5) a timeout occurs, and the packet is dropped. The overall structure of a sequential event-based simulator is relatively simple: the simulator engine maintains a list called "pending events" sorted in non-decreasing simulation time order. The simulator executes the main simulation loop by removing the event with the lowest timestamp, advancing the simulation time, and executing the event. This triggers a combination of actions: the simulation stops when the list is empty or when a user-defined stopping criteria is met (e.g., a predefined maximum simulation time is reached, or enough samples of events of interest are collected). This is usually implemented using a priority queue, although different data structures can be considered to provide various degrees of efficiency. Traditional sequential techniques may become inappropriate for analyzing large and/or detailed models due to the large number of events that require considerable "wall clock" time to complete a simulation run. A discipline aims to take advantage of modern high-performance computing architectures, such as massively parallel computers and multicore processors, to handle large models efficiently. The simulation model is partitioned into submodels called logical processes (LPs) that are evaluated concurrently. In practice, a container set of entities evolves in the simulation by exchanging timestamped messages representing simulation events between entities to ensure that causal dependencies of events are not violated. Multi- and many-core processor architectures are ubiquitous. Moreover, the cloud computing paradigm allows users to rent high-performance computing clusters using a "pay-as-you-go" pricing model. In fact, high-performance computing resources are readily available, suggesting that techniques should be refined to take advantage of these resources. Unfortunately, parallel and distributed simulation techniques have not gained much popularity outside highly specialized user communities for many reasons. A fundamental issue is that parallel simulation models are currently not transparent to the user. Figure 1 shows a greatly simplified structure of the stack, with the higher level being the user-defined simulation model that defines events that change the system state. In practice, the model is implemented using either a general-purpose programming language or languages specifically tailored for writing simulations (e.g., Simula, Dynamo, or SimscriptIII). The simulation program depends on the underlying simulation engine, which provides core facilities such as random number generation and handling statistics collection. The simulation engine may be implemented as a software library linked to the user-defined model. Finally, the lower level of simulation is executed on a hardware platform, typically a general-purpose processor, although ad hoc architectures are also considered (e.g., Anton supercomputer). Current state-of-the-art parallel and distributed simulation libraries and middlewares (e.g., SpeedES, GaiaArt) are proposed to speed up simulations, with some specifically tailored to particular environments and hardware architectures. Hardware dependency is unavoidable, and shared-memory parallel algorithms are quite different from distributed-memory ones. For example, low-level details are exposed to the user in shared-memory parallel algorithms, which must implement the simulation model taking into account how the model will be executed to port it to different platforms. A step towards a desirable situation is shown in Figure 1c, where an ErlangTW simulation library is written in Erlang and implements the Time Warp synchronization protocol for parallel and distributed simulations. Erlang is a concurrent programming language based on the functional paradigm and actor model, where concurrent objects interact using a share-nothing message passing. This way, an application can potentially run on single-core processors, shared-memory multiprocessors, or distributed-memory clusters. The Erlang virtual machine automatically makes use of available cores in a multicore processor, providing a uniform communication abstraction for shared-memory machines. Additionally, multiple Erlang VMs provide a similar abstraction for distributed-memory systems. Thanks to these features, an ErlangTW simulation model can be executed serially on single-core processors or concurrently on multicore clusters. The performance depends on the model and the underlying architecture; however, preliminary experiments on the PHOLD benchmark reported in Section 2 show scalability across different processor architectures has been achieved. Moreover, future versions of Erlang</t>
+          <t>Simulation is a widely used modeling technique applied to study phenomena for which a closed-form analytical solution is either not known or difficult to obtain. Many types of simulations exist: continuous simulation, where the system state changes continuously over time (e.g., simulating temperature distribution over time inside a data center); discrete simulation, where the system state changes at discrete points in time. Finally, simulation relies on repeated random sampling to compute results and is applied in modeling and analyzing many types of systems, including computer system architectures, communication networks, street traffic, and others. A discrete-event simulation (DES) system is described as a set of interacting entities; the state of the simulator is updated when events happen at discrete points in time. For example, in a computer network simulation, the following events may be defined: 1) arrival of a new packet at a router; 2) the router starts processing the packet; 3) the router finishes processing the packet; 4) packet transmission starts; 5) a timeout occurs, and the packet is dropped. The overall structure of a sequential event-based simulator is relatively simple: the simulator engine maintains a list called "pending events" sorted in non-decreasing simulation time order. The simulator executes the main simulation loop by removing the event with the lowest timestamp, advancing the simulation time, and executing the event. This triggers a combination of actions: the simulation stops when the list is empty or when a user-defined stopping criteria is met (e.g., a predefined maximum simulation time is reached, or enough samples of events of interest are collected). This is usually implemented using a priority queue, although different data structures can be considered to provide various degrees of efficiency. Traditional sequential techniques may become inappropriate for analyzing large and/or detailed models due to the large number of events that require considerable "wall clock" time to complete a simulation run. A discipline aims to take advantage of modern high-performance computing architectures, such as massively parallel computers and multicore processors, to handle large models efficiently. The simulation model is partitioned into submodels called logical processes (LPs) that are evaluated concurrently. In practice, a container set of entities evolves in the simulation by exchanging timestamped messages representing simulation events between entities to ensure that causal dependencies of events are not violated. Multi- and many-core processor architectures are ubiquitous. Moreover, the cloud computing paradigm allows users to rent high-performance computing clusters using a "pay-as-you-go" pricing model. In fact, high-performance computing resources are readily available, suggesting that techniques should be refined to take advantage of these resources. Unfortunately, parallel and distributed simulation techniques have not gained much popularity outside highly specialized user communities for many reasons. A fundamental issue is that parallel simulation models are currently not transparent to the user. Figure 1 shows a greatly simplified structure of the stack, with the higher level being the user-defined simulation model that defines events that change the system state. In practice, the model is implemented using either a general-purpose programming language or languages specifically tailored for writing simulations (e.g., Simula, Dynamo, or SimscriptIII). The simulation program depends on the underlying simulation engine, which provides core facilities such as random number generation and handling statistics collection. The simulation engine may be implemented as a software library linked to the user-defined model. Finally, the lower level of simulation is executed on a hardware platform, typically a general-purpose processor, although ad hoc architectures are also considered (e.g., Anton supercomputer). Current state-of-the-art parallel and distributed simulation libraries and middlewares (e.g., SpeedES, GaiaArt) are proposed to speed up simulations, with some specifically tailored to particular environments and hardware architectures. Hardware dependency is unavoidable, and shared-memory parallel algorithms are quite different from distributed-memory ones. For example, low-level details are exposed to the user in shared-memory parallel algorithms, which must implement the simulation model taking into account how the model will be executed to port it to different platforms. A step towards a desirable situation is shown in Figure 1c, where an ErlangTW simulation library is written in Erlang and implements the Time Warp synchronization protocol for parallel and distributed simulations. Erlang is a concurrent programming language based on the functional paradigm and actor model, where concurrent objects interact using a share-nothing message passing. This way, an application can potentially run on single-core processors, shared-memory multiprocessors, or distributed-memory clusters. The Erlang virtual machine automatically makes use of available cores in a multicore processor, providing a uniform communication abstraction for shared-memory machines. Additionally, multiple Erlang VMs provide a similar abstraction for distributed-memory systems. Thanks to these features, an ErlangTW simulation model can be executed serially on single-core processors or concurrently on multicore clusters. The performance depends on the model and the underlying architecture; however, preliminary experiments on the PHOLD benchmark reported in Section 2 show scalability across different processor architectures has been achieved. Moreover, future versions of Erlang</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1618,17 +2082,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15.98858222422739</v>
+        <v>15.97293080054274</v>
       </c>
       <c r="D47" t="n">
         <v>15.52842857142857</v>
       </c>
+      <c r="E47" t="n">
+        <v>804</v>
+      </c>
+      <c r="F47" t="n">
+        <v>200</v>
+      </c>
+      <c r="G47" t="n">
+        <v>44</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Corrected text:
-Machine learning algorithms rarely parameter-free; whether via properties regularizer hyperprior generative model step size gradient-based optimization learning procedures almost always require a set of high-level choices that significantly impact generalization performance. As a practitioner, one is usually able to specify a general framework or inductive bias much more easily than a particular weighting relative to training data. As a result, high-level parameters are often considered a nuisance, making it desirable to develop algorithms with as many "knobs" as possible. 
+          <t>Machine learning algorithms rarely parameter-free; whether via properties regularizer hyperprior generative model step size gradient-based optimization learning procedures almost always require a set of high-level choices that significantly impact generalization performance. As a practitioner, one is usually able to specify a general framework or inductive bias much more easily than a particular weighting relative to training data. As a result, high-level parameters are often considered a nuisance, making it desirable to develop algorithms with as many "knobs" as possible. 
 Another flexible way to take issue with the view of optimization and high-level parameters in a procedure is to automate it. Specifically, one could view tuning the optimization of unknown black-box functions that reflect generalization performance and invoke algorithms developed for these problems. Optimization problems have a somewhat different flavor than low-level objectives one often encounters as part of the training procedure: function evaluations are expensive and involve running the primary machine learning algorithm to completion. 
 Since setting function evaluations are expensive, it is desirable to spend computational time making better choices to seek the best parameters. Bayesian optimization provides an elegant approach that has been shown to outperform state-of-the-art global optimization algorithms on a number of challenging optimization benchmark functions. In continuous functions, Bayesian optimization typically works by assuming the unknown function is sampled from a Gaussian process (GP). The GP maintains a posterior distribution of function observations made. In this case, the observations measure generalization performance at different settings of hyperparameters that one wishes to optimize. To pick the hyperparameters for the next experiment, one optimizes the expected improvement (EI) over the current best result or the Gaussian process upper confidence bound (UCB). EI and UCB have been shown to be efficient in reducing the number of function evaluations required to find the global optimum in many multimodal black-box functions of machine learning algorithms. 
 However, certain characteristics distinguish black-box optimization problems. First, function evaluations may require a variable amount of time: training a small neural network with 10 hidden units takes less time than a bigger network with 1000 hidden units. Even without considering the duration, the advent of cloud computing makes it possible to quantify the economic cost of requiring larger memory machines for learning. Changing the actual cost in dollars per experiment for different numbers of hidden units, it is desirable to understand and include the concept of cost in the optimization procedure. Second, machine learning experiments are often run in parallel on multiple cores of machines. It would be advantageous to build Bayesian optimization procedures that take advantage of parallelism to reach better solutions more quickly. 
@@ -1637,8 +2112,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Simplified text:
-Machine learning algorithms usually need certain choices that affect their performance. These choices, like the type of model or optimization method, can be tricky to set. To make this process easier, it's helpful to have more control options, known as "knobs."
+          <t>Machine learning algorithms usually need certain choices that affect their performance. These choices, like the type of model or optimization method, can be tricky to set. To make this process easier, it's helpful to have more control options, known as "knobs."
 One way to simplify this is through automation. By using optimization techniques, we can improve how we set these choices for better results, especially when dealing with expensive function evaluations.
 Bayesian optimization is a smart way to tackle this. It outperforms other methods by assuming the function we're dealing with follows a certain pattern. By picking parameters that maximize expected improvement or confidence, we can find the best settings faster for complex machine learning problems.
 These optimization challenges have unique aspects. Functions can take varying times to evaluate, and the cost of experiments can differ. Also, running experiments simultaneously on different machine cores can speed up the process.
@@ -1646,17 +2120,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15.96781954887218</v>
+        <v>15.9377358490566</v>
       </c>
       <c r="D48" t="n">
-        <v>10.94142857142857</v>
+        <v>10.85964653902799</v>
+      </c>
+      <c r="E48" t="n">
+        <v>530</v>
+      </c>
+      <c r="F48" t="n">
+        <v>194</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26</v>
+      </c>
+      <c r="H48" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Corrected text:
-Modeling language dynamics is a general framework in complex systems that can be addressed from at least three different perspectives: language evolution, the structure of how language evolves, language cognition - the way the human brain processes linguistic knowledge, and the dynamics of language use in multilingual communities. In the latter approach followed in this paper, the focus is on problems related to social interactions, thus establishing a direct connection to social sciences and social dynamics, since linguistic features represent cultural traits with a specific nature whose propagation and evolution can be modeled through dynamics analogous to cultural spreading or opinion dynamics. Furthermore, studying language dynamics offers the possibility to understand the mechanisms that regulate the size and evolution of linguistic communities, which is important knowledge for designing appropriate linguistic policies. 
+          <t>Modeling language dynamics is a general framework in complex systems that can be addressed from at least three different perspectives: language evolution, the structure of how language evolves, language cognition - the way the human brain processes linguistic knowledge, and the dynamics of language use in multilingual communities. In the latter approach followed in this paper, the focus is on problems related to social interactions, thus establishing a direct connection to social sciences and social dynamics, since linguistic features represent cultural traits with a specific nature whose propagation and evolution can be modeled through dynamics analogous to cultural spreading or opinion dynamics. Furthermore, studying language dynamics offers the possibility to understand the mechanisms that regulate the size and evolution of linguistic communities, which is important knowledge for designing appropriate linguistic policies. 
 This paper reviews recent work on language competition dynamics, focusing on models that describe interactions in social communities with two languages and two linguistic features, denoted as "A" and "B". In particular, it considers the special role of bilingual speakers with an emphasis on two three-state models - in physics jargon, models with two excluding and non-excluding options. From the perspective of economics and social norms, languages and linguistic features are considered as fixed cultural traits of society. The general dynamics of evolving and interacting languages are discussed, along with work done in several parallel directions and different methodological viewpoints.
 The first approach reviewed is the family of competition models, also referred to as "ecological models of language", studied at the macroscopic and mesoscopic levels by introducing population densities of the respective language communities. This is done using microscopic agent-based models where detailed interactions among agents are taken into account, and formulations are made at different levels of detail, possibly introducing the effects of population dynamics, geography, and intrinsic or external random fluctuations. 
 Another approach considered is through game-theoretical models, allowing for the description of agents making choices of which language to speak when they encounter limited information. In ecological models of language, the language initially spoken by a fraction of the population is considered. In the game-theoretical framework, the present situation in many societies where one language is spoken by everyone and a minority language is spoken by a proportion of the population is considered. The relevant dynamics in such scenarios are outlined in this paper as follows: 
@@ -1665,25 +2150,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Simplified text:
-Studying language dynamics involves looking at language evolution, language cognition, and language use in multilingual communities. This paper focuses on social interactions and their connection to social sciences. Languages reflect cultural traits that can be modeled like cultural spreading.
+          <t>Studying language dynamics involves looking at language evolution, language cognition, and language use in multilingual communities. This paper focuses on social interactions and their connection to social sciences. Languages reflect cultural traits that can be modeled like cultural spreading.
 Understanding language dynamics helps in regulating linguistic communities and designing linguistic policies. The paper reviews recent research on language competition dynamics, particularly on interactions in social communities with two languages and two linguistic features.
 Different models are discussed, such as competition models and game-theoretical models, to describe the dynamics of languages evolving and interacting. These models consider factors like population densities, detailed agent interactions, geography, and random fluctuations.
 The paper covers a range of models, including ecological models of language and game-theoretical frameworks, to understand language dynamics in societies where multiple languages are spoken. Specific sections discuss various models and their implications, including accounting for geographic effects and bilingual agents in language competition dynamics.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18.35141913352814</v>
+        <v>18.30432053081536</v>
       </c>
       <c r="D49" t="n">
-        <v>16.71951612903225</v>
+        <v>16.67634640522876</v>
+      </c>
+      <c r="E49" t="n">
+        <v>461</v>
+      </c>
+      <c r="F49" t="n">
+        <v>153</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Corrected text: 
-Ontario N2L 2Y5, Canada. Communication complexity in quantum channels refers to the minimal amount of classical communication required for classically simulating the process of state preparation, transmission through the channel, and subsequent measurement. This establishes a limit on the power of quantum communication in terms of classical resources. To show that classical simulations employing a finite amount of communication can be derived from a special class of hidden variable theories where quantum states represent statistical knowledge rather than elements of reality has attracted strong interest recently. The communication cost derived from the simulation is given by the mutual information between the quantum state and the classical state of the parent hidden variable theory. Finally, it is found that the communication complexity for single qubits is smaller than previously known upper bounds for bits in quantum systems simulated with classical resources.
+          <t>Ontario N2L 2Y5, Canada. Communication complexity in quantum channels refers to the minimal amount of classical communication required for classically simulating the process of state preparation, transmission through the channel, and subsequent measurement. This establishes a limit on the power of quantum communication in terms of classical resources. To show that classical simulations employing a finite amount of communication can be derived from a special class of hidden variable theories where quantum states represent statistical knowledge rather than elements of reality has attracted strong interest recently. The communication cost derived from the simulation is given by the mutual information between the quantum state and the classical state of the parent hidden variable theory. Finally, it is found that the communication complexity for single qubits is smaller than previously known upper bounds for bits in quantum systems simulated with classical resources.
 Quantum theory is intrinsically irreducible; it is an ontological theory that picturizes a well-defined sharp reality in classical language. The simplest way to realize the reduction interpretation of a quantum state into something real is through a classical field definiteness where macroscopic reality would be guaranteed. For example, in the spirit of collapse theories or auxiliary hidden variables like pilot wave theories. However, since full information of the quantum state can be recovered from measurements on single systems, a subtle classical theory would encode this information as statistical behavior of the classical state. This is hereafter called the 'it ontic state,' similar to a probability distribution, where the quantum state is asymptotically recovered as ontic states of many identically prepared systems representing the statistical knowledge of the actual state of single systems. The hypothetical theories called epistemic theories, on the other hand, suggest that the quantum state's information is contained in the ontic state realization, and are called ontic. The question of whether the statistical encoding is actually possible has attracted growing interest in recent years.
 The above text describes the communication complexity of quantum channels and the relationship between epistemic theories and finite communication protocols. It shows that epistemic theories play a pivotal role in quantum communication and determine an upper bound on the communication complexity of quantum channels. The paper is organized as follows: introducing a framework for ontological theory, defining the communication complexity of quantum channels in a generalized version, presenting the main results concerning the relation between epistemic theories and fc protocols, and illustrating the results derived from the inequality for bits in single qubits using the Kochen-Specker model. Finally, conclusions and perspectives are drawn.
 Let us introduce a general framework for ontological theory describing the preparation and subsequent measurement of a quantum system. An ontological theory describes a system with a set of variables where each value represents the ontic state of the system when prepared in a quantum state. The ontic state is set according to a probability distribution that depends on the mapping |ψ⟩ → ρ_x|ψ⟩ that associates a quantum state with a probability distribution in ontological space. A general measurement is described by a positive operator-valued measure (POVM) defined as a set of positive semidefinite operators with each operator labeling an event of measurement.
@@ -1692,24 +2187,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Simplified text:
-Communication complexity in quantum channels shows the minimum classical communication needed to mimic state preparation, transmission, and measurement. This limits quantum communication's power in terms of classical resources. Recent interest is in how finite communication can simulate classical processes using a specific hidden variable theory. The cost of this simulation relies on the mutual information between the quantum state and the classical state of the hidden variable theory. It's found that the communication complexity for single qubits is less than previous upper bounds for classical resources simulating quantum systems.
+          <t>Communication complexity in quantum channels shows the minimum classical communication needed to mimic state preparation, transmission, and measurement. This limits quantum communication's power in terms of classical resources. Recent interest is in how finite communication can simulate classical processes using a specific hidden variable theory. The cost of this simulation relies on the mutual information between the quantum state and the classical state of the hidden variable theory. It's found that the communication complexity for single qubits is less than previous upper bounds for classical resources simulating quantum systems.
 Quantum theory is inherently unchangeable, picturing a clear reality in classical terms. One way to interpret quantum states as real is through a classical field where macroscopic reality is guaranteed, like in collapse theories. Recovering full quantum state information from single system measurements suggests encoding this in the statistical behavior of a classical state, known as the 'it ontic state.' Epistemic theories propose that quantum state information is in the ontic state realization. The possibility of this statistical encoding is an increasingly intriguing topic.
 The text discusses the communication complexity of quantum channels and the link between epistemic theories and finite communication methods. It emphasizes the role of epistemic theories in quantum communication and their impact on communication complexity limits. The paper outlines an ontological theory framework, defines quantum channel communication complexity, explores the relation between epistemic theories and communication protocols, and showcases results regarding single qubits using the Kochen-Specker model. It concludes by highlighting the growing relevance of epistemic theories in quantum foundations and communication, noting their mutual benefits and recent findings.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17.56363240418118</v>
+        <v>17.53192307692307</v>
       </c>
       <c r="D50" t="n">
-        <v>16.39369696969697</v>
+        <v>16.35329770992367</v>
+      </c>
+      <c r="E50" t="n">
+        <v>572</v>
+      </c>
+      <c r="F50" t="n">
+        <v>262</v>
+      </c>
+      <c r="G50" t="n">
+        <v>24</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Corrected text:
-1 2 1 2 3 4 1 2 3 4 left|begin array cc 1 2 3 4 prove range symmetric matrix contains vector diagonal elements apply theorem generalization "lights" problem graphs. For the purpose of this note, we will prove that the range of a symmetric matrix contains the diagonal elements of a vector. In this section, we apply the theorem to the generalization of the "lights" problem in graphs: in a simple graph with vertices that are either on or off, represented by a clicked vertex or an unclicked vertex, the states of adjacent vertices are toggled starting from an arbitrary initial configuration of vertices. The problem is to determine whether clicking a subset of vertices can change the state of all vertices, hence the name "lights." We can show that the theorem generalizes the result in the case where clicking vertices can actually affect the state of other vertices.
+          <t>1 2 1 2 3 4 1 2 3 4 left|begin array cc 1 2 3 4 prove range symmetric matrix contains vector diagonal elements apply theorem generalization "lights" problem graphs. For the purpose of this note, we will prove that the range of a symmetric matrix contains the diagonal elements of a vector. In this section, we apply the theorem to the generalization of the "lights" problem in graphs: in a simple graph with vertices that are either on or off, represented by a clicked vertex or an unclicked vertex, the states of adjacent vertices are toggled starting from an arbitrary initial configuration of vertices. The problem is to determine whether clicking a subset of vertices can change the state of all vertices, hence the name "lights." We can show that the theorem generalizes the result in the case where clicking vertices can actually affect the state of other vertices.
 The states of adjacent vertices in a symmetric matrix and the diagonal vector range show that this implies perpendicularity to every vector. That is, it is desired and obvious that without loss of generality, we may assume the first entries are the ones affected. Otherwise, we can permute the entries and the corresponding columns and rows to hold true. The linear dependence relation on the columns is given by stating that the sum of the first columns equals the st column. The original motivation for the theorem came from the "lights" problem, as explained in the introduction. Let a finite undirected graph be given, with one edge connecting two vertices and each vertex connected to a vertex. Let the vertices be assigned a state, either 0 or 1. Assuming that clicking a vertex changes the states of adjacent vertices, including those connected through other vertices, the problem is to switch the state starting from 0 in all vertices except for the chosen ones to be clicked, which remain at 1. Defining the matrix with the number of vertices and a vertex connected to another vertex, since the graph is undirected, it is symmetric. Furthermore, the first diagonal elements are connected to the rest, as the first vertices are the ones connected. It is easy to see that the vector states obtained by starting with all 0 vertices and clicking the corresponding 1's are obtained by simply summing the columns corresponding to the 1's. Since the diagonal vector is in the range, by clicking the vertices corresponding to the 1's, the connected vertices will change, as desired.
 To generalize the "lights" problem in the case where vertices can affect each other, let us consider a concrete example. Let's first list examples of vertices connected, for example, the original motivator of the problem in the case of vertices forming a graph of squares in a finite two-dimensional grid. Clicking a square toggles its color, say from white to black, and also changes the colors of squares sharing an edge with the clicked square. The problem is to find the squares to click to change all the squares from white to black. By starting with an all-white grid and systematically clicking on specific squares, it is possible to achieve this goal. A corollary shows that this can always be done. This scenario could be generalized to higher dimensions, where clicking on a square in a three-dimensional cube affects all the squares that share a dimensional hyperplane. One could start with an arbitrary subset of a 2-dimensional or 3-dimensional grid, perhaps in the shape of a star or a flower, where clicking on certain vertices will affect their neighboring ones. The rules could also be changed, for example, squares that diagonally affect each other in a torus-like fashion, where the top squares affect the bottom ones and/or the leftmost ones affect the rightmost ones. This particular case could be studied in more detail.
 One could also consider changing the shape of the "squares" to triangles on a triangular lattice or hexagons on a hexagonal lattice, where the vertices affect each other accordingly. For example, in a scenario where vertices do not affect each other directly, one could have green and red lamps; green lamps affect those around them, and red lamps affect those around them. Starting with lamps in a certain configuration, the goal would be to turn all green lamps into red lamps. A corollary shows that this can always be achieved. Of course, the number of scenarios is limited only by one's imagination.</t>
@@ -1717,23 +2222,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Simplified text:
-In this note, we prove that a symmetric matrix's range includes the diagonal vector elements. We apply this theorem to the "lights" problem in graphs, where clicking vertices can change all vertices' states. The adjacent vertices' states in a symmetric matrix and the diagonal vector range show perpendicularity to every vector. By clicking certain vertices, the connected vertices change states, as desired. The theorem's original motivation came from the "lights" problem in graphs.
+          <t>In this note, we prove that a symmetric matrix's range includes the diagonal vector elements. We apply this theorem to the "lights" problem in graphs, where clicking vertices can change all vertices' states. The adjacent vertices' states in a symmetric matrix and the diagonal vector range show perpendicularity to every vector. By clicking certain vertices, the connected vertices change states, as desired. The theorem's original motivation came from the "lights" problem in graphs.
 To generalize the "lights" problem to cases where vertices affect each other, consider a grid of squares where clicking a square changes its color and its neighbors'. By clicking specific squares on an all-white grid, all squares can change to black. This concept extends to higher dimensions, altering shapes like triangles or hexagons. Different scenarios, such as green and red lamps affecting their surroundings, can also be explored. The goal is often to change the states following specific rules, with solutions always achievable. The possibilities for such scenarios are vast and varied.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11.63229716520039</v>
+        <v>11.5947243322715</v>
       </c>
       <c r="D51" t="n">
-        <v>9.833907185628743</v>
+        <v>9.725227272727274</v>
+      </c>
+      <c r="E51" t="n">
+        <v>742</v>
+      </c>
+      <c r="F51" t="n">
+        <v>165</v>
+      </c>
+      <c r="G51" t="n">
+        <v>33</v>
+      </c>
+      <c r="H51" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Corrected text:
-Dithered quantization is a randomized quantization method introduced with the central motivation of dithered quantization's ability to yield quantization error independent of the source under certain conditions determined by Schuchman et al. Traditionally, dithered quantization is studied within the framework of a quantizer with uniform step size, where the dither signal is uniformly distributed and matched to the quantizer interval as shown in Figure 1. The uniformly distributed dither signal is added at the quantization stage, and the dither signal is subtracted from the quantized value at the decoder side. This subtractive dithering is considered in this paper for the variable-rate case, where the quantized values are entropy coded conditioned on the dither signal.
+          <t>Dithered quantization is a randomized quantization method introduced with the central motivation of dithered quantization's ability to yield quantization error independent of the source under certain conditions determined by Schuchman et al. Traditionally, dithered quantization is studied within the framework of a quantizer with uniform step size, where the dither signal is uniformly distributed and matched to the quantizer interval as shown in Figure 1. The uniformly distributed dither signal is added at the quantization stage, and the dither signal is subtracted from the quantized value at the decoder side. This subtractive dithering is considered in this paper for the variable-rate case, where the quantized values are entropy coded conditioned on the dither signal.
 Randomized dithered quantizers have been studied in the past due to their important properties that differentiate them from deterministic quantizers. They are employed to characterize rate-distortion bounds for universal compression. Zamir and Feder provide extensive studies on the properties of dithered quantizers beyond theoretical significance. Randomized quantization is of practical interest in many filter system optimization problems and practical compression settings.
 The "rate-distortion optimal filter bank design" problem in low-rate filter optimization and DPCM compression of Gaussian autoregressive processes assumes that the quantization noise is independent and uncorrelated from the source. Although this assumption is satisfied asymptotically at high rates, systems mostly used for low-rate applications are more useful. For example, the stated assumptions made in the paper are satisfied by deterministic quantizers, while dithered quantizers satisfy these assumptions exactly. However, conventional uniform dithered quantization suffers from suboptimal compression performance. Hence, a quantizer that mostly satisfies the assumptions with minimal cost-performance degradation would have a considerable impact on many applications.
 In this paper, we consider a generalization to enable effective dithering for nonuniform quantizers. To the best of our knowledge, this paper is the first attempt at preliminary work on a nonuniform quantization framework. One immediate problem with nonuniform dithered quantization is applying dithering with unequal quantization intervals. In traditional dithered quantization, the dither signal is matched to the uniform quantization interval while maintaining independence from the source. It is not clear how to match a generic dither to varying quantization intervals. To remedy this problem, we propose dithering in the companded domain and derive closed-form necessary conditions for optimality for compressor-expander mappings in fixed and variable-rate randomized quantization. We numerically optimize these mappings iteratively by imposing the necessary conditions. However, the resulting unconstrained randomized quantizer may render the reconstruction error orthogonal to the source. Therefore, we extend the framework to include an explicit constraint.
@@ -1745,25 +2260,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Simplified text:
-Dithered quantization is a method that randomizes quantization to reduce errors independently of the source. The process involves adding a uniformly distributed dither signal during quantization and removing it during decoding. This method is examined for variable-rate cases where quantized values are coded based on the dither signal.
+          <t>Dithered quantization is a method that randomizes quantization to reduce errors independently of the source. The process involves adding a uniformly distributed dither signal during quantization and removing it during decoding. This method is examined for variable-rate cases where quantized values are coded based on the dither signal.
 Randomized dithered quantizers are studied for their unique features compared to deterministic ones. They are useful in setting compression limits and optimizing filter systems. In practical applications, they offer advantages in low-rate scenarios.
 The paper introduces a new approach for dithering in nonuniform quantizers, a novelty in the field. The proposed method optimizes dithering for varying quantization intervals by using companded domain dithering. By imposing specific conditions, optimal compressor-expander mappings are derived for randomized quantization.
 The study reveals a significant improvement in performance over traditional methods at low rates. The research explores the connection between constrained and unconstrained random quantizers and deterministic quantizers, providing insights into achieving optimal results in quantization. It concludes by discussing the potential of deterministic quantizers in achieving uncorrelated quantization errors.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17.42402684563759</v>
+        <v>17.40931359353971</v>
       </c>
       <c r="D52" t="n">
-        <v>15.95714285714286</v>
+        <v>15.92832369942197</v>
+      </c>
+      <c r="E52" t="n">
+        <v>743</v>
+      </c>
+      <c r="F52" t="n">
+        <v>173</v>
+      </c>
+      <c r="G52" t="n">
+        <v>39</v>
+      </c>
+      <c r="H52" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Corrected text:
-Unconventional computing seeks to explore and characterize a wider range of substrates and phenomena used for practical computing. The hope is to understand and apply the intrinsic information processing behavior of the substrate. Unconventional computing tends to be substrate-driven rather than model-driven, searching for physical systems that can be harnessed to create computing machinery without preconceived ideas of the behavior the machinery should exhibit.
+          <t>Unconventional computing seeks to explore and characterize a wider range of substrates and phenomena used for practical computing. The hope is to understand and apply the intrinsic information processing behavior of the substrate. Unconventional computing tends to be substrate-driven rather than model-driven, searching for physical systems that can be harnessed to create computing machinery without preconceived ideas of the behavior the machinery should exhibit.
 Unconventional computing is inspired by the idea that every sufficiently complex system performs some kind of information processing. The challenge lies in finding appropriate mathematical and experimental techniques for understanding and interpreting these systems. Natural systems have the ability to manage and harness complex phenomena to process information in powerful ways that are not yet fully understood, motivating the search for unconventional computing methods.
 Though unconventional computing is not limited to naturally occurring systems, one of the challenges is efficiently exploiting previously unexploited phenomena in new or existing substrates. Many abstract models used in computer science were invented and popularized to abstract away the details of physical behavior in computing hardware. In the early history of computing machinery, there was a pragmatic approach to dealing with concurrent and time-dependent behavior, which was often seen as a nuisance that needed to be abstracted away to simplify the design process.
 Asynchronous design techniques have helped designers create more efficient circuit designs by explicitly considering the timing of signals and outputs without the need for a constant clock rate. This involves understanding electronic digital circuit elements at a less abstract level than what is used in synchronous design, allowing designers to exploit different types of behavior that exist at higher levels of abstraction.
@@ -1774,8 +2299,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Simplified text:
-Unconventional computing explores diverse materials and processes for practical computing. It aims to understand and use the natural information processing abilities of materials. Rather than following set models, unconventional computing focuses on finding physical systems that can be used for computing without predetermined expectations.
+          <t>Unconventional computing explores diverse materials and processes for practical computing. It aims to understand and use the natural information processing abilities of materials. Rather than following set models, unconventional computing focuses on finding physical systems that can be used for computing without predetermined expectations.
 The concept behind unconventional computing is that complex systems inherently process information. The key challenge is to develop methods to interpret these systems effectively. Natural systems can process information in unique ways not fully understood yet, prompting the search for unconventional computing techniques.
 One obstacle is effectively utilizing undiscovered phenomena in different materials. Traditional computer models were created to simplify the design process by ignoring certain physical aspects. Asynchronous design methods have helped create more efficient circuit designs by considering signal timing without a fixed clock rate.
 The general approach in unconventional computing involves exploring complex materials for their information processing potential. This exploration involves observation and experimentation without always needing precise answers. For instance, the behavior of plasmodium physarum polycephalum forming efficient networks connecting food sources can be studied through evolutionary and experimental lenses.
@@ -1784,17 +2308,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17.59696706953933</v>
+        <v>17.56300773694391</v>
       </c>
       <c r="D53" t="n">
-        <v>16.73452380952381</v>
+        <v>16.7119249692497</v>
+      </c>
+      <c r="E53" t="n">
+        <v>517</v>
+      </c>
+      <c r="F53" t="n">
+        <v>271</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22</v>
+      </c>
+      <c r="H53" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Corrected text:
-Amplify-and-forward (AF) relay systems have received a lot of attention recently due to their ability to improve coverage and capacity in a geographical sense. To date, two main AF protocols focused on in the literature are variable gain, also known as Channel State Information (CSI) assisted AF relaying, and fixed-gain AF relaying. The former yields good performance when CSI is available at the relay nodes, making it suitable for more complex systems with information available. However, the performance of the system often suffers, particularly in fixed-gain AF relaying, which may be a good choice for low-complexity systems. 
+          <t>Amplify-and-forward (AF) relay systems have received a lot of attention recently due to their ability to improve coverage and capacity in a geographical sense. To date, two main AF protocols focused on in the literature are variable gain, also known as Channel State Information (CSI) assisted AF relaying, and fixed-gain AF relaying. The former yields good performance when CSI is available at the relay nodes, making it suitable for more complex systems with information available. However, the performance of the system often suffers, particularly in fixed-gain AF relaying, which may be a good choice for low-complexity systems. 
 Emerging energy utility management applications such as "smart grid" water metering communication networks, as well as industrial wireless sensor networks, have led to a focus on the fixed-gain protocol in many wireless communication systems operating in fading environments. The end-to-end outage probability is an important metric used to characterize the performance of fixed-gain AF relaying systems. Symbol error probability is also an important metric investigated in fixed-gain AF relaying. Several results on this topic have been published, with fixed-gain AF links used to study the outage probability as hop fades according to a Nakagami distribution. The analysis has been adapted and extended to cases of per-hop fading distributions such as Nakagami-Rice, Nakagami-Hoyt, among others. 
 The outage probability has been studied using Padé approximants, and authors have derived tight closed-form bounds on the outage probability for asymptotically high Signal-to-Noise Ratio (SNR) cases. The underlying channel power probability density function with a nonzero origin condition is valid for Rayleigh, Rician, and Hoyt fading, but excludes Nakagami and Weibull fading. 
 Recent performance analysis results in multihop relay networks have focused on variable-gain AF relaying, particularly in Nakagami fading channels. Two main drawbacks of the results currently available in fixed-gain AF relaying aim to improve upon in this paper: outage probability, including asymptotic results and bounds for general multihop systems. Indeed, exact results for dual-hop systems operating in class Nakagami channels have recently been published, but inhomogeneous systems appear limited to dual-hop links, which are likely encountered frequently in practical multihop systems. 
@@ -1804,25 +2339,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Simplified text:
-Amplify-and-forward (AF) relay systems are getting attention for improving coverage and capacity. Two main AF protocols are variable gain (CSI-assisted) and fixed-gain AF relaying. Variable gain works well with available CSI for complex systems, while fixed-gain is suitable for simpler systems.
+          <t>Amplify-and-forward (AF) relay systems are getting attention for improving coverage and capacity. Two main AF protocols are variable gain (CSI-assisted) and fixed-gain AF relaying. Variable gain works well with available CSI for complex systems, while fixed-gain is suitable for simpler systems.
 Fixed-gain AF relaying is important in wireless communication for applications like smart grids. Outage probability and symbol error probability measure the system's performance. Studies focus on different fading distributions like Nakagami and analyze outage probability using Padé approximants.
 Recent research on multihop relay networks emphasizes variable-gain AF relaying in Nakagami fading channels. This paper aims to address shortcomings in fixed-gain AF relaying, focusing on outage probability in multihop systems. It proposes a general method using Mellin transforms for accurate approximations in various fading models.
 The paper presents an asymptotic formula for the outage probability of fixed-gain AF multihop systems. It explains the AF system model, provides a framework for asymptotic outage probability, and applies it to different fading profiles in wireless channels. Simulation results validate the analysis, leading to conclusions.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17.85750000000001</v>
+        <v>17.82500000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>14.42774566473989</v>
+        <v>14.38210526315789</v>
+      </c>
+      <c r="E54" t="n">
+        <v>604</v>
+      </c>
+      <c r="F54" t="n">
+        <v>171</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Corrected text:
-Study of dynamical ordering phenomena and consensus formation in initially disordered populations is a central problem in statistical physics approaches in social and natural sciences. Whether it be the broad idea of consensus referred to in opinions, voting intentions, language conventions, social habits, or inherited genetic information, people tend to align their opinions despite genetic diversity. Different social groups spontaneously develop seemingly arbitrary traits, such as dress codes or jargon. Understanding how global order emerges from situations where self-organized purely local interactions occur represents an important theoretical and practical problem. The ability to grasp these issues is mainly driven by the analysis of simple statistical models that capture essential ingredients like copying and invasion in local dynamics.
+          <t>Study of dynamical ordering phenomena and consensus formation in initially disordered populations is a central problem in statistical physics approaches in social and natural sciences. Whether it be the broad idea of consensus referred to in opinions, voting intentions, language conventions, social habits, or inherited genetic information, people tend to align their opinions despite genetic diversity. Different social groups spontaneously develop seemingly arbitrary traits, such as dress codes or jargon. Understanding how global order emerges from situations where self-organized purely local interactions occur represents an important theoretical and practical problem. The ability to grasp these issues is mainly driven by the analysis of simple statistical models that capture essential ingredients like copying and invasion in local dynamics.
 The simplest copying and invasion processes, such as the voter model and Moran process, focus principally on social dynamics. These two models describe a population as a set of agents, with one carrying a state (opinion, trait, or genome represented as a binary variable). At each time step, an ordered pair of adjacent agents is selected at random. In the voter model, which is a paradigm for copying processes, the system is updated so that each agent selects the belief of one of their neighbors. This admittedly simplistic model of opinion formation in society involves individuals imitating one of their neighbors.
 On the other hand, in the Moran process, a neighboring agent copies the state of the first agent. From another perspective, the state of the first agent "invades" the neighbor. The Moran process is a simple approximation of the evolutionary dynamics in a haploid population constrained by a fixed finite size. In initially disordered systems without bulk noise (i.e., agents spontaneously changing state), a uniform state where individuals share the same value, the so-called consensus, is reached. The two final states are symmetrical in principle, and the dynamical evolution towards either state depends on the initial configuration.
 To characterize the consensus reached, two quantities are usually considered: the exit probability, defined as the probability that the final state corresponds to the state that the agents started with in a homogeneous initial condition, and the consensus time, defined as the average time required to reach consensus independently of the initial values of the system. For voter-like processes originally considered on regular topologies, in the case of the voter model, which is one of the remarkably solvable stochastic nonequilibrium models, the number of dimensions turns out to be crucial. The symmetries in the system imply ensemble conservation of magnetization, which in turn implies that the exit probability takes a linear form. On the other hand, the consensus time is seen to scale with the number of agents as t_n ~ n^d &gt; 2.
@@ -1843,37 +2388,58 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>16.463009640911</v>
+        <v>16.43719887955182</v>
       </c>
       <c r="D55" t="n">
         <v>13.72932673267327</v>
       </c>
+      <c r="E55" t="n">
+        <v>840</v>
+      </c>
+      <c r="F55" t="n">
+        <v>202</v>
+      </c>
+      <c r="G55" t="n">
+        <v>34</v>
+      </c>
+      <c r="H55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Corrected text:
-Many factors influence the emergence and reemergence of vector-borne diseases. Brutal changes in natural habitats and massive recurrent population migrations tend to speed up the spread of vector-borne diseases. The spatiotemporal evolution of diseases is becoming a key issue for epidemiologists. The purpose of models is to consider the spatial distribution and natural environment, which is of great interest. In this paper, we are interested in the spatial spread of vector-borne diseases and the effect of human and vector mobility. Human migration is one factor that has influenced the reemergence of several diseases. Modeling geographical environments and populations' mobilities is becoming mandatory. In the context of several approaches to describing the spread, one typical approach involves introducing spatial spread variation in epidemic models, which involves the use of partial differential equations. However, in the case of human mobility, such approaches may not be appropriate. The theory of "metapopulation" was first introduced in 1969 in the field of ecology. It allows for modeling, and several researchers have devoted their study to disease spread in heterogeneous environments. The authors are also interested in the case of influenza and mobility in terms of long journeys. Considering human mobility is usually associated with epidemic problems. Models also consider the dynamics of the vector population. However, a model that considers the coupling of population dynamics and populations' mobility is proposed. Moreover, the approach promotes the consideration of the vectors' mobility since the resolution of the model is greater than usual models that work by proposing the coupling of two models. The models published are: a mosquito dynamics model that describes the growth and evolution of the population and a transmission virus model with two populations, humans and mosquitoes. The dynamics of the mosquito population are described using a stage-structured model based on the biological life cycle with different compartment states: egg, larva, pupa, and adult. The disease transmission model for the human population is the SIR model (susceptible, infected, recovered), and for the adult mosquitoes, the transmission model is the SI model (susceptible, infected). The two models are formalized using metapopulation theory, which considers a network of nodes that represent real habitats in the environment. The nodes in the transmission and population dynamics models appear to be coupled with neighboring nodes, and the links in the network represent the local neighborhood of the node. Farther nodes encode the mobility of humans. We focus on the real case of the chikungunya epidemic of 2005-2006, which occurred on Réunion Island, a French island in the Indian Ocean. The island is modeled as a network, and since we want the network to reflect the local population's density, we consider the road network on the island as a proxy for human density. By considering crossroad nodes in the network, the local population of the node is adjusted according to real data provided by the French Institute of Statistics (INSEE). Finally, the island is modeled with 18,000 nodes in the network. The model of disease transmission and travel results show the decisive influence of mobilities on the spread of the disease. Human mobility and the vector local interaction play an important role when considered at scale. The results are compared with real data from the epidemic of 2005-2006 on Réunion Island, and the model is validated. The remaining paper is organized as follows: the next section recalls the original transmission and population dynamics models that inspired this work, and the final section concludes the paper.</t>
+          <t>Many factors influence the emergence and reemergence of vector-borne diseases. Brutal changes in natural habitats and massive recurrent population migrations tend to speed up the spread of vector-borne diseases. The spatiotemporal evolution of diseases is becoming a key issue for epidemiologists. The purpose of models is to consider the spatial distribution and natural environment, which is of great interest. In this paper, we are interested in the spatial spread of vector-borne diseases and the effect of human and vector mobility. Human migration is one factor that has influenced the reemergence of several diseases. Modeling geographical environments and populations' mobilities is becoming mandatory. In the context of several approaches to describing the spread, one typical approach involves introducing spatial spread variation in epidemic models, which involves the use of partial differential equations. However, in the case of human mobility, such approaches may not be appropriate. The theory of "metapopulation" was first introduced in 1969 in the field of ecology. It allows for modeling, and several researchers have devoted their study to disease spread in heterogeneous environments. The authors are also interested in the case of influenza and mobility in terms of long journeys. Considering human mobility is usually associated with epidemic problems. Models also consider the dynamics of the vector population. However, a model that considers the coupling of population dynamics and populations' mobility is proposed. Moreover, the approach promotes the consideration of the vectors' mobility since the resolution of the model is greater than usual models that work by proposing the coupling of two models. The models published are: a mosquito dynamics model that describes the growth and evolution of the population and a transmission virus model with two populations, humans and mosquitoes. The dynamics of the mosquito population are described using a stage-structured model based on the biological life cycle with different compartment states: egg, larva, pupa, and adult. The disease transmission model for the human population is the SIR model (susceptible, infected, recovered), and for the adult mosquitoes, the transmission model is the SI model (susceptible, infected). The two models are formalized using metapopulation theory, which considers a network of nodes that represent real habitats in the environment. The nodes in the transmission and population dynamics models appear to be coupled with neighboring nodes, and the links in the network represent the local neighborhood of the node. Farther nodes encode the mobility of humans. We focus on the real case of the chikungunya epidemic of 2005-2006, which occurred on Réunion Island, a French island in the Indian Ocean. The island is modeled as a network, and since we want the network to reflect the local population's density, we consider the road network on the island as a proxy for human density. By considering crossroad nodes in the network, the local population of the node is adjusted according to real data provided by the French Institute of Statistics (INSEE). Finally, the island is modeled with 18,000 nodes in the network. The model of disease transmission and travel results show the decisive influence of mobilities on the spread of the disease. Human mobility and the vector local interaction play an important role when considered at scale. The results are compared with real data from the epidemic of 2005-2006 on Réunion Island, and the model is validated. The remaining paper is organized as follows: the next section recalls the original transmission and population dynamics models that inspired this work, and the final section concludes the paper.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Simplified text:
-Various factors affect the spread of diseases carried by vectors such as changes in habitats and population movements. Understanding how diseases evolve over space and time is crucial for epidemiologists. Models help study how diseases spread in different environments. This study focuses on how diseases spread geographically due to human and vector mobility. Human migration has contributed to the reappearance of many diseases. It is essential to model the movement of populations and environments accurately. Some models use equations to describe how diseases spread in certain areas, but these may not be suitable for studying human mobility. Using the concept of "metapopulation," researchers can model disease spread in diverse environments. Consideration of human mobility is vital in understanding disease outbreaks. Models also analyze how populations of vectors change over time. A new model is proposed that combines population dynamics with mobility, offering a more detailed resolution than previous models. The study includes models for mosquito populations and virus transmission between humans and mosquitoes. These models consider the life stages of mosquitoes and disease transmission among humans and mosquitoes. By using metapopulation theory, researchers build a network representing different habitats. The network helps understand how diseases spread among different locations. The study focuses on the chikungunya outbreak on Réunion Island in 2005-2006. The island is represented as a network, with roads indicating human density. By adjusting population data based on real statistics, the study accurately reflects the island's conditions. By analyzing disease transmission and human movement, the study shows the significant impact of mobility on disease spread. The study is validated by comparing results with actual data from the outbreak. The paper will review the initial models that inspired this work and conclude with final remarks.</t>
+          <t>Various factors affect the spread of diseases carried by vectors such as changes in habitats and population movements. Understanding how diseases evolve over space and time is crucial for epidemiologists. Models help study how diseases spread in different environments. This study focuses on how diseases spread geographically due to human and vector mobility. Human migration has contributed to the reappearance of many diseases. It is essential to model the movement of populations and environments accurately. Some models use equations to describe how diseases spread in certain areas, but these may not be suitable for studying human mobility. Using the concept of "metapopulation," researchers can model disease spread in diverse environments. Consideration of human mobility is vital in understanding disease outbreaks. Models also analyze how populations of vectors change over time. A new model is proposed that combines population dynamics with mobility, offering a more detailed resolution than previous models. The study includes models for mosquito populations and virus transmission between humans and mosquitoes. These models consider the life stages of mosquitoes and disease transmission among humans and mosquitoes. By using metapopulation theory, researchers build a network representing different habitats. The network helps understand how diseases spread among different locations. The study focuses on the chikungunya outbreak on Réunion Island in 2005-2006. The island is represented as a network, with roads indicating human density. By adjusting population data based on real statistics, the study accurately reflects the island's conditions. By analyzing disease transmission and human movement, the study shows the significant impact of mobility on disease spread. The study is validated by comparing results with actual data from the outbreak. The paper will review the initial models that inspired this work and conclude with final remarks.</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13.8783910102309</v>
+        <v>13.84839270687237</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7276924295217</v>
+        <v>12.68964114832536</v>
+      </c>
+      <c r="E56" t="n">
+        <v>575</v>
+      </c>
+      <c r="F56" t="n">
+        <v>285</v>
+      </c>
+      <c r="G56" t="n">
+        <v>31</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Corrected text: 
-Emergent behaviors in complex systems crucially depend on the pattern of interactions among components. Initially isolated effects allow for effects to propagate globally through the network substrate. The system represents patterns in an abstract and analytically tractable form, with this information used to construct network models that provide theoretical insights into the causes of behaviors. A fundamental problem in the construction of models is the determination of the precisely structural features required to explain the phenomenon in question, while others are superfluous. Configuration models involve an ensemble of random graphs with prescribed degree distributions. Realizations are drawn from this ensemble by randomly selecting a vertex and incident edges based on a probability distribution that represents first-order complexity in network models.
+          <t>Emergent behaviors in complex systems crucially depend on the pattern of interactions among components. Initially isolated effects allow for effects to propagate globally through the network substrate. The system represents patterns in an abstract and analytically tractable form, with this information used to construct network models that provide theoretical insights into the causes of behaviors. A fundamental problem in the construction of models is the determination of the precisely structural features required to explain the phenomenon in question, while others are superfluous. Configuration models involve an ensemble of random graphs with prescribed degree distributions. Realizations are drawn from this ensemble by randomly selecting a vertex and incident edges based on a probability distribution that represents first-order complexity in network models.
 A more realistic model is constructed by including degree-degree correlations. Recently, a study on multiplex networks introduced the concept of degree complexity as a general approach. These networks consist of connected layers, where each layer involves interactions of a fundamentally unique kind. The focus of this paper is on random graphs with clustering specifically defined by Gleeson, where vertices maintain closed-loop connections. One way to measure the propensity of a vertex to form bonds is through local clustering coefficients, which are defined as the fraction of pairs of neighbors of a vertex that are also neighbors. The degree-dependent clustering coefficient and clustering spectrum are found by averaging the local clustering coefficient in classes of vertices based on their degree. A global measure of clustering is defined by averaging the local coefficients of all vertices in the graph. Gleeson has shown that the configuration model can be modified to generate ensembles of highly clustered graphs, which can also exhibit a tree-like structure.
 In this ensemble, a prescribed joint distribution for the probability of realization of a randomly selected vertex with a certain degree and its neighboring clique vertices is defined. The aim is to provide a generalized analytical approach to determining the expected cascade size in clique-based graphs, which goes beyond the bond percolation process studied in the threshold model of site or bond percolation. This approach is also relevant to earlier work that involved embedding cliques in otherwise tree-like structured graphs. In a randomly chosen graph, a vertex is incident on single edges or triangle edges. In contrast, a graph containing cliques of many different sizes may have much higher local clustering levels than edge-triangle graphs. Furthermore, it can be parametrized to match the empirical clustering spectrum and degree distribution of real-world networks. This additional complexity necessitates a different analytical approach, which provides a significant extension to the methods used in the Gleeson-Cahalane configuration model for graphs by introducing a tree-based framework.
 The level-by-level vertex activations method is inspired by methods originally developed to study the zero-temperature random-field Ising model on Bethe lattice. The class of cascade dynamics examinable in the tree-based framework consists of processes that satisfy the following properties: i) each vertex is assigned a binary value specifying its current state (active/damaged or infected/inactive/undamaged or susceptible); ii) the probability of a vertex becoming active in synchronous updates of vertices depends on its degree and the number of neighbors already active, termed the neighborhood influence response function; iii) a fixed degree non-decreasing function; iv) an active vertex can become deactivated (a footnote: an extension to this approach with non-monotone binary state dynamics is provided). The processes referred to in the preceding paragraph satisfy constraints defined by choosing an appropriate detailed goal for the analytical approach to predict the expected size of cascades in a time-dependent process described at run completion. The analytical results are defined through a fixed-point iterative process, i.e., a solution of a self-consistent system of equations. The level-by-level activation approach used in the analysis is often misunderstood as a time-dependent process, but it serves as a convenient representation for the iteration scheme solving the steady-state solution. The remainder of the paper is structured as follows: in section 2, the broad outline of the generalized approach to cascade dynamics in clique-based graphs is described, as well as an analytical expression for the expected cascade size. Section 3 deals in greater detail with the particulars of clique member activations, showing how to calculate the closed form of the number of active vertices in a clique relative to its size. The analysis in subsequent sections is described in terms of arbitrary response functions, with particular forms of responses discussed in section 4. The authors demonstrate correspondence between analytical results and numerical simulations of bond percolation and Watts' model in section 5. In section 6, possible extensions to Watts' model with different weights assigned to active clique neighbors and active non-clique neighbors are presented, allowing for the variation of influence on a vertex's neighbors and the probability of activation in two subgroups. The authors suggest that future analyses may provide important insights into the role of group structure in peer influence processes, social contagion, and opinion formation.</t>
@@ -1881,22 +2447,33 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Text Simplified:
+          <t xml:space="preserve">
 Complex systems' behaviors depend on how their parts interact. Effects can spread throughout the system via these interactions. By analyzing these patterns, network models are created to understand these behaviors. The challenge is to identify which features matter in explaining a phenomenon. Models like configuration models help in this by using random graphs. Including correlations between the connections of the parts makes the models more realistic. Degree complexity is a new concept in studying networks with multiple layers of unique interactions. The study focuses on graphs with clustering, where vertices form closed-loop connections. Measuring a vertex's tendency to connect is done through local clustering coefficients. These coefficients can be averaged to find global clustering measures. Adjusting the model can create highly clustered graphs with tree-like structures. The goal is to predict the size of cascades in these graphs, going beyond traditional methods. The method considers factors like a vertex's connections and neighbors to predict how behaviors spread in the system. The study aims to shed light on how group structures influence processes like social contagion and opinion formation.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16.28593894993895</v>
+        <v>16.26157230285015</v>
       </c>
       <c r="D57" t="n">
-        <v>10.59222222222222</v>
+        <v>10.51665168539326</v>
+      </c>
+      <c r="E57" t="n">
+        <v>817</v>
+      </c>
+      <c r="F57" t="n">
+        <v>178</v>
+      </c>
+      <c r="G57" t="n">
+        <v>35</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Corrected text:
-Consider the problem of distributed mean square error estimation, where a set of nodes is required to collectively estimate a vector parameter of interest from noisy measurements, relying solely on in-network processing. Consider an ad-hoc network consisting of nodes distributed in a geographic region. At every time instant, every node collects a scalar measurement from a random process regression vector and a random process covariance matrix. The objective of the nodes in the network is to use the collected data to estimate the parameter vector in a distributed manner. Several distributed strategies have been developed in the literature for this purpose. One typical strategy is the incremental approach, where each node communicates with one neighbor at a time in a cyclic path. In the incremental strategy, information is processed in a cyclic manner across nodes in the network, and optimization is achieved. However, determining a cyclic path that covers all nodes is an NP-hard problem. In addition, cyclic trajectories are prone to link or node failures. If an edge along the path fails, the sharing of data in the cycle is interrupted, and the algorithm stops performing. To address these difficulties, adaptive diffusion techniques have been proposed and studied in many situations.
+          <t>Consider the problem of distributed mean square error estimation, where a set of nodes is required to collectively estimate a vector parameter of interest from noisy measurements, relying solely on in-network processing. Consider an ad-hoc network consisting of nodes distributed in a geographic region. At every time instant, every node collects a scalar measurement from a random process regression vector and a random process covariance matrix. The objective of the nodes in the network is to use the collected data to estimate the parameter vector in a distributed manner. Several distributed strategies have been developed in the literature for this purpose. One typical strategy is the incremental approach, where each node communicates with one neighbor at a time in a cyclic path. In the incremental strategy, information is processed in a cyclic manner across nodes in the network, and optimization is achieved. However, determining a cyclic path that covers all nodes is an NP-hard problem. In addition, cyclic trajectories are prone to link or node failures. If an edge along the path fails, the sharing of data in the cycle is interrupted, and the algorithm stops performing. To address these difficulties, adaptive diffusion techniques have been proposed and studied in many situations.
 The parameter of interest is sparse, containing relatively large coefficients among many negligible ones. Prior information on sparsity is exploited to help improve estimation performance. This has been demonstrated in many recent efforts in the area of compressive sensing (CS). Early works in this field include adaptations of sparsity-aware constructions that rely on heuristic selection of active taps. One basic idea in previously developed sparsity-aware techniques is to introduce a convex penalty term in the cost function to favor sparsity. However, earlier contributions only consider the design of adaptive and distributed solutions that are able to exploit and track sparsity over time in processing data in a real-time and fully decentralized manner. This would endow networks with learning abilities, allowing them to learn the sparse structure of incoming data recursively. Therefore, tracking variations in the sparsity pattern underlying the vector as well as investigations into adaptive distributed solutions appear to be an important step in order to endow resulting diffusion strategies with full adaptation abilities: adaptation to nonstationarities in data and changes in sparsity patterns.
 An approach is proposed based on developing diffusion strategies with stable mean square error sense and guaranteed performance bounds. For this reason, a detailed mean square error analysis is carried out to examine the behavior of the algorithm in the presence of noisy measurements from random regression data. The analysis suggests a convenient method for adapting the regularization parameter in a distributed manner, enhancing the sparsity awareness of the algorithm and adding another useful layer to the adaptation operation in the network.
 In summary, the paper extends preliminary work to develop adaptive networks running diffusion algorithms subject to constraints that enforce sparsity. Two convex regularization constraints are considered. In one case, a norm regularization term is considered, which acts as a uniform zero-attractor. In another case, to improve estimation performance, reweighted regularization is employed selectively to promote sparsity in zero elements rather than uniformly across all elements. A detailed convergence analysis of the proposed methods is provided, giving a closed-form expression for the bias in the estimate due to regularization. Mean square error analysis is carried out, showing the conditions under which the sparse diffusion filter outperforms the unregularized version in terms of steady-state performance. If the system model is sufficiently sparse, it is possible to tune a single parameter to outperform the standard diffusion algorithm. Based on this result, a method is proposed to adaptively choose the regularization parameter in a way that the network is able to learn the sparse structure of incoming data recursively and adjust parameters for improved tracking.
@@ -1909,8 +2486,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Simplified text:
-A group of nodes in a network work together to estimate a parameter from noisy data. They use different strategies, like the incremental approach where nodes communicate in a cycle. However, this method can be difficult due to potential failures in the network. Adaptive diffusion techniques have been suggested to overcome these issues.
+          <t>A group of nodes in a network work together to estimate a parameter from noisy data. They use different strategies, like the incremental approach where nodes communicate in a cycle. However, this method can be difficult due to potential failures in the network. Adaptive diffusion techniques have been suggested to overcome these issues.
 The parameter of interest has some significant values among many small ones. This sparsity information is used to improve estimation. Techniques have been developed to adapt to changes in the data's sparse structure over time, improving learning abilities in networks.
 Efforts have been made to create stable diffusion strategies that perform well even with noisy data. By adjusting a parameter in a distributed way, the algorithm can become more aware of sparsity, enhancing its performance.
 The paper focuses on developing adaptive networks that use diffusion algorithms while maintaining sparsity. Different regularization methods are considered to improve estimation. The analysis shows conditions where the sparse diffusion filter performs better than unregularized versions. By adapting the regularization parameter, networks can better learn and track sparse data structures.
@@ -1918,57 +2494,88 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15.02360610263523</v>
+        <v>15.00305980528512</v>
       </c>
       <c r="D58" t="n">
-        <v>13.10105088495575</v>
+        <v>13.04857142857143</v>
+      </c>
+      <c r="E58" t="n">
+        <v>719</v>
+      </c>
+      <c r="F58" t="n">
+        <v>224</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Corrected text: 
-To establish the fundamental convexity properties of the rate region in 802.11 WLANs, we will firstly establish a simple constraint that determines the station transmission attempt probabilities at the rate region boundary. Secondly, we will show that the rate region is nonconvex, but the complement in the positive orthant is strictly convex. This property is illustrated in the figure. It is important to note that "obvious" constraints do not necessarily yield convex subsets of the rate region, let alone maximal subsets. Examples of such constraints are straightforward to show, but proofs are omitted due to space constraints. The convexity results for WLANs with multiple stations include the results complementing a recent observation in a paper. The organization of the paper is as follows: we first introduce the network model in the next section.</t>
+          <t>To establish the fundamental convexity properties of the rate region in 802.11 WLANs, we will firstly establish a simple constraint that determines the station transmission attempt probabilities at the rate region boundary. Secondly, we will show that the rate region is nonconvex, but the complement in the positive orthant is strictly convex. This property is illustrated in the figure. It is important to note that "obvious" constraints do not necessarily yield convex subsets of the rate region, let alone maximal subsets. Examples of such constraints are straightforward to show, but proofs are omitted due to space constraints. The convexity results for WLANs with multiple stations include the results complementing a recent observation in a paper. The organization of the paper is as follows: we first introduce the network model in the next section.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Simplified text:
-To understand the shape of the rate region in 802.11 WLANs, we will start by setting a basic rule for how often stations try to send data at the rate region edge. We will then prove that while the rate region itself is not convex, the part of it in the positive area is indeed convex, as shown in a diagram. It's worth mentioning that not all obvious rules make parts of the rate region convex. We won't provide proofs for this due to space limits. The findings about convexity in WLANs with multiple stations support a recent discovery. Next, we will explain the network model.</t>
+          <t>To understand the shape of the rate region in 802.11 WLANs, we will start by setting a basic rule for how often stations try to send data at the rate region edge. We will then prove that while the rate region itself is not convex, the part of it in the positive area is indeed convex, as shown in a diagram. It's worth mentioning that not all obvious rules make parts of the rate region convex. We won't provide proofs for this due to space limits. The findings about convexity in WLANs with multiple stations support a recent discovery. Next, we will explain the network model.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10.88814814814815</v>
+        <v>10.75679197994988</v>
       </c>
       <c r="D59" t="n">
-        <v>6.391666666666669</v>
+        <v>6.164292452830189</v>
+      </c>
+      <c r="E59" t="n">
+        <v>133</v>
+      </c>
+      <c r="F59" t="n">
+        <v>106</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Corrected text:
-Communication networks performing linear network coding, as introduced by Cai Yeung, face the problem of securing multicast transmissions. In particular, when considering networks implementing this, note that the vectors in linear network coding are from a finite field. Let us assume the mincut value from the source to the receiver. The main theorem in network coding states that when the sources send information at a rate equal to the mincut to the destinations in the absence of a malicious eavesdropper, suppose there is a passive eavesdropper, Eve, who overhears arbitrary edges in the network. The secure network coding problem involves designing a coding scheme so that Eve cannot obtain the information from the messages transmitted from the source to the destinations. Cai Yeung showed that the secrecy capacity problem can be achieved when the field size is sufficiently large. Later, this problem formulation was investigated in many works. Feldman et al. showed that sacrificing a small amount of rate, one might find that a secure scheme requires a much smaller field size. Rouayheb et al. observed that the problem can be considered a generalization of Ozarow-Wyner wiretap channel type II. Silva et al. proposed a universal coding scheme that employs encoding from the source and achieves a secrecy rate. In contrast to previous work, this paper studies the problem of secret key sharing among multiple terminals where nodes send feedback over a public channel. It considers the source multicasting information network at a rate equal to the mincut to destinations. It also assumes that relay nodes in the network perform linear randomized network coding and are modeled as a noncoherent transmission scheme. This is motivated by a model where noncoherent network coding is a scenario with multiplicative matrix channels from a finite field with uniform IID distribution of transfer matrices in every time slot. The problem of key agreement is set for terminals that have access to a noisy broadcast channel as a public discussion channel, visible to eavesdroppers. Achievable secrecy rates are studied assuming that Eve has access to the noisy broadcast transmissions. Generalized and noncomputable outer bounds on secrecy rates are developed. However, to the best of our knowledge, this is the first work to consider multi-terminal secret key agreement networks employing randomized network coding with passive eavesdroppers having access to broadcast transmissions. The contributions of this paper are as follows: the secret key sharing problem is introduced, and an asymptotic achievability scheme is proposed assuming a large field size. The scheme is based on subspace coding extended to an arbitrary number of terminals. Using the results, an upper bound on the problem is derived. The proposed lower bound matches the upper bound, emphasizing the secret key generation capacity. This is characterized by the channel parameters; the upper and lower bounds may or may not match depending on the paper's organization. The paper is organized as follows: it introduces the notation and the problem formulation, presents preliminaries, and based on the results, states a general upper bound on key generation capacity, evaluates noncoherent network coding with a broadcast channel. The main results of the paper are presented.</t>
+          <t>Communication networks performing linear network coding, as introduced by Cai Yeung, face the problem of securing multicast transmissions. In particular, when considering networks implementing this, note that the vectors in linear network coding are from a finite field. Let us assume the mincut value from the source to the receiver. The main theorem in network coding states that when the sources send information at a rate equal to the mincut to the destinations in the absence of a malicious eavesdropper, suppose there is a passive eavesdropper, Eve, who overhears arbitrary edges in the network. The secure network coding problem involves designing a coding scheme so that Eve cannot obtain the information from the messages transmitted from the source to the destinations. Cai Yeung showed that the secrecy capacity problem can be achieved when the field size is sufficiently large. Later, this problem formulation was investigated in many works. Feldman et al. showed that sacrificing a small amount of rate, one might find that a secure scheme requires a much smaller field size. Rouayheb et al. observed that the problem can be considered a generalization of Ozarow-Wyner wiretap channel type II. Silva et al. proposed a universal coding scheme that employs encoding from the source and achieves a secrecy rate. In contrast to previous work, this paper studies the problem of secret key sharing among multiple terminals where nodes send feedback over a public channel. It considers the source multicasting information network at a rate equal to the mincut to destinations. It also assumes that relay nodes in the network perform linear randomized network coding and are modeled as a noncoherent transmission scheme. This is motivated by a model where noncoherent network coding is a scenario with multiplicative matrix channels from a finite field with uniform IID distribution of transfer matrices in every time slot. The problem of key agreement is set for terminals that have access to a noisy broadcast channel as a public discussion channel, visible to eavesdroppers. Achievable secrecy rates are studied assuming that Eve has access to the noisy broadcast transmissions. Generalized and noncomputable outer bounds on secrecy rates are developed. However, to the best of our knowledge, this is the first work to consider multi-terminal secret key agreement networks employing randomized network coding with passive eavesdroppers having access to broadcast transmissions. The contributions of this paper are as follows: the secret key sharing problem is introduced, and an asymptotic achievability scheme is proposed assuming a large field size. The scheme is based on subspace coding extended to an arbitrary number of terminals. Using the results, an upper bound on the problem is derived. The proposed lower bound matches the upper bound, emphasizing the secret key generation capacity. This is characterized by the channel parameters; the upper and lower bounds may or may not match depending on the paper's organization. The paper is organized as follows: it introduces the notation and the problem formulation, presents preliminaries, and based on the results, states a general upper bound on key generation capacity, evaluates noncoherent network coding with a broadcast channel. The main results of the paper are presented.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Simplified text:
-Linear network coding faces security issues during multicast transmissions. The vectors in this coding come from a finite field. When sources transmit at a rate equal to the mincut without malicious eavesdroppers, a passive eavesdropper named Eve can overhear information. The challenge is to design a coding scheme to prevent Eve from accessing transmitted messages. Studies showed that this secrecy capacity is achievable with a sufficiently large field size. Different approaches were explored, such as sacrificing some rate for a smaller field size. The problem is similar to the Ozarow-Wyner wiretap channel type II. A universal coding scheme was proposed that can secure information transmission. This paper focuses on sharing secret keys among multiple terminals using network coding. The network includes relay nodes and noncoherent transmission. Achievable secrecy rates are studied, considering eavesdroppers. The paper introduces a key sharing problem and proposes a scheme for large field sizes. Upper and lower bounds on secrecy rates are discussed, depending on channel parameters. The paper's structure includes notation, problem formulation, preliminary information, upper bounds on key generation, and results.</t>
+          <t>Linear network coding faces security issues during multicast transmissions. The vectors in this coding come from a finite field. When sources transmit at a rate equal to the mincut without malicious eavesdroppers, a passive eavesdropper named Eve can overhear information. The challenge is to design a coding scheme to prevent Eve from accessing transmitted messages. Studies showed that this secrecy capacity is achievable with a sufficiently large field size. Different approaches were explored, such as sacrificing some rate for a smaller field size. The problem is similar to the Ozarow-Wyner wiretap channel type II. A universal coding scheme was proposed that can secure information transmission. This paper focuses on sharing secret keys among multiple terminals using network coding. The network includes relay nodes and noncoherent transmission. Achievable secrecy rates are studied, considering eavesdroppers. The paper introduces a key sharing problem and proposes a scheme for large field sizes. Upper and lower bounds on secrecy rates are discussed, depending on channel parameters. The paper's structure includes notation, problem formulation, preliminary information, upper bounds on key generation, and results.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>12.47989145542392</v>
+        <v>12.44321971961996</v>
       </c>
       <c r="D60" t="n">
-        <v>11.67517318435754</v>
+        <v>11.612</v>
+      </c>
+      <c r="E60" t="n">
+        <v>519</v>
+      </c>
+      <c r="F60" t="n">
+        <v>177</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Corrected text:
-"Minor" relation graphs are well-established extended digraphs. In this paper, we discuss one extension to obtain minors by contracting strongly connected subdigraphs rather than edges in the digraph. It is strongly connected if a non-null directed path exists in every digraph. Contracting an edge may yield a directed cycle, even starting from an acyclic digraph. It seems undesirable in theory to exclude minors as one way to avoid this is to permit the contraction of certain edges. For example, contracting an edge from the tail to the head may yield a new directed cycle. Another way to define the minor relation is using a minor mapping under certain conditions. A third way to extend minors to graphs and digraphs follows.
+          <t>"Minor" relation graphs are well-established extended digraphs. In this paper, we discuss one extension to obtain minors by contracting strongly connected subdigraphs rather than edges in the digraph. It is strongly connected if a non-null directed path exists in every digraph. Contracting an edge may yield a directed cycle, even starting from an acyclic digraph. It seems undesirable in theory to exclude minors as one way to avoid this is to permit the contraction of certain edges. For example, contracting an edge from the tail to the head may yield a new directed cycle. Another way to define the minor relation is using a minor mapping under certain conditions. A third way to extend minors to graphs and digraphs follows.
 For graphs, one can define contraction in terms of contracting edges or contracting connected subgraphs. In digraphs, these are analogous concepts but different. Let us define contraction in terms of contracting strongly connected subgraphs precisely. We say a digraph D' is a minor of a digraph D obtained by repeatedly contracting a strongly connected subgraph to a vertex. Note that this creates "new" directed cycles by contracting strongly connected subgraphs. Equivalently, we can define the minor relation via a minor mapping in the following way: a digraph D' is a minor of a digraph D if a mapping is defined such that edges from the tail to the head with at least as many edges from the head to the tail are contained. We call this mapping a minor mapping.
 First, we give definitions for every digraph in the paper. A finite digraph is said to be simple and loopless if it has one edge for every distinct simple digraph. This is called semicomplete. If every distinct semicomplete digraph has exactly one edge, it is called a tournament. An important property of minors in graphs is defining a "well-quasiorder," a quasiorder that consists of a class-reflexive transitive relation. This quasiorder is called a well-quasiorder. For every infinite sequence of elements, Neil Robertson and the second author proved that the class of graphs is a well-quasiorder under the minor relation. Unfortunately, an analogous statement is not true for directed minors. For example, a small directed cycle is a minor of a big directed cycle.
 However, if we consider a subclass, such as the class of tournaments, the subgraph relation defines a well-quasiorder even for the class of tournaments. Leave it as an exercise for the reader to find a counterexample. In the paper, we prove that minor containment defines a well-quasiorder for the class of semicomplete digraphs; therefore, it is also true for the class of tournaments. We also provide counterexamples for classes containing semicomplete digraphs.
@@ -1982,8 +2589,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Simplified text:
-In this paper, we explore a method to create minor relation graphs by combining strongly connected subgraphs in digraphs. When edges are merged, it may form a loop, even in acyclic digraphs. To address this, some edges can be combined in specific directions to avoid loops. Another approach uses minor mapping under certain conditions. Extending minors to graphs and digraphs can be achieved in different ways.
+          <t>In this paper, we explore a method to create minor relation graphs by combining strongly connected subgraphs in digraphs. When edges are merged, it may form a loop, even in acyclic digraphs. To address this, some edges can be combined in specific directions to avoid loops. Another approach uses minor mapping under certain conditions. Extending minors to graphs and digraphs can be achieved in different ways.
 For graphs, merging edges or connected subgraphs defines contraction. In digraphs, this concept is similar but distinct. Defining contraction by merging strongly connected subgraphs precisely, a digraph D' is a minor of a digraph D when these subgraphs are repeatedly merged into one vertex, creating new directed cycles. Alternatively, the minor relation can be defined using a minor mapping where edges from the tail to the head are considered.
 The paper introduces definitions for every digraph, emphasizing simplicity and absence of loops. Minors in graphs establish a well-quasiorder, a transitive relation. This property is not universally valid for directed minors. However, for specific subclasses like tournaments, a well-quasiorder exists. The paper proves the existence of a well-quasiorder for semicomplete digraphs under minor containment, and extends it to tournaments.
 Semicomplete digraphs form a well-quasiorder under "immersion" based on cutwidth. A similar statement holds for minors using pathwidth. Pathwidth in digraphs is introduced as an extension, defining the width in a path decomposition. The bounded pathwidth is a minor-closed property of digraphs. The pathwidth of minors can be increased by deleting edges or vertices, and the pathwidth of a strongly connected subdigraph is explored.
@@ -1992,37 +2598,58 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7.121449144914493</v>
+        <v>7.103669554455447</v>
       </c>
       <c r="D61" t="n">
-        <v>11.35289877300614</v>
+        <v>11.30833333333333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>768</v>
+      </c>
+      <c r="F61" t="n">
+        <v>324</v>
+      </c>
+      <c r="G61" t="n">
+        <v>101</v>
+      </c>
+      <c r="H61" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Corrected text:
-In this paper, we assume that readers are already familiar with the idea of fluid diffusion associated with iterations. To solve the equation x = px + b in the application of the PageRank equation, a general description of alternative existing iteration methods may be referred to.</t>
+          <t>In this paper, we assume that readers are already familiar with the idea of fluid diffusion associated with iterations. To solve the equation x = px + b in the application of the PageRank equation, a general description of alternative existing iteration methods may be referred to.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Simplified text:
-This paper assumes readers know about fluid diffusion linked to iterations. To solve the equation x = px + b in PageRank, you can look up other iteration methods.</t>
+          <t>This paper assumes readers know about fluid diffusion linked to iterations. To solve the equation x = px + b in PageRank, you can look up other iteration methods.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12.21265306122449</v>
+        <v>11.8604255319149</v>
       </c>
       <c r="D62" t="n">
-        <v>7.852903225806454</v>
+        <v>7.304137931034482</v>
+      </c>
+      <c r="E62" t="n">
+        <v>47</v>
+      </c>
+      <c r="F62" t="n">
+        <v>29</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Corrected text:
-Given a finite set of points in the Euclidean plane, a triangulation is a maximal straight-line crossing-free graph. An "edge flip" operation involves removing an edge or adding a different edge to the resulting graph. For a graph to be a triangulation, it requires that two empty triangles be incident to form a convex quadrilateral. One of the formed triangles incident to the flip operation defines the graph of the given set. The vertex set of set triangulations of two vertices adjacent to corresponding triangulations can be transformed by a single edge flip. Lawson showed that connected to the diameter of any Hurtado, Noy, and Urrutia proved the bound is tight. Bose and Hurtado give an extensive survey on flip operations. Flips in triangulations are used for the enumeration of local operations to generate meshes of good quality according to a predefined criterion. For example, Lawson showed that one can always obtain a Delaunay triangulation by locally improving flips. A Delaunay triangulation optimizes several criteria. Also, heuristic methods for improving the properties of triangular meshes may apply local optimization using flips in combination with techniques like simulated annealing. For more information on mesh optimization, another reason for the continuing interest in flips in triangulations is the bijection between binary trees and triangulations of convex point sets. A flip corresponds to a rotation in a binary tree. The properties of flip graphs in convex point sets were studied in a landmark paper by Sleator, Tarjan, and Thurston. They showed that the flip distance between two triangulations is sufficiently large, and the bound is tight. In a recent preprint, Pournin shows a general lower bound construction for point sets in convex position, implying that the bound is tight. Interestingly, the flip distance problem is still open for point sets in convex position, or equivalently, convex polygons. Despite intensive investigation into the structure within the last 25 years, the problem was apparently first considered by Culik and Wood in 1982. Efforts have been made towards solving special cases or approximating the flip distance in polynomial time. Results by Sleator et al. led to an algorithm to obtain an approximation of the flip distance within a factor of Li. Zhang gives an algorithm that approximates the flip distance within a factor depending on the maximal vertex degree of the source and target triangulations. Obtaining a performance ratio bound, Cleary and St. Showed that the problem is fixed-parameter tractable. Bose et al. recently considered edge-labeled triangulations, where the flip distance problem involves edges with distinct labels. In the worst-case setting, they gave an approximation algorithm with a factor of n for computing the flip distance between two edge-labeled triangulations of general point sets. Hanke, Ottmann, and Schuierer showed that a bounded number of crossings of edges in two triangulations can be computed in polynomial time. Eppstein gives a polynomial-time algorithm for computing a lower bound. It is noteworthy that Eppstein's result is tight and must contain empty convex 5-gons property that requires two points to be placed on a common line in a set of 10 points. Throughout this paper, we make the common assumption of general position, i.e., no three points are collinear. Despite these results, the complexity of determining the flip distance between two triangulations remains unknown. The main result of the problem is that it is APX-hard, shedding light on a fundamental open issue. The study of flip graphs with the aim of finding a polynomial-time algorithm to determine the flip distance is an open problem. Hanke et al. showed that the APX-hardness problem implies a polynomial-time approximation scheme (PTAS) exists. Unless recently, the NP-completeness of the problem was simultaneously and independently shown by Lubiw and Pathak. However, the reduction of the planar cubic vertex cover problem shows that a PTAS exists. This reduction can be adapted to show the APX-hardness of triangulations in simple polygons. Aichholzer, Mulzer, and Pilz recently showed that the corresponding problem is NP-complete. The previous preprint version of the paper (arXiv:1206.3179v1) showed the NP-completeness of the corresponding decision problem. The preprint paper is made available on arXiv. The initial version showed the NP-completeness of the corresponding decision problem. Clearly, the flip distance problem is an NP optimization problem. The reduction to the well-known minimum vertex cover problem is shown in the next section. We show certain properties of triangulations in a class of point sets called double chains. The subsets construction section presents the gadgets used in the reduction analysis. In the construction section, we provide a rough overview of how the points are placed, with a detailed description of calculating coordinates given in the appendix.</t>
+          <t>Given a finite set of points in the Euclidean plane, a triangulation is a maximal straight-line crossing-free graph. An "edge flip" operation involves removing an edge or adding a different edge to the resulting graph. For a graph to be a triangulation, it requires that two empty triangles be incident to form a convex quadrilateral. One of the formed triangles incident to the flip operation defines the graph of the given set. The vertex set of set triangulations of two vertices adjacent to corresponding triangulations can be transformed by a single edge flip. Lawson showed that connected to the diameter of any Hurtado, Noy, and Urrutia proved the bound is tight. Bose and Hurtado give an extensive survey on flip operations. Flips in triangulations are used for the enumeration of local operations to generate meshes of good quality according to a predefined criterion. For example, Lawson showed that one can always obtain a Delaunay triangulation by locally improving flips. A Delaunay triangulation optimizes several criteria. Also, heuristic methods for improving the properties of triangular meshes may apply local optimization using flips in combination with techniques like simulated annealing. For more information on mesh optimization, another reason for the continuing interest in flips in triangulations is the bijection between binary trees and triangulations of convex point sets. A flip corresponds to a rotation in a binary tree. The properties of flip graphs in convex point sets were studied in a landmark paper by Sleator, Tarjan, and Thurston. They showed that the flip distance between two triangulations is sufficiently large, and the bound is tight. In a recent preprint, Pournin shows a general lower bound construction for point sets in convex position, implying that the bound is tight. Interestingly, the flip distance problem is still open for point sets in convex position, or equivalently, convex polygons. Despite intensive investigation into the structure within the last 25 years, the problem was apparently first considered by Culik and Wood in 1982. Efforts have been made towards solving special cases or approximating the flip distance in polynomial time. Results by Sleator et al. led to an algorithm to obtain an approximation of the flip distance within a factor of Li. Zhang gives an algorithm that approximates the flip distance within a factor depending on the maximal vertex degree of the source and target triangulations. Obtaining a performance ratio bound, Cleary and St. Showed that the problem is fixed-parameter tractable. Bose et al. recently considered edge-labeled triangulations, where the flip distance problem involves edges with distinct labels. In the worst-case setting, they gave an approximation algorithm with a factor of n for computing the flip distance between two edge-labeled triangulations of general point sets. Hanke, Ottmann, and Schuierer showed that a bounded number of crossings of edges in two triangulations can be computed in polynomial time. Eppstein gives a polynomial-time algorithm for computing a lower bound. It is noteworthy that Eppstein's result is tight and must contain empty convex 5-gons property that requires two points to be placed on a common line in a set of 10 points. Throughout this paper, we make the common assumption of general position, i.e., no three points are collinear. Despite these results, the complexity of determining the flip distance between two triangulations remains unknown. The main result of the problem is that it is APX-hard, shedding light on a fundamental open issue. The study of flip graphs with the aim of finding a polynomial-time algorithm to determine the flip distance is an open problem. Hanke et al. showed that the APX-hardness problem implies a polynomial-time approximation scheme (PTAS) exists. Unless recently, the NP-completeness of the problem was simultaneously and independently shown by Lubiw and Pathak. However, the reduction of the planar cubic vertex cover problem shows that a PTAS exists. This reduction can be adapted to show the APX-hardness of triangulations in simple polygons. Aichholzer, Mulzer, and Pilz recently showed that the corresponding problem is NP-complete. The previous preprint version of the paper (arXiv:1206.3179v1) showed the NP-completeness of the corresponding decision problem. The preprint paper is made available on arXiv. The initial version showed the NP-completeness of the corresponding decision problem. Clearly, the flip distance problem is an NP optimization problem. The reduction to the well-known minimum vertex cover problem is shown in the next section. We show certain properties of triangulations in a class of point sets called double chains. The subsets construction section presents the gadgets used in the reduction analysis. In the construction section, we provide a rough overview of how the points are placed, with a detailed description of calculating coordinates given in the appendix.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2031,57 +2658,88 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10.8386738002594</v>
+        <v>10.81599154746424</v>
       </c>
       <c r="D63" t="n">
         <v>7.872423841059604</v>
       </c>
+      <c r="E63" t="n">
+        <v>769</v>
+      </c>
+      <c r="F63" t="n">
+        <v>151</v>
+      </c>
+      <c r="G63" t="n">
+        <v>52</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Corrected text:
-Access control aims at protecting data resources from unauthorized disclosure, modifications, and ensuring access to authorized users. An access control request consists of deciding whether access should be granted or denied by evaluating the conditions, attributes of the subject, object, environment, system, identity, role, location, and time. In centralized systems, identifying subjects and objects with values and attributes is easy since they are adequately classified with identifiers assigned by the system. In open distributed systems based on web technology, the situation is more complex as web servers receive and process requests from remote parties, making it difficult to identify and bind attribute values. Hence, attributes of parties must also be exchanged correctly to evaluate access control queries. In many situations, the creation and exchange of certificates require human intervention (e.g., issuing a certificate from a portfolio of available credentials). Furthermore, as observed among others in distributed systems, a certificate may be accepted or rejected depending on the flexibility gained from chains of credentials and trust context. Guaranteeing trusted users access to sensitive resources becomes a daunting task. In this paper, we propose a technique for automated analysis of access control systems (ACS) in the presence of human activities such as the creation and exchange of certificates, together with a trust management approach that combines a logic-based language model checking based on the use of Constraint Logic Programming (CLP). The specification of policies and trust management ideas are adapted to the exchange of certificates, with an interplay of a set of policies modeled as a transition system. We propose to show interesting analysis problems of ACSs reduced to reachability problems. The main contribution is a decidability result for a bounded reachability problem, a subclass of transition systems that encode analysis scenarios based on specifications of ACSs, i.e., situations where the exchange of certificates is constrained by a given causality relation. Another contribution is a technique to reduce the number of possible interleavings when visiting reachable states. We consider a simplified version that consists of a citizen wishing to register a new car via an online service provided by the Cro, the employee of the Cro who checks if the request is accepted according to certain criteria, and must store the request in a central repository. In turn, the Cro checks if the employee is entitled to successful storage of the request, which must be supported by three certificates: one from the employee of the Cro, one from the head of the Cro, and one stating that permission has been granted to store the documents. The roles of certificates must be signed by a trusted certification authority. The permission certificate is signed by the principal, and in case the certificates are rejected, they are signed by properties marked as untrusted. The generation of certificates is depicted in the figure, where an activity whose execution depends on decisions modeled by the system and human behavior. Another issue is that certificates need to be sent in order to support the storage request, so the user must send the certificates along with the request (user-pull) or the server must collect the necessary certificates upon receiving the request (server-pull). In the following section, we give an overview of the main features of the approach, and in detail, we formalize the class of access control schemas. In subsequent sections, we present the main contributions: an automated analysis technique for scenario-based specifications, heuristics for scalability, and finally, we conclude and discuss related work, formal preliminaries, and the complete derivation of the Cro main query implementation scenario using the DKAL language, which can be found in the appendix.</t>
+          <t>Access control aims at protecting data resources from unauthorized disclosure, modifications, and ensuring access to authorized users. An access control request consists of deciding whether access should be granted or denied by evaluating the conditions, attributes of the subject, object, environment, system, identity, role, location, and time. In centralized systems, identifying subjects and objects with values and attributes is easy since they are adequately classified with identifiers assigned by the system. In open distributed systems based on web technology, the situation is more complex as web servers receive and process requests from remote parties, making it difficult to identify and bind attribute values. Hence, attributes of parties must also be exchanged correctly to evaluate access control queries. In many situations, the creation and exchange of certificates require human intervention (e.g., issuing a certificate from a portfolio of available credentials). Furthermore, as observed among others in distributed systems, a certificate may be accepted or rejected depending on the flexibility gained from chains of credentials and trust context. Guaranteeing trusted users access to sensitive resources becomes a daunting task. In this paper, we propose a technique for automated analysis of access control systems (ACS) in the presence of human activities such as the creation and exchange of certificates, together with a trust management approach that combines a logic-based language model checking based on the use of Constraint Logic Programming (CLP). The specification of policies and trust management ideas are adapted to the exchange of certificates, with an interplay of a set of policies modeled as a transition system. We propose to show interesting analysis problems of ACSs reduced to reachability problems. The main contribution is a decidability result for a bounded reachability problem, a subclass of transition systems that encode analysis scenarios based on specifications of ACSs, i.e., situations where the exchange of certificates is constrained by a given causality relation. Another contribution is a technique to reduce the number of possible interleavings when visiting reachable states. We consider a simplified version that consists of a citizen wishing to register a new car via an online service provided by the Cro, the employee of the Cro who checks if the request is accepted according to certain criteria, and must store the request in a central repository. In turn, the Cro checks if the employee is entitled to successful storage of the request, which must be supported by three certificates: one from the employee of the Cro, one from the head of the Cro, and one stating that permission has been granted to store the documents. The roles of certificates must be signed by a trusted certification authority. The permission certificate is signed by the principal, and in case the certificates are rejected, they are signed by properties marked as untrusted. The generation of certificates is depicted in the figure, where an activity whose execution depends on decisions modeled by the system and human behavior. Another issue is that certificates need to be sent in order to support the storage request, so the user must send the certificates along with the request (user-pull) or the server must collect the necessary certificates upon receiving the request (server-pull). In the following section, we give an overview of the main features of the approach, and in detail, we formalize the class of access control schemas. In subsequent sections, we present the main contributions: an automated analysis technique for scenario-based specifications, heuristics for scalability, and finally, we conclude and discuss related work, formal preliminaries, and the complete derivation of the Cro main query implementation scenario using the DKAL language, which can be found in the appendix.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Simplified text:
-Access control protects data from unauthorized access. It involves deciding to allow or deny access based on various factors like user identity and system attributes. In centralized systems, identifying users and resources is straightforward. In distributed systems like web servers, it's harder to identify and manage attributes. This complexity requires accurate attribute exchange for access control. Certificate creation often needs human input. Trust plays a crucial role in accepting certificates. Ensuring trusted access to sensitive data is challenging. Our approach proposes an automated analysis of access control systems with human activities like certificate creation and trust management using a logic-based language model. We simplify the analysis to reachability problems. Our method focuses on scenarios where certificate exchange is constrained. We present a simplified example involving a citizen registering a car online, an employee checking and storing the request, and certificate verification by a certification authority. The process requires proper certificate handling for data storage approval. The text discusses user-pull or server-pull methods for certificate submission. It outlines the main approach features and details on access control schemas. The contributions include an automated analysis technique, scalability heuristics, and a discussion on related work and implementation scenarios.</t>
+          <t>Access control protects data from unauthorized access. It involves deciding to allow or deny access based on various factors like user identity and system attributes. In centralized systems, identifying users and resources is straightforward. In distributed systems like web servers, it's harder to identify and manage attributes. This complexity requires accurate attribute exchange for access control. Certificate creation often needs human input. Trust plays a crucial role in accepting certificates. Ensuring trusted access to sensitive data is challenging. Our approach proposes an automated analysis of access control systems with human activities like certificate creation and trust management using a logic-based language model. We simplify the analysis to reachability problems. Our method focuses on scenarios where certificate exchange is constrained. We present a simplified example involving a citizen registering a car online, an employee checking and storing the request, and certificate verification by a certification authority. The process requires proper certificate handling for data storage approval. The text discusses user-pull or server-pull methods for certificate submission. It outlines the main approach features and details on access control schemas. The contributions include an automated analysis technique, scalability heuristics, and a discussion on related work and implementation scenarios.</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15.76842762063228</v>
+        <v>15.73423205342237</v>
       </c>
       <c r="D64" t="n">
-        <v>14.50606151089878</v>
+        <v>14.48045248868778</v>
+      </c>
+      <c r="E64" t="n">
+        <v>599</v>
+      </c>
+      <c r="F64" t="n">
+        <v>195</v>
+      </c>
+      <c r="G64" t="n">
+        <v>26</v>
+      </c>
+      <c r="H64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Corrected text:
-Important performance metrics in digital communications include symbol error rate (SER), convexity of SER, signal-to-noise ratio (SNR), which plays a critical role in various optimization problems. The properties of SER for arbitrary multidimensional constellations are addressed in the literature. An overview of the literature addressing related properties of SER is as follows: one-dimensional and two-dimensional constellations are adopted in many communication systems. Literature investigations into the properties of SER in constellations have revealed convexity of SER with respect to the signal-to-noise ratio (SNR), impairing under additive white Gaussian noise (AWGN). Using tools of stochastic ordering, the theory of stochastic orders is surveyed next, providing a comprehensive framework to compare two random variables (RVs) as a function of SER for two different positive random variables. In cases where closed-form expressions for averages are unavailable, work has shown that SER for arbitrary multidimensional constellations is impaired under additive independent identically distributed (iid) Gaussian noise. Maximum likelihood (ML) detection is represented as a product of a completely monotone function of SNR. The power of SNR depends on the rank of the constellation matrix. This result also generalizes SER's behavior under compound Gaussian noise and includes many non-Gaussian noise distributions such as Middleton Class A noise. For arbitrary multidimensional constellations, SER is shown to be completely monotone when the constellation matrix has a rank of one or two, as complete monotonicity implies convexity. SER is a convex function of SNR provided that the constellation matrix has a rank of one or two. Constellations with matrices whose rank is greater than two are shown not to exhibit complete monotonicity, and SER's behavior depends on the constellation geometry and the choice of prior probabilities. This work also describes a novel stochastic order for fading distributions, used to order the average SERs of arbitrary multidimensional complex constellations in quasistatic fading channels, which generalizes existing Laplace transform order random variables. The rest of the paper is organized as follows: the section includes remarks on notations used in the paper; vectors are denoted by boldface lowercase letters; sets are denoted using uppercase script font; the set of real natural numbers is denoted respectively; the transpose of a vector is denoted; multivariate real, circularly symmetric complex, and Gaussian distribution with mean vector and covariance matrix are denoted. The symbol E is used to denote the expectation function of the distribution of a random variable, the identity matrix is denoted, and SER is conditioned by the symbol constellation transmitted. The average SER over a constellation is denoted, and the average SER over a fading channel is denoted. Averaging over constellation points and fading channel statistics is denoted. The vector norm in real and complex vector spaces is denoted. The indicator function is defined as 1 if the condition is true and 0 otherwise.</t>
+          <t>Important performance metrics in digital communications include symbol error rate (SER), convexity of SER, signal-to-noise ratio (SNR), which plays a critical role in various optimization problems. The properties of SER for arbitrary multidimensional constellations are addressed in the literature. An overview of the literature addressing related properties of SER is as follows: one-dimensional and two-dimensional constellations are adopted in many communication systems. Literature investigations into the properties of SER in constellations have revealed convexity of SER with respect to the signal-to-noise ratio (SNR), impairing under additive white Gaussian noise (AWGN). Using tools of stochastic ordering, the theory of stochastic orders is surveyed next, providing a comprehensive framework to compare two random variables (RVs) as a function of SER for two different positive random variables. In cases where closed-form expressions for averages are unavailable, work has shown that SER for arbitrary multidimensional constellations is impaired under additive independent identically distributed (iid) Gaussian noise. Maximum likelihood (ML) detection is represented as a product of a completely monotone function of SNR. The power of SNR depends on the rank of the constellation matrix. This result also generalizes SER's behavior under compound Gaussian noise and includes many non-Gaussian noise distributions such as Middleton Class A noise. For arbitrary multidimensional constellations, SER is shown to be completely monotone when the constellation matrix has a rank of one or two, as complete monotonicity implies convexity. SER is a convex function of SNR provided that the constellation matrix has a rank of one or two. Constellations with matrices whose rank is greater than two are shown not to exhibit complete monotonicity, and SER's behavior depends on the constellation geometry and the choice of prior probabilities. This work also describes a novel stochastic order for fading distributions, used to order the average SERs of arbitrary multidimensional complex constellations in quasistatic fading channels, which generalizes existing Laplace transform order random variables. The rest of the paper is organized as follows: the section includes remarks on notations used in the paper; vectors are denoted by boldface lowercase letters; sets are denoted using uppercase script font; the set of real natural numbers is denoted respectively; the transpose of a vector is denoted; multivariate real, circularly symmetric complex, and Gaussian distribution with mean vector and covariance matrix are denoted. The symbol E is used to denote the expectation function of the distribution of a random variable, the identity matrix is denoted, and SER is conditioned by the symbol constellation transmitted. The average SER over a constellation is denoted, and the average SER over a fading channel is denoted. Averaging over constellation points and fading channel statistics is denoted. The vector norm in real and complex vector spaces is denoted. The indicator function is defined as 1 if the condition is true and 0 otherwise.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Simplified text:
-Key metrics in digital communications are symbol error rate (SER), convexity of SER, and signal-to-noise ratio (SNR). SER's characteristics for various constellations are explored. The relationship between SER and SNR, especially in additive white Gaussian noise, is examined using stochastic ordering. The behavior of SER under different noise types, such as Gaussian and non-Gaussian, is investigated. SER's convexity is linked to the rank of the constellation matrix. For constellations with ranks of one or two, SER is completely monotone and convex. Constellations with ranks higher than two show varied SER behavior. The paper also introduces a stochastic order for fading distributions to compare SERs of complex constellations in fading channels. Standard notations are used throughout the paper to represent vectors, sets, and distributions, and specific symbols are defined for clarity.</t>
+          <t>Key metrics in digital communications are symbol error rate (SER), convexity of SER, and signal-to-noise ratio (SNR). SER's characteristics for various constellations are explored. The relationship between SER and SNR, especially in additive white Gaussian noise, is examined using stochastic ordering. The behavior of SER under different noise types, such as Gaussian and non-Gaussian, is investigated. SER's convexity is linked to the rank of the constellation matrix. For constellations with ranks of one or two, SER is completely monotone and convex. Constellations with ranks higher than two show varied SER behavior. The paper also introduces a stochastic order for fading distributions to compare SERs of complex constellations in fading channels. Standard notations are used throughout the paper to represent vectors, sets, and distributions, and specific symbols are defined for clarity.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16.60024137931034</v>
+        <v>16.55925974025974</v>
       </c>
       <c r="D65" t="n">
-        <v>11.54890909090909</v>
+        <v>11.44615384615385</v>
+      </c>
+      <c r="E65" t="n">
+        <v>462</v>
+      </c>
+      <c r="F65" t="n">
+        <v>130</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Corrected text:
-Sampling, counting, colorings, graphs, and fundamental problems in computer science and discrete mathematics are considered. The problem of sampling a uniformly random set of proper colorings of a graph with proper coloring labeling neighboring vertices with different colors is a fundamental problem in statistical physics. This corresponds to generating configurations in a Gibbs distribution at zero temperature in an antiferromagnetic Potts model, typically on a cubic lattice. Sampling and counting reveal the underlying thermodynamic properties of the corresponding physical system. Much focus has been directed towards solving the sampling problem using rapidly mixing Markov chains. The idea is to design a Markov chain whose stationary distribution is the uniform set of proper colorings. Starting from an arbitrary coloring and simulating a random walk according to the chain for a sufficient number of steps will result in a sample close to the desired distribution. The number of steps required for the walk is referred to as the mixing time. A rapidly mixing chain has a polynomial mixing time and converges quickly to stationarity, while a torpidly mixing chain has a superpolynomial mixing time and converges slowly.
+          <t>Sampling, counting, colorings, graphs, and fundamental problems in computer science and discrete mathematics are considered. The problem of sampling a uniformly random set of proper colorings of a graph with proper coloring labeling neighboring vertices with different colors is a fundamental problem in statistical physics. This corresponds to generating configurations in a Gibbs distribution at zero temperature in an antiferromagnetic Potts model, typically on a cubic lattice. Sampling and counting reveal the underlying thermodynamic properties of the corresponding physical system. Much focus has been directed towards solving the sampling problem using rapidly mixing Markov chains. The idea is to design a Markov chain whose stationary distribution is the uniform set of proper colorings. Starting from an arbitrary coloring and simulating a random walk according to the chain for a sufficient number of steps will result in a sample close to the desired distribution. The number of steps required for the walk is referred to as the mixing time. A rapidly mixing chain has a polynomial mixing time and converges quickly to stationarity, while a torpidly mixing chain has a superpolynomial mixing time and converges slowly.
 There is a long history of studying mixing times for various chains in the context of colorings, with a particular focus on the study of Glauber dynamics. In Glauber dynamics, a proper colorings single-site update Markov chain connects two colorings that differ by a single vertex. It is a Metropolis chain with state space transition probabilities. One may think of it dynamically following: if a coloring is chosen and a vertex is uniformly chosen to recolor it with a proper color, otherwise, it stays ergodic. The stationary distribution is uniform over proper colorings. Recent papers have shown that rapid mixing is provided the number of colors is sufficiently large compared to the maximum degree. However, determining the mixing rate for rectangular regions of a cubic lattice remains a focus of study. It is observed that a lattice that is bipartite always admits coloring. Additionally, it is known that Glauber dynamics connects the state space of colorings in a lattice region. Luby et al. showed that Glauber dynamics for sampling 3-colorings is rapidly mixing in a finite, simply-connected subregion with fixed colors on the boundary. Furthermore, Goldberg et al. subsequently showed that the chain remains fast in rectangular regions without boundary restrictions. However, little is known for many colors; Jerrum showed that Glauber dynamics is rapidly mixing for graphs satisfying a small number of colors and a maximum degree.
 Physicists have conducted extensive numerical experiments, suggesting that Glauber dynamics for 3-colorings is torpidly mixing in dimensions where the cubic lattice is large enough to prove the conjecture. This is the first time studying the mixing time of the chain on cubic lattices with periodic boundary conditions, focusing on sampling 3-colorings and even discrete torus graphs. The graph has a vertex set of {0, ..., l1, ..., dl} with even edges consisting of pairs of vertices that differ in exactly one coordinate modulo d. The Markov chain is formally defined in a section, and a constant following holds even for Glauber dynamics chains. The techniques actually apply to a general class of chains with Markov chain state space. In the local step of the chain, vertices' colors are changed. Several types of chains are introduced in the terminology. Caution is employed to prove the following, which easily implies the theorem. Fixing a constant satisfies a condition, and the ergodic local Markov chain has a uniform stationary distribution. The usual binary entropy function is noted to satisfy the conductance argument, identifying "bad cut" in the state space requiring exponential time to cross. In sufficiently high dimensions, the set of 3-colorings on a lattice is believed to naturally partition into 6 classes. This characterization has recently been rigorously verified on an infinite lattice, establishing the existence of 6 distinct "maximal entropy Gibbs states."
 The work builds heavily on technical machinery introduced by Galvin and Kahn. In sufficiently high dimensions, it primarily lies on even and odd sublattices. Specifically, it writes sets of even and odd vertices defined in an obvious way. A set of partial lambda_l, l ∈ {1, ..., d} with set difference in {l1, ..., l1, d} has a lambda &gt; 0. Choosing a set of independent sets in a box, Galvin and Kahn showed a large constant with a fixed superset, indicating influence where the boundary center of a large box persists as the boundary recedes. Neither of these results directly implies anything about the behavior of Markov chains in finite lattice regions. However, they suggest in a finite setting that typical configurations fall into distinct classes described by stationarity and are unlikely to move between classes. The remaining configurations are expected to have negligible weight in large lattice regions.
@@ -2090,7 +2748,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Text Simplification:
+          <t xml:space="preserve">
 Various aspects of computer science and discrete mathematics are discussed, including sampling, counting, colorings, and graphs. One fundamental issue is sampling a random set of proper colorings of a graph, which is essential in statistical physics. This process is akin to creating configurations in a Gibbs distribution at zero temperature in a specific model. By sampling and counting, we uncover the thermodynamic properties of the related physical system. Efforts have concentrated on solving this sampling problem using efficient Markov chains that mix rapidly. The goal is to develop a Markov chain with a uniform distribution of proper colorings as its stable state. By starting from any coloring and using the chain for a set number of steps, we can achieve a sample close to the desired distribution, known as the mixing time. A rapidly mixing chain converges quickly, while a slow one has a longer convergence time.
 The study of mixing times for different chains, particularly Glauber dynamics, has a long history in the context of colorings. Glauber dynamics involves a Markov chain that updates single sites in proper colorings, connecting colorings that differ by one vertex. Recent studies have indicated that rapid mixing occurs when the number of colors is significantly larger than the maximum degree. However, understanding the mixing rate for specific lattice regions remains a focal point. It has been shown that a bipartite lattice always allows for coloring. Glauber dynamics plays a key role in connecting coloring states in lattice regions. Researchers have demonstrated that Glauber dynamics is rapidly mixing for 3-colorings in specific regions with fixed boundary colors. However, challenges persist when dealing with numerous colors.
 Physicists have conducted numerical experiments, suggesting that Glauber dynamics for 3-colorings mixes slowly in large cubic lattices. Recent research has focused on studying the mixing time of the chain on cubic lattices with periodic boundaries, specifically in sampling 3-colorings and discrete torus graphs. The Markov chain operates on a vertex set with even edges, and it is formally defined in detail. The techniques apply broadly to various chains with Markov state spaces. The study focuses on changing vertex colors in the local step of the chain. The research indicates that in high dimensions, sets of 3-colorings on a lattice partition into distinct classes.
@@ -2098,17 +2756,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10.93112815645418</v>
+        <v>10.91047596919809</v>
       </c>
       <c r="D66" t="n">
-        <v>11.63630473297899</v>
+        <v>11.54098652428172</v>
+      </c>
+      <c r="E66" t="n">
+        <v>807</v>
+      </c>
+      <c r="F66" t="n">
+        <v>437</v>
+      </c>
+      <c r="G66" t="n">
+        <v>56</v>
+      </c>
+      <c r="H66" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Corrected text:
-Long studied field clustering. Substantial work studying the problem of clustering data with mixture distributions. The assumption means distributions are sufficiently far apart. Works focus on one particular type of family of distributions and devise algorithms to successfully cluster datasets that come from this particular type. Typically, they show that with high probability datasets have certain nice properties that can be used in the construction of clustering algorithms. Recent work by Kumar and Kannan, however, attempts to unify multiple clustering works but is only successful in part. 
+          <t>Long studied field clustering. Substantial work studying the problem of clustering data with mixture distributions. The assumption means distributions are sufficiently far apart. Works focus on one particular type of family of distributions and devise algorithms to successfully cluster datasets that come from this particular type. Typically, they show that with high probability datasets have certain nice properties that can be used in the construction of clustering algorithms. Recent work by Kumar and Kannan, however, attempts to unify multiple clustering works but is only successful in part. 
 First, Kumar and Kannan's analysis is "wasteful" with respect to the number of clusters, clearly motivated by the underlying assumption of a constant separation bound. This leads to a linear dependence on the classification guarantee instead of the quadratic dependence. As a result, Kumar and Kannan overshoot the best-known bounds in the planted partition model with mixture Gaussians. Similarly, in the application of datasets considered by Ostrovsky et al., the separation bound holds constant.
 Secondly, the analysis by Kumar and Kannan is far simpler and relies on points being "good," requiring multiple iterations of Lloyd steps to converge to good centers. This work addresses these issues by formally defining a separation condition and requiring notation. The input consists of points viewed as a dataset matrix, where each datapoint corresponds to a row in the matrix. We assume the existence of a target partition with each cluster's center. Thus, the target clustering is represented as a matrix of cluster centers if and only if the cost of the partition is the squared Frobenius norm. 
 The focus of this paper is on the spectral norm of the matrix, which is the deterministic equivalent of the maximal variance direction definition. We formally state the separation condition Kumar and Kannan fix, saying that a datapoint satisfies the Kumar and Kannan proximity condition by projecting it onto the line connecting the projection closer by an additive factor. Kumar and Kannan proved that a fraction of data points satisfy the proximity condition, leading to correct clustering of a fraction of points. In particular, the algorithm clusters points correctly. Observing that the Kumar and Kannan proximity condition gives a distance that is bigger than the mentioned bound, the opposite also holds. One can show that for a greater bound, points satisfy the proximity condition. 
@@ -2119,8 +2788,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Simplified text:
-Researchers have been studying clustering for a long time. They focus on clustering data with mixture distributions, assuming that the distributions are far apart. Recent work by Kumar and Kannan attempts to unify various clustering approaches but has only partly succeeded.
+          <t>Researchers have been studying clustering for a long time. They focus on clustering data with mixture distributions, assuming that the distributions are far apart. Recent work by Kumar and Kannan attempts to unify various clustering approaches but has only partly succeeded.
 Kumar and Kannan's analysis is inefficient regarding the number of clusters due to a fixed separation assumption, which affects the classification guarantee. They exceed known bounds in certain models. Their simpler analysis depends on points being "good" and requires multiple iterations to find suitable centers.
 Their work defines a separation condition and notation, viewing points as a dataset matrix. The goal is to find a partition with accurate cluster centers using the Frobenius norm cost. The paper emphasizes the spectral norm of the matrix and a proximity condition for correct clustering.
 The simplified proximity condition shows which points satisfy it, aiding in the analysis of partitioning datasets. This aligns Kumar and Kannan's work with clustering literature, simplifying the analysis and leading to improved theorems with various practical applications in computer science.
@@ -2128,37 +2796,58 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.73021645021645</v>
+        <v>12.70598502929052</v>
       </c>
       <c r="D67" t="n">
-        <v>12.22070547210301</v>
+        <v>12.15923971861472</v>
+      </c>
+      <c r="E67" t="n">
+        <v>838</v>
+      </c>
+      <c r="F67" t="n">
+        <v>231</v>
+      </c>
+      <c r="G67" t="n">
+        <v>44</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Corrected text:
-Graphics Processing Units (GPUs) offer better performance for mathematical operations on large arrays compared to traditional Central Processing Units (CPUs). Fast Fourier Transform (FFT) is one application where GPUs have a significant performance advantage over CPUs. This performance advantage is significant for simulations that need to fit within memory constraints of a single GPU. GPU acceleration is largely accomplished through variants of programming languages like C, Fortran, with recent additions like OpenACC and CUDA Fortran. GPUs have garnered interest from a large number of legacy codes that use Fortran. The paper "CHP" cites extensions of Fortran for GPUs for solving nonlinear PDEs using pseudospectral methods. The user-friendliness of different GPU programming models is also described, along with a benchmark suite of algorithms for three different nonlinear PDEs using Fourier pseudospectral methods.</t>
+          <t>Graphics Processing Units (GPUs) offer better performance for mathematical operations on large arrays compared to traditional Central Processing Units (CPUs). Fast Fourier Transform (FFT) is one application where GPUs have a significant performance advantage over CPUs. This performance advantage is significant for simulations that need to fit within memory constraints of a single GPU. GPU acceleration is largely accomplished through variants of programming languages like C, Fortran, with recent additions like OpenACC and CUDA Fortran. GPUs have garnered interest from a large number of legacy codes that use Fortran. The paper "CHP" cites extensions of Fortran for GPUs for solving nonlinear PDEs using pseudospectral methods. The user-friendliness of different GPU programming models is also described, along with a benchmark suite of algorithms for three different nonlinear PDEs using Fourier pseudospectral methods.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Simplified text:
-Graphics Processing Units (GPUs) are better than Central Processing Units (CPUs) for math operations on big arrays. GPUs excel in Fast Fourier Transform (FFT) applications. They are great for simulations that must fit into a single GPU's memory. GPUs speed up tasks using languages like C, Fortran, OpenACC, and CUDA Fortran. Many old Fortran-based codes are now interested in GPUs. The "CHP" paper talks about using Fortran extensions for GPUs to solve PDEs. It also discusses the ease of using different GPU programming methods and benchmarks for solving PDEs using Fourier pseudospectral methods.</t>
+          <t>Graphics Processing Units (GPUs) are better than Central Processing Units (CPUs) for math operations on big arrays. GPUs excel in Fast Fourier Transform (FFT) applications. They are great for simulations that must fit into a single GPU's memory. GPUs speed up tasks using languages like C, Fortran, OpenACC, and CUDA Fortran. Many old Fortran-based codes are now interested in GPUs. The "CHP" paper talks about using Fortran extensions for GPUs to solve PDEs. It also discusses the ease of using different GPU programming methods and benchmarks for solving PDEs using Fourier pseudospectral methods.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13.07420112781955</v>
+        <v>12.9550286259542</v>
       </c>
       <c r="D68" t="n">
-        <v>8.169671052631582</v>
+        <v>7.97600806451613</v>
+      </c>
+      <c r="E68" t="n">
+        <v>131</v>
+      </c>
+      <c r="F68" t="n">
+        <v>93</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Corrected text:
-Obey Spaces Global Let Space Relax Daniel Roy Keith Bonawitz Joshua B. Tenenbaum MIT BCSCSAIL Cambridge 02139 Formal languages and probabilistic modeling enable reuse, modularity, and descriptive clarity to foster generic inference techniques. We introduce Church, a universal language describing stochastic generative processes. Church is based on the Lisp model of lambda calculus, containing a pure Lisp deterministic subset. The semantics of Church are defined in terms of evaluation histories and conditional distributions of histories. Church also includes a novel language construct, the stochastic memoizer, which enables the simple description of many complex nonparametric models. We illustrate the language features with several examples, including generalized Bayesian networks, parameter cluster trials, infinite PCFGs, planning inference, and various nonparametric clustering models. Finally, we show how to implement and query a Church program exactly or approximately using Monte Carlo techniques.
+          <t>Obey Spaces Global Let Space Relax Daniel Roy Keith Bonawitz Joshua B. Tenenbaum MIT BCSCSAIL Cambridge 02139 Formal languages and probabilistic modeling enable reuse, modularity, and descriptive clarity to foster generic inference techniques. We introduce Church, a universal language describing stochastic generative processes. Church is based on the Lisp model of lambda calculus, containing a pure Lisp deterministic subset. The semantics of Church are defined in terms of evaluation histories and conditional distributions of histories. Church also includes a novel language construct, the stochastic memoizer, which enables the simple description of many complex nonparametric models. We illustrate the language features with several examples, including generalized Bayesian networks, parameter cluster trials, infinite PCFGs, planning inference, and various nonparametric clustering models. Finally, we show how to implement and query a Church program exactly or approximately using Monte Carlo techniques.
 Probabilistic models have proven to be an enormously useful tool in artificial intelligence, machine learning, and cognitive science. These models are often specified in a combination of natural and mathematical language. Inference in new models is implemented by hand using stochastic programming languages that aim to tame the model-building process by providing a formal language that offers simple, uniform, and reusable descriptions for a wide class of models. To support generic inference techniques, in this paper, we present Church, a stochastic programming language named after the computation pioneer Alonzo Church. It is a universal language for describing generative processes and conditional queries. The language is based on Church's lambda calculus, where expressions represent generative models that can be arbitrarily composed and abstracted.
 The main contributions of this paper are:
 1. Lisp-like language specification with an emphasis on evaluation sampling and query conditional sampling.
@@ -2174,24 +2863,34 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Simplified text:
-The Church language, inspired by Lisp, is a tool for describing stochastic generative processes and conducting conditional queries. It simplifies the creation of complex nonparametric models by offering a universal language for modeling. The language includes features like stochastic memoization for describing various models. It allows for implementing and analyzing programs accurately or approximately using Monte Carlo methods.
+          <t>The Church language, inspired by Lisp, is a tool for describing stochastic generative processes and conducting conditional queries. It simplifies the creation of complex nonparametric models by offering a universal language for modeling. The language includes features like stochastic memoization for describing various models. It allows for implementing and analyzing programs accurately or approximately using Monte Carlo methods.
 Probabilistic models play a crucial role in artificial intelligence, machine learning, and cognitive science. To simplify model-building, the Church language provides a formal and reusable way to describe generative processes and queries. It is derived from lambda calculus, enabling flexibility in composing and abstracting models.
 Key contributions of the Church language include its Lisp-like structure, a stochastic memoizer for nonparametric models, and methods for exact and approximate inference. The language employs procedures and expressions to represent generative processes, allowing for efficient reuse of computations.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15.10488508505306</v>
+        <v>15.08947824227521</v>
       </c>
       <c r="D69" t="n">
-        <v>14.85516666666667</v>
+        <v>14.79447887323944</v>
+      </c>
+      <c r="E69" t="n">
+        <v>796</v>
+      </c>
+      <c r="F69" t="n">
+        <v>142</v>
+      </c>
+      <c r="G69" t="n">
+        <v>47</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Corrected text:
-Phylogenetics is a subfield of computational biology that aims to construct simple and accurate descriptions of the evolutionary history. These descriptions are represented by evolutionary trees given a set of species and represented by a set of features. A typical choice of features includes single nucleotide polymorphisms (SNPs) and binary indicator variables for common mutations found in DNA. This challenging problem has attracted much attention in recent years, with progress made in studying various computational formulations of the problem. The problem is often posed as constructing a parsimonious tree induced by a set of species, formally known as a phylogeny or phylogenetic tree. The set of species is represented by strings called taxa with a finite alphabet. An unrooted tree with vertices (v), edges (e), and a subset (c) is given, where v is a subset of e, which is a subset of sigma(d). A distance metric is defined, and the cost of a tree is the maximum parsimony dataset tree that minimizes the cost with respect to the Hamming metric. The optimum Steiner tree for the set metric in the Steiner tree problem is known to be NP-hard in general and remains NP-hard even in the case of a binary alphabet metric induced by the Hamming distance.
+          <t>Phylogenetics is a subfield of computational biology that aims to construct simple and accurate descriptions of the evolutionary history. These descriptions are represented by evolutionary trees given a set of species and represented by a set of features. A typical choice of features includes single nucleotide polymorphisms (SNPs) and binary indicator variables for common mutations found in DNA. This challenging problem has attracted much attention in recent years, with progress made in studying various computational formulations of the problem. The problem is often posed as constructing a parsimonious tree induced by a set of species, formally known as a phylogeny or phylogenetic tree. The set of species is represented by strings called taxa with a finite alphabet. An unrooted tree with vertices (v), edges (e), and a subset (c) is given, where v is a subset of e, which is a subset of sigma(d). A distance metric is defined, and the cost of a tree is the maximum parsimony dataset tree that minimizes the cost with respect to the Hamming metric. The optimum Steiner tree for the set metric in the Steiner tree problem is known to be NP-hard in general and remains NP-hard even in the case of a binary alphabet metric induced by the Hamming distance.
 Extensive recent work, both experimental and theoretical, has focused on the binary character set with the Hamming metric. This version of the phylogeny problem also focuses on what is called a "perfect phylogeny," which involves coordinate flips that exactly represent a tree with a single mutation among the set of species. Without loss of generality, it may be assumed that coordinate flips are at least one, since coordinates where species agree can be discarded from the dataset. A dataset that admits a perfect phylogeny can have an optimal tree constructed in polynomial time or even linear time in the case of a binary alphabet.
 This work investigates the phylogenetic tree's cost, with near-perfect phylogenies studied in theoretical and experimental settings. The work presents a series of randomized algorithms to find the optimal phylogeny with running times ranging from polynomial to exponential. An algorithmic approach to finding a phylogenetic tree with low cost is to use a generic Steiner tree approximation algorithm. The best current algorithm yields a tree with a cost close to a hypercube with respect to a small representation size. However, it should be noted that in some cases, there may be an excess tree, meaning the difference in cost could be extremely large compared to the excess of the optimal tree. In such cases, an algorithm whose excess can be written as a function of the work would be preferable.
 The presented randomized polynomial-time algorithm finds a phylogenetic tree with a cost given a set of terminals where the optimal phylogeny cost exists. This algorithm provides a substantial improvement over prior work, and in cases where log(llqll) is tractable, multiplicative approximations yield significantly better bounds. Alternatively, viewed as a multiplicative guarantee, the range of the tree is within a factor of the optimal. To the best of our knowledge, this is the first work to give an additive polytime approximation for either the phylogeny problem or the nontrivial setting of the Steiner tree problem. One immediate question that remains open is whether the results can be improved.
@@ -2202,8 +2901,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Simplified text:
-Phylogenetics in computational biology aims to create straightforward evolutionary history descriptions using evolutionary trees with species and features like SNPs and common DNA mutations. This challenging task involves building a tree that represents species and is cost-effective based on a specific metric.
+          <t>Phylogenetics in computational biology aims to create straightforward evolutionary history descriptions using evolutionary trees with species and features like SNPs and common DNA mutations. This challenging task involves building a tree that represents species and is cost-effective based on a specific metric.
 Recent research focuses on creating efficient phylogenetic trees based on binary character sets and the Hamming metric. Analyzing "perfect phylogeny" involves determining coordinate changes that accurately depict species mutations. A dataset with a perfect phylogeny can lead to an optimal tree construction quickly, especially with a binary alphabet.
 Studies explore the cost of phylogenetic trees, with randomized algorithms offering various solutions with different efficiency levels. One approach is using a Steiner tree approximation algorithm to find a low-cost phylogeny. While progress has been made, there are cases where the cost difference between trees can be significant, requiring algorithms that can handle such situations.
 A new algorithm has been introduced to efficiently find phylogenetic trees with a given cost for a set of terminals. This algorithm improves on previous methods and offers better approximations within a reasonable range of the optimal solution. The paper also discusses future research directions, including the NP-complexity of constructing optimal phylogenies, and presents an algorithm using Integer Linear Programming for multistate problems.
@@ -2211,17 +2909,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13.96851851851852</v>
+        <v>13.94321782178218</v>
       </c>
       <c r="D70" t="n">
-        <v>15.26136329588015</v>
+        <v>15.21169811320755</v>
+      </c>
+      <c r="E70" t="n">
+        <v>808</v>
+      </c>
+      <c r="F70" t="n">
+        <v>265</v>
+      </c>
+      <c r="G70" t="n">
+        <v>39</v>
+      </c>
+      <c r="H70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Corrected text:
-Markov decision processes (MDPs) are a standard model for planning under uncertainty. An MDP is defined by a set of possible agent states and a set of agent actions. It includes a stochastic transition function and a reward function depending on the problem domain. The representation language for describing an MDP can be either declarative, generative, or mixed. In the case of a declarative description, MDPs are assumed to be concise models that provide agents with greater algorithmic flexibility. Generative models are more expressive. Both types of models allow for the simulation of feasible action sequences.
+          <t>Markov decision processes (MDPs) are a standard model for planning under uncertainty. An MDP is defined by a set of possible agent states and a set of agent actions. It includes a stochastic transition function and a reward function depending on the problem domain. The representation language for describing an MDP can be either declarative, generative, or mixed. In the case of a declarative description, MDPs are assumed to be concise models that provide agents with greater algorithmic flexibility. Generative models are more expressive. Both types of models allow for the simulation of feasible action sequences.
 In an MDP, the current state of the agent is fully observable, and the objective is for the agent to act in a way that maximizes the accumulated reward. This paper focuses on a finite horizon setting where the reward is accumulated over a predefined number of steps. To handle MDPs with state spaces of exponential size, researchers have considered online planning for MDPs. In online planning, the agent focuses on taking actions rather than computing the quality of the policy for the entire MDP. The decision process consists of a deliberation phase, which is terminated either according to a predefined schedule or due to an external interrupt. This is followed by the recommended action for the current state being applied in the real environment. The decision process is repeated for each obtained state to select the next action based on the quality of the action recommended for that state. The "steps to go" are assessed in terms of the probability of suboptimal actions, which are closely related to the measure called simple regret. The simple regret captures the performance loss that results from taking actions following a suboptimal policy for the remaining steps instead of following the optimal policy from the beginning.
 Recently, exceptions have been developed for declarative MDPs. Algorithms for online MDP planning constitute variants called Monte Carlo Tree Search (MCTS). One of the earliest and best-known MCTS algorithms is a sparse sampling algorithm by Kearns, Mansour, and Ng. Successors have been devised specifically for MDPs. These algorithms have also been successfully used in partially observable and adversarial settings in general. The relative empirical attractiveness of various MCTS planning algorithms depends on the specifics of the problem at hand and is usually not predictable ahead of time.
 When it comes to formal guarantees on expected performance improvement over planning time, algorithms can provide guarantees in general for MDPs, but none break the barrier of worst-case polynomial rate reduction in simple regret or choice error probability over time. This paper introduces a new Monte Carlo Tree Search algorithm that guarantees an exponential rate reduction in the simple regret or choice error probability over time for general MDPs with finite state spaces. The algorithm is based on a simple and efficiently implementable sampling scheme, with different parts of the sample dedicated to different competing exploratory objectives.
@@ -2230,8 +2939,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Simplified text:
-Markov decision processes (MDPs) help plan in uncertain situations. MDPs involve agent states, actions, a transition function, and a reward function. MDP descriptions can be declarative, generative, or mixed. Declarative models offer flexibility, while generative models are more detailed and can simulate actions.
+          <t>Markov decision processes (MDPs) help plan in uncertain situations. MDPs involve agent states, actions, a transition function, and a reward function. MDP descriptions can be declarative, generative, or mixed. Declarative models offer flexibility, while generative models are more detailed and can simulate actions.
 In MDPs, the agent sees the current state and aims to maximize rewards. This study focuses on finite horizon scenarios with a set number of steps. To handle large MDPs, online planning is considered, where the agent focuses on immediate actions. The process involves deliberation, action, and evaluating future steps based on potential regrets.
 New approaches for declarative MDPs include Monte Carlo Tree Search (MCTS) algorithms. These algorithms, like the sparse sampling one by Kearns, Mansour, and Ng, are designed for MDPs and have been used in different scenarios. The selection of MCTS algorithms depends on the specific problem and its performance is hard to predict.
 While algorithms can offer performance guarantees for MDPs, no method has consistently reduced regret or error rates. A new MCTS algorithm is introduced in this paper, ensuring a significant decrease in regret over time for MDPs with finite states. The algorithm simplifies sampling with different objectives, improving efficiency.
@@ -2239,25 +2947,35 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13.86840978077572</v>
+        <v>13.83614720812183</v>
       </c>
       <c r="D71" t="n">
-        <v>11.63340570562989</v>
+        <v>11.57261522790935</v>
+      </c>
+      <c r="E71" t="n">
+        <v>591</v>
+      </c>
+      <c r="F71" t="n">
+        <v>231</v>
+      </c>
+      <c r="G71" t="n">
+        <v>30</v>
+      </c>
+      <c r="H71" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Corrected text: 
-Consider a network with three nodes denoted as Mark, Change, and shown in the figure. Use the Compute-and-Forward framework proposed:
+          <t>Consider a network with three nodes denoted as Mark, Change, and shown in the figure. Use the Compute-and-Forward framework proposed:
 1. Gaussian Multiple Access Phase (MAC Phase): User nodes simultaneously transmit to the relay.
 2. Broadcast Phase: The relay transmits to the user nodes. In the MAC Phase, the user nodes independently modulate bits for Mark and Change into real-valued symbols, respectively. The relay receives an instance of a random variable, Mark, modeled with UVZ assumed links with unit gain. It denotes additive white Gaussian noise independent in communication. It is assumed synchronized. Using XOR, the relay computes the two message bits, i.e., in the Broadcast Phase, encodes a real symbol transmitted to the two users in the broadcast channel. Note the recovery, respectively, for Mark and Change. Compute-and-Forward in the bidirectional relaying problem for Mark is described. In this study scenario, an additional secrecy constraint is imposed on the relay. Specifically, it requires in the MAC Phase for the relay to remain ignorant of individual bits but still able to compute XOR reliably. The study of the problem with two secrecy constraints for Mark: perfect secrecy and strong secrecy is described next. In perfect secrecy, it refers to the requirement for the relay to be fully ignorant of individual bits, i.e., random variables are pairwise independent. Generally, the user nodes encode messages as dimensional real vectors, respectively, requiring statistically independent individual messages. The problem of secure bidirectional relaying for Mark in the presence of an untrusted relay with a perfect secrecy constraint was studied in prior work. A major contribution of this paper is proposing a coding scheme for securing bidirectional relaying for Mark. It uses a pair of nested lattices. In the scheme, messages are mapped to cosets. A coarse lattice and a fine lattice are given. For a given message, say the th coset, the user node outputs encoder a random point chosen from the coset according to a distribution. The distribution is obtained by sampling and normalizing a well-chosen density function. It is shown that the characteristic function is supported within the fundamental Voronoi region of the Fourier dual, making it possible to achieve perfect secrecy. The study includes the average transmit power, achievable rates for reliable secure communication, and shows the transmission rate for Mark achievable with perfect secrecy. The coding scheme for security is explicitly given using a pair of nested lattices to specify the distributions that must be used to obtain independence of individual messages. Later, the secrecy constraint is relaxed to demand mutual information of individual messages to be arbitrarily small for large block lengths. This requirement is referred to as strong secrecy, achievable. It is worth emphasizing the basic idea behind the construction of encoders and coding schemes is that given a pair of nested lattices, the user nodes send points from the fine lattice to the nested lattice pair according to a probability mass function obtained by sampling a well-chosen density function. The choice of the density function determines the level of security achievable. Prior work on the problem of secure bidirectional relaying in the presence of an untrusted relay was studied exclusively in the MAC Phase. Since the security requirement in the Broadcast Phase for the relay uses capacity-approaching codes to broadcast to users, establishing a basic notation and recalling definitions related to lattices is necessary. In the next section, we describe the secure bidirectional relaying problem and thereafter study the problem with a strong secrecy constraint, design coding schemes, and evaluate performance in a section.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Simplified text:
-Imagine a network with three nodes: Mark, Change, and a relay shown in a diagram. To implement the Compute-and-Forward approach:
+          <t>Imagine a network with three nodes: Mark, Change, and a relay shown in a diagram. To implement the Compute-and-Forward approach:
 - In the MAC Phase, user nodes send data to the relay at the same time.
 - In the Broadcast Phase, the relay sends data back to the users.
 - User nodes convert bits for Mark and Change into symbols.
@@ -2279,17 +2997,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>11.99677419354839</v>
+        <v>11.97028960817718</v>
       </c>
       <c r="D72" t="n">
-        <v>8.540147058823532</v>
+        <v>8.466029644268776</v>
+      </c>
+      <c r="E72" t="n">
+        <v>587</v>
+      </c>
+      <c r="F72" t="n">
+        <v>253</v>
+      </c>
+      <c r="G72" t="n">
+        <v>39</v>
+      </c>
+      <c r="H72" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Corrected text:
-History of mathematics and algorithmic nature of geometric claims in Euclid's Elements fall into two distinct categories: "problems" that assert a construction carried out to meet a given specification, and "theorems" that assert a property that holds in a particular geometric configuration. For example, Proposition 10 in the book reads "bisect a given straight line." Euclid's "proof" provides a construction that ends with the Greek equivalent of Q.E.F., meaning "done." Proofs of theorems, in contrast, end with Q.E.D., meaning "shown"; they typically involve constructions of auxiliary geometric objects in order to verify a claim. Similarly, algebra is devoted to developing algorithms for solving equations. Its outlook is characterized by its origins in ancient Egypt and Babylon, the ninth-century work of Al-Khwarizmi on solutions to quadratic and cubic equations, Cardano's Ars Magna in 1545, Lagrange's study of quintic equations in Reflexions sur la Resolution Algebrique des Equations in 1770.
+          <t>History of mathematics and algorithmic nature of geometric claims in Euclid's Elements fall into two distinct categories: "problems" that assert a construction carried out to meet a given specification, and "theorems" that assert a property that holds in a particular geometric configuration. For example, Proposition 10 in the book reads "bisect a given straight line." Euclid's "proof" provides a construction that ends with the Greek equivalent of Q.E.F., meaning "done." Proofs of theorems, in contrast, end with Q.E.D., meaning "shown"; they typically involve constructions of auxiliary geometric objects in order to verify a claim. Similarly, algebra is devoted to developing algorithms for solving equations. Its outlook is characterized by its origins in ancient Egypt and Babylon, the ninth-century work of Al-Khwarizmi on solutions to quadratic and cubic equations, Cardano's Ars Magna in 1545, Lagrange's study of quintic equations in Reflexions sur la Resolution Algebrique des Equations in 1770.
 The theory of probability was born in the exchange of letters between Blaise Pascal and Pierre de Fermat in 1654. It was further developed by Christian Huygens and Jakob Bernoulli, who provided methods for calculating odds related to games of chance. Abraham de Moivre's 1718 monograph on the subject, entitled Doctrine of Chances: A Method of Calculating Probabilities of Events in Play, and Pierre de Laplace's monumental Theorie Analytique des Probabilites dramatically expanded the scope of the subject. It addressed statistical problems related to astronomical measurements, measurements in the social sciences, reliability of testimony, and more, with an emphasis on explicit calculation and algorithmic analysis.
 By the early seventeenth century, Cavalieri, Fermat, Pascal, and Wallis had developed methods for computing "quadratures" of areas and regions bounded by curves, as well as volumes. With the advent of Newton's calculus, a method for explaining and predicting the motion of heavenly and sublunary objects emerged. Euler's Introductio Analysis Infinitorum in 1748 was the first work to explicitly base calculus on the notion of a function. Euler's functions were given as piecewise analytic expressions, focusing on methods of calculation for such functions and operations considered computable in a modern sense.
 Euclid's constructions involve a case split on whether two points are equal. Similarly, Euler's piecewise analytic functions are always continuous. In contrast, functions for the reals in a computable modern sense are not necessarily continuous, even though Euler's work was sensitive to rates of convergence in analytic expressions. While rates were made explicit, there were quibbles. Generally speaking, mathematical arguments in the eighteenth century provided informal algorithms for finding objects asserted to exist. This situation changed dramatically in the nineteenth century. Galois' theory of equations implicitly assumed that roots of polynomials exist somewhere. Gauss' proof of the fundamental theorem of algebra in 1799, for example, showed how to compute it. In 1837, Dirichlet considered an example of a "function" from real numbers to real numbers that equaled rationals and irrationals, without pausing to consider whether the function was calculable. Bolzano-Weierstrass theorem, first proved by Bolzano in 1817, asserts that a bounded sequence of real numbers has a convergent subsequence, with a general way of computing the subsequence. Riemann's proof of the open mapping theorem was based on Dirichlet's principle, a computationally valid existence principle.
@@ -2299,8 +3028,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Simplified text:
-Euclid's Elements categorize geometric claims into "problems," which involve constructing a given specification, and "theorems," which state properties in a geometric setup. Euclid's proofs end with Q.E.F. for constructions and Q.E.D. for theorems. Algebra focuses on solving equations, with roots in ancient Egypt, Al-Khwarizmi's work in the ninth century, Cardano's Ars Magna in 1545, and Lagrange's study in 1770.
+          <t>Euclid's Elements categorize geometric claims into "problems," which involve constructing a given specification, and "theorems," which state properties in a geometric setup. Euclid's proofs end with Q.E.F. for constructions and Q.E.D. for theorems. Algebra focuses on solving equations, with roots in ancient Egypt, Al-Khwarizmi's work in the ninth century, Cardano's Ars Magna in 1545, and Lagrange's study in 1770.
 Probability theory began with Pascal and Fermat in 1654, elaborated by Huygens and Bernoulli for calculating odds in games. De Moivre's work in 1718 and Laplace's Theorie Analytique des Probabilites expanded this into statistical analysis for various fields.
 By the 17th century, Cavalieri, Fermat, Pascal, and Wallis developed methods for calculating areas and volumes. Newton's calculus explained celestial motion. Euler's calculus, introduced in 1748, focused on functions and calculations.
 Mathematical developments in the 18th and 19th centuries shifted from informal to formal algorithms. Galois' theory, Gauss' proof in 1799, Dirichlet's considerations, Bolzano-Weierstrass theorem, and Riemann's open mapping theorem advanced mathematical rigour.
@@ -2308,39 +3036,60 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>14.07019458883114</v>
+        <v>14.04869695957234</v>
       </c>
       <c r="D73" t="n">
-        <v>11.19261675126904</v>
+        <v>11.14685897435897</v>
+      </c>
+      <c r="E73" t="n">
+        <v>730</v>
+      </c>
+      <c r="F73" t="n">
+        <v>195</v>
+      </c>
+      <c r="G73" t="n">
+        <v>41</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Corrected text:
-Given a node arc complete directed weighted graph, the asymmetric traveling salesman problem (ATSP) consists of finding a partial subgraph that forms a Hamiltonian circuit at minimum cost. It is an NP-hard problem that has been studied in the operations research community due to its various practical applications such as vehicle routing problems in logistics, microchip production optimization, and scheduling. The symmetric TSP can be handled well using linear programming techniques. However, these methods suffer from the addition of side constraints with an asymmetric cost matrix. Constraint programming models are more suitable since real-world symmetric industrial applications often involve constraints such as time windows, precedences, and loading capacities.
+          <t>Given a node arc complete directed weighted graph, the asymmetric traveling salesman problem (ATSP) consists of finding a partial subgraph that forms a Hamiltonian circuit at minimum cost. It is an NP-hard problem that has been studied in the operations research community due to its various practical applications such as vehicle routing problems in logistics, microchip production optimization, and scheduling. The symmetric TSP can be handled well using linear programming techniques. However, these methods suffer from the addition of side constraints with an asymmetric cost matrix. Constraint programming models are more suitable since real-world symmetric industrial applications often involve constraints such as time windows, precedences, and loading capacities.
 Improving constraint programming (CP) general models for solving ATSP has led to making CP competitive for real-world routing problems. Recent improvements in cost-based relaxations have had a significant impact on the ability of CP technologies to solve the TSP. In this paper, we investigate the graph structure and its contribution to the resolution process. In order to tackle larger instances, we have developed filtering algorithms using classical graph structures, such as strongly connected components and dominators. We analyze the quantitative behavior, time complexity, and qualitative consistency level. We also experimentally demonstrate that implied propagators bring robustness to hard instances and highlight the fact that the graph structure can significantly improve the behavior of search heuristics.
 The main contribution of this theoretical and experimental study leads to a more robust model that outperforms the state-of-the-art results in CP. The paper is divided into six main parts. The first section provides vocabulary and notations, the second section discusses the state-of-the-art implied constraints, the third section shows the reduced graph that provides useful information for pruning and improving existing models, the fourth section provides improvements in the implementation of the Held-Karp method within a directed context, the fifth section shows the experimental study on ATSP and its connections to the symmetric version of the TSP, and the final section concludes the paper with several perspectives.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Simplified text:
-The asymmetric traveling salesman problem (ATSP) involves finding the cheapest route that visits each node in a weighted graph. It is a difficult problem studied in operations research for practical uses like optimizing vehicle routes and scheduling. While linear programming works for symmetrical problems, constraint programming is better for real-world scenarios with additional constraints. Recent advances in constraint programming have made it effective for solving ATSP for routing challenges. By analyzing graph structures and developing filtering algorithms, we have improved the solving process for larger cases. Our study enhances the ATSP model in constraint programming, surpassing previous methods. The paper is divided into sections covering vocabulary, implied constraints, graph simplification, algorithm enhancements, experimental results, and conclusions.</t>
+          <t>The asymmetric traveling salesman problem (ATSP) involves finding the cheapest route that visits each node in a weighted graph. It is a difficult problem studied in operations research for practical uses like optimizing vehicle routes and scheduling. While linear programming works for symmetrical problems, constraint programming is better for real-world scenarios with additional constraints. Recent advances in constraint programming have made it effective for solving ATSP for routing challenges. By analyzing graph structures and developing filtering algorithms, we have improved the solving process for larger cases. Our study enhances the ATSP model in constraint programming, surpassing previous methods. The paper is divided into sections covering vocabulary, implied constraints, graph simplification, algorithm enhancements, experimental results, and conclusions.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15.82453012048193</v>
+        <v>15.76757575757576</v>
       </c>
       <c r="D74" t="n">
-        <v>14.3625</v>
+        <v>14.27534482758621</v>
+      </c>
+      <c r="E74" t="n">
+        <v>330</v>
+      </c>
+      <c r="F74" t="n">
+        <v>116</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Corrected text:
-Telemonitoring electroencephalogram (EEG) via wireless body area networks (WBANs) is an evolving direction in personalized medicine and home-based eHealth systems. A WBAN integrates a number of sensors to collect and compress EEG data. The compressed EEG is sent to a nearby smartphone via ultra-low-power short-haul radios (e.g., Bluetooth) and then transmitted to a remote terminal (e.g., a hospital) via the internet. At the terminal, the original EEG is recovered by a computer equipped with the system. This setup allows patients to avoid frequent visits to hospitals as their EEG can be continuously and ubiquitously monitored.
+          <t>Telemonitoring electroencephalogram (EEG) via wireless body area networks (WBANs) is an evolving direction in personalized medicine and home-based eHealth systems. A WBAN integrates a number of sensors to collect and compress EEG data. The compressed EEG is sent to a nearby smartphone via ultra-low-power short-haul radios (e.g., Bluetooth) and then transmitted to a remote terminal (e.g., a hospital) via the internet. At the terminal, the original EEG is recovered by a computer equipped with the system. This setup allows patients to avoid frequent visits to hospitals as their EEG can be continuously and ubiquitously monitored.
 However, there are many constraints to consider when designing such a system. The primary constraint is energy consumption due to the limitation of battery life. It is necessary to reduce energy consumption as much as possible to use small, light batteries for the sensors. This results in a lightweight device that significantly improves the comfort level of patients and extends the battery life of the sensors, reducing operational costs. Another constraint is the transmission of physiological signals, which are largely compressed due to the communication capacity of ultra-low-power short-haul radio devices being low, especially for applications using multiple sensors and high-speed sampling frequencies.
 Additionally, a WBAN generally uses a smartphone as an intermediate transit point, so it is important that the data stream does not overwhelm the smartphone, disrupting its primary functions such as receiving/making phone calls or playing games or using mobile applications. The third constraint is hardware costs, as low hardware costs are essential to make telemonitoring systems economically viable and accepted by individual customers. However, low hardware costs often result in data compression at the sensors and low complexity data recovery at remote terminals. Many conventional data compression methodologies like wavelet compression do not satisfy these constraints in the time domain.
 As shown, current compressed sensing (CS) algorithms do not work well for signals that are not sparse in their original or transformed domains, like EEG signals. To achieve good recovery quality and recover EEG signals of high quality for practical applications, this study proposes using block sparse Bayesian learning (BSBL) due to its block structure. The study explores the feasibility of using the BSBL technique for EEG data, which is an example of a signal with an arbitrary waveform without a distinct block structure. The fidelity of the recovered EEG signal is assessed through subsequent signal processing, including independent component analysis.
@@ -2349,8 +3098,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Simplified text:
-Telemonitoring EEG through wireless body networks is a growing trend in personalized medicine and home health systems. These networks use sensors to gather EEG data, compress it, and send it to a smartphone via short-distance radios like Bluetooth. From there, the data is forwarded to a remote terminal, like a hospital, for analysis. This setup allows patients to be continuously monitored without frequent hospital visits.
+          <t>Telemonitoring EEG through wireless body networks is a growing trend in personalized medicine and home health systems. These networks use sensors to gather EEG data, compress it, and send it to a smartphone via short-distance radios like Bluetooth. From there, the data is forwarded to a remote terminal, like a hospital, for analysis. This setup allows patients to be continuously monitored without frequent hospital visits.
 Designing such a system faces challenges like managing energy use to prolong battery life of sensors. By reducing energy consumption, smaller batteries can be used, creating lightweight devices that are more comfortable for patients and cost-effective. Another challenge is transmitting compressed physiological signals, especially when using multiple sensors and fast sampling rates with low-power radios.
 Using smartphones as a go-between in these networks is common, but data streams must not overwhelm the device, affecting its regular functions. Keeping hardware costs low is crucial for these systems to be affordable and popular among users. However, low-cost hardware often means compressing data at the sensors and simplifying data recovery at terminals.
 Current compression algorithms may not work well for complex signals like EEG. To address this, block sparse Bayesian learning (BSBL) is proposed for better signal recovery. This study explores the use of BSBL for EEG data, which lacks a distinct block structure. The accuracy of recovered EEG signals is evaluated using signal processing methods like independent component analysis.
@@ -2358,37 +3106,58 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13.52344114219115</v>
+        <v>13.48411299765808</v>
       </c>
       <c r="D75" t="n">
-        <v>11.9263524590164</v>
+        <v>11.86081611570248</v>
+      </c>
+      <c r="E75" t="n">
+        <v>427</v>
+      </c>
+      <c r="F75" t="n">
+        <v>242</v>
+      </c>
+      <c r="G75" t="n">
+        <v>24</v>
+      </c>
+      <c r="H75" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Corrected text:
-High-throughput sequencing is transforming the study of evolution by allowing the integration of genome analysis in systematic studies, an area called phylogenomics. An important step in phylogenomic analyses is the reconstruction of trees showing ancestor-descendant relationships, known as gene trees, for families of orthologous genes. Dataset analyses have revealed widespread discordance in gene trees, leading to questions about the meaningfulness of the tree of life. In addition, statistical errors in gene tree estimation and various mechanisms commonly lead to incongruences in inferred gene histories, including hybridization events, duplications, losses in gene families, and incomplete lineage sorting. Lateral genetic transfers, specifically lateral gene transfer (LGT), where genes are transferred non-vertically between less distantly related organisms as opposed to the standard vertical transmission from parent to offspring, play a significant role in microbial adaptation and bacterial evolution. The study of LGT has important implications for the study of infectious diseases, as bacterial phylogeny is usually inferred from genes thought to be immune to LGT, typically ribosomal RNA genes. However, there is growing evidence that even other genes have experienced LGT. In the case of LGT, which appears to be a major source of conflict in gene trees, it must be taken into account appropriately in phylogenomic analyses, particularly when building phylogenies. This paper addresses the problem of how to handle genetic transfer when the tree-like signal is completely erased, effectively addressing hypotheses and questions related to these issues. This work includes a stochastic model of gene tree topologies positing that LGT events occur at less random locations in the species' phylogeny. The main result establishes quantitative bounds that imply surprisingly high levels of LGT, almost linear with the number of branches in the gene tree. This can be handled by simple and computationally efficient inference procedures. The amount of genetic transfer appears to be much higher than previously estimated based on empirical data, with LGT frequency in genomic datasets of prokaryotes being particularly noteworthy. The results of this study indicate that an accurate and reliable bacterial phylogeny can be reconstructed if the vertical inheritance hypothesis is correct. The study also shows that constraining LGT in closely related species makes tree reconstruction problems significantly easier. The theoretical approach in this paper complements simulation-based studies by allowing a broad range of parameters and tree shapes to be considered. Moreover, the analysis provides new insights into designing effective reconstruction methodologies in the presence of LGT, focusing on both distance-based and quartet-based methodologies that derive statistical power from aggregating basic topological information across genes. In addition, the study explores the effects of so-called highways of gene sharing, which are the preferred genetic exchanges among specific groups of species. Beiko et al. provided empirical evidence of the existence of highways and identified them through inferred LGT events, reconciling gene trees with the trusted species tree. Subsequent work by Bansal et al. formalized the problem and designed a fast highway detection algorithm that aggregates conflicting signals across genes. Instead of solving the difficult LGT inference problem at the gene tree level, Beiko et al. and Bansal et al. relied on the trusted species tree to show that the species' phylogeny can be reliably estimated in the presence of random LGT events along highways. These highways of LGT, or long highways, involve a small enough fraction of genes that extra assumptions are also designed into the algorithm for inferring the location of highways. The first step is to recover the species phylogeny, and the highway reconstruction algorithm requires a trusted species tree. In essence, the results on highways indicate a robust phylogeny reconstruction in the presence of random LGT and extend the study into a phylogenetic network setting. In the background of phylogenetic networks, one can see related lines of work in phylogenomics addressing issues of incomplete lineage sorting, the presence of gene transfers, and hybridization events, as well as probabilistic models involving gene duplications and losses. The rest of the paper is organized as follows: The next section defines the stochastic model of LGT, and the main results are stated with a high-level description of the analysis. Finally, the last section extends the results on highways of gene sharing, and the results are presented and announced without proof.</t>
+          <t>High-throughput sequencing is transforming the study of evolution by allowing the integration of genome analysis in systematic studies, an area called phylogenomics. An important step in phylogenomic analyses is the reconstruction of trees showing ancestor-descendant relationships, known as gene trees, for families of orthologous genes. Dataset analyses have revealed widespread discordance in gene trees, leading to questions about the meaningfulness of the tree of life. In addition, statistical errors in gene tree estimation and various mechanisms commonly lead to incongruences in inferred gene histories, including hybridization events, duplications, losses in gene families, and incomplete lineage sorting. Lateral genetic transfers, specifically lateral gene transfer (LGT), where genes are transferred non-vertically between less distantly related organisms as opposed to the standard vertical transmission from parent to offspring, play a significant role in microbial adaptation and bacterial evolution. The study of LGT has important implications for the study of infectious diseases, as bacterial phylogeny is usually inferred from genes thought to be immune to LGT, typically ribosomal RNA genes. However, there is growing evidence that even other genes have experienced LGT. In the case of LGT, which appears to be a major source of conflict in gene trees, it must be taken into account appropriately in phylogenomic analyses, particularly when building phylogenies. This paper addresses the problem of how to handle genetic transfer when the tree-like signal is completely erased, effectively addressing hypotheses and questions related to these issues. This work includes a stochastic model of gene tree topologies positing that LGT events occur at less random locations in the species' phylogeny. The main result establishes quantitative bounds that imply surprisingly high levels of LGT, almost linear with the number of branches in the gene tree. This can be handled by simple and computationally efficient inference procedures. The amount of genetic transfer appears to be much higher than previously estimated based on empirical data, with LGT frequency in genomic datasets of prokaryotes being particularly noteworthy. The results of this study indicate that an accurate and reliable bacterial phylogeny can be reconstructed if the vertical inheritance hypothesis is correct. The study also shows that constraining LGT in closely related species makes tree reconstruction problems significantly easier. The theoretical approach in this paper complements simulation-based studies by allowing a broad range of parameters and tree shapes to be considered. Moreover, the analysis provides new insights into designing effective reconstruction methodologies in the presence of LGT, focusing on both distance-based and quartet-based methodologies that derive statistical power from aggregating basic topological information across genes. In addition, the study explores the effects of so-called highways of gene sharing, which are the preferred genetic exchanges among specific groups of species. Beiko et al. provided empirical evidence of the existence of highways and identified them through inferred LGT events, reconciling gene trees with the trusted species tree. Subsequent work by Bansal et al. formalized the problem and designed a fast highway detection algorithm that aggregates conflicting signals across genes. Instead of solving the difficult LGT inference problem at the gene tree level, Beiko et al. and Bansal et al. relied on the trusted species tree to show that the species' phylogeny can be reliably estimated in the presence of random LGT events along highways. These highways of LGT, or long highways, involve a small enough fraction of genes that extra assumptions are also designed into the algorithm for inferring the location of highways. The first step is to recover the species phylogeny, and the highway reconstruction algorithm requires a trusted species tree. In essence, the results on highways indicate a robust phylogeny reconstruction in the presence of random LGT and extend the study into a phylogenetic network setting. In the background of phylogenetic networks, one can see related lines of work in phylogenomics addressing issues of incomplete lineage sorting, the presence of gene transfers, and hybridization events, as well as probabilistic models involving gene duplications and losses. The rest of the paper is organized as follows: The next section defines the stochastic model of LGT, and the main results are stated with a high-level description of the analysis. Finally, the last section extends the results on highways of gene sharing, and the results are presented and announced without proof.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Simplified text:
-High-throughput sequencing helps study evolution by combining genome analysis in phylogenomics. Gene trees show ancestor-descendant links for groups of similar genes. Differences in gene trees raise doubts about the tree of life's accuracy due to errors in estimating gene trees and various factors causing conflicting gene histories. Lateral gene transfers (LGT) play a vital role in microbial adaptation. LGT also affects the study of infectious diseases. In phylogenomic analyses, LGT should be considered when constructing phylogenies. A study suggests high levels of LGT, especially in prokaryotes. The study aims to improve methods for reconstructing bacterial phylogenies. It introduces how genetic transfers can be handled when the tree-like signal is lost. The research focuses on highways of gene sharing, specific genetic exchanges among species. The study identifies highways through LGT events, aligning gene trees with species trees. The results offer a reliable way to estimate the species' phylogeny. The study also delves into phylogenetic networks to address issues like incomplete lineage sorting and gene transfers. The paper outlines a stochastic LGT model, presents key findings, and discusses highways of gene sharing for phylogeny reconstruction.</t>
+          <t>High-throughput sequencing helps study evolution by combining genome analysis in phylogenomics. Gene trees show ancestor-descendant links for groups of similar genes. Differences in gene trees raise doubts about the tree of life's accuracy due to errors in estimating gene trees and various factors causing conflicting gene histories. Lateral gene transfers (LGT) play a vital role in microbial adaptation. LGT also affects the study of infectious diseases. In phylogenomic analyses, LGT should be considered when constructing phylogenies. A study suggests high levels of LGT, especially in prokaryotes. The study aims to improve methods for reconstructing bacterial phylogenies. It introduces how genetic transfers can be handled when the tree-like signal is lost. The research focuses on highways of gene sharing, specific genetic exchanges among species. The study identifies highways through LGT events, aligning gene trees with species trees. The results offer a reliable way to estimate the species' phylogeny. The study also delves into phylogenetic networks to address issues like incomplete lineage sorting and gene transfers. The paper outlines a stochastic LGT model, presents key findings, and discusses highways of gene sharing for phylogeny reconstruction.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15.54026887464387</v>
+        <v>15.51296428571429</v>
       </c>
       <c r="D76" t="n">
-        <v>12.05459459459459</v>
+        <v>11.99422950819672</v>
+      </c>
+      <c r="E76" t="n">
+        <v>700</v>
+      </c>
+      <c r="F76" t="n">
+        <v>183</v>
+      </c>
+      <c r="G76" t="n">
+        <v>32</v>
+      </c>
+      <c r="H76" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Corrected text:
-Due to the increasing number of CPU cores, exploiting possible speedups in parallel computations is nowadays more important than ever. Parallel evolutionary algorithms (EAs) form a popular class of heuristics with many applications in computationally expensive problems. They involve restricting the flow of information in spatial structures and/or infrequent communication to increase diversity in the whole system. Researchers and practitioners frequently report that parallel EAs speed up computation time, which can lead to better solution quality. Despite the successes and long history, it is essential to have a formal understanding of the running time of evolutionary algorithms with mutation and/or crossover in parallel to gain insight into the capabilities and limitations of parallel EAs.
+          <t>Due to the increasing number of CPU cores, exploiting possible speedups in parallel computations is nowadays more important than ever. Parallel evolutionary algorithms (EAs) form a popular class of heuristics with many applications in computationally expensive problems. They involve restricting the flow of information in spatial structures and/or infrequent communication to increase diversity in the whole system. Researchers and practitioners frequently report that parallel EAs speed up computation time, which can lead to better solution quality. Despite the successes and long history, it is essential to have a formal understanding of the running time of evolutionary algorithms with mutation and/or crossover in parallel to gain insight into the capabilities and limitations of parallel EAs.
 This means rigorous running time analysis with asymptotic bounds on the running time to compare different implementations of parallel EAs and assess the speedup gained from parallelization in a rigorous manner. The work takes a broader view to consider the speedup gained from parallelization for various common pseudoboolean functions and function classes of varying difficulty.
 A general method is presented for proving upper bounds on the parallel running time of parallel EAs. The latter is defined as the number of generations until the parallel EA finds the global optimum for the first time, allowing us to estimate the speedup gained from parallelization. The speedup is defined as the ratio of the expected parallel running time in the island model to the expected running time of a single island. It is also used to determine how to choose the number of islands so that the parallel running time is reduced as much as possible while still maintaining an asymptotically optimal speedup.
 The method is based on the fitness-level method and partitions, which are simple and well-known tools for the analysis of evolutionary algorithms. The work first derives a general upper bound on parallel EAs based on fitness levels, tailored towards different spatial structures often used in fine-grained cellular evolutionary algorithms on parallel architectures like ring graphs. The theorem assumes that islands run elitist algorithms, where in each generation, an island has a chance of transmitting individuals with the best current fitness level to a neighboring island independently with a probability of at least ε, called the transmission probability.
@@ -2399,25 +3168,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Simplified text:
-Nowadays, with more CPU cores available, it's crucial to make parallel computations faster. Parallel evolutionary algorithms (EAs) are commonly used for solving complex problems. They enhance system diversity by limiting information flow or communication. Many experts find that using parallel EAs speeds up computation and improves solutions. Understanding the time it takes for evolutionary algorithms to run in parallel is important to know their capabilities and limitations.
+          <t>Nowadays, with more CPU cores available, it's crucial to make parallel computations faster. Parallel evolutionary algorithms (EAs) are commonly used for solving complex problems. They enhance system diversity by limiting information flow or communication. Many experts find that using parallel EAs speeds up computation and improves solutions. Understanding the time it takes for evolutionary algorithms to run in parallel is important to know their capabilities and limitations.
 Analyzing the running time of parallel EAs is crucial to compare different implementations and measure the speedup gained from parallelization. This analysis helps evaluate the performance of parallel EAs for different types of problems. A method is introduced to set upper limits on the time it takes for parallel EAs to find solutions. This method helps estimate the speedup achieved through parallelization and determine the ideal number of islands for optimal speedup while reducing running time.
 The method, based on fitness levels and partitions, simplifies the analysis of evolutionary algorithms. It provides upper limits on the running time of parallel EAs, considering different spatial structures like ring graphs. By using a transmission probability, the method estimates running times for various settings. The results offer insights into the benefits of parallelization in different scenarios.
 The method is versatile and applicable to various settings, predicting running times for different topologies like ring graphs. It simplifies the analysis process, making it accessible to researchers with less experience. By choosing the right number of islands based on topology and transmission probability, an upper limit on running time can be set, achieving an optimal speedup. The method is demonstrated through simple examples, showing its practical use in solving optimization problems.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16.4894051948052</v>
+        <v>16.45452377850163</v>
       </c>
       <c r="D77" t="n">
-        <v>13.73133819951338</v>
+        <v>13.68642156862746</v>
+      </c>
+      <c r="E77" t="n">
+        <v>614</v>
+      </c>
+      <c r="F77" t="n">
+        <v>272</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25</v>
+      </c>
+      <c r="H77" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Corrected text:
-Broadcasting models of trees are closely related to the reconstruction problem originally studied in statistical physics. Since then, they have found applications in areas including biology (phylogenetic reconstruction), communication theory (studying noisy computation), and impressively, models arising in computer science (studying random constraint satisfaction problems like random SAT, random graph coloring, etc.). The models of trees seem to capture fundamental properties of corresponding models of random hypergraphs.
+          <t>Broadcasting models of trees are closely related to the reconstruction problem originally studied in statistical physics. Since then, they have found applications in areas including biology (phylogenetic reconstruction), communication theory (studying noisy computation), and impressively, models arising in computer science (studying random constraint satisfaction problems like random SAT, random graph coloring, etc.). The models of trees seem to capture fundamental properties of corresponding models of random hypergraphs.
 The basic problem in studying broadcasting models is to determine the reconstruction/non-reconstruction threshold, i.e., whether the configuration of the root affects the distribution of the configuration of the leaves in the tree. The transition from non-reconstruction to reconstruction can be achieved by appropriately adjusting the parameters of the model. Typically, this transition exhibits threshold behavior. So far, the main focus has been to determine the precise location of the threshold in various models. In this work, the focus is on the coloring model of an ary tree, where the reconstruction/non-reconstruction threshold is precisely known.
 To investigate this phenomenon, we search for a combinatorial reason why information decays in the non-reconstruction regime. The explanation is somewhat elusive, as the combinatorial explanation for the reconstruction regime is already known. Specifically, the combinatorial explanation for the threshold implies a coupling of two broadcasting processes that assign different colors to the root with the probability of disagreements at the leaves reducing as the distance from the root increases. This coupling can be seen as a mapping of the coloring in the first broadcasting process to the coloring in the second one.
 In terms of the study, mapping combinatorially provides a coupling of two broadcasting processes that implies non-reconstruction as well. Based on describing the combinatorial mapping of colorings in two different broadcasting processes, we work inductively considering two levels of the underlying tree at a time. Given color assignments at the root in two processes, the coupling considers the color choices at the vertices at the two levels. The basic idea is to reveal partial information on the decisions of the two processes by investigating small subtrees where the root color assignments and leaves are identically distributed.
@@ -2441,37 +3220,58 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>13.7323768115942</v>
+        <v>13.71152380952381</v>
       </c>
       <c r="D78" t="n">
         <v>12.13423328964614</v>
       </c>
+      <c r="E78" t="n">
+        <v>826</v>
+      </c>
+      <c r="F78" t="n">
+        <v>327</v>
+      </c>
+      <c r="G78" t="n">
+        <v>45</v>
+      </c>
+      <c r="H78" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Corrected text:
-A complex network is a mathematical model where interaction phenomena take place in the real world. It has revealed a powerful computational basis for the analysis of phenomena, making it a critical problem widely studied in the literature. Since the early analysis of complex networks, the identification of communities hidden within the structure of networks has been an important focus. A community can be intuitively understood as a set of entities where each entity is closer to every other entity in the network sense than to entities outside the community. Therefore, communities are groups of entities that presumably share common properties and/or play similar roles within the interacting phenomenon represented. Community detection is important for many reasons, including node classification, which entails grouping entities into homogeneous groups. Group leaders are crucial as group connectors, and communities may correspond to groups of pages on the World Wide Web dealing with related topics. Community discovery has analogies to the clustering problem, a traditional data mining task. Data mining, a clustering unsupervised learning task, aims to partition large sets of data into homogeneous groups or clusters. In fact, community discovery can be viewed as a data mining analysis of graphs: unsupervised classification of nodes. In addition, community discovery is studied as a data mining application in social networks and graph mining applications. While it is still in the early phase of development, community discovery has made contributions from different fields, including statistical physics. Nevertheless, a part of the community discovery problem is classical data mining clustering, where data is in relational form. Thus, in its general form, entities as nodes connected by edges have been thoroughly explored, and spatial proximity needs to be mapped to network proximity, with entities represented as vertices in a graph. The accepted definition of proximity in a network is based on the topology of edges. In this case, the definition of a community is formulated according to the differences in densities of links in different parts of the network. Many networks are found to be nonhomogeneous, consisting of an undifferentiated mass of vertices with distinct groups. Within these groups, there are many edges between vertices, while there are fewer edges between vertices of different groups. The aim of a community detection algorithm, in this case, is to divide the vertices of the network into a number of groups, maximizing the number of edges inside groups and minimizing the number of edges established between vertices of different groups. The concept of groups being desired communities in a network reveals a vague and imprecise complexity in network representations, as novel analytical settings emerge, such as information propagation and multidimensional network analysis. For example, in a temporal evolving setting, two entities can be considered close if they share a common action profile, even if they are not directly connected. Often times, a novel approach to community discovery is designed to face a specific problem, and a developed definition of a community is added to a variety of different definitions. Communities have a number of interesting features, exhibiting hierarchical and overlapping configurations of groups inside a network or graph. If directed edges are included in the graph, it gives importance to the direction while considering relations between entities. Communities can be dynamic (evolving over time) and multirelational (having multiple relations between sets of individuals behaving as isolated entities in relation to the network), thus forming dense communities considering possible relations over time. This results in an extreme richness of definitions and features that lead to the publication of an impressive number of excellent solutions to the community discovery problem. Therefore, it is not surprising to find a significant number of review papers describing methods. We believe that a new point of view is needed to organize the body of knowledge on community detection, shifting the focus on the communities detected and the kind of communities we are interested in detecting. Existing reviews tend to analyze different techniques from a procedural perspective and cluster different algorithms according to their operational method, rather than focusing on the definition of a community adopted in the first place. Nevertheless, there are many different ways to conceive a community within a network. It is acknowledged that authors maintain that "methods require us to know what we are looking for in advance to decide on a measure." "Know what we are looking for" clearly means defining what a community really is. To use a metaphor, existing reviews talk about bricks and mortar to make a building but do not mention the architectural style. In other words, the aim of previous reviews is to talk about people interested in building a new community detection algorithm rather than wanting to use the methods presented in the literature. The aim is precisely the latter, thus choosing to cluster community discovery algorithms considering the reference definition of a community that depends on the kinds of groups we aim to extract from the network. An algorithm should record the characteristics of its output method, highlighting sets of features reviewed in the algorithm that are suitable and unsuitable. Also, general frameworks that provide a community discovery approach as a general technique applicable to graph partitioning algorithms and adding new features to methods are considered. The paper is organized as follows: Section 2 provides a general definition of the community</t>
+          <t>A complex network is a mathematical model where interaction phenomena take place in the real world. It has revealed a powerful computational basis for the analysis of phenomena, making it a critical problem widely studied in the literature. Since the early analysis of complex networks, the identification of communities hidden within the structure of networks has been an important focus. A community can be intuitively understood as a set of entities where each entity is closer to every other entity in the network sense than to entities outside the community. Therefore, communities are groups of entities that presumably share common properties and/or play similar roles within the interacting phenomenon represented. Community detection is important for many reasons, including node classification, which entails grouping entities into homogeneous groups. Group leaders are crucial as group connectors, and communities may correspond to groups of pages on the World Wide Web dealing with related topics. Community discovery has analogies to the clustering problem, a traditional data mining task. Data mining, a clustering unsupervised learning task, aims to partition large sets of data into homogeneous groups or clusters. In fact, community discovery can be viewed as a data mining analysis of graphs: unsupervised classification of nodes. In addition, community discovery is studied as a data mining application in social networks and graph mining applications. While it is still in the early phase of development, community discovery has made contributions from different fields, including statistical physics. Nevertheless, a part of the community discovery problem is classical data mining clustering, where data is in relational form. Thus, in its general form, entities as nodes connected by edges have been thoroughly explored, and spatial proximity needs to be mapped to network proximity, with entities represented as vertices in a graph. The accepted definition of proximity in a network is based on the topology of edges. In this case, the definition of a community is formulated according to the differences in densities of links in different parts of the network. Many networks are found to be nonhomogeneous, consisting of an undifferentiated mass of vertices with distinct groups. Within these groups, there are many edges between vertices, while there are fewer edges between vertices of different groups. The aim of a community detection algorithm, in this case, is to divide the vertices of the network into a number of groups, maximizing the number of edges inside groups and minimizing the number of edges established between vertices of different groups. The concept of groups being desired communities in a network reveals a vague and imprecise complexity in network representations, as novel analytical settings emerge, such as information propagation and multidimensional network analysis. For example, in a temporal evolving setting, two entities can be considered close if they share a common action profile, even if they are not directly connected. Often times, a novel approach to community discovery is designed to face a specific problem, and a developed definition of a community is added to a variety of different definitions. Communities have a number of interesting features, exhibiting hierarchical and overlapping configurations of groups inside a network or graph. If directed edges are included in the graph, it gives importance to the direction while considering relations between entities. Communities can be dynamic (evolving over time) and multirelational (having multiple relations between sets of individuals behaving as isolated entities in relation to the network), thus forming dense communities considering possible relations over time. This results in an extreme richness of definitions and features that lead to the publication of an impressive number of excellent solutions to the community discovery problem. Therefore, it is not surprising to find a significant number of review papers describing methods. We believe that a new point of view is needed to organize the body of knowledge on community detection, shifting the focus on the communities detected and the kind of communities we are interested in detecting. Existing reviews tend to analyze different techniques from a procedural perspective and cluster different algorithms according to their operational method, rather than focusing on the definition of a community adopted in the first place. Nevertheless, there are many different ways to conceive a community within a network. It is acknowledged that authors maintain that "methods require us to know what we are looking for in advance to decide on a measure." "Know what we are looking for" clearly means defining what a community really is. To use a metaphor, existing reviews talk about bricks and mortar to make a building but do not mention the architectural style. In other words, the aim of previous reviews is to talk about people interested in building a new community detection algorithm rather than wanting to use the methods presented in the literature. The aim is precisely the latter, thus choosing to cluster community discovery algorithms considering the reference definition of a community that depends on the kinds of groups we aim to extract from the network. An algorithm should record the characteristics of its output method, highlighting sets of features reviewed in the algorithm that are suitable and unsuitable. Also, general frameworks that provide a community discovery approach as a general technique applicable to graph partitioning algorithms and adding new features to methods are considered. The paper is organized as follows: Section 2 provides a general definition of the community</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Simplified text:
-A complex network is a mathematical model used to study interactions in the real world. It is crucial for analyzing various phenomena and has been extensively studied. Identifying communities within networks has been a key focus since the early stages. Communities are groups of entities with similar connections. Detecting communities is important for tasks like node classification and finding groups on the internet related to specific topics. This process is similar to clustering in data mining, which groups data based on similarities. Community detection involves classifying nodes in a graph without supervision. It is used in social networks and graph mining. The goal is to group nodes with strong connections while keeping different groups separate. Networks can have different densities of links, forming distinct groups. Algorithms aim to maximize connections within groups and minimize connections between different groups. Different fields contribute to community discovery, including statistical physics. Networks are represented as graphs where entities are connected by edges. Proximity is based on edge topology, and communities are defined by differences in link densities. Networks can have hierarchical and overlapping groups. Directed edges give importance to the direction of relationships. Communities can be dynamic and multirelational, evolving over time. Various methods exist for community detection, leading to a variety of solutions. Review papers often focus on techniques rather than the definition of a community. Defining a community is crucial for effective analysis. Approaches should consider the types of groups to extract from the network. Algorithms should highlight their features and be adaptable to different methods. General frameworks can be applied to improve community detection algorithms.</t>
+          <t>A complex network is a mathematical model used to study interactions in the real world. It is crucial for analyzing various phenomena and has been extensively studied. Identifying communities within networks has been a key focus since the early stages. Communities are groups of entities with similar connections. Detecting communities is important for tasks like node classification and finding groups on the internet related to specific topics. This process is similar to clustering in data mining, which groups data based on similarities. Community detection involves classifying nodes in a graph without supervision. It is used in social networks and graph mining. The goal is to group nodes with strong connections while keeping different groups separate. Networks can have different densities of links, forming distinct groups. Algorithms aim to maximize connections within groups and minimize connections between different groups. Different fields contribute to community discovery, including statistical physics. Networks are represented as graphs where entities are connected by edges. Proximity is based on edge topology, and communities are defined by differences in link densities. Networks can have hierarchical and overlapping groups. Directed edges give importance to the direction of relationships. Communities can be dynamic and multirelational, evolving over time. Various methods exist for community detection, leading to a variety of solutions. Review papers often focus on techniques rather than the definition of a community. Defining a community is crucial for effective analysis. Approaches should consider the types of groups to extract from the network. Algorithms should highlight their features and be adaptable to different methods. General frameworks can be applied to improve community detection algorithms.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16.11567584406337</v>
+        <v>16.09289473684211</v>
       </c>
       <c r="D79" t="n">
-        <v>12.15505639097745</v>
+        <v>12.12121212121212</v>
+      </c>
+      <c r="E79" t="n">
+        <v>885</v>
+      </c>
+      <c r="F79" t="n">
+        <v>264</v>
+      </c>
+      <c r="G79" t="n">
+        <v>38</v>
+      </c>
+      <c r="H79" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Corrected text:
-Index doesn't depend on specific family distributions of rewards. I come to propose a policy that achieves near-strong regret in special cases of the restless model. Recently, there has been increasing interest in multi-armed bandit models, partly due to opportunistic spectrum access problems. In these scenarios, a user must choose wireless channels, yet they know nothing about the channel statistics, i.e., whether they are good or bad channels. The rate they may expect to get from each channel could be learned by exploring various channels. Thus, formulated as multi-armed bandit problems, different types of policies have been proposed for choosing spectrum channels.
+          <t>Index doesn't depend on specific family distributions of rewards. I come to propose a policy that achieves near-strong regret in special cases of the restless model. Recently, there has been increasing interest in multi-armed bandit models, partly due to opportunistic spectrum access problems. In these scenarios, a user must choose wireless channels, yet they know nothing about the channel statistics, i.e., whether they are good or bad channels. The rate they may expect to get from each channel could be learned by exploring various channels. Thus, formulated as multi-armed bandit problems, different types of policies have been proposed for choosing spectrum channels.
 In many scenarios where multiple users are accessing channels at the same time, users must be matched to different channels. This is formulated as the combinatorial multi-armed bandit problem. The "index-matching" algorithm is introduced, which instantly determines the matching by solving a sum-index maximization problem that achieves regret uniformly over time. Indeed, in order-optimal settings, users must coordinate as the problem must be solved in a decentralized manner. In these settings, channels are considered as arms, and identical users with iid rewards are considered. Specific types of policies have been proposed to achieve coordination and get regret uniformly over time, assuming nontrivial bounds on the underlying Markov chains are known a priori.
 The regret scales polynomially with the number of users and channels. Surprisingly, the lack of coordination among players asymptotically imposes additional cost in regret. In this paper, we consider a decentralized multi-armed bandit problem where there are distinct arms for players. We consider both iid reward models and a more rested markovian reward model. Players must work together to discover the best arms to play as a team. However, since they are trying to learn over time, they may collide when trying to pick an arm.
 I propose an index-type policy based on a variation of the index at the heart of the distributed bipartite matching algorithm by Bertsekas and the auction algorithm. The regret is asymptotically close to the lower bound; however, this is only known up to this point. This work is still in progress. The paper is organized as follows: in the next section, we present simulation results to numerically evaluate the performance of the algorithm.</t>
@@ -2479,24 +3279,34 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Simplified text:
-An index is suggested that works well in certain cases of the restless model. Interest in multi-armed bandit models has grown due to spectrum access issues. Users in these scenarios must choose wireless channels without knowing their quality. They can learn the channel performance by trying different ones. Various strategies have been proposed for choosing channels in these scenarios.
+          <t>An index is suggested that works well in certain cases of the restless model. Interest in multi-armed bandit models has grown due to spectrum access issues. Users in these scenarios must choose wireless channels without knowing their quality. They can learn the channel performance by trying different ones. Various strategies have been proposed for choosing channels in these scenarios.
 When multiple users are accessing channels simultaneously, they need to be matched to different channels. The "index-matching" algorithm helps with this matching, achieving regret uniformly over time. Coordination is essential in optimal settings, where users must work together in a decentralized manner. Policies have been suggested to facilitate this coordination and minimize regret over time.
 Regret increases with the number of users and channels. Lack of coordination among players can lead to additional regret. This paper explores a decentralized multi-armed bandit problem where players must collaborate to find the best arms. A proposed policy is based on existing algorithms to minimize regret, although further research is ongoing. The paper will present simulation results in the following section to assess the algorithm's performance.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11.15386666666667</v>
+        <v>11.10815656836461</v>
       </c>
       <c r="D80" t="n">
-        <v>10.96253551912568</v>
+        <v>10.89058563535912</v>
+      </c>
+      <c r="E80" t="n">
+        <v>373</v>
+      </c>
+      <c r="F80" t="n">
+        <v>181</v>
+      </c>
+      <c r="G80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Corrected text:
-Various natural and engineered phenomena involve spreading through networks: rumors and news propagate among people linked by various means of communication; diseases diffuse through populations via various modes; plants disperse pollen and seeds, thus spreading genetic traits geographically; riots spread across communities; advertisers aim to disseminate information and products through consumer networks; computer viruses, worms, and software patches also spread across computer networks. Understanding how infections, information, and innovations travel across networks is a subject of extensive study in disciplines ranging from epidemiology, sociology, computer science, physics, and applied mathematics. Many real-world networks exhibit spreading via the interaction of two processes: a local epidemic spreading process within the network and a global infection process due to agents external to the network. For instance, in wireless communication, viruses and worms exploit links due to short-range technologies like Bluetooth, while long-range media like SMS/MMS or the internet can also facilitate the spread. In such cases, the external agency responsible for long-range spread needs to be studied.
+          <t>Various natural and engineered phenomena involve spreading through networks: rumors and news propagate among people linked by various means of communication; diseases diffuse through populations via various modes; plants disperse pollen and seeds, thus spreading genetic traits geographically; riots spread across communities; advertisers aim to disseminate information and products through consumer networks; computer viruses, worms, and software patches also spread across computer networks. Understanding how infections, information, and innovations travel across networks is a subject of extensive study in disciplines ranging from epidemiology, sociology, computer science, physics, and applied mathematics. Many real-world networks exhibit spreading via the interaction of two processes: a local epidemic spreading process within the network and a global infection process due to agents external to the network. For instance, in wireless communication, viruses and worms exploit links due to short-range technologies like Bluetooth, while long-range media like SMS/MMS or the internet can also facilitate the spread. In such cases, the external agency responsible for long-range spread needs to be studied.
 To analyze the effect of an external agency on the spread within networks, a model can be decomposed into two distinct components: the basic intrinsic spread component, where infection spreads locally via epidemic dynamics based on the graph topology, and the external spread component involving external agents that can carry the infection far from its origin, aiding in global spread. In order to study the impact of an external agency on epidemic spread, it is crucial to quantify the effect of the number of omniscient (network-state aware) and adversarial agents that aim to maximize the rate of infection. By distinguishing between intrinsic spread and external spread, the model can be applied to various situations involving heterogeneous modes of spreading.
 The spreading process can be characterized by considering a graph where spreading starts at a designated node and then commences spreading through two interacting dynamics: intrinsic epidemic spread and external infection. Assuming that these processes evolve continuously over time with inter-event times drawn from independent exponential distributions, the intrinsic spread follows a susceptible-infected (SI) dynamics model, while the external infection process allows every node in the graph to potentially get infected at different rates, including zero, at any given instant. This leads to a network state consisting of a set of nodes that are infected, thereby determining the intrinsic spreading process and the dimensional vector of external infection rates per node, representing the spreading power or virulence of external agents. The external agents' virulence can be measured as the sum rate of external infection, subject to certain restrictions, and can be chosen as a function of the network state history either omnisciently or adversarially to minimize spreading time.
 The model discussed in this paper generalizes various spreading models involving external sources and highlights the surprising finding that on spatially-constrained graphs (i.e., high diameter/low conductance), a simple random strategy can be near-optimal with only logarithmic factors. In summary, the contributions of this paper follow a large body of prior work analyzing and designing studies on spreading epidemic processes in networks. Several authors have studied the behavior and effects of intrinsic epidemic processes in networks through numerical simulations, data analysis, and electronic pathways. Works on analyzing epidemic behavior have been complemented by studies seeking to control processes for various purposes. For example, various authors have looked into designing algorithms for optimal seeding in networks to maximize the spread in SIR epidemic settings where epidemics are undesirable. This topic is of interest in worst-case behavior scenarios where processes are controlled by an adversary, such as in the case of malware. The study of modeling adversarially-controlled deterministic epidemics on complete graphs or one-way epidemic spreading and dissemination in networks is an important primitive in communication engineering. Notable studies consider settings where network nodes are simultaneously mobile, and designing gossip algorithms for analyzing rumor spreading in fully-connected graphs has been a focus of interest.</t>
@@ -2504,24 +3314,34 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Simplified text:
-Different phenomena like rumors, diseases, pollen, riots, advertisements, and computer issues spread through networks. Experts from various fields study how things spread through networks. Networks often have two types of spreading: one that happens within the network and another caused by external factors. For example, viruses use short-range links like Bluetooth and long-range methods like SMS/MMS or the internet to spread. To understand external factors' impact on spreading within networks, a model can be split into two parts: the basic spread within the network and the spread caused by external factors. By looking at both types of spreading, the model can be used in different situations where things spread in different ways.
+          <t>Different phenomena like rumors, diseases, pollen, riots, advertisements, and computer issues spread through networks. Experts from various fields study how things spread through networks. Networks often have two types of spreading: one that happens within the network and another caused by external factors. For example, viruses use short-range links like Bluetooth and long-range methods like SMS/MMS or the internet to spread. To understand external factors' impact on spreading within networks, a model can be split into two parts: the basic spread within the network and the spread caused by external factors. By looking at both types of spreading, the model can be used in different situations where things spread in different ways.
 The spread process is studied using a graph, beginning from a specific point and spreading through two dynamics: internal epidemic spread and external infection. These processes change over time with separate time intervals, following a susceptible-infected (SI) model for intrinsic spread and allowing different infection rates for each node for external infection. This creates a network state with infected nodes and rates of infection per node, representing how powerful external agents are in spreading. The speed of spreading can be controlled by the virulence of external agents, which can be chosen to minimize spreading time based on the network's history.
 This model simplifies various spreading scenarios with external sources, showing that on specific graphs, a simple random strategy can work well. The paper contributes to the study of epidemic processes in networks, analyzing spreading behavior through simulations, data analysis, and pathways. Researchers have also worked on controlling epidemics in networks, such as seeding algorithms to limit the spread in undesirable scenarios like malware attacks. Understanding adversarial-controlled epidemics and spreading in networks is crucial, especially in mobile node settings or when analyzing rumor spreading in connected graphs.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18.80173913043479</v>
+        <v>18.76742652038467</v>
       </c>
       <c r="D81" t="n">
-        <v>13.29266666666667</v>
+        <v>13.22377181208054</v>
+      </c>
+      <c r="E81" t="n">
+        <v>642</v>
+      </c>
+      <c r="F81" t="n">
+        <v>298</v>
+      </c>
+      <c r="G81" t="n">
+        <v>23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Corrected text:
-Technology widely used in modern power systems plays a significant role in increasing annual savings. The integration of renewable sources of energy and the desire for automation in fault detection and recovery pose new challenges in planning and controlling electrical power systems. Power grids need to operate in stochastic environments with varying operating conditions while still ensuring system reliability and security. Optimization of power systems encompasses a broad spectrum of problem domains, including optimal power flow, LMP-based market calculations, switching, real-time security-constrained dispatch, day-ahead security-constrained unit commitment, configuration, capacitor placement, and expansion planning. Vulnerability analysis and power system restoration are among the many uses of active power, while others consider active and reactive power. Restricting attention to active power is often appealing computationally. The nonlinear AC power flow equations can be approximated by a set of linear equations defining the so-called Linearized DC (LDC) model. Under normal operating conditions, adjustment for line losses in the LDC model produces a reasonably accurate approximation of the AC power flow equations for active power.
+          <t>Technology widely used in modern power systems plays a significant role in increasing annual savings. The integration of renewable sources of energy and the desire for automation in fault detection and recovery pose new challenges in planning and controlling electrical power systems. Power grids need to operate in stochastic environments with varying operating conditions while still ensuring system reliability and security. Optimization of power systems encompasses a broad spectrum of problem domains, including optimal power flow, LMP-based market calculations, switching, real-time security-constrained dispatch, day-ahead security-constrained unit commitment, configuration, capacitor placement, and expansion planning. Vulnerability analysis and power system restoration are among the many uses of active power, while others consider active and reactive power. Restricting attention to active power is often appealing computationally. The nonlinear AC power flow equations can be approximated by a set of linear equations defining the so-called Linearized DC (LDC) model. Under normal operating conditions, adjustment for line losses in the LDC model produces a reasonably accurate approximation of the AC power flow equations for active power.
 Mixed-integer programming (MIP) models offer a variety of optimization applications in power system operations and are particularly attractive due to their computational efficiency. Linear programming (LP) and MIP solvers have significantly improved in the last two decades. However, the LDC model does not capture reactive power and is hence used in applications like capacitor placement and voltage stability. Additionally, the accuracy of the LDC model outside of normal operating conditions is open to discussion, which raises concerns for applications in transmission planning, vulnerability analysis, and power restoration. The use of the LDC model to approximate AC power flow equations often leads to infeasible or suboptimal solutions, prompting the use of nonlinear programming techniques such as decomposition, model relaxation, and genetic algorithms to ensure feasibility. These techniques often require extensive tuning in the problem domain and may consume significant computational resources to guarantee global optimality.
 This paper aims to bridge the gap between the LDC model and AC power flow equations by presenting linear programs to approximate AC power flow equations. The linear programs, called LPAC models, are based on two ideas: coupling the magnitudes in the coupled equations of active/reactive power and using Taylor series to approximate the remaining nonlinear terms in the power flow equations. The LPAC models are evaluated experimentally on a number of standard benchmarks under normal operating conditions and various contingencies. Experimental comparisons with AC solutions on standard IEEE Matpower benchmarks show that LPAC models are highly accurate for active/reactive power, phase angles, and voltage magnitudes. Moreover, the LPAC models can be integrated into MIP models for applications involving reasoning about reactive power, such as capacitor placement and topological changes in transmission planning, vulnerability analysis, and power restoration.
 The rest of the paper presents a rigorous and systematic derivation of LPAC models and experimental results showcasing the accuracy in applications like power restoration and capacitor placement. The paper includes a section on accuracy and a section presenting "proof-of-concept" experiments on power restoration and capacitor placement to demonstrate the potential applications of LPAC models. Finally, the paper discusses related work in the field.</t>
@@ -2529,47 +3349,67 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Simplified text:
-Modern technology in power systems helps save money each year. Challenges arise from adding renewable energy sources and the need for automated fault detection and recovery in electrical power systems. Power grids must work in changing conditions to ensure reliability and security. Optimizing power systems involves various tasks like managing power flow, market calculations, and security dispatch. Active power is crucial for vulnerability analysis and system restoration. Simplified models like Linearized DC can estimate power flow accurately under normal conditions. 
+          <t>Modern technology in power systems helps save money each year. Challenges arise from adding renewable energy sources and the need for automated fault detection and recovery in electrical power systems. Power grids must work in changing conditions to ensure reliability and security. Optimizing power systems involves various tasks like managing power flow, market calculations, and security dispatch. Active power is crucial for vulnerability analysis and system restoration. Simplified models like Linearized DC can estimate power flow accurately under normal conditions. 
 Mixed-integer programming is efficient for power system optimization. Linearized DC models lack accuracy for reactive power, affecting tasks like capacitor placement and voltage stability. They may not work well outside normal conditions for tasks like transmission planning. To address this, linear programs (LPAC models) are introduced to estimate power flow equations accurately. LPAC models are tested and found accurate for various power system scenarios. They can be used for tasks like power restoration and capacitor placement. The paper details the development of LPAC models, their experimental validation, and potential applications.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18.35648487894781</v>
+        <v>18.32855268690607</v>
       </c>
       <c r="D82" t="n">
-        <v>13.48747508305648</v>
+        <v>13.43983193277311</v>
+      </c>
+      <c r="E82" t="n">
+        <v>517</v>
+      </c>
+      <c r="F82" t="n">
+        <v>170</v>
+      </c>
+      <c r="G82" t="n">
+        <v>23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Corrected text:
-Suppose a needed code sequence has symbols from an unknown alphabet generated by an unknown memoryless data-generating source. If we knew the alphabet, one solution would be to code the sequence using sequential Dirichlet estimators. The suggested technique has the property \(\log_2\frac{\rho_{cx}^{x_1:n}}{\mu^{x_1:n}} \leq \frac{|cx|_1}{2} \log_2 n - |cx|_1\). This equation suggests, however, that the performance of this particular coding technique is poor for small values. This problem occurs much less often when using context-based techniques for data compression. In many contexts, only a small subset of the full alphabet of symbols is possible. For example, in modeling English text, it is rare to see the character "u" immediately following the letter "q." If we knew this in advance, we could code using the equation, which would, of course, give a greater redundancy.
+          <t>Suppose a needed code sequence has symbols from an unknown alphabet generated by an unknown memoryless data-generating source. If we knew the alphabet, one solution would be to code the sequence using sequential Dirichlet estimators. The suggested technique has the property \(\log_2\frac{\rho_{cx}^{x_1:n}}{\mu^{x_1:n}} \leq \frac{|cx|_1}{2} \log_2 n - |cx|_1\). This equation suggests, however, that the performance of this particular coding technique is poor for small values. This problem occurs much less often when using context-based techniques for data compression. In many contexts, only a small subset of the full alphabet of symbols is possible. For example, in modeling English text, it is rare to see the character "u" immediately following the letter "q." If we knew this in advance, we could code using the equation, which would, of course, give a greater redundancy.
 The sequential sub-alphabet estimator proposed provides a natural Bayesian solution to this dilemma. Instead of using a superset alphabet, the technique weights a set of possible sequential Dirichlet estimators whose alphabets are subsets. This leads to an elegant algorithm for coding redundancy. Using a uniform prior over sub-alphabets, unfortunately, this method requires time to process a new symbol, making it space-prohibitive in situations where the alphabet is large. It would be better to focus on time and space complexity instead.
 The paper introduces a simple method, the sparse sequential Dirichlet estimator, that achieves similar redundancy properties to the sequential sub-alphabet estimator while being able to process symbols in time using less space.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rewritten text:
-Imagine a code needs symbols from an unknown alphabet created by an unknown source. If we knew the alphabet, one way to code the sequence is by using sequential Dirichlet estimators. Yet, this method is not efficient for small values. Context-based techniques for data compression are more effective in such cases. For instance, in English text modeling, certain symbol combinations are rare, like "u" following "q." Knowing this beforehand can lead to better coding.
+          <t>Imagine a code needs symbols from an unknown alphabet created by an unknown source. If we knew the alphabet, one way to code the sequence is by using sequential Dirichlet estimators. Yet, this method is not efficient for small values. Context-based techniques for data compression are more effective in such cases. For instance, in English text modeling, certain symbol combinations are rare, like "u" following "q." Knowing this beforehand can lead to better coding.
 A proposed sub-alphabet estimator offers a Bayesian solution by weighing possible sequential Dirichlet estimators with smaller alphabets. This simplifies coding redundancy. However, using a uniform prior over sub-alphabets can be time-consuming, especially with large alphabets. Prioritizing time and space efficiency is crucial.
 A new method, the sparse sequential Dirichlet estimator, achieves similar redundancy benefits as the sub-alphabet estimator but processes symbols faster with less space.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>11.91169105691057</v>
+        <v>11.83924590163935</v>
       </c>
       <c r="D83" t="n">
-        <v>11.75562056737589</v>
+        <v>11.67857913669065</v>
+      </c>
+      <c r="E83" t="n">
+        <v>244</v>
+      </c>
+      <c r="F83" t="n">
+        <v>139</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Corrected text:
-Let a finite set of points in the plane be given, and let Yao graph and Theta graph be directed geometric graphs with the vertex set as the directed edges defined by an integer parameter. As follows: fix a coordinate system and consider rays obtained by a counterclockwise rotation from the positive axis with the origin. The angles are integers. A pair of successive rays defines a cone whose apex is the origin. In total, there are cones. To translate the cones into nodes, connect the "nearest neighbor" cones using directed edges rooted in them, which yields an outdegree. Yao and Theta graphs differ in the way "nearest neighbor" is defined. In the case of Yao graphs, the neighbor nearest to a cone point is the one that minimizes the Euclidean distance; ties are broken arbitrarily. In the case of Theta graphs, the neighbor nearest to a cone point is the one that minimizes the Euclidean distance orthogonal projection onto the bisector; ties are broken in favor of the neighbor that minimizes it. In the case of two neighbors, one is arbitrarily selected, and henceforth, refer to Yao graph and Theta graph.
+          <t>Let a finite set of points in the plane be given, and let Yao graph and Theta graph be directed geometric graphs with the vertex set as the directed edges defined by an integer parameter. As follows: fix a coordinate system and consider rays obtained by a counterclockwise rotation from the positive axis with the origin. The angles are integers. A pair of successive rays defines a cone whose apex is the origin. In total, there are cones. To translate the cones into nodes, connect the "nearest neighbor" cones using directed edges rooted in them, which yields an outdegree. Yao and Theta graphs differ in the way "nearest neighbor" is defined. In the case of Yao graphs, the neighbor nearest to a cone point is the one that minimizes the Euclidean distance; ties are broken arbitrarily. In the case of Theta graphs, the neighbor nearest to a cone point is the one that minimizes the Euclidean distance orthogonal projection onto the bisector; ties are broken in favor of the neighbor that minimizes it. In the case of two neighbors, one is arbitrarily selected, and henceforth, refer to Yao graph and Theta graph.
 Figure shows a simple example with four points and nonempty cones. A point is used in constructing the fixed delineated cone apex containing points. Note that point lies strictly outside a circle centered at a radius. The orthogonal projection onto the bisector is closer compared to the orthogonal projection onto the bisector. Consequently, selects. See Fig. Similarly, favors cone apex containing, whereas selects. In interest, Theta graphs have increased advancement in wireless network technologies, needing efficient communication.
 Among the properties of communication graphs required include short paths between pairs of nodes to enable efficient routing. Low degree reduces MAC-level contention interference. Lie in one cone apex, keeps and discards; similarly, keeps and discards. The degree is bounded by outgoing edges and incoming edges. Although popular, the sparse Theta graph is defined analogously. Ignore the moment direction of edges; view graphs as undirected graphs. They present interesting properties along with the main result.
 Brief definitions: Let an undirected graph with a vertex set, length of a path is the sum of the Euclidean lengths of constituent edges. For a fixed real, say a spanner is a pair of points with a path whose length, the value called the stretch factor. Graphs that are known as spanners have specific ranges listed in a table. Graph, Graph, and parameter are multicolumns. A spanner has a constant real value. Take the first step towards proving a spanner. The main result of the spanner is a first positive result regarding the spanning property of sparse Yao graphs.
@@ -2581,24 +3421,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Simplified text:
-Given a set of points on a plane, Yao and Theta graphs are directed geometric graphs with vertices as directed edges based on an integer parameter. The graphs differ in how they define "nearest neighbor." In Yao graphs, it's the closest neighbor by Euclidean distance, while in Theta graphs, it's the closest neighbor by orthogonal projection distance onto the bisector.
+          <t>Given a set of points on a plane, Yao and Theta graphs are directed geometric graphs with vertices as directed edges based on an integer parameter. The graphs differ in how they define "nearest neighbor." In Yao graphs, it's the closest neighbor by Euclidean distance, while in Theta graphs, it's the closest neighbor by orthogonal projection distance onto the bisector.
 Yao graphs and Theta graphs are used in wireless networks for efficient communication due to their properties like short paths for routing and low interference. The graphs are defined similarly, with edges considered undirected. A spanner in graph theory is a pair of points connected by a path with a specific length factor. The main result focuses on sparse Yao graphs as efficient spanners for communication networks.
 These graphs are defined by a set of points and a positive integer parameter. The cones in the graphs are regions between successive rays starting from the positive axis. Yao spanners ensure short paths between endpoints, making them valuable for network communication.</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.591536675552497</v>
+        <v>8.566060344827591</v>
       </c>
       <c r="D84" t="n">
-        <v>9.725358851674642</v>
+        <v>9.603001613770846</v>
+      </c>
+      <c r="E84" t="n">
+        <v>800</v>
+      </c>
+      <c r="F84" t="n">
+        <v>169</v>
+      </c>
+      <c r="G84" t="n">
+        <v>58</v>
+      </c>
+      <c r="H84" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Corrected text:
-In this study, we explore a novel theoretical model for studying the performance of distributed storage management systems in data centers with limited capacities compared to the storage space requested by users. Prior schemes such as "balls-into-bins" have been used for load balancing but neither consider the capacities of bins (consumers) nor multiple balls in a bin. In the future performance of the system, balls represent producer requests allocated to bins that restrict the number of balls as a function of the number of bins. The problem consists of finding an optimal assignment of online producer requests to consumers via weighted edges in a complete bipartite graph while ensuring that the total size of requests assigned to a consumer does not exceed the limited capacity.
+          <t>In this study, we explore a novel theoretical model for studying the performance of distributed storage management systems in data centers with limited capacities compared to the storage space requested by users. Prior schemes such as "balls-into-bins" have been used for load balancing but neither consider the capacities of bins (consumers) nor multiple balls in a bin. In the future performance of the system, balls represent producer requests allocated to bins that restrict the number of balls as a function of the number of bins. The problem consists of finding an optimal assignment of online producer requests to consumers via weighted edges in a complete bipartite graph while ensuring that the total size of requests assigned to a consumer does not exceed the limited capacity.
 The metric used to measure the performance in this model is the minimization of the weighted sum of requests assigned to edges based on the loads and corresponding weights. We first explore optimal offline algorithms and follow it up with an analysis of different online techniques by comparing their performance with the optimal offline solution. Linear programming primal-dual algorithms are used to calculate the optimal offline solution in time. The randomized algorithms are used in the online case, where we propose randomized online algorithms where consumers are selected based on edge probabilities. In case of consumer failures due to capacity exhaustion, we evaluate the performance of randomized schemes using probabilistic analysis.
 The performance of online algorithms is measured using competitive analysis assuming an oblivious adversary who knows the results of the randomized algorithms produced. In our simplified model where consumers have equal capacities on average, the competitive ratio compares the average cost of the output produced by an online algorithm to the minimum cost of the optimal offline solution.
 The edge weight and distance achieved using the algorithm are equal probability selecting available edges. Extending the model to arbitrary consumer capacities, we show the average case competitive ratio. This theoretical model provides insights for storage and cloud system designers on how different attributes such as producer requests, edge weights, and consumer capacities affect the overall read and write performance of distributed storage management systems over a period of time.
@@ -2610,8 +3460,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Revised text:
-This study introduces a new model to analyze the efficiency of storage systems in data centers with limited space compared to user demands. Traditional methods like "balls-into-bins" don't fully account for capacity restrictions and allocation complexities. Our model assigns user requests to storage units while ensuring each unit doesn't exceed its limit.
+          <t>This study introduces a new model to analyze the efficiency of storage systems in data centers with limited space compared to user demands. Traditional methods like "balls-into-bins" don't fully account for capacity restrictions and allocation complexities. Our model assigns user requests to storage units while ensuring each unit doesn't exceed its limit.
 We measure performance by minimizing the total assigned requests based on their weights. We compare offline and online algorithms, using linear programming for offline solutions and randomized methods for online scenarios. We evaluate the performance of these algorithms, considering scenarios like capacity limits and failure due to overloading.
 In the online analysis, we consider competitive scenarios where online algorithms are compared to an optimal offline solution. We show that in a simplified model with equal capacities, the competitive ratio determines the cost effectiveness of the online algorithm compared to the optimal offline one.
 The model aims to provide guidance for designers on how various factors impact the performance of storage systems over time. It explores interactions between data centers, producers, and virtual machines, focusing on optimizing data allocation for efficient read and write operations. By utilizing high-quality network links and strategic allocation of requests, the model aims to minimize the total distance of requests allocated.
@@ -2620,17 +3469,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16.31920986526604</v>
+        <v>16.28741493794935</v>
       </c>
       <c r="D85" t="n">
-        <v>15.16389254385965</v>
+        <v>15.15830167844523</v>
+      </c>
+      <c r="E85" t="n">
+        <v>753</v>
+      </c>
+      <c r="F85" t="n">
+        <v>283</v>
+      </c>
+      <c r="G85" t="n">
+        <v>29</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Corrected text:
-Brain-machine interfaces (BMI) systems convey users' brain signals to make choices related to movement. The relationship between the recorded brain activity and movement may change as a result of neuronal adaptation due to changes in attention, motivation, and vigilance of the user. Moreover, the neural activity-movement relationship might be affected by changes in behavioral context, leading to changes in the recording nonstationarities that decrease the accuracy of the movements decoded from brain activity.
+          <t>Brain-machine interfaces (BMI) systems convey users' brain signals to make choices related to movement. The relationship between the recorded brain activity and movement may change as a result of neuronal adaptation due to changes in attention, motivation, and vigilance of the user. Moreover, the neural activity-movement relationship might be affected by changes in behavioral context, leading to changes in the recording nonstationarities that decrease the accuracy of the movements decoded from brain activity.
 A solution to this problem is employing adaptive decoders, i.e., decoders that learn online from the measured neuronal activity during the operation of the BMI system to track the changing tuning parameters. Adaptive BMI decoders can be categorized according to the signals employed for adaptation: supervised adaptive decoders use the user's known movement intentions in conjunction with the corresponding neuronal signals for autonomous daily operation of BMI systems.
 However, in daily operation, neither the user's precise movement intention nor the movement goal is known to the BMI decoder; otherwise, a decoder would not be needed. Therefore, supervised decoders adapt during calibration phases where the BMI system guides the user to perform prespecified movements. In contrast, unsupervised adaptive decoders track tuning changes automatically without a calibration phase. For example, they can benefit from multimodal distributions of neuronal signals by performing probabilistic unsupervised clustering.
 Earlier work in BMI research has already addressed the issue of online adaptivity. For instance, Taylor et al. labeled the recorded neural activity, while DiGiovanna et al. and Gage et al. employed supervised adaptive Kalman filters to update decoder parameters to match neural activity cues such as tone frequency. DiGiovanna et al. and Sanchez et al. utilized reward signals to train the decoder based on successful completion of discrete choice tasks. The decoder adaptation follows a reinforcement learning algorithm rather than a supervised one to determine whether the target has been reached.
@@ -2644,8 +3504,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Simplified text:
-Brain-machine interfaces (BMI) help users control movements using their brain signals. Changes in attention, motivation, and vigilance can affect how well the brain signals match movement. Also, changes in behavior can make it harder to accurately decode movements from brain signals.
+          <t>Brain-machine interfaces (BMI) help users control movements using their brain signals. Changes in attention, motivation, and vigilance can affect how well the brain signals match movement. Also, changes in behavior can make it harder to accurately decode movements from brain signals.
 To tackle this, adaptive decoders adjust to changes in brain activity during BMI use. These decoders can be supervised, using known movement intentions, or unsupervised, tracking changes automatically.
 In previous research, methods like labeling neural activity and using reward signals have been explored to adapt decoders during BMI tasks. The goal is to match brain activity with intended movements effectively.
 The decoder in a BMI system adapts without knowing specific movement intentions. It adjusts based on brain signals and the environment. Strategies for unsupervised adaptive decoding include tracking brain changes continuously, using user behavior as a guide, and developing cost-effective measures for online adaptation.
@@ -2653,17 +3512,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14.79207649348452</v>
+        <v>14.77283531409168</v>
       </c>
       <c r="D86" t="n">
-        <v>12.98683908045977</v>
+        <v>12.91395348837209</v>
+      </c>
+      <c r="E86" t="n">
+        <v>620</v>
+      </c>
+      <c r="F86" t="n">
+        <v>172</v>
+      </c>
+      <c r="G86" t="n">
+        <v>38</v>
+      </c>
+      <c r="H86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Corrected text:
-The COMPASS fixed-target experiment at CERN SPS uses tertiary high-energy, high-intensity muon and hadron beams aimed at studying nucleon spin structure and hadron spectroscopy. The experiment has been taking data since 2002, operating around seven months per year with shutdown periods for operations, maintenance, and preparation for the following data-taking period. The experimental setup is described in detail with detector devices and the experiment's environmental parameters monitored and controlled using the experiment-wide DCS system. This system ensures coherent, safe, and efficient operation of the experiment by providing clear and prompt information to the shift crew, detector experts, and the COMPASS control room.
+          <t>The COMPASS fixed-target experiment at CERN SPS uses tertiary high-energy, high-intensity muon and hadron beams aimed at studying nucleon spin structure and hadron spectroscopy. The experiment has been taking data since 2002, operating around seven months per year with shutdown periods for operations, maintenance, and preparation for the following data-taking period. The experimental setup is described in detail with detector devices and the experiment's environmental parameters monitored and controlled using the experiment-wide DCS system. This system ensures coherent, safe, and efficient operation of the experiment by providing clear and prompt information to the shift crew, detector experts, and the COMPASS control room.
 The complex subsystems of the experiment have dedicated standalone control systems that communicate with the DCS, providing relevant parameters. Since 2003, COMPASS DCS has been the exclusive responsibility of the LIPLISBON group participating in the collaboration. The structure and organization of COMPASS are in contrast to the larger LHC experiments, with a hierarchical structure and distributed responsibilities. The DCS provides a graphical user interface for the shift crew in the COMPASS control room and detector experts to access the relevant parameters monitored in the normal, alert, or visually indicated state using a color code and acoustically.
 The history and straightforward way to change the state settings and thresholds define the alert architecture of the DCS as shown in Figure. The following sections describe different layers in detail: supervisory layer, frontends layer, and devices layer. In the supervisory layer, data is collected, managed, and published on different servers for analysis and display to end-users. This layer includes visual and sound alarms in case of alarm states and also provides archiving of data to an external database.
 The settings and alarm limits are also managed by the system, PVSSIIFootnote (Prozesssteuerung und Prozessvisualisierung). A commercial SCADA system chosen by CERN for use in LHC experiments after a thorough evaluation process. The COMPASS experiment adopted PVSS in the early development phase as a benchmark for experiments at CERN. In fact, with the LHC starting in 2010, COMPASS became the biggest experiment operating at CERN for years. Several versions of PVSS have been used in COMPASS and were previously tested and validated by the CERN COMPASS DCS group.
@@ -2677,8 +3547,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Simplified text:
-The COMPASS experiment at CERN studies nucleon spin structure and hadron spectroscopy using muon and hadron beams. Since 2002, the experiment runs for about seven months each year with breaks for maintenance. The setup includes detectors and environmental controls managed by the DCS system for safe and efficient operation.
+          <t>The COMPASS experiment at CERN studies nucleon spin structure and hadron spectroscopy using muon and hadron beams. Since 2002, the experiment runs for about seven months each year with breaks for maintenance. The setup includes detectors and environmental controls managed by the DCS system for safe and efficient operation.
 The experiment's subsystems have their control systems linked to the DCS to share data. The DCS has been managed by the LIPLISBON group since 2003. It differs from the LHC experiments in its structure and responsibilities, offering a user-friendly interface for monitoring.
 The DCS has layers for data collection, display, and alarms, managed by a SCADA system chosen by CERN. PVSS helps manage settings and alarms. Data is stored for analysis and replicated for backup in various formats for offline use.
 The DCS is crucial for monitoring devices spread over a large area in the experiment. Different communication protocols like CAN, CAENet, and Modbus are used. Various devices like sensors and power supplies are monitored to ensure smooth operation.
@@ -2686,17 +3555,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15.54336717428088</v>
+        <v>15.5191475826972</v>
       </c>
       <c r="D87" t="n">
-        <v>10.732</v>
+        <v>10.6549696969697</v>
+      </c>
+      <c r="E87" t="n">
+        <v>786</v>
+      </c>
+      <c r="F87" t="n">
+        <v>198</v>
+      </c>
+      <c r="G87" t="n">
+        <v>36</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Corrected text:
-Game theory has become a central tool for modeling multi-agent systems in artificial intelligence. Non-cooperative game theory is considered an appropriate mathematical framework to formally study and survey core solution concepts. The emphasis on Nash equilibrium (NE) serves a descriptive role, as it is a stable outcome for the overall behavior of systems involving self-interested individuals interacting strategically in distributed settings where direct global control is not possible. NE is also often used in predictive roles, serving as the basis for what one might call causal strategic inference, inferring results of causal interventions and stable actions or behaviors in strategic settings.
+          <t>Game theory has become a central tool for modeling multi-agent systems in artificial intelligence. Non-cooperative game theory is considered an appropriate mathematical framework to formally study and survey core solution concepts. The emphasis on Nash equilibrium (NE) serves a descriptive role, as it is a stable outcome for the overall behavior of systems involving self-interested individuals interacting strategically in distributed settings where direct global control is not possible. NE is also often used in predictive roles, serving as the basis for what one might call causal strategic inference, inferring results of causal interventions and stable actions or behaviors in strategic settings.
 The computation and analysis of NE games are of significant interest to the computational game theory community within AI. The introduction of compact representations in game theory over the last decade has extended the potential of computational algorithmic game theory for large-scale practical applications often encountered in real-world scenarios. Part of these game model representations is analogous to probabilistic graphical models widely used in machine learning and AI. A fundamental property of compact representations in games is the exploitation of conditional independence: a player's payoff function values are determined by the actions of the player's neighbors, making the payoff conditionally independent of actions of non-neighboring players, given the actions of neighboring players.
 Graphical games, introduced within the AI community a decade ago, constitute an example of one of the first and arguably most influential graphical models in game theory. Gametheoretic graphical models include game networks and multi-agent influence diagrams (MAIDs). Considerable progress has been made on problems related to computing classical equilibrium solution concepts like NE in graphical games. Indeed, graphical games have played a prominent role in establishing computational complexity in computing NE for general normal-form games. An example of a recent computational application of non-cooperative gametheoretic graphical modeling is causal strategic inference (CSI), which motivates the work in this paper.
 The work proposes a new approach to studying influence identification of "influential" individuals (nodes) in large social networks. This approach strictly follows a gametheoretic sense and relies on non-cooperative game theory with the central concept of pure-strategy Nash equilibria (PSNE). The paper primarily concerns PSNE, and whenever the term "equilibrium" or "equilibria" is used without qualification, it refers to PSNE. The final changes approximate a predictor of stable behavior in mathematical sociology. Models of this nature have recently gained interest and are studied within computer science, specifically in relation to diffusion and contagion processes. The proposed approach provides an alternative to models based on the explicit modeling of complex dynamics to explain stable outcomes that could have arisen or could be achieved. Instead, it focuses on the "bottom line" or end-state stable outcomes and steady-state behavior.
@@ -2708,8 +3588,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Simplified text:
-Game theory is widely used in artificial intelligence to model interactions among self-interested individuals in distributed systems. The Nash equilibrium is a key concept as a stable outcome in these scenarios. It helps predict results and stable behaviors in strategic settings. 
+          <t>Game theory is widely used in artificial intelligence to model interactions among self-interested individuals in distributed systems. The Nash equilibrium is a key concept as a stable outcome in these scenarios. It helps predict results and stable behaviors in strategic settings. 
 In computational game theory, analyzing Nash equilibrium games is crucial. Compact game representations have improved computational algorithms for real-world applications. These representations are similar to models used in machine learning. They focus on players' interactions with their neighbors, making their payoffs dependent on nearby players' actions.
 Graphical games, a significant concept in game theory, have been instrumental in computing equilibrium solutions like Nash equilibrium. They've been crucial in understanding computational complexity in finding equilibria. An example application is causal strategic inference, which is explored in this paper.
 The study proposes a new method to identify influential individuals in social networks using game theory principles like pure-strategy Nash equilibria. It focuses on stable behaviors and end-state outcomes in mathematical sociology, offering an alternative approach to complex dynamics modeling.
@@ -2720,17 +3599,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15.90780487804878</v>
+        <v>15.88706601466993</v>
       </c>
       <c r="D88" t="n">
-        <v>14.54794709441396</v>
+        <v>14.52249256479253</v>
+      </c>
+      <c r="E88" t="n">
+        <v>818</v>
+      </c>
+      <c r="F88" t="n">
+        <v>307</v>
+      </c>
+      <c r="G88" t="n">
+        <v>39</v>
+      </c>
+      <c r="H88" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Corrected text:
-Information theoretic aspects of wireless networks have recently received wide attention due to the widespread applications of wireless networks, along with many recent results in the network information theory area. This has motivated the development of efficient strategies for practical applications. Fading is often used for modeling wireless channels, and two different coding strategies have been introduced.
+          <t>Information theoretic aspects of wireless networks have recently received wide attention due to the widespread applications of wireless networks, along with many recent results in the network information theory area. This has motivated the development of efficient strategies for practical applications. Fading is often used for modeling wireless channels, and two different coding strategies have been introduced.
 The first strategy was originally named "cooperation," later known as "decode-forward" (DF), where a relay that decodes the transmitted message cooperates with the source to send the message in the next block. The second strategy is "compress-forward" (CF), where a relay compresses the received signal and sends it to the destination.
 In addition to studying DF and CF strategies, the authors have also studied the "amplify-forward" (AF) strategy in a Gaussian relay network for AF relaying. In AF relaying, the relay amplifies and transmits the received signal to the destination. Despite its simplicity, AF relaying performs well in many scenarios.
 Elgamal and Zahedi employed AF relaying in a single relay channel and derived a single-letter characterization of the maximum achievable rate using a simple linear scheme, assuming frequency division and an additive white Gaussian channel. The paper also investigates various relaying strategies in conjunction with a broadcast approach, such as a multi-layer coding scheme for a dual-hop channel with parallel relays, where neither the source nor the main transmitter has direct access to the forward channels.
@@ -2745,8 +3635,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Simplified text:
-Wireless networks' information aspects are gaining attention due to their widespread use and recent advancements. This has led to the creation of effective strategies for practical use. Fading is commonly used to model wireless channels, with two main coding methods: "decode-forward" (DF) and "compress-forward" (CF) strategies.
+          <t>Wireless networks' information aspects are gaining attention due to their widespread use and recent advancements. This has led to the creation of effective strategies for practical use. Fading is commonly used to model wireless channels, with two main coding methods: "decode-forward" (DF) and "compress-forward" (CF) strategies.
 Another strategy, "amplify-forward" (AF), involves signal amplification in relay networks, showing good performance in various scenarios. Elgamal and Zahedi explored AF in a single relay channel, achieving high rates with a simple linear scheme. The study also examined different relaying strategies like DF, AF, hybrid DF-AF (DAF), and CF.
 DF relaying decodes and cooperates on common layers, proven to be optimal for transmitting uncorrelated signals through relays. AF relaying, combined with continuous-layer coding, addresses rate maximization challenges effectively. The study also explores network performance without conditions, focusing on throughput and rate using space-time code permutation relays.
 A hybrid strategy, DAF, combines broadcast, decoding, and amplification methods, while multi-layer CF relaying decodes and compresses signals. The paper proposes achievable rates and upper bounds for the relaying strategies, showing that CF relaying can outperform DAF under certain conditions.
@@ -2754,17 +3643,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>14.2727650660651</v>
+        <v>14.23845905172414</v>
       </c>
       <c r="D89" t="n">
-        <v>14.06807936507937</v>
+        <v>14.01048366431775</v>
+      </c>
+      <c r="E89" t="n">
+        <v>640</v>
+      </c>
+      <c r="F89" t="n">
+        <v>223</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29</v>
+      </c>
+      <c r="H89" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Corrected text:
-Katsumi Takabatake, AIST (National Institute of Advanced Industrial Science and Technology) Human Technology Research Institute, proposes a simple and versatile model for learning the structure parameters of multivariate distributions from a given data set. Learning a Markov network from a data set is a simple problem, as Markov networks rigorously represent Markov properties. The rigor imposes complex constraints on the design of networks. The proposed model removes these constraints, acquiring important information geometry aspects. The proposed parameter structure learning algorithms are simple to execute based solely on local computations of nodes. Experiments demonstrate that the algorithms work appropriately.
+          <t>Katsumi Takabatake, AIST (National Institute of Advanced Industrial Science and Technology) Human Technology Research Institute, proposes a simple and versatile model for learning the structure parameters of multivariate distributions from a given data set. Learning a Markov network from a data set is a simple problem, as Markov networks rigorously represent Markov properties. The rigor imposes complex constraints on the design of networks. The proposed model removes these constraints, acquiring important information geometry aspects. The proposed parameter structure learning algorithms are simple to execute based solely on local computations of nodes. Experiments demonstrate that the algorithms work appropriately.
 The purpose of the paper is to propose a versatile mechanism for learning multivariate distributions from data sets. The learning mechanism is based on simple parameter learning algorithms and simple structure learning algorithms for Markov networks. These are versatile tools for modeling multivariate probability distributions and do not require assumptions except the Markov property. The paper treats finite discrete systems where variables take finite discrete values. However, appropriately learning a Markov network from a given data set is simple (Koller &amp; Friedman, 2009). 
 The paper proposes a new approach that avoids difficulties in designing learning algorithms. Firstly, a new network system named the "firing process network" is proposed, obtained by relaxing the constraints of Markov networks. The proposed learning algorithms are illustrated to work appropriately, and the information geometry aspects of the firing process network are presented. Additionally, parameter learning and structure learning algorithms are introduced, along with information criteria to ensure that the structure learning algorithm does not overfit. 
 The experimental demonstrations provided in the paper show how the proposed model works appropriately. The firing process network consists of nodes indexed by numbers representing node variables with conditional probability tables. The firing process network is formulated with a directed graph, nodes representing information sources, and edges representing the set of node numbers included. 
@@ -2776,8 +3676,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Simplified text:
-Katsumi Takabatake from AIST suggests a straightforward model for understanding multivariate distributions from data. Learning a Markov network from data is usually complex, but the proposed model simplifies this process. It allows for easy parameter and structure learning, focusing on local node computations. Experiments show that these algorithms work well.
+          <t>Katsumi Takabatake from AIST suggests a straightforward model for understanding multivariate distributions from data. Learning a Markov network from data is usually complex, but the proposed model simplifies this process. It allows for easy parameter and structure learning, focusing on local node computations. Experiments show that these algorithms work well.
 The paper aims to introduce a flexible way to learn multivariate distributions using simple algorithms for Markov networks. It focuses on finite discrete systems and avoids making assumptions beyond the Markov property. The proposed approach removes the challenges of designing learning algorithms by introducing the "firing process network." This network relaxes Markov network constraints. The model's effectiveness is demonstrated through experiments.
 The firing process network includes nodes representing variables with conditional probability tables. This network is structured as a directed graph where nodes are data sources and edges connect node numbers. The model distribution in this network is determined by manifolds, different from Markov networks. The paper emphasizes a simple parameter learning algorithm's effectiveness in certain conditions.
 Using samples from data sets, the firing process network is compared in complete and incomplete cases. The model's simplicity is highlighted, along with discussions on balancing model requirements. Information criteria like MDL and AIC are used to evaluate the model, with a greedy algorithm finding optimal information sources.
@@ -2785,17 +3684,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15.07004247876062</v>
+        <v>15.04182445141066</v>
       </c>
       <c r="D90" t="n">
-        <v>13.07653923541248</v>
+        <v>13.03792299898683</v>
+      </c>
+      <c r="E90" t="n">
+        <v>550</v>
+      </c>
+      <c r="F90" t="n">
+        <v>282</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Corrected text:
-It is worth noting that performance diffusion algorithms have already been studied in detail in earlier works. In contrast to noncooperative strategies in a centralized framework where a fusion center has access to data collected across the network, in a noncooperative setting, nodes have access to individual data. Therefore, finding conditions under which diffusion strategies perform well in comparison to centralized solutions is generally a demanding task. We start the study by considering initially the case of two interacting adaptive agents. Though structurally simple, two-node networks are important. For instance, two-antenna receivers are prevalent in many communication systems where data received by the antennas could be either transferred to a central processor for cooperative processing or processed locally by the antennas. The mode of processing can lead to better performance.
+          <t>It is worth noting that performance diffusion algorithms have already been studied in detail in earlier works. In contrast to noncooperative strategies in a centralized framework where a fusion center has access to data collected across the network, in a noncooperative setting, nodes have access to individual data. Therefore, finding conditions under which diffusion strategies perform well in comparison to centralized solutions is generally a demanding task. We start the study by considering initially the case of two interacting adaptive agents. Though structurally simple, two-node networks are important. For instance, two-antenna receivers are prevalent in many communication systems where data received by the antennas could be either transferred to a central processor for cooperative processing or processed locally by the antennas. The mode of processing can lead to better performance.
 The results in this article aim to provide answers to questions. In addition, two-node adaptive agents can serve as good models for estimates combined by master nodes that connect larger subnetworks together. It is also useful for work in the literature examining the performance of combinations of two adaptive filters. The reason for studying adaptive networks with challenging dynamics is to achieve richer results. The work reveals that distributed diffusion LMS strategies outperform centralized block incremental LMS strategies with proper selection of combination weights. The expressions for combination weights end up depending on the knowledge of noise variances, which are generally unavailable to nodes. Nevertheless, these expressions suggest useful adaptive constructions.
 Motivated by this analysis, we propose an adaptive method for adjusting combination weights relying solely on available data. Simulation results illustrate the findings and refer to the two nodes where nodes 1 and 2 are assumed to measure data that satisfies a linear regression model in the form: 
 \[ \mathbf{s}_k = \beta_s + \mathbf{u}_k + \boldsymbol{\epsilon}_k \]
@@ -2818,45 +3728,65 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Simplified text:
-Studying performance diffusion algorithms has been done before. In a centralized setup, a fusion center has network-wide data, while in a noncooperative scenario, nodes have individual data. Comparing diffusion strategies to centralized ones is challenging. We start with a basic case of two interacting adaptive agents. Two-node networks are significant, like dual-antenna communication systems. Processing data locally or centrally affects performance.
+          <t>Studying performance diffusion algorithms has been done before. In a centralized setup, a fusion center has network-wide data, while in a noncooperative scenario, nodes have individual data. Comparing diffusion strategies to centralized ones is challenging. We start with a basic case of two interacting adaptive agents. Two-node networks are significant, like dual-antenna communication systems. Processing data locally or centrally affects performance.
 This article aims to answer questions and model master nodes connecting subnetworks. It also relates to research on two adaptive filters. Studying adaptive networks with complex dynamics leads to valuable outcomes. Distributed diffusion LMS strategies outperform centralized block incremental LMS strategies with proper combination weights. The weights depend on noise variances, usually unknown to nodes, but offer useful adaptive methods.
 A new adaptive method adjusts combination weights based on available data only. Simulations focus on two nodes measuring data fitting a linear regression model. The assumption is that one node has less noise than the other. Each node uses the LMS algorithm to estimate an unknown parameter. The algorithm's steady-state performance is evaluated based on mean-square error (MSE). The MSE, error quantities, and performance metrics are defined.
 The errors are linked, showing that MSE and EMSE are related to noise variance. Performance metrics can be examined under the assumption that the known values are approximated well. Nodes using the same stepsize and data from the same distribution are considered.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>14.3154500777605</v>
+        <v>14.27262652106084</v>
       </c>
       <c r="D91" t="n">
-        <v>11.40305418719212</v>
+        <v>11.35795031055901</v>
+      </c>
+      <c r="E91" t="n">
+        <v>641</v>
+      </c>
+      <c r="F91" t="n">
+        <v>230</v>
+      </c>
+      <c r="G91" t="n">
+        <v>25</v>
+      </c>
+      <c r="H91" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Corrected text:
-HPM results come via traces, hardware metrics, machine parameters, and microbenchmarking, all of equal importance. A performance model core loop is constructed, and data is successively refined and adapted through a benchmarking optimization process. Hardware performance monitoring (HPM) is regarded as state-of-the-art advanced tool to guide code optimizations, with countless publications on HPM-based optimization efforts. A structured method using hardware events is often missing, with one exception being the use of cache miss events, popular since memory access is regarded as a major bottleneck in modern architectures. In fact, miss events are often seen as useful metrics in HPM, and many optimization efforts solely focus on minimizing cache miss ratios and performance tuning via a runtime approach. Work attempts to apply statistical methods like regression analysis to achieve automatic application characterization based on HPM. This paper presents a holistic view on the use of HPM in a sensible way, suggesting that HPM is one aspect embedded in a structured performance engineering approach. The central idea is iterative development of a diagnostic performance model to enforce a better understanding of code properties and hardware capabilities, leading to a deeper understanding of how code interacts with a given architecture. HPM is one important source of information to improve understanding. It is important to stress that HPM, in many cases, provides meaningful related information, such as microbenchmark results and static code analysis. The following will concentrate on the role HPM plays in order to identify performance properties and problems, and implement structured optimization efforts with new ideas. We believe that an emphasis on "patterns" will help tackle problems that are easily recognized using automatic tools focused on HPM. Concentrating on typical patterns identification in a structured performance engineering approach has been published in detail elsewhere. Hardware performance counters are available in every modern microprocessor design, allowing for the measurement of many, sometimes hundreds, of metrics related to the way code is executed on hardware. Although many metrics are unimportant for developers writing numerical simulation code, they are useful for assessing resource utilization and general performance properties. There is a large variety of tools, both basic and advanced, that allow easy access to HPM data and even provide optimization advice derived from measurements. Fortunately, although there is considerable variation in the kinds of hardware events available on different processors, even from the same manufacturer, a rather small subset is sufficient to identify prevalent performance problems in serial and parallel code on available modern processor designs. This paper is organized as follows: Section 1 introduces a non-exhaustive list of performance patterns and typical metric signatures. Section 2 presents two case studies from different sectors of computational science. Section 3 gives a summary and outlook on future work. Given sufficient experience, simple and lightweight tools are often adequate to accomplish the goals described. Hence, we restrict ourselves to x86 architectures on Linux OS and employ the LikwidPerfCtr tool from the Likwid toolsuite. Likwid is a collection of command-line programs that facilitate performance-oriented program development in production x86 multicore environments on Linux. The concept of event sets is connected with derived metrics implemented in LikwidPerfCtr, which means that performance groups fit well with the signature approach presented in this paper. We will go into details on how we employ LikwidPerfCtr, as tools and frameworks do similar things.</t>
+          <t>HPM results come via traces, hardware metrics, machine parameters, and microbenchmarking, all of equal importance. A performance model core loop is constructed, and data is successively refined and adapted through a benchmarking optimization process. Hardware performance monitoring (HPM) is regarded as state-of-the-art advanced tool to guide code optimizations, with countless publications on HPM-based optimization efforts. A structured method using hardware events is often missing, with one exception being the use of cache miss events, popular since memory access is regarded as a major bottleneck in modern architectures. In fact, miss events are often seen as useful metrics in HPM, and many optimization efforts solely focus on minimizing cache miss ratios and performance tuning via a runtime approach. Work attempts to apply statistical methods like regression analysis to achieve automatic application characterization based on HPM. This paper presents a holistic view on the use of HPM in a sensible way, suggesting that HPM is one aspect embedded in a structured performance engineering approach. The central idea is iterative development of a diagnostic performance model to enforce a better understanding of code properties and hardware capabilities, leading to a deeper understanding of how code interacts with a given architecture. HPM is one important source of information to improve understanding. It is important to stress that HPM, in many cases, provides meaningful related information, such as microbenchmark results and static code analysis. The following will concentrate on the role HPM plays in order to identify performance properties and problems, and implement structured optimization efforts with new ideas. We believe that an emphasis on "patterns" will help tackle problems that are easily recognized using automatic tools focused on HPM. Concentrating on typical patterns identification in a structured performance engineering approach has been published in detail elsewhere. Hardware performance counters are available in every modern microprocessor design, allowing for the measurement of many, sometimes hundreds, of metrics related to the way code is executed on hardware. Although many metrics are unimportant for developers writing numerical simulation code, they are useful for assessing resource utilization and general performance properties. There is a large variety of tools, both basic and advanced, that allow easy access to HPM data and even provide optimization advice derived from measurements. Fortunately, although there is considerable variation in the kinds of hardware events available on different processors, even from the same manufacturer, a rather small subset is sufficient to identify prevalent performance problems in serial and parallel code on available modern processor designs. This paper is organized as follows: Section 1 introduces a non-exhaustive list of performance patterns and typical metric signatures. Section 2 presents two case studies from different sectors of computational science. Section 3 gives a summary and outlook on future work. Given sufficient experience, simple and lightweight tools are often adequate to accomplish the goals described. Hence, we restrict ourselves to x86 architectures on Linux OS and employ the LikwidPerfCtr tool from the Likwid toolsuite. Likwid is a collection of command-line programs that facilitate performance-oriented program development in production x86 multicore environments on Linux. The concept of event sets is connected with derived metrics implemented in LikwidPerfCtr, which means that performance groups fit well with the signature approach presented in this paper. We will go into details on how we employ LikwidPerfCtr, as tools and frameworks do similar things.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Simplified text:
-Hardware Performance Monitoring (HPM) gathers data using various methods like traces, machine metrics, and benchmarks. It helps optimize code by focusing on improving performance, especially by reducing cache misses. HPM is vital for understanding how code interacts with hardware. By using statistical methods like regression analysis, it helps in automatic application characterization. HPM plays a significant role in identifying performance issues and implementing optimization strategies. It provides valuable information for improving code understanding and performance. Different tools are available to access and analyze HPM data easily. This paper discusses performance patterns, case studies, and future work related to HPM. It focuses on x86 architectures on Linux using the LikwidPerfCtr tool from the Likwid toolsuite, which simplifies performance analysis for multicore systems.</t>
+          <t>Hardware Performance Monitoring (HPM) gathers data using various methods like traces, machine metrics, and benchmarks. It helps optimize code by focusing on improving performance, especially by reducing cache misses. HPM is vital for understanding how code interacts with hardware. By using statistical methods like regression analysis, it helps in automatic application characterization. HPM plays a significant role in identifying performance issues and implementing optimization strategies. It provides valuable information for improving code understanding and performance. Different tools are available to access and analyze HPM data easily. This paper discusses performance patterns, case studies, and future work related to HPM. It focuses on x86 architectures on Linux using the LikwidPerfCtr tool from the Likwid toolsuite, which simplifies performance analysis for multicore systems.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>15.5845652173913</v>
+        <v>15.552</v>
       </c>
       <c r="D92" t="n">
-        <v>13.76634959349594</v>
+        <v>13.70420661157025</v>
+      </c>
+      <c r="E92" t="n">
+        <v>550</v>
+      </c>
+      <c r="F92" t="n">
+        <v>121</v>
+      </c>
+      <c r="G92" t="n">
+        <v>26</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Corrected text:
-Sensor networks are one of the important technologies introduced this century that have promoted advances in wireless communications and the pervasive diffusion of smart sensors. Wireless sensor networks are largely used nowadays for a variety of purposes such as environmental and habitat surveillance, health security monitoring, localization, targeting, and event detection. A sensor network basically consists of the deployment of a large number of small devices called sensors, with the ability to perform measurements, simple computations, store data, and communicate with other devices. In this paper, the focus is on ad hoc networks, which involve communication among local sensors connected to a restricted number of sensors. This kind of cooperation allows them to perform elaborate operations in a self-organized way without centralized supervision or a data fusion center, leading to substantial energy and economic savings in processors and communication links. This allows for the construction of large sensor networks at a contained cost.
+          <t>Sensor networks are one of the important technologies introduced this century that have promoted advances in wireless communications and the pervasive diffusion of smart sensors. Wireless sensor networks are largely used nowadays for a variety of purposes such as environmental and habitat surveillance, health security monitoring, localization, targeting, and event detection. A sensor network basically consists of the deployment of a large number of small devices called sensors, with the ability to perform measurements, simple computations, store data, and communicate with other devices. In this paper, the focus is on ad hoc networks, which involve communication among local sensors connected to a restricted number of sensors. This kind of cooperation allows them to perform elaborate operations in a self-organized way without centralized supervision or a data fusion center, leading to substantial energy and economic savings in processors and communication links. This allows for the construction of large sensor networks at a contained cost.
 One problem addressed in ad hoc sensor networking is distributed estimation, where the goal is to estimate an unknown physical parameter, such as the temperature in a room or the position of an object, using the sensing capabilities of the network. Each sensor performs an exact measurement and shares it with other sensors to establish communication. By iterating and sharing this information, a consensus is reached without the need for a centralized coordinator or data fusion center. Mathematical models of the problem must consider the presence of noise in measurements, which can naturally corrupt or introduce inaccuracies. There may also be constraints in the network in terms of communication, energy, bandwidth limitations, and the necessity for quantization and data compression.
 Another important issue is the classification of sensors. Sensors can be classified into different classes based on their peculiar properties, such as processing capabilities. The classification allows for labeling procedures to determine the affiliation of a sensor, which can be used for clustering purposes, rebalancing computation load among network sensors, or in distributed estimation scenarios. The underlying idea is that each sensor performs a measurement of a parameter and iteratively updates its estimation based on the information it receives from other sensors.
 In this paper, a model is considered where sensors perform measurements of an unknown global parameter with Gaussian random noise. The sensors aim to estimate the configuration of the parameter. The paper also introduces the calibration problem, where sensors perform noisy linear measurements of an unknown vector or matrix with noise, aiming to estimate the latter. The calibration problem is studied in particular cases, such as estimation of Gaussian mixtures' parameters in distributed versions of the Expectation-Maximization (EM) algorithm.
@@ -2872,17 +3802,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17.14416760462499</v>
+        <v>17.11747947454844</v>
       </c>
       <c r="D93" t="n">
         <v>13.63623419461243</v>
       </c>
+      <c r="E93" t="n">
+        <v>672</v>
+      </c>
+      <c r="F93" t="n">
+        <v>214</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Corrected text:
-Traditional architectures for large-scale storage rely on systems that provide reliability through block replication. A major disadvantage of replication is the large storage overhead, especially as the amount of stored data is growing faster than the hardware infrastructure, which becomes a major cost bottleneck in data centers. Erasure coding techniques can achieve higher data reliability with considerably smaller storage overhead. Various erasure codes are currently implemented and deployed in production storage clusters and applications. Coding techniques deployed include cloud storage systems like Windows Azure, big data analytics clusters (e.g., Facebook analytics Hadoop cluster), archival storage systems, and peer-to-peer storage systems like Cleversafe and Wuala.
+          <t>Traditional architectures for large-scale storage rely on systems that provide reliability through block replication. A major disadvantage of replication is the large storage overhead, especially as the amount of stored data is growing faster than the hardware infrastructure, which becomes a major cost bottleneck in data centers. Erasure coding techniques can achieve higher data reliability with considerably smaller storage overhead. Various erasure codes are currently implemented and deployed in production storage clusters and applications. Coding techniques deployed include cloud storage systems like Windows Azure, big data analytics clusters (e.g., Facebook analytics Hadoop cluster), archival storage systems, and peer-to-peer storage systems like Cleversafe and Wuala.
 Classical erasure codes such as Reed-Solomon, Color, and Black codes are well understood but are highly suboptimal in distributed storage settings. For example, Facebook analytics Hadoop cluster has deployed Reed-Solomon encoding, where for every 8 units of stored data, 8 units of repair traffic are generated, approximately equal to 20% of the total network traffic. Traditional erasure codes are optimized for node repairs, and the main reason why they are widely deployed in current storage systems is due to three major repair cost metrics identified in recent literature: the number of bits communicated over the network (repair bandwidth), the number of bits read for repair, and the number of nodes participating in the repair process (repair locality).
 These metrics are relevant for different systems, and the fundamental limits are not completely understood. This work focuses on the repair locality metric, considering the code length, information symbols, and symbol locality reconstructed by accessing symbols in the code. For example, a Maximum Distance Separable (MDS) code has trivial locality for every symbol (information symbol locality) and all symbols (all-symbol locality). Different repair metrics optimize alternative objectives that may be useful for various storage systems depending on specific architectures and workloads.
 Locality allows for repairs by communicating with a small subset of nodes. However, codes like Color and Black, with small locality, are suboptimal in terms of repair bandwidth and disk I/O metrics. In this paper, Locally Repairable Codes (LRCs) must either sacrifice code distance or use more storage compared to MDS codes to achieve a low locality. A recent alternative family of storage codes seems practically applicable and offers higher storage efficiency. Codes with small repair bandwidth, such as LRCs, have the benefit of simple designs that are easily implementable in distributed file systems like Hadoop.
@@ -2894,25 +3835,35 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Simplified text:
-Traditional large-scale storage systems use block replication for reliability, which can lead to high storage costs as data volumes grow. Erasure coding offers a more efficient way to ensure data reliability with less storage overhead. Various erasure coding techniques are used in different storage systems like cloud storage, big data analytics, and peer-to-peer storage.
+          <t>Traditional large-scale storage systems use block replication for reliability, which can lead to high storage costs as data volumes grow. Erasure coding offers a more efficient way to ensure data reliability with less storage overhead. Various erasure coding techniques are used in different storage systems like cloud storage, big data analytics, and peer-to-peer storage.
 Common erasure codes like Reed-Solomon are not the most efficient in distributed storage setups. They generate a lot of repair traffic, impacting network efficiency. The repair cost metrics, such as repair bandwidth and locality, play a significant role in choosing the right coding technique for different storage systems.
 Repair locality is a key metric in optimizing storage codes. Locally Repairable Codes (LRCs) offer a balance between repair efficiency and storage space, making them suitable for systems like Hadoop. These codes streamline repairs by communicating with fewer nodes, unlike codes with lower repair efficiency.
 This work explores the trade-offs between code distance, repair efficiency, and code locality. It presents new insights into LRC design and functionality, providing a foundation for more efficient storage solutions.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>14.06604081875167</v>
+        <v>14.04273444712469</v>
       </c>
       <c r="D94" t="n">
-        <v>12.83867318435754</v>
+        <v>12.7625</v>
+      </c>
+      <c r="E94" t="n">
+        <v>819</v>
+      </c>
+      <c r="F94" t="n">
+        <v>177</v>
+      </c>
+      <c r="G94" t="n">
+        <v>41</v>
+      </c>
+      <c r="H94" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Corrected text:
-Vibration suppression is nowadays regarded as an important issue in many technical fields, ranging from the robust aerospace industry to delicate nanotechnology. Unsuppressed vibrations are traditionally a key source of noise pollution, leading to issues such as aging mechanical components and even life-threatening failures in transport vehicles, machining instruments, and more. In micro and nanotechnology, progress relies on high-precision devices that essentially require efficient vibration control.
+          <t>Vibration suppression is nowadays regarded as an important issue in many technical fields, ranging from the robust aerospace industry to delicate nanotechnology. Unsuppressed vibrations are traditionally a key source of noise pollution, leading to issues such as aging mechanical components and even life-threatening failures in transport vehicles, machining instruments, and more. In micro and nanotechnology, progress relies on high-precision devices that essentially require efficient vibration control.
 Contemporary vibration control techniques are mostly based on passive methods using elements like viscoelastic dampers and springs. Conversely, conventional active feedback and feedforward control principles are rather inexpensive, require an external source of energy, and are bulky and inefficient at low frequencies. On the other hand, conventional active methods achieve excellent efficiency but come with a high expense, technical complexity, high costs, and lower reliability.
 To bridge the gap between conventional passive and active vibration control methods, a promising new approach called semi-active methods has emerged. This heralds the dawn of a new era in vibration control methods. However, while semi-active methods have been suggested, they remain confined to research laboratories. In this article, a study is presented on a semi-active vibration suppression method that utilizes a piezoelectric bulk actuator.
 The vibration suppression effect is achieved by first inserting the piezoelectric actuator into the vibrating structure or object to isolate the vibrations. Secondly, by connecting the piezoelectric actuator to an active external shunt circuit that controls the effective elastic stiffness of the actuator. The aforementioned method for suppressing vibration transmission was introduced by Hagood and von Flotow in noise and vibration control devices.
@@ -2925,8 +3876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Simplified text:
-Vibration control is crucial in various technical fields, from aerospace to nanotechnology, to reduce noise and prevent mechanical issues. In high-precision areas like nanotechnology, effective vibration management is essential.
+          <t>Vibration control is crucial in various technical fields, from aerospace to nanotechnology, to reduce noise and prevent mechanical issues. In high-precision areas like nanotechnology, effective vibration management is essential.
 Typically, passive methods like viscoelastic dampers are used for vibration control. Active methods are efficient but costly and complex. A new approach, semi-active methods, combines features of both to improve vibration control.
 A study on a semi-active vibration control method using a piezoelectric actuator is introduced. By inserting the actuator into the object and connecting it to a control circuit, vibrations can be minimized effectively.
 This method reduces resonant frequency transmissibility of vibrations, similar to passive methods. It offers efficient vibration suppression at low frequencies and simpler design tools for noise control systems.
@@ -2934,39 +3884,60 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15.82441726545381</v>
+        <v>15.79878329328766</v>
       </c>
       <c r="D95" t="n">
-        <v>14.08968543046358</v>
+        <v>14.04041946308725</v>
+      </c>
+      <c r="E95" t="n">
+        <v>631</v>
+      </c>
+      <c r="F95" t="n">
+        <v>149</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31</v>
+      </c>
+      <c r="H95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Corrected text:
-Rapidly growing wireless data demand has led to saturation in the radio frequency (RF) spectrum. Visible Light Communication (VLC) has become a promising candidate to complement conventional RF communication, especially for indoor medium-range data transmission. VLC uses white Light Emitting Diodes (LEDs), which already provide illumination and are quickly becoming the dominant lighting source to transmit data. At the receiving end, a Photodiode (PD) or image sensor is used as a light detector. VLC offers many advantages, including low-cost frontends, energy-efficient transmission, a huge Terahertz (THz) bandwidth, and electromagnetic interference and eye safety constraints like infrared. VLC employs simple, low-cost Intensity Modulation with Direct Detection (IMDD) techniques, where the signal intensity is modulated with phase information. The transmitter's white LED converts the amplitude electrical signal intensity into an optical signal, and the receiver's PD or image sensor generates an electrical signal proportional to the intensity of the received optical signal. IMDD requires the electric signal to be real-valued and unipolar (positive-valued). 
+          <t>Rapidly growing wireless data demand has led to saturation in the radio frequency (RF) spectrum. Visible Light Communication (VLC) has become a promising candidate to complement conventional RF communication, especially for indoor medium-range data transmission. VLC uses white Light Emitting Diodes (LEDs), which already provide illumination and are quickly becoming the dominant lighting source to transmit data. At the receiving end, a Photodiode (PD) or image sensor is used as a light detector. VLC offers many advantages, including low-cost frontends, energy-efficient transmission, a huge Terahertz (THz) bandwidth, and electromagnetic interference and eye safety constraints like infrared. VLC employs simple, low-cost Intensity Modulation with Direct Detection (IMDD) techniques, where the signal intensity is modulated with phase information. The transmitter's white LED converts the amplitude electrical signal intensity into an optical signal, and the receiver's PD or image sensor generates an electrical signal proportional to the intensity of the received optical signal. IMDD requires the electric signal to be real-valued and unipolar (positive-valued). 
 Recently, Orthogonal Frequency Division Multiplexing (OFDM) has been considered for VLC, thanks to its ability to boost data rates efficiently and combat intersymbol interference. For OFDM to dominate the signal in the time domain, a Hermitian symmetry condition must be satisfied in the frequency domain. Three methods discussed in the literature create real-valued unipolar OFDM signals from the original signal data by clipping the negative parts of odd subcarriers without information loss. One disadvantage of OFDM is its high Peak-to-Average Power Ratio (PAPR) due to the summation of a large number of terms, which makes it sensitive to nonlinear distortions. The main source of nonlinearity in VLC is the LED, and its nonlinear characteristics can be compensated for with Digital Predistortion (DPD). However, the dynamic range of the physical device is still limited, and if the input signal is outside this range, it is clipped. 
 A number of papers have studied the clipping effects on RF OFDM signals, but there are two important differences in the clipping effects on VLC systems: i) RF baseband signals are complex-valued, whereas time-domain signals in VLC systems are real-valued; and ii) the main power limitation in VLC is the average optical power rather than the average electrical power or peak power in RF communication. Therefore, the theory and analyses developed for RF OFDM are not directly applicable to optical OFDM. Several papers have analyzed LED nonlinearity in DC-OFDM and AC-OFDM compared in terms of bit error rate, power efficiency, bandwidth efficiency, etc. This article investigates the performance of DC-OFDM and AC-OFDM signals in terms of Error Vector Magnitude (EVM), Signal-to-Noise Ratio (SNR), achievable data rates, where EVM is a frequently used performance metric in modern communication standards. EVM is measured through simulations by varying power backoff and biasing levels. The article describes an approach to numerically calculate EVM for DC-OFDM and AC-OFDM, derives the optimum biasing ratio for DC-OFDM, formulates the EVM minimization problem as a convex linear optimization problem to obtain an EVM lower bound. In contrast, achievable data rates for AC-OFDM are subject to average optical power limitations. The first step is to determine the SNR given the data-bearing subcarrier based on Bussgang's theory. Upon this SNR analysis, achievable data rates are derived for an Additive White Gaussian Noise (AWGN) channel and a frequency-selective channel. Finally, the performance of the two optical OFDM techniques is compared.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rewritten text:
-The increasing need for wireless data has filled up the radio frequency spectrum. Visible Light Communication (VLC) is emerging as a good option alongside standard RF communication for indoor data transfer. VLC uses white LEDs for data transfer, taking advantage of their prevalent use for lighting. At the receiving end, a Photodiode (PD) or image sensor detects the light. VLC is cost-effective, energy-efficient, and adheres to safety regulations. It uses basic Intensity Modulation with Direct Detection (IMDD) methods where the signal intensity carries data. Orthogonal Frequency Division Multiplexing (OFDM) is also being explored in VLC for better data rates and less interference. However, OFDM faces challenges like high signal peaks due to many combined terms, especially affected by the LED's nonlinear behavior. Studies on VLC systems differ from RF systems due to signal complexities and power constraints. Various papers have compared different OFDM methods based on performance metrics like Error Vector Magnitude (EVM) and Signal-to-Noise Ratio (SNR). These metrics are vital in evaluating data rates and signal quality, offering insights into potential improvements for VLC systems.</t>
+          <t>The increasing need for wireless data has filled up the radio frequency spectrum. Visible Light Communication (VLC) is emerging as a good option alongside standard RF communication for indoor data transfer. VLC uses white LEDs for data transfer, taking advantage of their prevalent use for lighting. At the receiving end, a Photodiode (PD) or image sensor detects the light. VLC is cost-effective, energy-efficient, and adheres to safety regulations. It uses basic Intensity Modulation with Direct Detection (IMDD) methods where the signal intensity carries data. Orthogonal Frequency Division Multiplexing (OFDM) is also being explored in VLC for better data rates and less interference. However, OFDM faces challenges like high signal peaks due to many combined terms, especially affected by the LED's nonlinear behavior. Studies on VLC systems differ from RF systems due to signal complexities and power constraints. Various papers have compared different OFDM methods based on performance metrics like Error Vector Magnitude (EVM) and Signal-to-Noise Ratio (SNR). These metrics are vital in evaluating data rates and signal quality, offering insights into potential improvements for VLC systems.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>15.85180323159785</v>
+        <v>15.81754954954955</v>
       </c>
       <c r="D96" t="n">
-        <v>12.66803370786517</v>
+        <v>12.59022727272727</v>
+      </c>
+      <c r="E96" t="n">
+        <v>555</v>
+      </c>
+      <c r="F96" t="n">
+        <v>176</v>
+      </c>
+      <c r="G96" t="n">
+        <v>25</v>
+      </c>
+      <c r="H96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Corrected text:
-In recent years, Boolean SAT solving techniques have improved dramatically. Today's SAT solvers are considerably faster and able to manage larger instances than yesterday's. Moreover, encoding and modeling techniques are better understood and increasingly innovative. SAT is currently applied to solve a wide variety of hard practical combinatorial problems, often outperforming dedicated algorithms. The general idea is to encode a typically NP-hard problem instance into a Boolean formula, where solutions correspond to satisfying assignments. Given this encoding, a SAT solver is applied to solve it, tailgating success. SAT technology offers a variety of tools that can be applied to specify and compile problem instances into corresponding SAT instances. For example, a logic-based specification language allows you to specify combinatorial problems in a declarative way. A core system compiler translates these specifications into CNF formulas. General objective tools facilitate this process by providing high-level descriptions of the constraint problem to be solved. Typically, a constraint-based modeling language is introduced and used to model instances, drawing an analogy to programming languages. Given a description, the compiler provides a low-level executable underlying machine context for the formula underlying the SAT/SMT solver.
+          <t>In recent years, Boolean SAT solving techniques have improved dramatically. Today's SAT solvers are considerably faster and able to manage larger instances than yesterday's. Moreover, encoding and modeling techniques are better understood and increasingly innovative. SAT is currently applied to solve a wide variety of hard practical combinatorial problems, often outperforming dedicated algorithms. The general idea is to encode a typically NP-hard problem instance into a Boolean formula, where solutions correspond to satisfying assignments. Given this encoding, a SAT solver is applied to solve it, tailgating success. SAT technology offers a variety of tools that can be applied to specify and compile problem instances into corresponding SAT instances. For example, a logic-based specification language allows you to specify combinatorial problems in a declarative way. A core system compiler translates these specifications into CNF formulas. General objective tools facilitate this process by providing high-level descriptions of the constraint problem to be solved. Typically, a constraint-based modeling language is introduced and used to model instances, drawing an analogy to programming languages. Given a description, the compiler provides a low-level executable underlying machine context for the formula underlying the SAT/SMT solver.
 One obstacle in seeking to optimize CNF encodings derived from high-level descriptions is that in CNF encodings, one does not know where certain bits originate from in the integer value of the original constraint. This limits the ability to apply optimizations that rely on word-level information. Two relevant tools worth mentioning are Sugar, a SAT-based constraint solver used to solve finite domain linear constraint satisfaction problems first encoded into CNF formula and then solved using the MiniSAT solver. Bee, like Sugar, applies optimizations. Sugar is the first system that demonstrates the advantage of adopting the so-called unary order encoding to represent integers. Following this suite, additional novel encoding techniques are introduced to take advantage of previously unobserved properties of the order encoding.
 MiniZinc, a constraint modeling language, is compiled into a variety of solvers' low-level target language, FlatZinc. There are many solvers that exist for FlatZinc, creating a standard source language that loosely follows Bee. Like FlatZinc, the focus of Bee is on a subset of the language relevant to finite domain constraint problems. Presenting the tool Bee as a small, textbf, textsf b, Engurion University textbf, textsf e, Equipropagation-based modeling language, which is similar to Sugar and FlatZinc in concept. Bee maintains two representations of constraints: a model constraint and a Boolean function. Partial evaluation and word-level techniques drive the simplification of the constraint part, whereas Equipropagation simplifies the Boolean part. Finally, the encoding technique selected for a constraint depends on the context to derive the CNF. The name "Bee" refers to the constraint language as well as the compiler to CNF. Bee's constraint solver is applied in combination with a SAT solver to solve finite domain constraint problems. Reports of experiences and applications indicate that using Bee, like the compiler, has two main advantages: on one hand, it facilitates the process of programming and modeling, and on the other hand, given a program model, it simplifies the corresponding CNF. In many cases, it is faster to solve approaches. The tool integrates SWI-Prolog and can be downloaded.</t>
         </is>
@@ -2979,17 +3950,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13.57985337243402</v>
+        <v>13.55061327118852</v>
       </c>
       <c r="D97" t="n">
         <v>11.47442003379936</v>
       </c>
+      <c r="E97" t="n">
+        <v>526</v>
+      </c>
+      <c r="F97" t="n">
+        <v>283</v>
+      </c>
+      <c r="G97" t="n">
+        <v>31</v>
+      </c>
+      <c r="H97" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Corrected text:
-Sampled data design for robust control of a single qubit in engineering information technology at the University of New South Wales Australian Defence Force Academy in Canberra, ACT 2600, Australia.
+          <t>Sampled data design for robust control of a single qubit in engineering information technology at the University of New South Wales Australian Defence Force Academy in Canberra, ACT 2600, Australia.
 Institute of Cybersystems Control, State Key Laboratory of Industrial Control Technology, Zhejiang University, Hangzhou 310027, China.
 Email: daoyidong@gmail.com
 Petersen, School of Engineering Information Technology, University of New South Wales Australian Defence Force Academy in Canberra, ACT 2600, Australia.
@@ -3025,44 +4007,64 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Simplified text:
-Experts from different countries have collaborated on a study focusing on controlling a single qubit in quantum technology. They have designed a method using sampled data for robust control of the qubit, considering various uncertainties like system interactions and decoherence. The study provides insights into different scenarios, including decoherence types like amplitude damping and phase damping. By tailoring the sampling periods, they ensure robustness in controlling the qubit. The approach shows promise for applications in quantum technology, especially in error correction and building reliable quantum gates.
+          <t>Experts from different countries have collaborated on a study focusing on controlling a single qubit in quantum technology. They have designed a method using sampled data for robust control of the qubit, considering various uncertainties like system interactions and decoherence. The study provides insights into different scenarios, including decoherence types like amplitude damping and phase damping. By tailoring the sampling periods, they ensure robustness in controlling the qubit. The approach shows promise for applications in quantum technology, especially in error correction and building reliable quantum gates.
 The study heavily employs concepts like sampled-data design, sliding-mode control, and open quantum systems. Various symbols and terms are used to represent different aspects of quantum systems. The research on quantum control is vital in fields like quantum optics and quantum information, borrowing techniques from classical control theories. Robust control of quantum systems is crucial due to uncertainties present in practical quantum setups. New strategies like sliding mode control are emerging to enhance the resilience of quantum systems against uncertainties.
 The study outlines a method to ensure robust control of a single qubit system despite uncertainties in its operation. It covers technical aspects and conclusions related to open quantum systems. The paper aims to contribute to the field of quantum technology by offering new insights into controlling quantum systems effectively.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>15.17363636363637</v>
+        <v>15.15223958333333</v>
       </c>
       <c r="D98" t="n">
-        <v>13.48744429882045</v>
+        <v>13.42621693121693</v>
+      </c>
+      <c r="E98" t="n">
+        <v>768</v>
+      </c>
+      <c r="F98" t="n">
+        <v>216</v>
+      </c>
+      <c r="G98" t="n">
+        <v>39</v>
+      </c>
+      <c r="H98" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Corrected text:
-Paper presents a conceptual framework and computational algorithm for studying the process of technological evolution and making predictions by mining patent citation networks. Patent data has long been recognized as a rich and potentially fruitful source of information on innovation and technological change. Besides describing and claiming inventions, patents cite previous patents as references, which are relevant in determining whether an invention is sufficiently novel and non-obvious to be patented. These citations are contributed by patentees, patent attorneys, and patent office examiners. Patents are represented as nodes, and citations as edges, forming a growing directed network that aggregates information on technological relationships and progress provided by various players. The methodology seeks to detect incipient technological trends reflected in the citation network and thus predict the emergence of these trends. The proposed method is also useful for analyzing the historical evolution of patented technology, as innovation is frequently deemed a key driver of economic growth and sustainability. Innovation is unpredictable, and investment in it is often risky. The practical implications for particular firms are evident: "The continuous emergence of new technologies and steady growth of technologies suggest that relying on the status quo can be deadly for a firm" and "The biggest dangers for a company are the ones that it doesn't see coming. Understanding threats and anticipating opportunities requires strong peripheral vision." In the long term, understanding the emergence of new technological fields could help orient public policy, direct investment, and reduce risk, resulting in improved economic efficiency. Detecting the emergence of new technological branches is an intrinsically difficult problem; however, recent improvements in computing power and the digitization of patent data make this type of large-scale data mining methodology possible. The approach belongs to the field of predictive analytics, a branch of data mining concerned with predicting future trends. A central element of predictive analytics is the predictor, a mathematical object defined for an individual, organization, or entity employed to predict future behavior. In this paper, we define a "citation vector" for each patent that plays a role as a predictor. The coordinates of the citation vector are proportional to the relative frequency of patents cited within a particular technological category at a specific time. Changes in the citation vector over time reflect the changing role of a particular patented technology as a contributor to later technological development. We hypothesize that patents with similar citation vectors belong to the same technological field. By tracking the development and emergence of technological clusters, we employ clustering algorithms based on a measure of similarity defined using citation vectors to identify the community structure of non-assortative patents that receive citations outside their technological areas. The formation of new clusters corresponds to the emergence of new technological directions. The predictive methodology is able to "predict" the evolution of the "distant" past and the "recent" past. This process, called backtesting, checks if criteria are met and holds promise for predictions of the present and near future. To illustrate the potential of the approach, we demonstrate how the emergence of new technological fields was predicted using patent citation data and backtested using the method to "predict" an emerging technological area later recognized as a new technological class by the US Patent and Trademark Office (USPTO). The patent citation network reflects social activity, and the potential scope and limitations of prediction are different in the natural sciences due to unexpected scientific discoveries, patent laws, the habits of patent examiners, and the pace of economic growth. Many factors influence the development of technology, and the patent network does not explicitly model these correspondingly. Patent grants change the innovative environment and do not incorporate a modeling strategy. The predictive method peers into the relatively short-term future, with the exception of the methodology developed that harnesses assessments of technological relationships made by a large number of participants in the system and attempts to capture a larger picture of emerging grass-roots assessments. We hope to show that it is possible, based purely on structural analysis of patent citation data, to overcome the mentioned difficulties.</t>
+          <t>Paper presents a conceptual framework and computational algorithm for studying the process of technological evolution and making predictions by mining patent citation networks. Patent data has long been recognized as a rich and potentially fruitful source of information on innovation and technological change. Besides describing and claiming inventions, patents cite previous patents as references, which are relevant in determining whether an invention is sufficiently novel and non-obvious to be patented. These citations are contributed by patentees, patent attorneys, and patent office examiners. Patents are represented as nodes, and citations as edges, forming a growing directed network that aggregates information on technological relationships and progress provided by various players. The methodology seeks to detect incipient technological trends reflected in the citation network and thus predict the emergence of these trends. The proposed method is also useful for analyzing the historical evolution of patented technology, as innovation is frequently deemed a key driver of economic growth and sustainability. Innovation is unpredictable, and investment in it is often risky. The practical implications for particular firms are evident: "The continuous emergence of new technologies and steady growth of technologies suggest that relying on the status quo can be deadly for a firm" and "The biggest dangers for a company are the ones that it doesn't see coming. Understanding threats and anticipating opportunities requires strong peripheral vision." In the long term, understanding the emergence of new technological fields could help orient public policy, direct investment, and reduce risk, resulting in improved economic efficiency. Detecting the emergence of new technological branches is an intrinsically difficult problem; however, recent improvements in computing power and the digitization of patent data make this type of large-scale data mining methodology possible. The approach belongs to the field of predictive analytics, a branch of data mining concerned with predicting future trends. A central element of predictive analytics is the predictor, a mathematical object defined for an individual, organization, or entity employed to predict future behavior. In this paper, we define a "citation vector" for each patent that plays a role as a predictor. The coordinates of the citation vector are proportional to the relative frequency of patents cited within a particular technological category at a specific time. Changes in the citation vector over time reflect the changing role of a particular patented technology as a contributor to later technological development. We hypothesize that patents with similar citation vectors belong to the same technological field. By tracking the development and emergence of technological clusters, we employ clustering algorithms based on a measure of similarity defined using citation vectors to identify the community structure of non-assortative patents that receive citations outside their technological areas. The formation of new clusters corresponds to the emergence of new technological directions. The predictive methodology is able to "predict" the evolution of the "distant" past and the "recent" past. This process, called backtesting, checks if criteria are met and holds promise for predictions of the present and near future. To illustrate the potential of the approach, we demonstrate how the emergence of new technological fields was predicted using patent citation data and backtested using the method to "predict" an emerging technological area later recognized as a new technological class by the US Patent and Trademark Office (USPTO). The patent citation network reflects social activity, and the potential scope and limitations of prediction are different in the natural sciences due to unexpected scientific discoveries, patent laws, the habits of patent examiners, and the pace of economic growth. Many factors influence the development of technology, and the patent network does not explicitly model these correspondingly. Patent grants change the innovative environment and do not incorporate a modeling strategy. The predictive method peers into the relatively short-term future, with the exception of the methodology developed that harnesses assessments of technological relationships made by a large number of participants in the system and attempts to capture a larger picture of emerging grass-roots assessments. We hope to show that it is possible, based purely on structural analysis of patent citation data, to overcome the mentioned difficulties.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Simplified text:
-This paper introduces a framework and algorithm for studying technological evolution and making predictions by analyzing patent citation networks. Patents refer to previous patents to show innovation and technology changes. These references help determine if an invention is unique enough to be patented. Patentees, attorneys, and examiners contribute these references. Patents and their references form a network that shows technological progress. This method aims to spot new trends in technology early on and predict their emergence. Understanding the history of patented technology is crucial for economic growth. Innovation is unpredictable and risky. Companies need to adapt to new technologies to survive. Recognizing new technological fields can guide public policy and investments, reducing risks and improving economic efficiency. Recent advances in computing power and patent data digitization make large-scale data analysis possible. This method belongs to predictive analytics, a data mining branch focusing on predicting future trends. A key element is the "citation vector," a predictor based on how patents are cited in a specific field over time. Patents with similar citation patterns are likely in the same technological area. Clustering algorithms help identify new technological directions. This method can predict past and future technological advancements. By analyzing patent data, the emergence of new technological areas can be anticipated. However, predicting technology development has limitations due to various factors like unexpected discoveries and patent laws. The predictive method looks into the short-term future by evaluating the technological relationships seen in patent citations. This method aims to show that analyzing patent data can help overcome these challenges.</t>
+          <t>This paper introduces a framework and algorithm for studying technological evolution and making predictions by analyzing patent citation networks. Patents refer to previous patents to show innovation and technology changes. These references help determine if an invention is unique enough to be patented. Patentees, attorneys, and examiners contribute these references. Patents and their references form a network that shows technological progress. This method aims to spot new trends in technology early on and predict their emergence. Understanding the history of patented technology is crucial for economic growth. Innovation is unpredictable and risky. Companies need to adapt to new technologies to survive. Recognizing new technological fields can guide public policy and investments, reducing risks and improving economic efficiency. Recent advances in computing power and patent data digitization make large-scale data analysis possible. This method belongs to predictive analytics, a data mining branch focusing on predicting future trends. A key element is the "citation vector," a predictor based on how patents are cited in a specific field over time. Patents with similar citation patterns are likely in the same technological area. Clustering algorithms help identify new technological directions. This method can predict past and future technological advancements. By analyzing patent data, the emergence of new technological areas can be anticipated. However, predicting technology development has limitations due to various factors like unexpected discoveries and patent laws. The predictive method looks into the short-term future by evaluating the technological relationships seen in patent citations. This method aims to show that analyzing patent data can help overcome these challenges.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17.12254916985951</v>
+        <v>17.09575651995696</v>
       </c>
       <c r="D99" t="n">
-        <v>13.79297387437466</v>
+        <v>13.76375350140056</v>
+      </c>
+      <c r="E99" t="n">
+        <v>673</v>
+      </c>
+      <c r="F99" t="n">
+        <v>255</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29</v>
+      </c>
+      <c r="H99" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Corrected text:
-Acquiring a signal requires performing many measurements. The number of unknowns in a continuous signal, for instance, translates Nyquist's law: in order to sample perfectly, the sampling rate must be at least twice the maximum frequency present in the signal. This conventional approach underlies virtually all signal acquisition protocols used in physics experiments, audiovisual electronics, medical imaging devices, and compressed sensing (CS) approach triggering a major evolution in signal acquisition. Contrary to common wisdom, according to CS, one can recover signals and images perfectly using far fewer measurements, resulting in gains in time, cost, and precision. This is made possible because CS relies on the fact that many signals of interest contain redundancy, thus having a sparse basis, i.e., they contain many coefficients close to zero when represented in a certain domain. This insight is used in data compression: for example, pictures taken by cameras are strongly compressed in wavelet basis almost without any loss in quality. The idea behind algorithms like JPEG 2000 is to record signals directly in a compressed format, hence the name "compressed sensing", to save memory space and reduce the number of measurements.
+          <t>Acquiring a signal requires performing many measurements. The number of unknowns in a continuous signal, for instance, translates Nyquist's law: in order to sample perfectly, the sampling rate must be at least twice the maximum frequency present in the signal. This conventional approach underlies virtually all signal acquisition protocols used in physics experiments, audiovisual electronics, medical imaging devices, and compressed sensing (CS) approach triggering a major evolution in signal acquisition. Contrary to common wisdom, according to CS, one can recover signals and images perfectly using far fewer measurements, resulting in gains in time, cost, and precision. This is made possible because CS relies on the fact that many signals of interest contain redundancy, thus having a sparse basis, i.e., they contain many coefficients close to zero when represented in a certain domain. This insight is used in data compression: for example, pictures taken by cameras are strongly compressed in wavelet basis almost without any loss in quality. The idea behind algorithms like JPEG 2000 is to record signals directly in a compressed format, hence the name "compressed sensing", to save memory space and reduce the number of measurements.
 The CS approach aims to design measurement protocols to acquire the necessary information of a signal in a compressed form. In the second step, computational power is used to reconstruct the original signal exactly. This step is generally highly nontrivial mathematically. The CS problem is posed as follows: given a component of a signal, one makes measurements grouped by component vector obtained through linear transformation using a measurement matrix. The observer has the freedom to choose the measurement protocol but knows the results of the measurements - values of the vector and matrix. In general, various kinds of noise may be present. The aim is to reconstruct the signal with the least amount of knowledge, inverting the linear system. However, the challenge is to have as few equations as possible concerning the unknowns, making the system underdetermined. Inverse problems are ill-defined. CS, however, deals with sparse signals where the components are mostly non-zero. In the noiseless case, exact reconstruction is possible when the conditions are met. One instance is when the non-zero components of the signal are independent and identically distributed (i.i.d.) real variables drawn from a continuous distribution. The ability to recover signals using a limited number of measurements is crucial in many fields ranging from experimental physics to image processing, astronomy, and systems biology, making CS an attractive concept and a widely used technique.
 CS is based on the development that took place six years ago thanks to works by Candes, Tao, Donoho, and collaborators. They proposed to find a vector satisfying certain constraints with the smallest norm, defined as an optimization problem that is convex and solved using efficient linear programming techniques. They also suggested using a random measurement matrix with i.i.d. entries. The crucial point is to make measurements random and incoherent. Incoherence expresses the idea that objects' sparse representation must spread in the domain acquired. For example, a Dirac function is a spike in the time domain but spreads in the frequency domain with the Fourier transform. These ideas led to fast and efficient algorithms for reconstruction that are widely used. The origin of the burst of interest in CS in the last years made it possible to compute the exact performance of reconstruction limited by an analytic study that shows the appearance of sharp phase transitions in signal density reconstruction. This gives indeed an exact result with a probability of one. However, for a larger reconstruction, it can be suboptimal, requiring more measurements than theoretically necessary.
 In this paper, we analyze the probabilistic reconstruction of signals in compressed sensing, introducing several new results. We use a simplification of the belief propagation (BP) algorithm, also known as approximate message passing (AMP) and generalized approximate message passing (GAMP) in the context of CS. The probabilistic approach is combined with expectation-maximization-type learning of parameters independently proposed in the context of GAMP. We analyze, on one hand, the asymptotic performance of the BP algorithm, and on the other hand, the information-theoretical limits of signal reconstruction associated with phase transitions. In sensing matrices with i.i.d. entries, a region of parameters concerning signal sparsity and undersampling rate versus measurement noise gap, the BP reconstruction is optimal. The reconstruction is hard in a region where BP iterations are blocked, leading to suboptimal fixed points. We also study in detail the phase diagram in the presence of measurement noise, observing that the region where BP is suboptimal persists but eventually disappears as the noise variance grows.
@@ -3071,8 +4073,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Simplified text:
-Getting a signal involves taking many measurements. To sample accurately, the sampling rate should be double the signal's highest frequency, following Nyquist's law. This traditional method is used in various fields like physics, electronics, medical imaging, and compressed sensing (CS). CS suggests that signals can be perfectly reconstructed with fewer measurements due to signal redundancies. This technique is used in data compression, like in JPEG 2000, to save space and time.
+          <t>Getting a signal involves taking many measurements. To sample accurately, the sampling rate should be double the signal's highest frequency, following Nyquist's law. This traditional method is used in various fields like physics, electronics, medical imaging, and compressed sensing (CS). CS suggests that signals can be perfectly reconstructed with fewer measurements due to signal redundancies. This technique is used in data compression, like in JPEG 2000, to save space and time.
 CS aims to capture signal information efficiently by compressing it and then using computational methods to reconstruct the original signal accurately. This process can be challenging mathematically due to noise and limited information. CS deals with sparse signals where most components are non-zero. Exact reconstruction is possible under certain conditions, such as when the non-zero components are independent and identically distributed. This ability to reconstruct signals with limited measurements is crucial in various fields, making CS widely used.
 CS is based on works by Candes, Tao, Donoho, and others from six years ago. They proposed optimization problems to find vectors with the smallest norm and suggested using random measurement matrices. Making measurements random and incoherent is crucial. These ideas led to efficient reconstruction algorithms. Recent interest in CS has allowed for precise performance analysis, showing sharp phase transitions in signal density reconstruction.
 In this study, we analyze signal reconstruction in compressed sensing using a simplified belief propagation (BP) algorithm. We combine a probabilistic approach with learning parameters to study the performance and limits of signal reconstruction in various scenarios. The BP algorithm is optimal in certain conditions, but suboptimal in others due to measurement noise. Understanding these barriers can improve reconstruction accuracy. The analysis of phase transitions in the presence of noise shows regions where BP is suboptimal. As noise increases, these regions diminish.
@@ -3080,10 +4081,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12.6179210894335</v>
+        <v>12.59967641854159</v>
       </c>
       <c r="D100" t="n">
-        <v>12.50464052287582</v>
+        <v>12.47328731097962</v>
+      </c>
+      <c r="E100" t="n">
+        <v>821</v>
+      </c>
+      <c r="F100" t="n">
+        <v>338</v>
+      </c>
+      <c r="G100" t="n">
+        <v>53</v>
+      </c>
+      <c r="H100" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="101">
@@ -3108,6 +4121,18 @@
       </c>
       <c r="D101" t="n">
         <v>13.01462829736211</v>
+      </c>
+      <c r="E101" t="n">
+        <v>235</v>
+      </c>
+      <c r="F101" t="n">
+        <v>139</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -3131,6 +4156,18 @@
       </c>
       <c r="D102" t="n">
         <v>11.30122100122101</v>
+      </c>
+      <c r="E102" t="n">
+        <v>264</v>
+      </c>
+      <c r="F102" t="n">
+        <v>117</v>
+      </c>
+      <c r="G102" t="n">
+        <v>12</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -3171,6 +4208,18 @@
       <c r="D103" t="n">
         <v>13.70948051948052</v>
       </c>
+      <c r="E103" t="n">
+        <v>248</v>
+      </c>
+      <c r="F103" t="n">
+        <v>110</v>
+      </c>
+      <c r="G103" t="n">
+        <v>11</v>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3210,6 +4259,18 @@
       <c r="D104" t="n">
         <v>14.29294117647059</v>
       </c>
+      <c r="E104" t="n">
+        <v>248</v>
+      </c>
+      <c r="F104" t="n">
+        <v>102</v>
+      </c>
+      <c r="G104" t="n">
+        <v>11</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3248,6 +4309,18 @@
       </c>
       <c r="D105" t="n">
         <v>15.83258845437617</v>
+      </c>
+      <c r="E105" t="n">
+        <v>248</v>
+      </c>
+      <c r="F105" t="n">
+        <v>179</v>
+      </c>
+      <c r="G105" t="n">
+        <v>11</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -3295,6 +4368,18 @@
       <c r="D106" t="n">
         <v>13.69670967741936</v>
       </c>
+      <c r="E106" t="n">
+        <v>508</v>
+      </c>
+      <c r="F106" t="n">
+        <v>248</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3338,6 +4423,18 @@
       <c r="D107" t="n">
         <v>12.29218151340996</v>
       </c>
+      <c r="E107" t="n">
+        <v>508</v>
+      </c>
+      <c r="F107" t="n">
+        <v>261</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
